--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10301_TOPメニュー.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10301_TOPメニュー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F5E5D-8EC8-44E0-9878-722FFFE0A5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE645B8-C3AC-4D77-ADD4-13018AF9DB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="770">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -8534,9 +8534,6 @@
   </si>
   <si>
     <t>デザイン設計(色・フォント)</t>
-  </si>
-  <si>
-    <t>有効なプロジェクトIDを指定して、更新画面を初期表示する。</t>
   </si>
   <si>
     <t>画面タイトルが「UI標準」通りであること。</t>
@@ -11088,84 +11085,6 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -11272,6 +11191,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13000,51 +12997,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="285" t="s">
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="259" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="291" t="s">
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="261"/>
+      <c r="O1" s="265" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="292"/>
-      <c r="Q1" s="292"/>
-      <c r="R1" s="293"/>
-      <c r="S1" s="300" t="s">
+      <c r="P1" s="266"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="267"/>
+      <c r="S1" s="274" t="s">
         <v>652</v>
       </c>
-      <c r="T1" s="301"/>
-      <c r="U1" s="301"/>
-      <c r="V1" s="301"/>
-      <c r="W1" s="301"/>
-      <c r="X1" s="301"/>
-      <c r="Y1" s="301"/>
-      <c r="Z1" s="302"/>
-      <c r="AA1" s="282" t="s">
+      <c r="T1" s="275"/>
+      <c r="U1" s="275"/>
+      <c r="V1" s="275"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="276"/>
+      <c r="AA1" s="256" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="284"/>
-      <c r="AC1" s="309"/>
-      <c r="AD1" s="310"/>
-      <c r="AE1" s="310"/>
-      <c r="AF1" s="311"/>
-      <c r="AG1" s="276"/>
-      <c r="AH1" s="277"/>
-      <c r="AI1" s="278"/>
+      <c r="AB1" s="258"/>
+      <c r="AC1" s="283"/>
+      <c r="AD1" s="284"/>
+      <c r="AE1" s="284"/>
+      <c r="AF1" s="285"/>
+      <c r="AG1" s="250"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="252"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13052,53 +13049,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="285" t="s">
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="259" t="s">
         <v>641</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="287"/>
-      <c r="O2" s="294"/>
-      <c r="P2" s="295"/>
-      <c r="Q2" s="295"/>
-      <c r="R2" s="296"/>
-      <c r="S2" s="303"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="305"/>
-      <c r="AA2" s="282" t="s">
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="260"/>
+      <c r="N2" s="261"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="277"/>
+      <c r="T2" s="278"/>
+      <c r="U2" s="278"/>
+      <c r="V2" s="278"/>
+      <c r="W2" s="278"/>
+      <c r="X2" s="278"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="279"/>
+      <c r="AA2" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="284"/>
-      <c r="AC2" s="288" t="str">
+      <c r="AB2" s="258"/>
+      <c r="AC2" s="262" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="289"/>
-      <c r="AE2" s="289"/>
-      <c r="AF2" s="290"/>
-      <c r="AG2" s="276" t="str">
+      <c r="AD2" s="263"/>
+      <c r="AE2" s="263"/>
+      <c r="AF2" s="264"/>
+      <c r="AG2" s="250" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="278"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="252"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13106,45 +13103,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="256" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="285" t="s">
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="259" t="s">
         <v>642</v>
       </c>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="286"/>
-      <c r="N3" s="287"/>
-      <c r="O3" s="297"/>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="298"/>
-      <c r="R3" s="299"/>
-      <c r="S3" s="306"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="V3" s="307"/>
-      <c r="W3" s="307"/>
-      <c r="X3" s="307"/>
-      <c r="Y3" s="307"/>
-      <c r="Z3" s="308"/>
-      <c r="AA3" s="282"/>
-      <c r="AB3" s="284"/>
-      <c r="AC3" s="309"/>
-      <c r="AD3" s="310"/>
-      <c r="AE3" s="310"/>
-      <c r="AF3" s="311"/>
-      <c r="AG3" s="276"/>
-      <c r="AH3" s="277"/>
-      <c r="AI3" s="278"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="260"/>
+      <c r="N3" s="261"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="272"/>
+      <c r="Q3" s="272"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="280"/>
+      <c r="T3" s="281"/>
+      <c r="U3" s="281"/>
+      <c r="V3" s="281"/>
+      <c r="W3" s="281"/>
+      <c r="X3" s="281"/>
+      <c r="Y3" s="281"/>
+      <c r="Z3" s="282"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="258"/>
+      <c r="AC3" s="283"/>
+      <c r="AD3" s="284"/>
+      <c r="AE3" s="284"/>
+      <c r="AF3" s="285"/>
+      <c r="AG3" s="250"/>
+      <c r="AH3" s="251"/>
+      <c r="AI3" s="252"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13181,1020 +13178,1176 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="279" t="s">
+      <c r="B7" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="280"/>
-      <c r="D7" s="279" t="s">
+      <c r="C7" s="254"/>
+      <c r="D7" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="279" t="s">
+      <c r="E7" s="255"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="253" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="281"/>
-      <c r="I7" s="280"/>
-      <c r="J7" s="279" t="s">
+      <c r="H7" s="255"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="281"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="281"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="281"/>
-      <c r="P7" s="280"/>
-      <c r="Q7" s="279" t="s">
+      <c r="K7" s="255"/>
+      <c r="L7" s="255"/>
+      <c r="M7" s="255"/>
+      <c r="N7" s="255"/>
+      <c r="O7" s="255"/>
+      <c r="P7" s="254"/>
+      <c r="Q7" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="281"/>
-      <c r="S7" s="281"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="281"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="280"/>
-      <c r="AF7" s="279" t="s">
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="255"/>
+      <c r="U7" s="255"/>
+      <c r="V7" s="255"/>
+      <c r="W7" s="255"/>
+      <c r="X7" s="255"/>
+      <c r="Y7" s="255"/>
+      <c r="Z7" s="255"/>
+      <c r="AA7" s="255"/>
+      <c r="AB7" s="255"/>
+      <c r="AC7" s="255"/>
+      <c r="AD7" s="255"/>
+      <c r="AE7" s="254"/>
+      <c r="AF7" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="280"/>
+      <c r="AG7" s="255"/>
+      <c r="AH7" s="255"/>
+      <c r="AI7" s="254"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="263"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="267"/>
-      <c r="G8" s="268"/>
-      <c r="H8" s="269"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="270"/>
-      <c r="K8" s="271"/>
-      <c r="L8" s="271"/>
-      <c r="M8" s="271"/>
-      <c r="N8" s="271"/>
-      <c r="O8" s="271"/>
-      <c r="P8" s="272"/>
-      <c r="Q8" s="273"/>
-      <c r="R8" s="274"/>
-      <c r="S8" s="274"/>
-      <c r="T8" s="274"/>
-      <c r="U8" s="274"/>
-      <c r="V8" s="274"/>
-      <c r="W8" s="274"/>
-      <c r="X8" s="274"/>
-      <c r="Y8" s="274"/>
-      <c r="Z8" s="274"/>
-      <c r="AA8" s="274"/>
-      <c r="AB8" s="274"/>
-      <c r="AC8" s="274"/>
-      <c r="AD8" s="274"/>
-      <c r="AE8" s="275"/>
-      <c r="AF8" s="270"/>
-      <c r="AG8" s="271"/>
-      <c r="AH8" s="271"/>
-      <c r="AI8" s="272"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="299"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="303"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="305"/>
+      <c r="K8" s="306"/>
+      <c r="L8" s="306"/>
+      <c r="M8" s="306"/>
+      <c r="N8" s="306"/>
+      <c r="O8" s="306"/>
+      <c r="P8" s="307"/>
+      <c r="Q8" s="308"/>
+      <c r="R8" s="309"/>
+      <c r="S8" s="309"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="309"/>
+      <c r="V8" s="309"/>
+      <c r="W8" s="309"/>
+      <c r="X8" s="309"/>
+      <c r="Y8" s="309"/>
+      <c r="Z8" s="309"/>
+      <c r="AA8" s="309"/>
+      <c r="AB8" s="309"/>
+      <c r="AC8" s="309"/>
+      <c r="AD8" s="309"/>
+      <c r="AE8" s="310"/>
+      <c r="AF8" s="305"/>
+      <c r="AG8" s="306"/>
+      <c r="AH8" s="306"/>
+      <c r="AI8" s="307"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="250"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="252"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="252"/>
-      <c r="H9" s="255"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="259"/>
-      <c r="R9" s="260"/>
-      <c r="S9" s="260"/>
-      <c r="T9" s="260"/>
-      <c r="U9" s="260"/>
-      <c r="V9" s="260"/>
-      <c r="W9" s="260"/>
-      <c r="X9" s="260"/>
-      <c r="Y9" s="260"/>
-      <c r="Z9" s="260"/>
-      <c r="AA9" s="260"/>
-      <c r="AB9" s="260"/>
-      <c r="AC9" s="260"/>
-      <c r="AD9" s="260"/>
-      <c r="AE9" s="261"/>
-      <c r="AF9" s="256"/>
-      <c r="AG9" s="257"/>
-      <c r="AH9" s="257"/>
-      <c r="AI9" s="258"/>
+      <c r="B9" s="286"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="287"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="294"/>
+      <c r="Q9" s="295"/>
+      <c r="R9" s="296"/>
+      <c r="S9" s="296"/>
+      <c r="T9" s="296"/>
+      <c r="U9" s="296"/>
+      <c r="V9" s="296"/>
+      <c r="W9" s="296"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="296"/>
+      <c r="Z9" s="296"/>
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="296"/>
+      <c r="AC9" s="296"/>
+      <c r="AD9" s="296"/>
+      <c r="AE9" s="297"/>
+      <c r="AF9" s="292"/>
+      <c r="AG9" s="293"/>
+      <c r="AH9" s="293"/>
+      <c r="AI9" s="294"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="250"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="252"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="255"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="257"/>
-      <c r="L10" s="257"/>
-      <c r="M10" s="257"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="257"/>
-      <c r="P10" s="258"/>
-      <c r="Q10" s="259"/>
-      <c r="R10" s="260"/>
-      <c r="S10" s="260"/>
-      <c r="T10" s="260"/>
-      <c r="U10" s="260"/>
-      <c r="V10" s="260"/>
-      <c r="W10" s="260"/>
-      <c r="X10" s="260"/>
-      <c r="Y10" s="260"/>
-      <c r="Z10" s="260"/>
-      <c r="AA10" s="260"/>
-      <c r="AB10" s="260"/>
-      <c r="AC10" s="260"/>
-      <c r="AD10" s="260"/>
-      <c r="AE10" s="261"/>
-      <c r="AF10" s="256"/>
-      <c r="AG10" s="257"/>
-      <c r="AH10" s="257"/>
-      <c r="AI10" s="258"/>
+      <c r="B10" s="286"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="286"/>
+      <c r="H10" s="291"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="292"/>
+      <c r="K10" s="293"/>
+      <c r="L10" s="293"/>
+      <c r="M10" s="293"/>
+      <c r="N10" s="293"/>
+      <c r="O10" s="293"/>
+      <c r="P10" s="294"/>
+      <c r="Q10" s="295"/>
+      <c r="R10" s="296"/>
+      <c r="S10" s="296"/>
+      <c r="T10" s="296"/>
+      <c r="U10" s="296"/>
+      <c r="V10" s="296"/>
+      <c r="W10" s="296"/>
+      <c r="X10" s="296"/>
+      <c r="Y10" s="296"/>
+      <c r="Z10" s="296"/>
+      <c r="AA10" s="296"/>
+      <c r="AB10" s="296"/>
+      <c r="AC10" s="296"/>
+      <c r="AD10" s="296"/>
+      <c r="AE10" s="297"/>
+      <c r="AF10" s="292"/>
+      <c r="AG10" s="293"/>
+      <c r="AH10" s="293"/>
+      <c r="AI10" s="294"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="250"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="255"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="256"/>
-      <c r="K11" s="257"/>
-      <c r="L11" s="257"/>
-      <c r="M11" s="257"/>
-      <c r="N11" s="257"/>
-      <c r="O11" s="257"/>
-      <c r="P11" s="258"/>
-      <c r="Q11" s="259"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="260"/>
-      <c r="T11" s="260"/>
-      <c r="U11" s="260"/>
-      <c r="V11" s="260"/>
-      <c r="W11" s="260"/>
-      <c r="X11" s="260"/>
-      <c r="Y11" s="260"/>
-      <c r="Z11" s="260"/>
-      <c r="AA11" s="260"/>
-      <c r="AB11" s="260"/>
-      <c r="AC11" s="260"/>
-      <c r="AD11" s="260"/>
-      <c r="AE11" s="261"/>
-      <c r="AF11" s="256"/>
-      <c r="AG11" s="257"/>
-      <c r="AH11" s="257"/>
-      <c r="AI11" s="258"/>
+      <c r="B11" s="286"/>
+      <c r="C11" s="287"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="289"/>
+      <c r="F11" s="290"/>
+      <c r="G11" s="286"/>
+      <c r="H11" s="291"/>
+      <c r="I11" s="287"/>
+      <c r="J11" s="292"/>
+      <c r="K11" s="293"/>
+      <c r="L11" s="293"/>
+      <c r="M11" s="293"/>
+      <c r="N11" s="293"/>
+      <c r="O11" s="293"/>
+      <c r="P11" s="294"/>
+      <c r="Q11" s="295"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="296"/>
+      <c r="T11" s="296"/>
+      <c r="U11" s="296"/>
+      <c r="V11" s="296"/>
+      <c r="W11" s="296"/>
+      <c r="X11" s="296"/>
+      <c r="Y11" s="296"/>
+      <c r="Z11" s="296"/>
+      <c r="AA11" s="296"/>
+      <c r="AB11" s="296"/>
+      <c r="AC11" s="296"/>
+      <c r="AD11" s="296"/>
+      <c r="AE11" s="297"/>
+      <c r="AF11" s="292"/>
+      <c r="AG11" s="293"/>
+      <c r="AH11" s="293"/>
+      <c r="AI11" s="294"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="250"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="253"/>
-      <c r="F12" s="254"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="255"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="257"/>
-      <c r="L12" s="257"/>
-      <c r="M12" s="257"/>
-      <c r="N12" s="257"/>
-      <c r="O12" s="257"/>
-      <c r="P12" s="258"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="260"/>
-      <c r="S12" s="260"/>
-      <c r="T12" s="260"/>
-      <c r="U12" s="260"/>
-      <c r="V12" s="260"/>
-      <c r="W12" s="260"/>
-      <c r="X12" s="260"/>
-      <c r="Y12" s="260"/>
-      <c r="Z12" s="260"/>
-      <c r="AA12" s="260"/>
-      <c r="AB12" s="260"/>
-      <c r="AC12" s="260"/>
-      <c r="AD12" s="260"/>
-      <c r="AE12" s="261"/>
-      <c r="AF12" s="256"/>
-      <c r="AG12" s="257"/>
-      <c r="AH12" s="257"/>
-      <c r="AI12" s="258"/>
+      <c r="B12" s="286"/>
+      <c r="C12" s="287"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="289"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="286"/>
+      <c r="H12" s="291"/>
+      <c r="I12" s="287"/>
+      <c r="J12" s="292"/>
+      <c r="K12" s="293"/>
+      <c r="L12" s="293"/>
+      <c r="M12" s="293"/>
+      <c r="N12" s="293"/>
+      <c r="O12" s="293"/>
+      <c r="P12" s="294"/>
+      <c r="Q12" s="295"/>
+      <c r="R12" s="296"/>
+      <c r="S12" s="296"/>
+      <c r="T12" s="296"/>
+      <c r="U12" s="296"/>
+      <c r="V12" s="296"/>
+      <c r="W12" s="296"/>
+      <c r="X12" s="296"/>
+      <c r="Y12" s="296"/>
+      <c r="Z12" s="296"/>
+      <c r="AA12" s="296"/>
+      <c r="AB12" s="296"/>
+      <c r="AC12" s="296"/>
+      <c r="AD12" s="296"/>
+      <c r="AE12" s="297"/>
+      <c r="AF12" s="292"/>
+      <c r="AG12" s="293"/>
+      <c r="AH12" s="293"/>
+      <c r="AI12" s="294"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="250"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="250"/>
-      <c r="H13" s="255"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="257"/>
-      <c r="L13" s="257"/>
-      <c r="M13" s="257"/>
-      <c r="N13" s="257"/>
-      <c r="O13" s="257"/>
-      <c r="P13" s="258"/>
-      <c r="Q13" s="259"/>
-      <c r="R13" s="260"/>
-      <c r="S13" s="260"/>
-      <c r="T13" s="260"/>
-      <c r="U13" s="260"/>
-      <c r="V13" s="260"/>
-      <c r="W13" s="260"/>
-      <c r="X13" s="260"/>
-      <c r="Y13" s="260"/>
-      <c r="Z13" s="260"/>
-      <c r="AA13" s="260"/>
-      <c r="AB13" s="260"/>
-      <c r="AC13" s="260"/>
-      <c r="AD13" s="260"/>
-      <c r="AE13" s="261"/>
-      <c r="AF13" s="256"/>
-      <c r="AG13" s="257"/>
-      <c r="AH13" s="257"/>
-      <c r="AI13" s="258"/>
+      <c r="B13" s="286"/>
+      <c r="C13" s="287"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="289"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="286"/>
+      <c r="H13" s="291"/>
+      <c r="I13" s="287"/>
+      <c r="J13" s="292"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="293"/>
+      <c r="M13" s="293"/>
+      <c r="N13" s="293"/>
+      <c r="O13" s="293"/>
+      <c r="P13" s="294"/>
+      <c r="Q13" s="295"/>
+      <c r="R13" s="296"/>
+      <c r="S13" s="296"/>
+      <c r="T13" s="296"/>
+      <c r="U13" s="296"/>
+      <c r="V13" s="296"/>
+      <c r="W13" s="296"/>
+      <c r="X13" s="296"/>
+      <c r="Y13" s="296"/>
+      <c r="Z13" s="296"/>
+      <c r="AA13" s="296"/>
+      <c r="AB13" s="296"/>
+      <c r="AC13" s="296"/>
+      <c r="AD13" s="296"/>
+      <c r="AE13" s="297"/>
+      <c r="AF13" s="292"/>
+      <c r="AG13" s="293"/>
+      <c r="AH13" s="293"/>
+      <c r="AI13" s="294"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="250"/>
-      <c r="C14" s="251"/>
-      <c r="D14" s="252"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="254"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="255"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="257"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="257"/>
-      <c r="N14" s="257"/>
-      <c r="O14" s="257"/>
-      <c r="P14" s="258"/>
-      <c r="Q14" s="259"/>
-      <c r="R14" s="260"/>
-      <c r="S14" s="260"/>
-      <c r="T14" s="260"/>
-      <c r="U14" s="260"/>
-      <c r="V14" s="260"/>
-      <c r="W14" s="260"/>
-      <c r="X14" s="260"/>
-      <c r="Y14" s="260"/>
-      <c r="Z14" s="260"/>
-      <c r="AA14" s="260"/>
-      <c r="AB14" s="260"/>
-      <c r="AC14" s="260"/>
-      <c r="AD14" s="260"/>
-      <c r="AE14" s="261"/>
-      <c r="AF14" s="256"/>
-      <c r="AG14" s="257"/>
-      <c r="AH14" s="257"/>
-      <c r="AI14" s="258"/>
+      <c r="B14" s="286"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="288"/>
+      <c r="E14" s="289"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="286"/>
+      <c r="H14" s="291"/>
+      <c r="I14" s="287"/>
+      <c r="J14" s="292"/>
+      <c r="K14" s="293"/>
+      <c r="L14" s="293"/>
+      <c r="M14" s="293"/>
+      <c r="N14" s="293"/>
+      <c r="O14" s="293"/>
+      <c r="P14" s="294"/>
+      <c r="Q14" s="295"/>
+      <c r="R14" s="296"/>
+      <c r="S14" s="296"/>
+      <c r="T14" s="296"/>
+      <c r="U14" s="296"/>
+      <c r="V14" s="296"/>
+      <c r="W14" s="296"/>
+      <c r="X14" s="296"/>
+      <c r="Y14" s="296"/>
+      <c r="Z14" s="296"/>
+      <c r="AA14" s="296"/>
+      <c r="AB14" s="296"/>
+      <c r="AC14" s="296"/>
+      <c r="AD14" s="296"/>
+      <c r="AE14" s="297"/>
+      <c r="AF14" s="292"/>
+      <c r="AG14" s="293"/>
+      <c r="AH14" s="293"/>
+      <c r="AI14" s="294"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="250"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="252"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="250"/>
-      <c r="H15" s="255"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="257"/>
-      <c r="L15" s="257"/>
-      <c r="M15" s="257"/>
-      <c r="N15" s="257"/>
-      <c r="O15" s="257"/>
-      <c r="P15" s="258"/>
-      <c r="Q15" s="259"/>
-      <c r="R15" s="260"/>
-      <c r="S15" s="260"/>
-      <c r="T15" s="260"/>
-      <c r="U15" s="260"/>
-      <c r="V15" s="260"/>
-      <c r="W15" s="260"/>
-      <c r="X15" s="260"/>
-      <c r="Y15" s="260"/>
-      <c r="Z15" s="260"/>
-      <c r="AA15" s="260"/>
-      <c r="AB15" s="260"/>
-      <c r="AC15" s="260"/>
-      <c r="AD15" s="260"/>
-      <c r="AE15" s="261"/>
-      <c r="AF15" s="256"/>
-      <c r="AG15" s="257"/>
-      <c r="AH15" s="257"/>
-      <c r="AI15" s="258"/>
+      <c r="B15" s="286"/>
+      <c r="C15" s="287"/>
+      <c r="D15" s="288"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="286"/>
+      <c r="H15" s="291"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="292"/>
+      <c r="K15" s="293"/>
+      <c r="L15" s="293"/>
+      <c r="M15" s="293"/>
+      <c r="N15" s="293"/>
+      <c r="O15" s="293"/>
+      <c r="P15" s="294"/>
+      <c r="Q15" s="295"/>
+      <c r="R15" s="296"/>
+      <c r="S15" s="296"/>
+      <c r="T15" s="296"/>
+      <c r="U15" s="296"/>
+      <c r="V15" s="296"/>
+      <c r="W15" s="296"/>
+      <c r="X15" s="296"/>
+      <c r="Y15" s="296"/>
+      <c r="Z15" s="296"/>
+      <c r="AA15" s="296"/>
+      <c r="AB15" s="296"/>
+      <c r="AC15" s="296"/>
+      <c r="AD15" s="296"/>
+      <c r="AE15" s="297"/>
+      <c r="AF15" s="292"/>
+      <c r="AG15" s="293"/>
+      <c r="AH15" s="293"/>
+      <c r="AI15" s="294"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="250"/>
-      <c r="C16" s="251"/>
-      <c r="D16" s="252"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="254"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="255"/>
-      <c r="I16" s="251"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="257"/>
-      <c r="N16" s="257"/>
-      <c r="O16" s="257"/>
-      <c r="P16" s="258"/>
-      <c r="Q16" s="259"/>
-      <c r="R16" s="260"/>
-      <c r="S16" s="260"/>
-      <c r="T16" s="260"/>
-      <c r="U16" s="260"/>
-      <c r="V16" s="260"/>
-      <c r="W16" s="260"/>
-      <c r="X16" s="260"/>
-      <c r="Y16" s="260"/>
-      <c r="Z16" s="260"/>
-      <c r="AA16" s="260"/>
-      <c r="AB16" s="260"/>
-      <c r="AC16" s="260"/>
-      <c r="AD16" s="260"/>
-      <c r="AE16" s="261"/>
-      <c r="AF16" s="256"/>
-      <c r="AG16" s="257"/>
-      <c r="AH16" s="257"/>
-      <c r="AI16" s="258"/>
+      <c r="B16" s="286"/>
+      <c r="C16" s="287"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="289"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="286"/>
+      <c r="H16" s="291"/>
+      <c r="I16" s="287"/>
+      <c r="J16" s="292"/>
+      <c r="K16" s="293"/>
+      <c r="L16" s="293"/>
+      <c r="M16" s="293"/>
+      <c r="N16" s="293"/>
+      <c r="O16" s="293"/>
+      <c r="P16" s="294"/>
+      <c r="Q16" s="295"/>
+      <c r="R16" s="296"/>
+      <c r="S16" s="296"/>
+      <c r="T16" s="296"/>
+      <c r="U16" s="296"/>
+      <c r="V16" s="296"/>
+      <c r="W16" s="296"/>
+      <c r="X16" s="296"/>
+      <c r="Y16" s="296"/>
+      <c r="Z16" s="296"/>
+      <c r="AA16" s="296"/>
+      <c r="AB16" s="296"/>
+      <c r="AC16" s="296"/>
+      <c r="AD16" s="296"/>
+      <c r="AE16" s="297"/>
+      <c r="AF16" s="292"/>
+      <c r="AG16" s="293"/>
+      <c r="AH16" s="293"/>
+      <c r="AI16" s="294"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="250"/>
-      <c r="C17" s="251"/>
-      <c r="D17" s="252"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="254"/>
-      <c r="G17" s="250"/>
-      <c r="H17" s="255"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="257"/>
-      <c r="L17" s="257"/>
-      <c r="M17" s="257"/>
-      <c r="N17" s="257"/>
-      <c r="O17" s="257"/>
-      <c r="P17" s="258"/>
-      <c r="Q17" s="259"/>
-      <c r="R17" s="260"/>
-      <c r="S17" s="260"/>
-      <c r="T17" s="260"/>
-      <c r="U17" s="260"/>
-      <c r="V17" s="260"/>
-      <c r="W17" s="260"/>
-      <c r="X17" s="260"/>
-      <c r="Y17" s="260"/>
-      <c r="Z17" s="260"/>
-      <c r="AA17" s="260"/>
-      <c r="AB17" s="260"/>
-      <c r="AC17" s="260"/>
-      <c r="AD17" s="260"/>
-      <c r="AE17" s="261"/>
-      <c r="AF17" s="256"/>
-      <c r="AG17" s="257"/>
-      <c r="AH17" s="257"/>
-      <c r="AI17" s="258"/>
+      <c r="B17" s="286"/>
+      <c r="C17" s="287"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="289"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="286"/>
+      <c r="H17" s="291"/>
+      <c r="I17" s="287"/>
+      <c r="J17" s="292"/>
+      <c r="K17" s="293"/>
+      <c r="L17" s="293"/>
+      <c r="M17" s="293"/>
+      <c r="N17" s="293"/>
+      <c r="O17" s="293"/>
+      <c r="P17" s="294"/>
+      <c r="Q17" s="295"/>
+      <c r="R17" s="296"/>
+      <c r="S17" s="296"/>
+      <c r="T17" s="296"/>
+      <c r="U17" s="296"/>
+      <c r="V17" s="296"/>
+      <c r="W17" s="296"/>
+      <c r="X17" s="296"/>
+      <c r="Y17" s="296"/>
+      <c r="Z17" s="296"/>
+      <c r="AA17" s="296"/>
+      <c r="AB17" s="296"/>
+      <c r="AC17" s="296"/>
+      <c r="AD17" s="296"/>
+      <c r="AE17" s="297"/>
+      <c r="AF17" s="292"/>
+      <c r="AG17" s="293"/>
+      <c r="AH17" s="293"/>
+      <c r="AI17" s="294"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="250"/>
-      <c r="C18" s="251"/>
-      <c r="D18" s="252"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="254"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="255"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="257"/>
-      <c r="L18" s="257"/>
-      <c r="M18" s="257"/>
-      <c r="N18" s="257"/>
-      <c r="O18" s="257"/>
-      <c r="P18" s="258"/>
-      <c r="Q18" s="259"/>
-      <c r="R18" s="260"/>
-      <c r="S18" s="260"/>
-      <c r="T18" s="260"/>
-      <c r="U18" s="260"/>
-      <c r="V18" s="260"/>
-      <c r="W18" s="260"/>
-      <c r="X18" s="260"/>
-      <c r="Y18" s="260"/>
-      <c r="Z18" s="260"/>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="260"/>
-      <c r="AC18" s="260"/>
-      <c r="AD18" s="260"/>
-      <c r="AE18" s="261"/>
-      <c r="AF18" s="256"/>
-      <c r="AG18" s="257"/>
-      <c r="AH18" s="257"/>
-      <c r="AI18" s="258"/>
+      <c r="B18" s="286"/>
+      <c r="C18" s="287"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="286"/>
+      <c r="H18" s="291"/>
+      <c r="I18" s="287"/>
+      <c r="J18" s="292"/>
+      <c r="K18" s="293"/>
+      <c r="L18" s="293"/>
+      <c r="M18" s="293"/>
+      <c r="N18" s="293"/>
+      <c r="O18" s="293"/>
+      <c r="P18" s="294"/>
+      <c r="Q18" s="295"/>
+      <c r="R18" s="296"/>
+      <c r="S18" s="296"/>
+      <c r="T18" s="296"/>
+      <c r="U18" s="296"/>
+      <c r="V18" s="296"/>
+      <c r="W18" s="296"/>
+      <c r="X18" s="296"/>
+      <c r="Y18" s="296"/>
+      <c r="Z18" s="296"/>
+      <c r="AA18" s="296"/>
+      <c r="AB18" s="296"/>
+      <c r="AC18" s="296"/>
+      <c r="AD18" s="296"/>
+      <c r="AE18" s="297"/>
+      <c r="AF18" s="292"/>
+      <c r="AG18" s="293"/>
+      <c r="AH18" s="293"/>
+      <c r="AI18" s="294"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="250"/>
-      <c r="C19" s="251"/>
-      <c r="D19" s="252"/>
-      <c r="E19" s="253"/>
-      <c r="F19" s="254"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="255"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="256"/>
-      <c r="K19" s="257"/>
-      <c r="L19" s="257"/>
-      <c r="M19" s="257"/>
-      <c r="N19" s="257"/>
-      <c r="O19" s="257"/>
-      <c r="P19" s="258"/>
-      <c r="Q19" s="259"/>
-      <c r="R19" s="260"/>
-      <c r="S19" s="260"/>
-      <c r="T19" s="260"/>
-      <c r="U19" s="260"/>
-      <c r="V19" s="260"/>
-      <c r="W19" s="260"/>
-      <c r="X19" s="260"/>
-      <c r="Y19" s="260"/>
-      <c r="Z19" s="260"/>
-      <c r="AA19" s="260"/>
-      <c r="AB19" s="260"/>
-      <c r="AC19" s="260"/>
-      <c r="AD19" s="260"/>
-      <c r="AE19" s="261"/>
-      <c r="AF19" s="256"/>
-      <c r="AG19" s="257"/>
-      <c r="AH19" s="257"/>
-      <c r="AI19" s="258"/>
+      <c r="B19" s="286"/>
+      <c r="C19" s="287"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="289"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="286"/>
+      <c r="H19" s="291"/>
+      <c r="I19" s="287"/>
+      <c r="J19" s="292"/>
+      <c r="K19" s="293"/>
+      <c r="L19" s="293"/>
+      <c r="M19" s="293"/>
+      <c r="N19" s="293"/>
+      <c r="O19" s="293"/>
+      <c r="P19" s="294"/>
+      <c r="Q19" s="295"/>
+      <c r="R19" s="296"/>
+      <c r="S19" s="296"/>
+      <c r="T19" s="296"/>
+      <c r="U19" s="296"/>
+      <c r="V19" s="296"/>
+      <c r="W19" s="296"/>
+      <c r="X19" s="296"/>
+      <c r="Y19" s="296"/>
+      <c r="Z19" s="296"/>
+      <c r="AA19" s="296"/>
+      <c r="AB19" s="296"/>
+      <c r="AC19" s="296"/>
+      <c r="AD19" s="296"/>
+      <c r="AE19" s="297"/>
+      <c r="AF19" s="292"/>
+      <c r="AG19" s="293"/>
+      <c r="AH19" s="293"/>
+      <c r="AI19" s="294"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="251"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="254"/>
-      <c r="G20" s="250"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="256"/>
-      <c r="K20" s="257"/>
-      <c r="L20" s="257"/>
-      <c r="M20" s="257"/>
-      <c r="N20" s="257"/>
-      <c r="O20" s="257"/>
-      <c r="P20" s="258"/>
-      <c r="Q20" s="259"/>
-      <c r="R20" s="260"/>
-      <c r="S20" s="260"/>
-      <c r="T20" s="260"/>
-      <c r="U20" s="260"/>
-      <c r="V20" s="260"/>
-      <c r="W20" s="260"/>
-      <c r="X20" s="260"/>
-      <c r="Y20" s="260"/>
-      <c r="Z20" s="260"/>
-      <c r="AA20" s="260"/>
-      <c r="AB20" s="260"/>
-      <c r="AC20" s="260"/>
-      <c r="AD20" s="260"/>
-      <c r="AE20" s="261"/>
-      <c r="AF20" s="256"/>
-      <c r="AG20" s="257"/>
-      <c r="AH20" s="257"/>
-      <c r="AI20" s="258"/>
+      <c r="B20" s="286"/>
+      <c r="C20" s="287"/>
+      <c r="D20" s="288"/>
+      <c r="E20" s="289"/>
+      <c r="F20" s="290"/>
+      <c r="G20" s="286"/>
+      <c r="H20" s="291"/>
+      <c r="I20" s="287"/>
+      <c r="J20" s="292"/>
+      <c r="K20" s="293"/>
+      <c r="L20" s="293"/>
+      <c r="M20" s="293"/>
+      <c r="N20" s="293"/>
+      <c r="O20" s="293"/>
+      <c r="P20" s="294"/>
+      <c r="Q20" s="295"/>
+      <c r="R20" s="296"/>
+      <c r="S20" s="296"/>
+      <c r="T20" s="296"/>
+      <c r="U20" s="296"/>
+      <c r="V20" s="296"/>
+      <c r="W20" s="296"/>
+      <c r="X20" s="296"/>
+      <c r="Y20" s="296"/>
+      <c r="Z20" s="296"/>
+      <c r="AA20" s="296"/>
+      <c r="AB20" s="296"/>
+      <c r="AC20" s="296"/>
+      <c r="AD20" s="296"/>
+      <c r="AE20" s="297"/>
+      <c r="AF20" s="292"/>
+      <c r="AG20" s="293"/>
+      <c r="AH20" s="293"/>
+      <c r="AI20" s="294"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="250"/>
-      <c r="C21" s="251"/>
-      <c r="D21" s="252"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="254"/>
-      <c r="G21" s="250"/>
-      <c r="H21" s="255"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="256"/>
-      <c r="K21" s="257"/>
-      <c r="L21" s="257"/>
-      <c r="M21" s="257"/>
-      <c r="N21" s="257"/>
-      <c r="O21" s="257"/>
-      <c r="P21" s="258"/>
-      <c r="Q21" s="259"/>
-      <c r="R21" s="260"/>
-      <c r="S21" s="260"/>
-      <c r="T21" s="260"/>
-      <c r="U21" s="260"/>
-      <c r="V21" s="260"/>
-      <c r="W21" s="260"/>
-      <c r="X21" s="260"/>
-      <c r="Y21" s="260"/>
-      <c r="Z21" s="260"/>
-      <c r="AA21" s="260"/>
-      <c r="AB21" s="260"/>
-      <c r="AC21" s="260"/>
-      <c r="AD21" s="260"/>
-      <c r="AE21" s="261"/>
-      <c r="AF21" s="256"/>
-      <c r="AG21" s="257"/>
-      <c r="AH21" s="257"/>
-      <c r="AI21" s="258"/>
+      <c r="B21" s="286"/>
+      <c r="C21" s="287"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="289"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="286"/>
+      <c r="H21" s="291"/>
+      <c r="I21" s="287"/>
+      <c r="J21" s="292"/>
+      <c r="K21" s="293"/>
+      <c r="L21" s="293"/>
+      <c r="M21" s="293"/>
+      <c r="N21" s="293"/>
+      <c r="O21" s="293"/>
+      <c r="P21" s="294"/>
+      <c r="Q21" s="295"/>
+      <c r="R21" s="296"/>
+      <c r="S21" s="296"/>
+      <c r="T21" s="296"/>
+      <c r="U21" s="296"/>
+      <c r="V21" s="296"/>
+      <c r="W21" s="296"/>
+      <c r="X21" s="296"/>
+      <c r="Y21" s="296"/>
+      <c r="Z21" s="296"/>
+      <c r="AA21" s="296"/>
+      <c r="AB21" s="296"/>
+      <c r="AC21" s="296"/>
+      <c r="AD21" s="296"/>
+      <c r="AE21" s="297"/>
+      <c r="AF21" s="292"/>
+      <c r="AG21" s="293"/>
+      <c r="AH21" s="293"/>
+      <c r="AI21" s="294"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="250"/>
-      <c r="C22" s="251"/>
-      <c r="D22" s="252"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="254"/>
-      <c r="G22" s="250"/>
-      <c r="H22" s="255"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="256"/>
-      <c r="K22" s="257"/>
-      <c r="L22" s="257"/>
-      <c r="M22" s="257"/>
-      <c r="N22" s="257"/>
-      <c r="O22" s="257"/>
-      <c r="P22" s="258"/>
-      <c r="Q22" s="259"/>
-      <c r="R22" s="260"/>
-      <c r="S22" s="260"/>
-      <c r="T22" s="260"/>
-      <c r="U22" s="260"/>
-      <c r="V22" s="260"/>
-      <c r="W22" s="260"/>
-      <c r="X22" s="260"/>
-      <c r="Y22" s="260"/>
-      <c r="Z22" s="260"/>
-      <c r="AA22" s="260"/>
-      <c r="AB22" s="260"/>
-      <c r="AC22" s="260"/>
-      <c r="AD22" s="260"/>
-      <c r="AE22" s="261"/>
-      <c r="AF22" s="256"/>
-      <c r="AG22" s="257"/>
-      <c r="AH22" s="257"/>
-      <c r="AI22" s="258"/>
+      <c r="B22" s="286"/>
+      <c r="C22" s="287"/>
+      <c r="D22" s="288"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="286"/>
+      <c r="H22" s="291"/>
+      <c r="I22" s="287"/>
+      <c r="J22" s="292"/>
+      <c r="K22" s="293"/>
+      <c r="L22" s="293"/>
+      <c r="M22" s="293"/>
+      <c r="N22" s="293"/>
+      <c r="O22" s="293"/>
+      <c r="P22" s="294"/>
+      <c r="Q22" s="295"/>
+      <c r="R22" s="296"/>
+      <c r="S22" s="296"/>
+      <c r="T22" s="296"/>
+      <c r="U22" s="296"/>
+      <c r="V22" s="296"/>
+      <c r="W22" s="296"/>
+      <c r="X22" s="296"/>
+      <c r="Y22" s="296"/>
+      <c r="Z22" s="296"/>
+      <c r="AA22" s="296"/>
+      <c r="AB22" s="296"/>
+      <c r="AC22" s="296"/>
+      <c r="AD22" s="296"/>
+      <c r="AE22" s="297"/>
+      <c r="AF22" s="292"/>
+      <c r="AG22" s="293"/>
+      <c r="AH22" s="293"/>
+      <c r="AI22" s="294"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="250"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="252"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="250"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="256"/>
-      <c r="K23" s="257"/>
-      <c r="L23" s="257"/>
-      <c r="M23" s="257"/>
-      <c r="N23" s="257"/>
-      <c r="O23" s="257"/>
-      <c r="P23" s="258"/>
-      <c r="Q23" s="259"/>
-      <c r="R23" s="260"/>
-      <c r="S23" s="260"/>
-      <c r="T23" s="260"/>
-      <c r="U23" s="260"/>
-      <c r="V23" s="260"/>
-      <c r="W23" s="260"/>
-      <c r="X23" s="260"/>
-      <c r="Y23" s="260"/>
-      <c r="Z23" s="260"/>
-      <c r="AA23" s="260"/>
-      <c r="AB23" s="260"/>
-      <c r="AC23" s="260"/>
-      <c r="AD23" s="260"/>
-      <c r="AE23" s="261"/>
-      <c r="AF23" s="256"/>
-      <c r="AG23" s="257"/>
-      <c r="AH23" s="257"/>
-      <c r="AI23" s="258"/>
+      <c r="B23" s="286"/>
+      <c r="C23" s="287"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="290"/>
+      <c r="G23" s="286"/>
+      <c r="H23" s="291"/>
+      <c r="I23" s="287"/>
+      <c r="J23" s="292"/>
+      <c r="K23" s="293"/>
+      <c r="L23" s="293"/>
+      <c r="M23" s="293"/>
+      <c r="N23" s="293"/>
+      <c r="O23" s="293"/>
+      <c r="P23" s="294"/>
+      <c r="Q23" s="295"/>
+      <c r="R23" s="296"/>
+      <c r="S23" s="296"/>
+      <c r="T23" s="296"/>
+      <c r="U23" s="296"/>
+      <c r="V23" s="296"/>
+      <c r="W23" s="296"/>
+      <c r="X23" s="296"/>
+      <c r="Y23" s="296"/>
+      <c r="Z23" s="296"/>
+      <c r="AA23" s="296"/>
+      <c r="AB23" s="296"/>
+      <c r="AC23" s="296"/>
+      <c r="AD23" s="296"/>
+      <c r="AE23" s="297"/>
+      <c r="AF23" s="292"/>
+      <c r="AG23" s="293"/>
+      <c r="AH23" s="293"/>
+      <c r="AI23" s="294"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="250"/>
-      <c r="C24" s="251"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="255"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="256"/>
-      <c r="K24" s="257"/>
-      <c r="L24" s="257"/>
-      <c r="M24" s="257"/>
-      <c r="N24" s="257"/>
-      <c r="O24" s="257"/>
-      <c r="P24" s="258"/>
-      <c r="Q24" s="259"/>
-      <c r="R24" s="260"/>
-      <c r="S24" s="260"/>
-      <c r="T24" s="260"/>
-      <c r="U24" s="260"/>
-      <c r="V24" s="260"/>
-      <c r="W24" s="260"/>
-      <c r="X24" s="260"/>
-      <c r="Y24" s="260"/>
-      <c r="Z24" s="260"/>
-      <c r="AA24" s="260"/>
-      <c r="AB24" s="260"/>
-      <c r="AC24" s="260"/>
-      <c r="AD24" s="260"/>
-      <c r="AE24" s="261"/>
-      <c r="AF24" s="256"/>
-      <c r="AG24" s="257"/>
-      <c r="AH24" s="257"/>
-      <c r="AI24" s="258"/>
+      <c r="B24" s="286"/>
+      <c r="C24" s="287"/>
+      <c r="D24" s="288"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="286"/>
+      <c r="H24" s="291"/>
+      <c r="I24" s="287"/>
+      <c r="J24" s="292"/>
+      <c r="K24" s="293"/>
+      <c r="L24" s="293"/>
+      <c r="M24" s="293"/>
+      <c r="N24" s="293"/>
+      <c r="O24" s="293"/>
+      <c r="P24" s="294"/>
+      <c r="Q24" s="295"/>
+      <c r="R24" s="296"/>
+      <c r="S24" s="296"/>
+      <c r="T24" s="296"/>
+      <c r="U24" s="296"/>
+      <c r="V24" s="296"/>
+      <c r="W24" s="296"/>
+      <c r="X24" s="296"/>
+      <c r="Y24" s="296"/>
+      <c r="Z24" s="296"/>
+      <c r="AA24" s="296"/>
+      <c r="AB24" s="296"/>
+      <c r="AC24" s="296"/>
+      <c r="AD24" s="296"/>
+      <c r="AE24" s="297"/>
+      <c r="AF24" s="292"/>
+      <c r="AG24" s="293"/>
+      <c r="AH24" s="293"/>
+      <c r="AI24" s="294"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="250"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="254"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="256"/>
-      <c r="K25" s="257"/>
-      <c r="L25" s="257"/>
-      <c r="M25" s="257"/>
-      <c r="N25" s="257"/>
-      <c r="O25" s="257"/>
-      <c r="P25" s="258"/>
-      <c r="Q25" s="259"/>
-      <c r="R25" s="260"/>
-      <c r="S25" s="260"/>
-      <c r="T25" s="260"/>
-      <c r="U25" s="260"/>
-      <c r="V25" s="260"/>
-      <c r="W25" s="260"/>
-      <c r="X25" s="260"/>
-      <c r="Y25" s="260"/>
-      <c r="Z25" s="260"/>
-      <c r="AA25" s="260"/>
-      <c r="AB25" s="260"/>
-      <c r="AC25" s="260"/>
-      <c r="AD25" s="260"/>
-      <c r="AE25" s="261"/>
-      <c r="AF25" s="256"/>
-      <c r="AG25" s="257"/>
-      <c r="AH25" s="257"/>
-      <c r="AI25" s="258"/>
+      <c r="B25" s="286"/>
+      <c r="C25" s="287"/>
+      <c r="D25" s="288"/>
+      <c r="E25" s="289"/>
+      <c r="F25" s="290"/>
+      <c r="G25" s="286"/>
+      <c r="H25" s="291"/>
+      <c r="I25" s="287"/>
+      <c r="J25" s="292"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="293"/>
+      <c r="M25" s="293"/>
+      <c r="N25" s="293"/>
+      <c r="O25" s="293"/>
+      <c r="P25" s="294"/>
+      <c r="Q25" s="295"/>
+      <c r="R25" s="296"/>
+      <c r="S25" s="296"/>
+      <c r="T25" s="296"/>
+      <c r="U25" s="296"/>
+      <c r="V25" s="296"/>
+      <c r="W25" s="296"/>
+      <c r="X25" s="296"/>
+      <c r="Y25" s="296"/>
+      <c r="Z25" s="296"/>
+      <c r="AA25" s="296"/>
+      <c r="AB25" s="296"/>
+      <c r="AC25" s="296"/>
+      <c r="AD25" s="296"/>
+      <c r="AE25" s="297"/>
+      <c r="AF25" s="292"/>
+      <c r="AG25" s="293"/>
+      <c r="AH25" s="293"/>
+      <c r="AI25" s="294"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="250"/>
-      <c r="C26" s="251"/>
-      <c r="D26" s="252"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="255"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="256"/>
-      <c r="K26" s="257"/>
-      <c r="L26" s="257"/>
-      <c r="M26" s="257"/>
-      <c r="N26" s="257"/>
-      <c r="O26" s="257"/>
-      <c r="P26" s="258"/>
-      <c r="Q26" s="259"/>
-      <c r="R26" s="260"/>
-      <c r="S26" s="260"/>
-      <c r="T26" s="260"/>
-      <c r="U26" s="260"/>
-      <c r="V26" s="260"/>
-      <c r="W26" s="260"/>
-      <c r="X26" s="260"/>
-      <c r="Y26" s="260"/>
-      <c r="Z26" s="260"/>
-      <c r="AA26" s="260"/>
-      <c r="AB26" s="260"/>
-      <c r="AC26" s="260"/>
-      <c r="AD26" s="260"/>
-      <c r="AE26" s="261"/>
-      <c r="AF26" s="256"/>
-      <c r="AG26" s="257"/>
-      <c r="AH26" s="257"/>
-      <c r="AI26" s="258"/>
+      <c r="B26" s="286"/>
+      <c r="C26" s="287"/>
+      <c r="D26" s="288"/>
+      <c r="E26" s="289"/>
+      <c r="F26" s="290"/>
+      <c r="G26" s="286"/>
+      <c r="H26" s="291"/>
+      <c r="I26" s="287"/>
+      <c r="J26" s="292"/>
+      <c r="K26" s="293"/>
+      <c r="L26" s="293"/>
+      <c r="M26" s="293"/>
+      <c r="N26" s="293"/>
+      <c r="O26" s="293"/>
+      <c r="P26" s="294"/>
+      <c r="Q26" s="295"/>
+      <c r="R26" s="296"/>
+      <c r="S26" s="296"/>
+      <c r="T26" s="296"/>
+      <c r="U26" s="296"/>
+      <c r="V26" s="296"/>
+      <c r="W26" s="296"/>
+      <c r="X26" s="296"/>
+      <c r="Y26" s="296"/>
+      <c r="Z26" s="296"/>
+      <c r="AA26" s="296"/>
+      <c r="AB26" s="296"/>
+      <c r="AC26" s="296"/>
+      <c r="AD26" s="296"/>
+      <c r="AE26" s="297"/>
+      <c r="AF26" s="292"/>
+      <c r="AG26" s="293"/>
+      <c r="AH26" s="293"/>
+      <c r="AI26" s="294"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="250"/>
-      <c r="C27" s="251"/>
-      <c r="D27" s="252"/>
-      <c r="E27" s="253"/>
-      <c r="F27" s="254"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="255"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="256"/>
-      <c r="K27" s="257"/>
-      <c r="L27" s="257"/>
-      <c r="M27" s="257"/>
-      <c r="N27" s="257"/>
-      <c r="O27" s="257"/>
-      <c r="P27" s="258"/>
-      <c r="Q27" s="259"/>
-      <c r="R27" s="260"/>
-      <c r="S27" s="260"/>
-      <c r="T27" s="260"/>
-      <c r="U27" s="260"/>
-      <c r="V27" s="260"/>
-      <c r="W27" s="260"/>
-      <c r="X27" s="260"/>
-      <c r="Y27" s="260"/>
-      <c r="Z27" s="260"/>
-      <c r="AA27" s="260"/>
-      <c r="AB27" s="260"/>
-      <c r="AC27" s="260"/>
-      <c r="AD27" s="260"/>
-      <c r="AE27" s="261"/>
-      <c r="AF27" s="256"/>
-      <c r="AG27" s="257"/>
-      <c r="AH27" s="257"/>
-      <c r="AI27" s="258"/>
+      <c r="B27" s="286"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="290"/>
+      <c r="G27" s="286"/>
+      <c r="H27" s="291"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="292"/>
+      <c r="K27" s="293"/>
+      <c r="L27" s="293"/>
+      <c r="M27" s="293"/>
+      <c r="N27" s="293"/>
+      <c r="O27" s="293"/>
+      <c r="P27" s="294"/>
+      <c r="Q27" s="295"/>
+      <c r="R27" s="296"/>
+      <c r="S27" s="296"/>
+      <c r="T27" s="296"/>
+      <c r="U27" s="296"/>
+      <c r="V27" s="296"/>
+      <c r="W27" s="296"/>
+      <c r="X27" s="296"/>
+      <c r="Y27" s="296"/>
+      <c r="Z27" s="296"/>
+      <c r="AA27" s="296"/>
+      <c r="AB27" s="296"/>
+      <c r="AC27" s="296"/>
+      <c r="AD27" s="296"/>
+      <c r="AE27" s="297"/>
+      <c r="AF27" s="292"/>
+      <c r="AG27" s="293"/>
+      <c r="AH27" s="293"/>
+      <c r="AI27" s="294"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="250"/>
-      <c r="C28" s="251"/>
-      <c r="D28" s="252"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="254"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="255"/>
-      <c r="I28" s="251"/>
-      <c r="J28" s="256"/>
-      <c r="K28" s="257"/>
-      <c r="L28" s="257"/>
-      <c r="M28" s="257"/>
-      <c r="N28" s="257"/>
-      <c r="O28" s="257"/>
-      <c r="P28" s="258"/>
-      <c r="Q28" s="259"/>
-      <c r="R28" s="260"/>
-      <c r="S28" s="260"/>
-      <c r="T28" s="260"/>
-      <c r="U28" s="260"/>
-      <c r="V28" s="260"/>
-      <c r="W28" s="260"/>
-      <c r="X28" s="260"/>
-      <c r="Y28" s="260"/>
-      <c r="Z28" s="260"/>
-      <c r="AA28" s="260"/>
-      <c r="AB28" s="260"/>
-      <c r="AC28" s="260"/>
-      <c r="AD28" s="260"/>
-      <c r="AE28" s="261"/>
-      <c r="AF28" s="256"/>
-      <c r="AG28" s="257"/>
-      <c r="AH28" s="257"/>
-      <c r="AI28" s="258"/>
+      <c r="B28" s="286"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="288"/>
+      <c r="E28" s="289"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="286"/>
+      <c r="H28" s="291"/>
+      <c r="I28" s="287"/>
+      <c r="J28" s="292"/>
+      <c r="K28" s="293"/>
+      <c r="L28" s="293"/>
+      <c r="M28" s="293"/>
+      <c r="N28" s="293"/>
+      <c r="O28" s="293"/>
+      <c r="P28" s="294"/>
+      <c r="Q28" s="295"/>
+      <c r="R28" s="296"/>
+      <c r="S28" s="296"/>
+      <c r="T28" s="296"/>
+      <c r="U28" s="296"/>
+      <c r="V28" s="296"/>
+      <c r="W28" s="296"/>
+      <c r="X28" s="296"/>
+      <c r="Y28" s="296"/>
+      <c r="Z28" s="296"/>
+      <c r="AA28" s="296"/>
+      <c r="AB28" s="296"/>
+      <c r="AC28" s="296"/>
+      <c r="AD28" s="296"/>
+      <c r="AE28" s="297"/>
+      <c r="AF28" s="292"/>
+      <c r="AG28" s="293"/>
+      <c r="AH28" s="293"/>
+      <c r="AI28" s="294"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="250"/>
-      <c r="C29" s="251"/>
-      <c r="D29" s="252"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="254"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="255"/>
-      <c r="I29" s="251"/>
-      <c r="J29" s="256"/>
-      <c r="K29" s="257"/>
-      <c r="L29" s="257"/>
-      <c r="M29" s="257"/>
-      <c r="N29" s="257"/>
-      <c r="O29" s="257"/>
-      <c r="P29" s="258"/>
-      <c r="Q29" s="259"/>
-      <c r="R29" s="260"/>
-      <c r="S29" s="260"/>
-      <c r="T29" s="260"/>
-      <c r="U29" s="260"/>
-      <c r="V29" s="260"/>
-      <c r="W29" s="260"/>
-      <c r="X29" s="260"/>
-      <c r="Y29" s="260"/>
-      <c r="Z29" s="260"/>
-      <c r="AA29" s="260"/>
-      <c r="AB29" s="260"/>
-      <c r="AC29" s="260"/>
-      <c r="AD29" s="260"/>
-      <c r="AE29" s="261"/>
-      <c r="AF29" s="256"/>
-      <c r="AG29" s="257"/>
-      <c r="AH29" s="257"/>
-      <c r="AI29" s="258"/>
+      <c r="B29" s="286"/>
+      <c r="C29" s="287"/>
+      <c r="D29" s="288"/>
+      <c r="E29" s="289"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="286"/>
+      <c r="H29" s="291"/>
+      <c r="I29" s="287"/>
+      <c r="J29" s="292"/>
+      <c r="K29" s="293"/>
+      <c r="L29" s="293"/>
+      <c r="M29" s="293"/>
+      <c r="N29" s="293"/>
+      <c r="O29" s="293"/>
+      <c r="P29" s="294"/>
+      <c r="Q29" s="295"/>
+      <c r="R29" s="296"/>
+      <c r="S29" s="296"/>
+      <c r="T29" s="296"/>
+      <c r="U29" s="296"/>
+      <c r="V29" s="296"/>
+      <c r="W29" s="296"/>
+      <c r="X29" s="296"/>
+      <c r="Y29" s="296"/>
+      <c r="Z29" s="296"/>
+      <c r="AA29" s="296"/>
+      <c r="AB29" s="296"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="296"/>
+      <c r="AE29" s="297"/>
+      <c r="AF29" s="292"/>
+      <c r="AG29" s="293"/>
+      <c r="AH29" s="293"/>
+      <c r="AI29" s="294"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="250"/>
-      <c r="C30" s="251"/>
-      <c r="D30" s="252"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="254"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="255"/>
-      <c r="I30" s="251"/>
-      <c r="J30" s="256"/>
-      <c r="K30" s="257"/>
-      <c r="L30" s="257"/>
-      <c r="M30" s="257"/>
-      <c r="N30" s="257"/>
-      <c r="O30" s="257"/>
-      <c r="P30" s="258"/>
-      <c r="Q30" s="259"/>
-      <c r="R30" s="260"/>
-      <c r="S30" s="260"/>
-      <c r="T30" s="260"/>
-      <c r="U30" s="260"/>
-      <c r="V30" s="260"/>
-      <c r="W30" s="260"/>
-      <c r="X30" s="260"/>
-      <c r="Y30" s="260"/>
-      <c r="Z30" s="260"/>
-      <c r="AA30" s="260"/>
-      <c r="AB30" s="260"/>
-      <c r="AC30" s="260"/>
-      <c r="AD30" s="260"/>
-      <c r="AE30" s="261"/>
-      <c r="AF30" s="256"/>
-      <c r="AG30" s="257"/>
-      <c r="AH30" s="257"/>
-      <c r="AI30" s="258"/>
+      <c r="B30" s="286"/>
+      <c r="C30" s="287"/>
+      <c r="D30" s="288"/>
+      <c r="E30" s="289"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="286"/>
+      <c r="H30" s="291"/>
+      <c r="I30" s="287"/>
+      <c r="J30" s="292"/>
+      <c r="K30" s="293"/>
+      <c r="L30" s="293"/>
+      <c r="M30" s="293"/>
+      <c r="N30" s="293"/>
+      <c r="O30" s="293"/>
+      <c r="P30" s="294"/>
+      <c r="Q30" s="295"/>
+      <c r="R30" s="296"/>
+      <c r="S30" s="296"/>
+      <c r="T30" s="296"/>
+      <c r="U30" s="296"/>
+      <c r="V30" s="296"/>
+      <c r="W30" s="296"/>
+      <c r="X30" s="296"/>
+      <c r="Y30" s="296"/>
+      <c r="Z30" s="296"/>
+      <c r="AA30" s="296"/>
+      <c r="AB30" s="296"/>
+      <c r="AC30" s="296"/>
+      <c r="AD30" s="296"/>
+      <c r="AE30" s="297"/>
+      <c r="AF30" s="292"/>
+      <c r="AG30" s="293"/>
+      <c r="AH30" s="293"/>
+      <c r="AI30" s="294"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="250"/>
-      <c r="C31" s="251"/>
-      <c r="D31" s="252"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="254"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="255"/>
-      <c r="I31" s="251"/>
-      <c r="J31" s="256"/>
-      <c r="K31" s="257"/>
-      <c r="L31" s="257"/>
-      <c r="M31" s="257"/>
-      <c r="N31" s="257"/>
-      <c r="O31" s="257"/>
-      <c r="P31" s="258"/>
-      <c r="Q31" s="259"/>
-      <c r="R31" s="260"/>
-      <c r="S31" s="260"/>
-      <c r="T31" s="260"/>
-      <c r="U31" s="260"/>
-      <c r="V31" s="260"/>
-      <c r="W31" s="260"/>
-      <c r="X31" s="260"/>
-      <c r="Y31" s="260"/>
-      <c r="Z31" s="260"/>
-      <c r="AA31" s="260"/>
-      <c r="AB31" s="260"/>
-      <c r="AC31" s="260"/>
-      <c r="AD31" s="260"/>
-      <c r="AE31" s="261"/>
-      <c r="AF31" s="256"/>
-      <c r="AG31" s="257"/>
-      <c r="AH31" s="257"/>
-      <c r="AI31" s="258"/>
+      <c r="B31" s="286"/>
+      <c r="C31" s="287"/>
+      <c r="D31" s="288"/>
+      <c r="E31" s="289"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="286"/>
+      <c r="H31" s="291"/>
+      <c r="I31" s="287"/>
+      <c r="J31" s="292"/>
+      <c r="K31" s="293"/>
+      <c r="L31" s="293"/>
+      <c r="M31" s="293"/>
+      <c r="N31" s="293"/>
+      <c r="O31" s="293"/>
+      <c r="P31" s="294"/>
+      <c r="Q31" s="295"/>
+      <c r="R31" s="296"/>
+      <c r="S31" s="296"/>
+      <c r="T31" s="296"/>
+      <c r="U31" s="296"/>
+      <c r="V31" s="296"/>
+      <c r="W31" s="296"/>
+      <c r="X31" s="296"/>
+      <c r="Y31" s="296"/>
+      <c r="Z31" s="296"/>
+      <c r="AA31" s="296"/>
+      <c r="AB31" s="296"/>
+      <c r="AC31" s="296"/>
+      <c r="AD31" s="296"/>
+      <c r="AE31" s="297"/>
+      <c r="AF31" s="292"/>
+      <c r="AG31" s="293"/>
+      <c r="AH31" s="293"/>
+      <c r="AI31" s="294"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="250"/>
-      <c r="C32" s="251"/>
-      <c r="D32" s="252"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="255"/>
-      <c r="I32" s="251"/>
-      <c r="J32" s="256"/>
-      <c r="K32" s="262"/>
-      <c r="L32" s="257"/>
-      <c r="M32" s="257"/>
-      <c r="N32" s="257"/>
-      <c r="O32" s="257"/>
-      <c r="P32" s="258"/>
-      <c r="Q32" s="259"/>
-      <c r="R32" s="260"/>
-      <c r="S32" s="260"/>
-      <c r="T32" s="260"/>
-      <c r="U32" s="260"/>
-      <c r="V32" s="260"/>
-      <c r="W32" s="260"/>
-      <c r="X32" s="260"/>
-      <c r="Y32" s="260"/>
-      <c r="Z32" s="260"/>
-      <c r="AA32" s="260"/>
-      <c r="AB32" s="260"/>
-      <c r="AC32" s="260"/>
-      <c r="AD32" s="260"/>
-      <c r="AE32" s="261"/>
-      <c r="AF32" s="256"/>
-      <c r="AG32" s="257"/>
-      <c r="AH32" s="257"/>
-      <c r="AI32" s="258"/>
+      <c r="B32" s="286"/>
+      <c r="C32" s="287"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="289"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="286"/>
+      <c r="H32" s="291"/>
+      <c r="I32" s="287"/>
+      <c r="J32" s="292"/>
+      <c r="K32" s="311"/>
+      <c r="L32" s="293"/>
+      <c r="M32" s="293"/>
+      <c r="N32" s="293"/>
+      <c r="O32" s="293"/>
+      <c r="P32" s="294"/>
+      <c r="Q32" s="295"/>
+      <c r="R32" s="296"/>
+      <c r="S32" s="296"/>
+      <c r="T32" s="296"/>
+      <c r="U32" s="296"/>
+      <c r="V32" s="296"/>
+      <c r="W32" s="296"/>
+      <c r="X32" s="296"/>
+      <c r="Y32" s="296"/>
+      <c r="Z32" s="296"/>
+      <c r="AA32" s="296"/>
+      <c r="AB32" s="296"/>
+      <c r="AC32" s="296"/>
+      <c r="AD32" s="296"/>
+      <c r="AE32" s="297"/>
+      <c r="AF32" s="292"/>
+      <c r="AG32" s="293"/>
+      <c r="AH32" s="293"/>
+      <c r="AI32" s="294"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="250"/>
-      <c r="C33" s="251"/>
-      <c r="D33" s="252"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="254"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="255"/>
-      <c r="I33" s="251"/>
-      <c r="J33" s="256"/>
-      <c r="K33" s="257"/>
-      <c r="L33" s="257"/>
-      <c r="M33" s="257"/>
-      <c r="N33" s="257"/>
-      <c r="O33" s="257"/>
-      <c r="P33" s="258"/>
-      <c r="Q33" s="259"/>
-      <c r="R33" s="260"/>
-      <c r="S33" s="260"/>
-      <c r="T33" s="260"/>
-      <c r="U33" s="260"/>
-      <c r="V33" s="260"/>
-      <c r="W33" s="260"/>
-      <c r="X33" s="260"/>
-      <c r="Y33" s="260"/>
-      <c r="Z33" s="260"/>
-      <c r="AA33" s="260"/>
-      <c r="AB33" s="260"/>
-      <c r="AC33" s="260"/>
-      <c r="AD33" s="260"/>
-      <c r="AE33" s="261"/>
-      <c r="AF33" s="256"/>
-      <c r="AG33" s="257"/>
-      <c r="AH33" s="257"/>
-      <c r="AI33" s="258"/>
+      <c r="B33" s="286"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="286"/>
+      <c r="H33" s="291"/>
+      <c r="I33" s="287"/>
+      <c r="J33" s="292"/>
+      <c r="K33" s="293"/>
+      <c r="L33" s="293"/>
+      <c r="M33" s="293"/>
+      <c r="N33" s="293"/>
+      <c r="O33" s="293"/>
+      <c r="P33" s="294"/>
+      <c r="Q33" s="295"/>
+      <c r="R33" s="296"/>
+      <c r="S33" s="296"/>
+      <c r="T33" s="296"/>
+      <c r="U33" s="296"/>
+      <c r="V33" s="296"/>
+      <c r="W33" s="296"/>
+      <c r="X33" s="296"/>
+      <c r="Y33" s="296"/>
+      <c r="Z33" s="296"/>
+      <c r="AA33" s="296"/>
+      <c r="AB33" s="296"/>
+      <c r="AC33" s="296"/>
+      <c r="AD33" s="296"/>
+      <c r="AE33" s="297"/>
+      <c r="AF33" s="292"/>
+      <c r="AG33" s="293"/>
+      <c r="AH33" s="293"/>
+      <c r="AI33" s="294"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14218,162 +14371,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -34918,10 +34915,10 @@
         <v>665</v>
       </c>
       <c r="J298" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K298" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L298" s="113"/>
       <c r="M298" s="113"/>
@@ -34958,10 +34955,10 @@
         <v>665</v>
       </c>
       <c r="J299" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K299" s="49" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L299" s="118"/>
       <c r="M299" s="118"/>
@@ -34998,10 +34995,10 @@
         <v>665</v>
       </c>
       <c r="J300" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K300" s="49" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L300" s="118"/>
       <c r="M300" s="118"/>
@@ -35038,10 +35035,10 @@
         <v>665</v>
       </c>
       <c r="J301" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K301" s="49" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L301" s="127"/>
       <c r="M301" s="126"/>
@@ -35078,10 +35075,10 @@
         <v>666</v>
       </c>
       <c r="J302" s="123" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K302" s="49" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L302" s="118"/>
       <c r="M302" s="118"/>
@@ -35118,10 +35115,10 @@
         <v>666</v>
       </c>
       <c r="J303" s="123" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K303" s="49" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L303" s="118"/>
       <c r="M303" s="118"/>
@@ -35158,10 +35155,10 @@
         <v>667</v>
       </c>
       <c r="J304" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K304" s="49" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L304" s="118"/>
       <c r="M304" s="118"/>
@@ -35198,10 +35195,10 @@
         <v>667</v>
       </c>
       <c r="J305" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K305" s="49" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L305" s="118"/>
       <c r="M305" s="118"/>
@@ -35238,10 +35235,10 @@
         <v>667</v>
       </c>
       <c r="J306" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K306" s="49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L306" s="118"/>
       <c r="M306" s="118"/>
@@ -35278,10 +35275,10 @@
         <v>668</v>
       </c>
       <c r="J307" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K307" s="49" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L307" s="118"/>
       <c r="M307" s="118"/>
@@ -35318,10 +35315,10 @@
         <v>668</v>
       </c>
       <c r="J308" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K308" s="49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L308" s="118"/>
       <c r="M308" s="118"/>
@@ -35354,7 +35351,7 @@
       <c r="H309" s="120"/>
       <c r="I309" s="120"/>
       <c r="J309" s="120" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K309" s="78"/>
       <c r="L309" s="94"/>
@@ -35386,16 +35383,16 @@
       </c>
       <c r="G310" s="49"/>
       <c r="H310" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I310" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I310" s="123" t="s">
+      <c r="J310" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="K310" s="49" t="s">
         <v>686</v>
-      </c>
-      <c r="J310" s="123" t="s">
-        <v>669</v>
-      </c>
-      <c r="K310" s="49" t="s">
-        <v>687</v>
       </c>
       <c r="L310" s="118"/>
       <c r="M310" s="118"/>
@@ -35428,7 +35425,7 @@
       <c r="H311" s="120"/>
       <c r="I311" s="120"/>
       <c r="J311" s="78" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K311" s="78"/>
       <c r="L311" s="94"/>
@@ -35460,16 +35457,16 @@
       </c>
       <c r="G312" s="49"/>
       <c r="H312" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I312" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I312" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J312" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K312" s="49" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L312" s="118"/>
       <c r="M312" s="118"/>
@@ -35498,16 +35495,16 @@
       <c r="F313" s="228"/>
       <c r="G313" s="49"/>
       <c r="H313" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I313" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I313" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J313" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K313" s="49" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L313" s="118"/>
       <c r="M313" s="118"/>
@@ -35536,16 +35533,16 @@
       <c r="F314" s="228"/>
       <c r="G314" s="49"/>
       <c r="H314" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I314" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I314" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J314" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K314" s="49" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L314" s="118"/>
       <c r="M314" s="118"/>
@@ -35574,16 +35571,16 @@
       <c r="F315" s="228"/>
       <c r="G315" s="49"/>
       <c r="H315" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I315" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I315" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J315" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K315" s="49" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L315" s="118"/>
       <c r="M315" s="118"/>
@@ -35612,16 +35609,16 @@
       <c r="F316" s="228"/>
       <c r="G316" s="49"/>
       <c r="H316" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I316" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I316" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J316" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K316" s="49" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L316" s="118"/>
       <c r="M316" s="118"/>
@@ -35650,16 +35647,16 @@
       <c r="F317" s="229"/>
       <c r="G317" s="49"/>
       <c r="H317" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I317" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I317" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J317" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K317" s="49" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L317" s="118"/>
       <c r="M317" s="118"/>
@@ -35690,16 +35687,16 @@
       </c>
       <c r="G318" s="49"/>
       <c r="H318" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I318" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I318" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J318" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K318" s="49" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L318" s="118"/>
       <c r="M318" s="118"/>
@@ -35728,16 +35725,16 @@
       <c r="F319" s="228"/>
       <c r="G319" s="49"/>
       <c r="H319" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I319" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I319" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J319" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K319" s="49" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L319" s="118"/>
       <c r="M319" s="118"/>
@@ -35766,16 +35763,16 @@
       <c r="F320" s="228"/>
       <c r="G320" s="49"/>
       <c r="H320" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I320" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I320" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J320" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K320" s="49" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L320" s="118"/>
       <c r="M320" s="118"/>
@@ -35804,16 +35801,16 @@
       <c r="F321" s="228"/>
       <c r="G321" s="49"/>
       <c r="H321" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I321" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I321" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J321" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K321" s="49" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L321" s="118"/>
       <c r="M321" s="118"/>
@@ -35842,16 +35839,16 @@
       <c r="F322" s="228"/>
       <c r="G322" s="49"/>
       <c r="H322" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I322" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I322" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J322" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K322" s="49" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L322" s="118"/>
       <c r="M322" s="118"/>
@@ -35880,16 +35877,16 @@
       <c r="F323" s="229"/>
       <c r="G323" s="49"/>
       <c r="H323" s="123" t="s">
+        <v>684</v>
+      </c>
+      <c r="I323" s="123" t="s">
         <v>685</v>
       </c>
-      <c r="I323" s="123" t="s">
-        <v>686</v>
-      </c>
       <c r="J323" s="116" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K323" s="49" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L323" s="118"/>
       <c r="M323" s="118"/>
@@ -35922,7 +35919,7 @@
       <c r="H324" s="120"/>
       <c r="I324" s="120"/>
       <c r="J324" s="120" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K324" s="78"/>
       <c r="L324" s="94"/>
@@ -35956,7 +35953,7 @@
       <c r="H325" s="120"/>
       <c r="I325" s="120"/>
       <c r="J325" s="78" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K325" s="117"/>
       <c r="L325" s="94"/>
@@ -36026,7 +36023,7 @@
       <c r="H327" s="120"/>
       <c r="I327" s="78"/>
       <c r="J327" s="78" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K327" s="117"/>
       <c r="L327" s="94"/>
@@ -36060,7 +36057,7 @@
       <c r="H328" s="120"/>
       <c r="I328" s="78"/>
       <c r="J328" s="78" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K328" s="117"/>
       <c r="L328" s="94"/>
@@ -36094,16 +36091,16 @@
       </c>
       <c r="G329" s="66"/>
       <c r="H329" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I329" s="123" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J329" s="113" t="s">
+        <v>705</v>
+      </c>
+      <c r="K329" s="49" t="s">
         <v>706</v>
-      </c>
-      <c r="K329" s="49" t="s">
-        <v>707</v>
       </c>
       <c r="L329" s="116"/>
       <c r="M329" s="113"/>
@@ -36132,16 +36129,16 @@
       <c r="F330" s="230"/>
       <c r="G330" s="66"/>
       <c r="H330" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I330" s="123" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J330" s="113" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K330" s="49" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L330" s="116"/>
       <c r="M330" s="113"/>
@@ -36170,16 +36167,16 @@
       <c r="F331" s="230"/>
       <c r="G331" s="66"/>
       <c r="H331" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I331" s="123" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J331" s="113" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K331" s="49" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L331" s="116"/>
       <c r="M331" s="113"/>
@@ -36208,16 +36205,16 @@
       <c r="F332" s="230"/>
       <c r="G332" s="66"/>
       <c r="H332" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I332" s="123" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J332" s="113" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K332" s="49" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L332" s="116"/>
       <c r="M332" s="113"/>
@@ -36246,16 +36243,16 @@
       <c r="F333" s="230"/>
       <c r="G333" s="66"/>
       <c r="H333" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I333" s="123" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J333" s="113" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K333" s="49" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L333" s="116"/>
       <c r="M333" s="113"/>
@@ -36284,16 +36281,16 @@
       <c r="F334" s="230"/>
       <c r="G334" s="66"/>
       <c r="H334" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I334" s="123" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J334" s="113" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K334" s="49" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L334" s="116"/>
       <c r="M334" s="113"/>
@@ -36322,16 +36319,16 @@
       <c r="F335" s="230"/>
       <c r="G335" s="66"/>
       <c r="H335" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I335" s="123" t="s">
+        <v>703</v>
+      </c>
+      <c r="J335" s="113" t="s">
         <v>704</v>
       </c>
-      <c r="J335" s="113" t="s">
-        <v>705</v>
-      </c>
       <c r="K335" s="49" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L335" s="116"/>
       <c r="M335" s="113"/>
@@ -36360,16 +36357,16 @@
       <c r="F336" s="231"/>
       <c r="G336" s="66"/>
       <c r="H336" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I336" s="123" t="s">
+        <v>703</v>
+      </c>
+      <c r="J336" s="113" t="s">
         <v>704</v>
       </c>
-      <c r="J336" s="113" t="s">
-        <v>705</v>
-      </c>
       <c r="K336" s="49" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L336" s="116"/>
       <c r="M336" s="113"/>
@@ -36400,16 +36397,16 @@
       </c>
       <c r="G337" s="66"/>
       <c r="H337" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I337" s="123" t="s">
+        <v>703</v>
+      </c>
+      <c r="J337" s="113" t="s">
         <v>704</v>
       </c>
-      <c r="J337" s="113" t="s">
-        <v>705</v>
-      </c>
       <c r="K337" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L337" s="116"/>
       <c r="M337" s="113"/>
@@ -36438,16 +36435,16 @@
       <c r="F338" s="230"/>
       <c r="G338" s="66"/>
       <c r="H338" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I338" s="123" t="s">
+        <v>703</v>
+      </c>
+      <c r="J338" s="113" t="s">
         <v>704</v>
       </c>
-      <c r="J338" s="113" t="s">
-        <v>705</v>
-      </c>
       <c r="K338" s="49" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L338" s="116"/>
       <c r="M338" s="113"/>
@@ -36476,16 +36473,16 @@
       <c r="F339" s="230"/>
       <c r="G339" s="66"/>
       <c r="H339" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I339" s="123" t="s">
+        <v>703</v>
+      </c>
+      <c r="J339" s="113" t="s">
         <v>704</v>
       </c>
-      <c r="J339" s="113" t="s">
-        <v>705</v>
-      </c>
       <c r="K339" s="49" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L339" s="116"/>
       <c r="M339" s="113"/>
@@ -36514,16 +36511,16 @@
       <c r="F340" s="231"/>
       <c r="G340" s="66"/>
       <c r="H340" s="123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I340" s="123" t="s">
+        <v>703</v>
+      </c>
+      <c r="J340" s="113" t="s">
         <v>704</v>
       </c>
-      <c r="J340" s="113" t="s">
-        <v>705</v>
-      </c>
       <c r="K340" s="49" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L340" s="116"/>
       <c r="M340" s="113"/>
@@ -36558,7 +36555,7 @@
       <c r="H341" s="120"/>
       <c r="I341" s="78"/>
       <c r="J341" s="94" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K341" s="117"/>
       <c r="L341" s="94"/>
@@ -36594,7 +36591,7 @@
       <c r="H342" s="120"/>
       <c r="I342" s="120"/>
       <c r="J342" s="120" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K342" s="78"/>
       <c r="L342" s="94"/>
@@ -36628,7 +36625,7 @@
       <c r="H343" s="120"/>
       <c r="I343" s="120"/>
       <c r="J343" s="120" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K343" s="78"/>
       <c r="L343" s="94"/>
@@ -36867,13 +36864,13 @@
         <v>664</v>
       </c>
       <c r="I350" s="113" t="s">
+        <v>718</v>
+      </c>
+      <c r="J350" s="114" t="s">
+        <v>720</v>
+      </c>
+      <c r="K350" s="76" t="s">
         <v>719</v>
-      </c>
-      <c r="J350" s="114" t="s">
-        <v>721</v>
-      </c>
-      <c r="K350" s="76" t="s">
-        <v>720</v>
       </c>
       <c r="L350" s="113"/>
       <c r="M350" s="113"/>
@@ -36909,13 +36906,13 @@
         <v>664</v>
       </c>
       <c r="I351" s="116" t="s">
+        <v>721</v>
+      </c>
+      <c r="J351" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="K351" s="33" t="s">
         <v>722</v>
-      </c>
-      <c r="J351" s="116" t="s">
-        <v>682</v>
-      </c>
-      <c r="K351" s="33" t="s">
-        <v>723</v>
       </c>
       <c r="L351" s="113"/>
       <c r="M351" s="113"/>
@@ -36951,13 +36948,13 @@
         <v>664</v>
       </c>
       <c r="I352" s="116" t="s">
+        <v>723</v>
+      </c>
+      <c r="J352" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="K352" s="113" t="s">
         <v>724</v>
-      </c>
-      <c r="J352" s="116" t="s">
-        <v>682</v>
-      </c>
-      <c r="K352" s="113" t="s">
-        <v>725</v>
       </c>
       <c r="L352" s="113"/>
       <c r="M352" s="113"/>
@@ -36992,16 +36989,16 @@
       </c>
       <c r="G353" s="67"/>
       <c r="H353" s="116" t="s">
+        <v>684</v>
+      </c>
+      <c r="I353" s="116" t="s">
         <v>685</v>
       </c>
-      <c r="I353" s="116" t="s">
-        <v>686</v>
-      </c>
       <c r="J353" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K353" s="33" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L353" s="113"/>
       <c r="M353" s="113"/>
@@ -37030,16 +37027,16 @@
       <c r="F354" s="230"/>
       <c r="G354" s="67"/>
       <c r="H354" s="116" t="s">
+        <v>684</v>
+      </c>
+      <c r="I354" s="116" t="s">
         <v>685</v>
       </c>
-      <c r="I354" s="116" t="s">
-        <v>686</v>
-      </c>
       <c r="J354" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K354" s="33" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L354" s="113"/>
       <c r="M354" s="113"/>
@@ -37068,16 +37065,16 @@
       <c r="F355" s="230"/>
       <c r="G355" s="67"/>
       <c r="H355" s="116" t="s">
+        <v>684</v>
+      </c>
+      <c r="I355" s="116" t="s">
         <v>685</v>
       </c>
-      <c r="I355" s="116" t="s">
-        <v>686</v>
-      </c>
       <c r="J355" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K355" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L355" s="113"/>
       <c r="M355" s="113"/>
@@ -37106,16 +37103,16 @@
       <c r="F356" s="230"/>
       <c r="G356" s="67"/>
       <c r="H356" s="116" t="s">
+        <v>684</v>
+      </c>
+      <c r="I356" s="116" t="s">
         <v>685</v>
       </c>
-      <c r="I356" s="116" t="s">
-        <v>686</v>
-      </c>
       <c r="J356" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K356" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L356" s="113"/>
       <c r="M356" s="113"/>
@@ -37144,16 +37141,16 @@
       <c r="F357" s="230"/>
       <c r="G357" s="67"/>
       <c r="H357" s="116" t="s">
+        <v>684</v>
+      </c>
+      <c r="I357" s="116" t="s">
         <v>685</v>
       </c>
-      <c r="I357" s="116" t="s">
-        <v>686</v>
-      </c>
       <c r="J357" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K357" s="33" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L357" s="113"/>
       <c r="M357" s="113"/>
@@ -37182,16 +37179,16 @@
       <c r="F358" s="231"/>
       <c r="G358" s="67"/>
       <c r="H358" s="116" t="s">
+        <v>684</v>
+      </c>
+      <c r="I358" s="116" t="s">
         <v>685</v>
       </c>
-      <c r="I358" s="116" t="s">
-        <v>686</v>
-      </c>
       <c r="J358" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K358" s="33" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L358" s="113"/>
       <c r="M358" s="113"/>
@@ -37226,7 +37223,7 @@
       <c r="H359" s="120"/>
       <c r="I359" s="120"/>
       <c r="J359" s="120" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K359" s="78"/>
       <c r="L359" s="94"/>
@@ -37260,7 +37257,7 @@
       <c r="H360" s="120"/>
       <c r="I360" s="120"/>
       <c r="J360" s="120" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K360" s="78"/>
       <c r="L360" s="94"/>
@@ -37294,7 +37291,7 @@
       <c r="H361" s="94"/>
       <c r="I361" s="94"/>
       <c r="J361" s="120" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K361" s="95"/>
       <c r="L361" s="94"/>
@@ -37328,7 +37325,7 @@
       <c r="H362" s="94"/>
       <c r="I362" s="94"/>
       <c r="J362" s="95" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K362" s="95"/>
       <c r="L362" s="94"/>
@@ -37366,7 +37363,7 @@
       <c r="H363" s="94"/>
       <c r="I363" s="94"/>
       <c r="J363" s="95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K363" s="95"/>
       <c r="L363" s="94"/>
@@ -37400,7 +37397,7 @@
       <c r="H364" s="94"/>
       <c r="I364" s="94"/>
       <c r="J364" s="95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K364" s="95"/>
       <c r="L364" s="94"/>
@@ -37434,7 +37431,7 @@
       <c r="H365" s="94"/>
       <c r="I365" s="94"/>
       <c r="J365" s="95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K365" s="95"/>
       <c r="L365" s="94"/>
@@ -37472,7 +37469,7 @@
       <c r="H366" s="94"/>
       <c r="I366" s="94"/>
       <c r="J366" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K366" s="95"/>
       <c r="L366" s="94"/>
@@ -37506,7 +37503,7 @@
       <c r="H367" s="94"/>
       <c r="I367" s="94"/>
       <c r="J367" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K367" s="95"/>
       <c r="L367" s="94"/>
@@ -37540,7 +37537,7 @@
       <c r="H368" s="94"/>
       <c r="I368" s="94"/>
       <c r="J368" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K368" s="95"/>
       <c r="L368" s="94"/>
@@ -37574,7 +37571,7 @@
       <c r="H369" s="94"/>
       <c r="I369" s="94"/>
       <c r="J369" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K369" s="95"/>
       <c r="L369" s="94"/>
@@ -37608,7 +37605,7 @@
       <c r="H370" s="94"/>
       <c r="I370" s="94"/>
       <c r="J370" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K370" s="95"/>
       <c r="L370" s="94"/>
@@ -37676,7 +37673,7 @@
       <c r="H372" s="94"/>
       <c r="I372" s="94"/>
       <c r="J372" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K372" s="95"/>
       <c r="L372" s="94"/>
@@ -37710,7 +37707,7 @@
       <c r="H373" s="94"/>
       <c r="I373" s="94"/>
       <c r="J373" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K373" s="95"/>
       <c r="L373" s="94"/>
@@ -37744,7 +37741,7 @@
       <c r="H374" s="94"/>
       <c r="I374" s="94"/>
       <c r="J374" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K374" s="95"/>
       <c r="L374" s="94"/>
@@ -37778,7 +37775,7 @@
       <c r="H375" s="94"/>
       <c r="I375" s="94"/>
       <c r="J375" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K375" s="95"/>
       <c r="L375" s="94"/>
@@ -37812,7 +37809,7 @@
       <c r="H376" s="94"/>
       <c r="I376" s="94"/>
       <c r="J376" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K376" s="95"/>
       <c r="L376" s="94"/>
@@ -37846,7 +37843,7 @@
       <c r="H377" s="94"/>
       <c r="I377" s="94"/>
       <c r="J377" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K377" s="95"/>
       <c r="L377" s="94"/>
@@ -37880,7 +37877,7 @@
       <c r="H378" s="94"/>
       <c r="I378" s="94"/>
       <c r="J378" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K378" s="95"/>
       <c r="L378" s="94"/>
@@ -37914,7 +37911,7 @@
       <c r="H379" s="94"/>
       <c r="I379" s="94"/>
       <c r="J379" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K379" s="95"/>
       <c r="L379" s="94"/>
@@ -37950,7 +37947,7 @@
       <c r="H380" s="94"/>
       <c r="I380" s="94"/>
       <c r="J380" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K380" s="95"/>
       <c r="L380" s="94"/>
@@ -37984,7 +37981,7 @@
       <c r="H381" s="94"/>
       <c r="I381" s="94"/>
       <c r="J381" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K381" s="95"/>
       <c r="L381" s="94"/>
@@ -38018,7 +38015,7 @@
       <c r="H382" s="94"/>
       <c r="I382" s="94"/>
       <c r="J382" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K382" s="95"/>
       <c r="L382" s="94"/>
@@ -38052,7 +38049,7 @@
       <c r="H383" s="94"/>
       <c r="I383" s="94"/>
       <c r="J383" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K383" s="95"/>
       <c r="L383" s="94"/>
@@ -38086,7 +38083,7 @@
       <c r="H384" s="94"/>
       <c r="I384" s="94"/>
       <c r="J384" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K384" s="95"/>
       <c r="L384" s="94"/>
@@ -38120,7 +38117,7 @@
       <c r="H385" s="94"/>
       <c r="I385" s="94"/>
       <c r="J385" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K385" s="95"/>
       <c r="L385" s="94"/>
@@ -38154,7 +38151,7 @@
       <c r="H386" s="94"/>
       <c r="I386" s="94"/>
       <c r="J386" s="200" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K386" s="95"/>
       <c r="L386" s="94"/>
@@ -38196,7 +38193,7 @@
       <c r="H387" s="81"/>
       <c r="I387" s="81"/>
       <c r="J387" s="94" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K387" s="232"/>
       <c r="L387" s="233"/>
@@ -38230,7 +38227,7 @@
       <c r="H388" s="81"/>
       <c r="I388" s="81"/>
       <c r="J388" s="94" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K388" s="200"/>
       <c r="L388" s="201"/>
@@ -38264,7 +38261,7 @@
       <c r="H389" s="81"/>
       <c r="I389" s="81"/>
       <c r="J389" s="94" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K389" s="200"/>
       <c r="L389" s="201"/>
@@ -38298,7 +38295,7 @@
       <c r="H390" s="81"/>
       <c r="I390" s="81"/>
       <c r="J390" s="94" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K390" s="200"/>
       <c r="L390" s="201"/>
@@ -38370,7 +38367,7 @@
       <c r="H392" s="120"/>
       <c r="I392" s="120"/>
       <c r="J392" s="81" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K392" s="200"/>
       <c r="L392" s="201"/>
@@ -38404,7 +38401,7 @@
       <c r="H393" s="81"/>
       <c r="I393" s="81"/>
       <c r="J393" s="120" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K393" s="200"/>
       <c r="L393" s="201"/>
@@ -38472,7 +38469,7 @@
       <c r="H395" s="120"/>
       <c r="I395" s="120"/>
       <c r="J395" s="120" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K395" s="94"/>
       <c r="L395" s="201"/>
@@ -38506,7 +38503,7 @@
       <c r="H396" s="81"/>
       <c r="I396" s="81"/>
       <c r="J396" s="200" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K396" s="200"/>
       <c r="L396" s="201"/>
@@ -38544,16 +38541,16 @@
       </c>
       <c r="G397" s="96"/>
       <c r="H397" s="116" t="s">
+        <v>743</v>
+      </c>
+      <c r="I397" s="116" t="s">
+        <v>745</v>
+      </c>
+      <c r="J397" s="116" t="s">
+        <v>747</v>
+      </c>
+      <c r="K397" s="52" t="s">
         <v>744</v>
-      </c>
-      <c r="I397" s="116" t="s">
-        <v>746</v>
-      </c>
-      <c r="J397" s="116" t="s">
-        <v>748</v>
-      </c>
-      <c r="K397" s="52" t="s">
-        <v>745</v>
       </c>
       <c r="L397" s="128"/>
       <c r="M397" s="129"/>
@@ -38582,16 +38579,16 @@
       <c r="F398" s="91"/>
       <c r="G398" s="96"/>
       <c r="H398" s="116" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I398" s="116" t="s">
+        <v>745</v>
+      </c>
+      <c r="J398" s="116" t="s">
         <v>746</v>
       </c>
-      <c r="J398" s="116" t="s">
-        <v>747</v>
-      </c>
       <c r="K398" s="52" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L398" s="128"/>
       <c r="M398" s="129"/>
@@ -38620,16 +38617,16 @@
       <c r="F399" s="91"/>
       <c r="G399" s="96"/>
       <c r="H399" s="116" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I399" s="116" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J399" s="116" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K399" s="52" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L399" s="128"/>
       <c r="M399" s="129"/>
@@ -38658,16 +38655,16 @@
       <c r="F400" s="91"/>
       <c r="G400" s="96"/>
       <c r="H400" s="116" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I400" s="116" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J400" s="116" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K400" s="52" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L400" s="128"/>
       <c r="M400" s="129"/>
@@ -38696,16 +38693,16 @@
       <c r="F401" s="91"/>
       <c r="G401" s="96"/>
       <c r="H401" s="116" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I401" s="116" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J401" s="116" t="s">
+        <v>753</v>
+      </c>
+      <c r="K401" s="52" t="s">
         <v>754</v>
-      </c>
-      <c r="K401" s="52" t="s">
-        <v>755</v>
       </c>
       <c r="L401" s="128"/>
       <c r="M401" s="129"/>
@@ -38734,16 +38731,16 @@
       <c r="F402" s="163"/>
       <c r="G402" s="96"/>
       <c r="H402" s="116" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I402" s="116" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J402" s="116" t="s">
+        <v>755</v>
+      </c>
+      <c r="K402" s="52" t="s">
         <v>756</v>
-      </c>
-      <c r="K402" s="52" t="s">
-        <v>757</v>
       </c>
       <c r="L402" s="128"/>
       <c r="M402" s="129"/>
@@ -38776,7 +38773,7 @@
       <c r="H403" s="120"/>
       <c r="I403" s="120"/>
       <c r="J403" s="120" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K403" s="121"/>
       <c r="L403" s="157"/>
@@ -38808,16 +38805,16 @@
       </c>
       <c r="G404" s="96"/>
       <c r="H404" s="116" t="s">
+        <v>759</v>
+      </c>
+      <c r="I404" s="116" t="s">
         <v>760</v>
       </c>
-      <c r="I404" s="116" t="s">
+      <c r="J404" s="116" t="s">
+        <v>747</v>
+      </c>
+      <c r="K404" s="118" t="s">
         <v>761</v>
-      </c>
-      <c r="J404" s="116" t="s">
-        <v>748</v>
-      </c>
-      <c r="K404" s="118" t="s">
-        <v>762</v>
       </c>
       <c r="L404" s="128"/>
       <c r="M404" s="129"/>
@@ -38846,16 +38843,16 @@
       <c r="F405" s="91"/>
       <c r="G405" s="96"/>
       <c r="H405" s="116" t="s">
+        <v>759</v>
+      </c>
+      <c r="I405" s="116" t="s">
         <v>760</v>
       </c>
-      <c r="I405" s="116" t="s">
+      <c r="J405" s="116" t="s">
+        <v>746</v>
+      </c>
+      <c r="K405" s="118" t="s">
         <v>761</v>
-      </c>
-      <c r="J405" s="116" t="s">
-        <v>747</v>
-      </c>
-      <c r="K405" s="118" t="s">
-        <v>762</v>
       </c>
       <c r="L405" s="128"/>
       <c r="M405" s="129"/>
@@ -38884,16 +38881,16 @@
       <c r="F406" s="91"/>
       <c r="G406" s="96"/>
       <c r="H406" s="116" t="s">
+        <v>759</v>
+      </c>
+      <c r="I406" s="116" t="s">
         <v>760</v>
       </c>
-      <c r="I406" s="116" t="s">
+      <c r="J406" s="116" t="s">
+        <v>749</v>
+      </c>
+      <c r="K406" s="118" t="s">
         <v>761</v>
-      </c>
-      <c r="J406" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="K406" s="118" t="s">
-        <v>762</v>
       </c>
       <c r="L406" s="128"/>
       <c r="M406" s="129"/>
@@ -38922,16 +38919,16 @@
       <c r="F407" s="91"/>
       <c r="G407" s="96"/>
       <c r="H407" s="116" t="s">
+        <v>759</v>
+      </c>
+      <c r="I407" s="116" t="s">
         <v>760</v>
       </c>
-      <c r="I407" s="116" t="s">
+      <c r="J407" s="116" t="s">
+        <v>750</v>
+      </c>
+      <c r="K407" s="118" t="s">
         <v>761</v>
-      </c>
-      <c r="J407" s="116" t="s">
-        <v>751</v>
-      </c>
-      <c r="K407" s="118" t="s">
-        <v>762</v>
       </c>
       <c r="L407" s="128"/>
       <c r="M407" s="129"/>
@@ -38960,16 +38957,16 @@
       <c r="F408" s="91"/>
       <c r="G408" s="96"/>
       <c r="H408" s="116" t="s">
+        <v>759</v>
+      </c>
+      <c r="I408" s="116" t="s">
         <v>760</v>
       </c>
-      <c r="I408" s="116" t="s">
+      <c r="J408" s="116" t="s">
+        <v>753</v>
+      </c>
+      <c r="K408" s="118" t="s">
         <v>761</v>
-      </c>
-      <c r="J408" s="116" t="s">
-        <v>754</v>
-      </c>
-      <c r="K408" s="118" t="s">
-        <v>762</v>
       </c>
       <c r="L408" s="128"/>
       <c r="M408" s="129"/>
@@ -38998,16 +38995,16 @@
       <c r="F409" s="163"/>
       <c r="G409" s="96"/>
       <c r="H409" s="116" t="s">
+        <v>759</v>
+      </c>
+      <c r="I409" s="116" t="s">
         <v>760</v>
       </c>
-      <c r="I409" s="116" t="s">
+      <c r="J409" s="116" t="s">
+        <v>755</v>
+      </c>
+      <c r="K409" s="118" t="s">
         <v>761</v>
-      </c>
-      <c r="J409" s="116" t="s">
-        <v>756</v>
-      </c>
-      <c r="K409" s="118" t="s">
-        <v>762</v>
       </c>
       <c r="L409" s="128"/>
       <c r="M409" s="129"/>
@@ -39040,7 +39037,7 @@
       <c r="H410" s="81"/>
       <c r="I410" s="81"/>
       <c r="J410" s="120" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K410" s="156"/>
       <c r="L410" s="157"/>
@@ -39108,7 +39105,7 @@
       <c r="H412" s="120"/>
       <c r="I412" s="120"/>
       <c r="J412" s="120" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K412" s="121"/>
       <c r="L412" s="157"/>
@@ -39146,7 +39143,7 @@
       <c r="H413" s="81"/>
       <c r="I413" s="81"/>
       <c r="J413" s="121" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K413" s="156"/>
       <c r="L413" s="157"/>
@@ -39182,16 +39179,16 @@
       </c>
       <c r="G414" s="96"/>
       <c r="H414" s="116" t="s">
+        <v>764</v>
+      </c>
+      <c r="I414" s="116" t="s">
         <v>765</v>
       </c>
-      <c r="I414" s="116" t="s">
+      <c r="J414" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="K414" s="113" t="s">
         <v>766</v>
-      </c>
-      <c r="J414" s="116" t="s">
-        <v>682</v>
-      </c>
-      <c r="K414" s="113" t="s">
-        <v>767</v>
       </c>
       <c r="L414" s="128"/>
       <c r="M414" s="129"/>
@@ -39220,16 +39217,16 @@
       <c r="F415" s="91"/>
       <c r="G415" s="96"/>
       <c r="H415" s="116" t="s">
+        <v>764</v>
+      </c>
+      <c r="I415" s="116" t="s">
         <v>765</v>
       </c>
-      <c r="I415" s="116" t="s">
+      <c r="J415" s="116" t="s">
+        <v>747</v>
+      </c>
+      <c r="K415" s="113" t="s">
         <v>766</v>
-      </c>
-      <c r="J415" s="116" t="s">
-        <v>748</v>
-      </c>
-      <c r="K415" s="113" t="s">
-        <v>767</v>
       </c>
       <c r="L415" s="130"/>
       <c r="M415" s="131"/>
@@ -39258,16 +39255,16 @@
       <c r="F416" s="91"/>
       <c r="G416" s="96"/>
       <c r="H416" s="116" t="s">
+        <v>764</v>
+      </c>
+      <c r="I416" s="116" t="s">
         <v>765</v>
       </c>
-      <c r="I416" s="116" t="s">
+      <c r="J416" s="116" t="s">
+        <v>746</v>
+      </c>
+      <c r="K416" s="113" t="s">
         <v>766</v>
-      </c>
-      <c r="J416" s="116" t="s">
-        <v>747</v>
-      </c>
-      <c r="K416" s="113" t="s">
-        <v>767</v>
       </c>
       <c r="L416" s="130"/>
       <c r="M416" s="131"/>
@@ -39296,16 +39293,16 @@
       <c r="F417" s="91"/>
       <c r="G417" s="96"/>
       <c r="H417" s="116" t="s">
+        <v>764</v>
+      </c>
+      <c r="I417" s="116" t="s">
         <v>765</v>
       </c>
-      <c r="I417" s="116" t="s">
+      <c r="J417" s="116" t="s">
+        <v>749</v>
+      </c>
+      <c r="K417" s="113" t="s">
         <v>766</v>
-      </c>
-      <c r="J417" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="K417" s="113" t="s">
-        <v>767</v>
       </c>
       <c r="L417" s="130"/>
       <c r="M417" s="131"/>
@@ -39334,16 +39331,16 @@
       <c r="F418" s="91"/>
       <c r="G418" s="96"/>
       <c r="H418" s="116" t="s">
+        <v>764</v>
+      </c>
+      <c r="I418" s="116" t="s">
         <v>765</v>
       </c>
-      <c r="I418" s="116" t="s">
+      <c r="J418" s="116" t="s">
+        <v>750</v>
+      </c>
+      <c r="K418" s="113" t="s">
         <v>766</v>
-      </c>
-      <c r="J418" s="116" t="s">
-        <v>751</v>
-      </c>
-      <c r="K418" s="113" t="s">
-        <v>767</v>
       </c>
       <c r="L418" s="130"/>
       <c r="M418" s="131"/>
@@ -39372,16 +39369,16 @@
       <c r="F419" s="91"/>
       <c r="G419" s="96"/>
       <c r="H419" s="116" t="s">
+        <v>764</v>
+      </c>
+      <c r="I419" s="116" t="s">
         <v>765</v>
       </c>
-      <c r="I419" s="116" t="s">
+      <c r="J419" s="116" t="s">
+        <v>753</v>
+      </c>
+      <c r="K419" s="113" t="s">
         <v>766</v>
-      </c>
-      <c r="J419" s="116" t="s">
-        <v>754</v>
-      </c>
-      <c r="K419" s="113" t="s">
-        <v>767</v>
       </c>
       <c r="L419" s="130"/>
       <c r="M419" s="131"/>
@@ -39410,16 +39407,16 @@
       <c r="F420" s="163"/>
       <c r="G420" s="96"/>
       <c r="H420" s="116" t="s">
+        <v>764</v>
+      </c>
+      <c r="I420" s="116" t="s">
         <v>765</v>
       </c>
-      <c r="I420" s="116" t="s">
+      <c r="J420" s="116" t="s">
+        <v>755</v>
+      </c>
+      <c r="K420" s="113" t="s">
         <v>766</v>
-      </c>
-      <c r="J420" s="116" t="s">
-        <v>756</v>
-      </c>
-      <c r="K420" s="113" t="s">
-        <v>767</v>
       </c>
       <c r="L420" s="130"/>
       <c r="M420" s="131"/>
@@ -39454,16 +39451,16 @@
       </c>
       <c r="G421" s="96"/>
       <c r="H421" s="90" t="s">
+        <v>767</v>
+      </c>
+      <c r="I421" s="90" t="s">
         <v>768</v>
       </c>
-      <c r="I421" s="90" t="s">
+      <c r="J421" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="K421" s="115" t="s">
         <v>769</v>
-      </c>
-      <c r="J421" s="116" t="s">
-        <v>682</v>
-      </c>
-      <c r="K421" s="115" t="s">
-        <v>770</v>
       </c>
       <c r="L421" s="130"/>
       <c r="M421" s="131"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10301_TOPメニュー.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10301_TOPメニュー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE645B8-C3AC-4D77-ADD4-13018AF9DB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525C4181-3DA1-4D67-AE54-33D3F1BCFD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="772">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -8355,16 +8355,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1-1-1, 2-1-1, 5-1-1 で確認するので対象外</t>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Formで完結するバリデーション</t>
     <rPh sb="5" eb="7">
       <t>カンケツ</t>
@@ -9419,9 +9409,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>URL直接入力の要件がないため対象外</t>
-  </si>
-  <si>
     <t>(a)システム機能設計書
 (b)アプリケーション処理方式設計書</t>
     <rPh sb="7" eb="12">
@@ -9500,6 +9487,49 @@
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(a)画面遷移図
+(b)リクエスト一覧</t>
+    <rPh sb="3" eb="8">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TOPメニューが表示されること。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(a)プロジェクト管理(A103)
+(b)URL一覧</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>以下のURLを直接指定しアクセスする。
+http://localhost:9088/</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -10370,7 +10400,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -11081,6 +11111,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12432,12 +12465,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="249" t="str">
+      <c r="I25" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="249"/>
-      <c r="K25" s="249"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="250"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -12997,51 +13030,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="259" t="s">
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="260" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="265" t="s">
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="266" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="267"/>
-      <c r="S1" s="274" t="s">
-        <v>652</v>
-      </c>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="256" t="s">
+      <c r="P1" s="267"/>
+      <c r="Q1" s="267"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="275" t="s">
+        <v>651</v>
+      </c>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
+      <c r="Y1" s="276"/>
+      <c r="Z1" s="277"/>
+      <c r="AA1" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="283"/>
-      <c r="AD1" s="284"/>
-      <c r="AE1" s="284"/>
-      <c r="AF1" s="285"/>
-      <c r="AG1" s="250"/>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="252"/>
+      <c r="AB1" s="259"/>
+      <c r="AC1" s="284"/>
+      <c r="AD1" s="285"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="251"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13049,53 +13082,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="259" t="s">
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="260" t="s">
         <v>641</v>
       </c>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="278"/>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="279"/>
-      <c r="AA2" s="256" t="s">
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="261"/>
+      <c r="M2" s="261"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="271"/>
+      <c r="S2" s="278"/>
+      <c r="T2" s="279"/>
+      <c r="U2" s="279"/>
+      <c r="V2" s="279"/>
+      <c r="W2" s="279"/>
+      <c r="X2" s="279"/>
+      <c r="Y2" s="279"/>
+      <c r="Z2" s="280"/>
+      <c r="AA2" s="257" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="258"/>
-      <c r="AC2" s="262" t="str">
+      <c r="AB2" s="259"/>
+      <c r="AC2" s="263" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="263"/>
-      <c r="AE2" s="263"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="250" t="str">
+      <c r="AD2" s="264"/>
+      <c r="AE2" s="264"/>
+      <c r="AF2" s="265"/>
+      <c r="AG2" s="251" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="252"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13103,45 +13136,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="257" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="259" t="s">
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="260" t="s">
         <v>642</v>
       </c>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="260"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="272"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="283"/>
-      <c r="AD3" s="284"/>
-      <c r="AE3" s="284"/>
-      <c r="AF3" s="285"/>
-      <c r="AG3" s="250"/>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="252"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="261"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="261"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="272"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="274"/>
+      <c r="S3" s="281"/>
+      <c r="T3" s="282"/>
+      <c r="U3" s="282"/>
+      <c r="V3" s="282"/>
+      <c r="W3" s="282"/>
+      <c r="X3" s="282"/>
+      <c r="Y3" s="282"/>
+      <c r="Z3" s="283"/>
+      <c r="AA3" s="257"/>
+      <c r="AB3" s="259"/>
+      <c r="AC3" s="284"/>
+      <c r="AD3" s="285"/>
+      <c r="AE3" s="285"/>
+      <c r="AF3" s="286"/>
+      <c r="AG3" s="251"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13178,1014 +13211,1014 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="254" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="253" t="s">
+      <c r="C7" s="255"/>
+      <c r="D7" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="255"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="253" t="s">
+      <c r="E7" s="256"/>
+      <c r="F7" s="255"/>
+      <c r="G7" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="255"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="253" t="s">
+      <c r="H7" s="256"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="253" t="s">
+      <c r="K7" s="256"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="256"/>
+      <c r="O7" s="256"/>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="255"/>
-      <c r="U7" s="255"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="255"/>
-      <c r="Z7" s="255"/>
-      <c r="AA7" s="255"/>
-      <c r="AB7" s="255"/>
-      <c r="AC7" s="255"/>
-      <c r="AD7" s="255"/>
-      <c r="AE7" s="254"/>
-      <c r="AF7" s="253" t="s">
+      <c r="R7" s="256"/>
+      <c r="S7" s="256"/>
+      <c r="T7" s="256"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="256"/>
+      <c r="W7" s="256"/>
+      <c r="X7" s="256"/>
+      <c r="Y7" s="256"/>
+      <c r="Z7" s="256"/>
+      <c r="AA7" s="256"/>
+      <c r="AB7" s="256"/>
+      <c r="AC7" s="256"/>
+      <c r="AD7" s="256"/>
+      <c r="AE7" s="255"/>
+      <c r="AF7" s="254" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="255"/>
-      <c r="AH7" s="255"/>
-      <c r="AI7" s="254"/>
+      <c r="AG7" s="256"/>
+      <c r="AH7" s="256"/>
+      <c r="AI7" s="255"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="298"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="301"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="305"/>
-      <c r="K8" s="306"/>
-      <c r="L8" s="306"/>
-      <c r="M8" s="306"/>
-      <c r="N8" s="306"/>
-      <c r="O8" s="306"/>
-      <c r="P8" s="307"/>
-      <c r="Q8" s="308"/>
-      <c r="R8" s="309"/>
-      <c r="S8" s="309"/>
-      <c r="T8" s="309"/>
-      <c r="U8" s="309"/>
-      <c r="V8" s="309"/>
-      <c r="W8" s="309"/>
-      <c r="X8" s="309"/>
-      <c r="Y8" s="309"/>
-      <c r="Z8" s="309"/>
-      <c r="AA8" s="309"/>
-      <c r="AB8" s="309"/>
-      <c r="AC8" s="309"/>
-      <c r="AD8" s="309"/>
-      <c r="AE8" s="310"/>
-      <c r="AF8" s="305"/>
-      <c r="AG8" s="306"/>
-      <c r="AH8" s="306"/>
-      <c r="AI8" s="307"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="301"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="303"/>
+      <c r="G8" s="304"/>
+      <c r="H8" s="305"/>
+      <c r="I8" s="300"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="307"/>
+      <c r="L8" s="307"/>
+      <c r="M8" s="307"/>
+      <c r="N8" s="307"/>
+      <c r="O8" s="307"/>
+      <c r="P8" s="308"/>
+      <c r="Q8" s="309"/>
+      <c r="R8" s="310"/>
+      <c r="S8" s="310"/>
+      <c r="T8" s="310"/>
+      <c r="U8" s="310"/>
+      <c r="V8" s="310"/>
+      <c r="W8" s="310"/>
+      <c r="X8" s="310"/>
+      <c r="Y8" s="310"/>
+      <c r="Z8" s="310"/>
+      <c r="AA8" s="310"/>
+      <c r="AB8" s="310"/>
+      <c r="AC8" s="310"/>
+      <c r="AD8" s="310"/>
+      <c r="AE8" s="311"/>
+      <c r="AF8" s="306"/>
+      <c r="AG8" s="307"/>
+      <c r="AH8" s="307"/>
+      <c r="AI8" s="308"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="286"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="288"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="287"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="294"/>
-      <c r="Q9" s="295"/>
-      <c r="R9" s="296"/>
-      <c r="S9" s="296"/>
-      <c r="T9" s="296"/>
-      <c r="U9" s="296"/>
-      <c r="V9" s="296"/>
-      <c r="W9" s="296"/>
-      <c r="X9" s="296"/>
-      <c r="Y9" s="296"/>
-      <c r="Z9" s="296"/>
-      <c r="AA9" s="296"/>
-      <c r="AB9" s="296"/>
-      <c r="AC9" s="296"/>
-      <c r="AD9" s="296"/>
-      <c r="AE9" s="297"/>
-      <c r="AF9" s="292"/>
-      <c r="AG9" s="293"/>
-      <c r="AH9" s="293"/>
-      <c r="AI9" s="294"/>
+      <c r="B9" s="287"/>
+      <c r="C9" s="288"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="294"/>
+      <c r="N9" s="294"/>
+      <c r="O9" s="294"/>
+      <c r="P9" s="295"/>
+      <c r="Q9" s="296"/>
+      <c r="R9" s="297"/>
+      <c r="S9" s="297"/>
+      <c r="T9" s="297"/>
+      <c r="U9" s="297"/>
+      <c r="V9" s="297"/>
+      <c r="W9" s="297"/>
+      <c r="X9" s="297"/>
+      <c r="Y9" s="297"/>
+      <c r="Z9" s="297"/>
+      <c r="AA9" s="297"/>
+      <c r="AB9" s="297"/>
+      <c r="AC9" s="297"/>
+      <c r="AD9" s="297"/>
+      <c r="AE9" s="298"/>
+      <c r="AF9" s="293"/>
+      <c r="AG9" s="294"/>
+      <c r="AH9" s="294"/>
+      <c r="AI9" s="295"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="286"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="286"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="292"/>
-      <c r="K10" s="293"/>
-      <c r="L10" s="293"/>
-      <c r="M10" s="293"/>
-      <c r="N10" s="293"/>
-      <c r="O10" s="293"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="295"/>
-      <c r="R10" s="296"/>
-      <c r="S10" s="296"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="296"/>
-      <c r="V10" s="296"/>
-      <c r="W10" s="296"/>
-      <c r="X10" s="296"/>
-      <c r="Y10" s="296"/>
-      <c r="Z10" s="296"/>
-      <c r="AA10" s="296"/>
-      <c r="AB10" s="296"/>
-      <c r="AC10" s="296"/>
-      <c r="AD10" s="296"/>
-      <c r="AE10" s="297"/>
-      <c r="AF10" s="292"/>
-      <c r="AG10" s="293"/>
-      <c r="AH10" s="293"/>
-      <c r="AI10" s="294"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="288"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="291"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="293"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="294"/>
+      <c r="M10" s="294"/>
+      <c r="N10" s="294"/>
+      <c r="O10" s="294"/>
+      <c r="P10" s="295"/>
+      <c r="Q10" s="296"/>
+      <c r="R10" s="297"/>
+      <c r="S10" s="297"/>
+      <c r="T10" s="297"/>
+      <c r="U10" s="297"/>
+      <c r="V10" s="297"/>
+      <c r="W10" s="297"/>
+      <c r="X10" s="297"/>
+      <c r="Y10" s="297"/>
+      <c r="Z10" s="297"/>
+      <c r="AA10" s="297"/>
+      <c r="AB10" s="297"/>
+      <c r="AC10" s="297"/>
+      <c r="AD10" s="297"/>
+      <c r="AE10" s="298"/>
+      <c r="AF10" s="293"/>
+      <c r="AG10" s="294"/>
+      <c r="AH10" s="294"/>
+      <c r="AI10" s="295"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="286"/>
-      <c r="C11" s="287"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="286"/>
-      <c r="H11" s="291"/>
-      <c r="I11" s="287"/>
-      <c r="J11" s="292"/>
-      <c r="K11" s="293"/>
-      <c r="L11" s="293"/>
-      <c r="M11" s="293"/>
-      <c r="N11" s="293"/>
-      <c r="O11" s="293"/>
-      <c r="P11" s="294"/>
-      <c r="Q11" s="295"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="296"/>
-      <c r="U11" s="296"/>
-      <c r="V11" s="296"/>
-      <c r="W11" s="296"/>
-      <c r="X11" s="296"/>
-      <c r="Y11" s="296"/>
-      <c r="Z11" s="296"/>
-      <c r="AA11" s="296"/>
-      <c r="AB11" s="296"/>
-      <c r="AC11" s="296"/>
-      <c r="AD11" s="296"/>
-      <c r="AE11" s="297"/>
-      <c r="AF11" s="292"/>
-      <c r="AG11" s="293"/>
-      <c r="AH11" s="293"/>
-      <c r="AI11" s="294"/>
+      <c r="B11" s="287"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="290"/>
+      <c r="F11" s="291"/>
+      <c r="G11" s="287"/>
+      <c r="H11" s="292"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="293"/>
+      <c r="K11" s="294"/>
+      <c r="L11" s="294"/>
+      <c r="M11" s="294"/>
+      <c r="N11" s="294"/>
+      <c r="O11" s="294"/>
+      <c r="P11" s="295"/>
+      <c r="Q11" s="296"/>
+      <c r="R11" s="297"/>
+      <c r="S11" s="297"/>
+      <c r="T11" s="297"/>
+      <c r="U11" s="297"/>
+      <c r="V11" s="297"/>
+      <c r="W11" s="297"/>
+      <c r="X11" s="297"/>
+      <c r="Y11" s="297"/>
+      <c r="Z11" s="297"/>
+      <c r="AA11" s="297"/>
+      <c r="AB11" s="297"/>
+      <c r="AC11" s="297"/>
+      <c r="AD11" s="297"/>
+      <c r="AE11" s="298"/>
+      <c r="AF11" s="293"/>
+      <c r="AG11" s="294"/>
+      <c r="AH11" s="294"/>
+      <c r="AI11" s="295"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="286"/>
-      <c r="C12" s="287"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="286"/>
-      <c r="H12" s="291"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="292"/>
-      <c r="K12" s="293"/>
-      <c r="L12" s="293"/>
-      <c r="M12" s="293"/>
-      <c r="N12" s="293"/>
-      <c r="O12" s="293"/>
-      <c r="P12" s="294"/>
-      <c r="Q12" s="295"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="296"/>
-      <c r="T12" s="296"/>
-      <c r="U12" s="296"/>
-      <c r="V12" s="296"/>
-      <c r="W12" s="296"/>
-      <c r="X12" s="296"/>
-      <c r="Y12" s="296"/>
-      <c r="Z12" s="296"/>
-      <c r="AA12" s="296"/>
-      <c r="AB12" s="296"/>
-      <c r="AC12" s="296"/>
-      <c r="AD12" s="296"/>
-      <c r="AE12" s="297"/>
-      <c r="AF12" s="292"/>
-      <c r="AG12" s="293"/>
-      <c r="AH12" s="293"/>
-      <c r="AI12" s="294"/>
+      <c r="B12" s="287"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="289"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="291"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="292"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="293"/>
+      <c r="K12" s="294"/>
+      <c r="L12" s="294"/>
+      <c r="M12" s="294"/>
+      <c r="N12" s="294"/>
+      <c r="O12" s="294"/>
+      <c r="P12" s="295"/>
+      <c r="Q12" s="296"/>
+      <c r="R12" s="297"/>
+      <c r="S12" s="297"/>
+      <c r="T12" s="297"/>
+      <c r="U12" s="297"/>
+      <c r="V12" s="297"/>
+      <c r="W12" s="297"/>
+      <c r="X12" s="297"/>
+      <c r="Y12" s="297"/>
+      <c r="Z12" s="297"/>
+      <c r="AA12" s="297"/>
+      <c r="AB12" s="297"/>
+      <c r="AC12" s="297"/>
+      <c r="AD12" s="297"/>
+      <c r="AE12" s="298"/>
+      <c r="AF12" s="293"/>
+      <c r="AG12" s="294"/>
+      <c r="AH12" s="294"/>
+      <c r="AI12" s="295"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="286"/>
-      <c r="C13" s="287"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="292"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="293"/>
-      <c r="M13" s="293"/>
-      <c r="N13" s="293"/>
-      <c r="O13" s="293"/>
-      <c r="P13" s="294"/>
-      <c r="Q13" s="295"/>
-      <c r="R13" s="296"/>
-      <c r="S13" s="296"/>
-      <c r="T13" s="296"/>
-      <c r="U13" s="296"/>
-      <c r="V13" s="296"/>
-      <c r="W13" s="296"/>
-      <c r="X13" s="296"/>
-      <c r="Y13" s="296"/>
-      <c r="Z13" s="296"/>
-      <c r="AA13" s="296"/>
-      <c r="AB13" s="296"/>
-      <c r="AC13" s="296"/>
-      <c r="AD13" s="296"/>
-      <c r="AE13" s="297"/>
-      <c r="AF13" s="292"/>
-      <c r="AG13" s="293"/>
-      <c r="AH13" s="293"/>
-      <c r="AI13" s="294"/>
+      <c r="B13" s="287"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="291"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="294"/>
+      <c r="N13" s="294"/>
+      <c r="O13" s="294"/>
+      <c r="P13" s="295"/>
+      <c r="Q13" s="296"/>
+      <c r="R13" s="297"/>
+      <c r="S13" s="297"/>
+      <c r="T13" s="297"/>
+      <c r="U13" s="297"/>
+      <c r="V13" s="297"/>
+      <c r="W13" s="297"/>
+      <c r="X13" s="297"/>
+      <c r="Y13" s="297"/>
+      <c r="Z13" s="297"/>
+      <c r="AA13" s="297"/>
+      <c r="AB13" s="297"/>
+      <c r="AC13" s="297"/>
+      <c r="AD13" s="297"/>
+      <c r="AE13" s="298"/>
+      <c r="AF13" s="293"/>
+      <c r="AG13" s="294"/>
+      <c r="AH13" s="294"/>
+      <c r="AI13" s="295"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="286"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="288"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="291"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="292"/>
-      <c r="K14" s="293"/>
-      <c r="L14" s="293"/>
-      <c r="M14" s="293"/>
-      <c r="N14" s="293"/>
-      <c r="O14" s="293"/>
-      <c r="P14" s="294"/>
-      <c r="Q14" s="295"/>
-      <c r="R14" s="296"/>
-      <c r="S14" s="296"/>
-      <c r="T14" s="296"/>
-      <c r="U14" s="296"/>
-      <c r="V14" s="296"/>
-      <c r="W14" s="296"/>
-      <c r="X14" s="296"/>
-      <c r="Y14" s="296"/>
-      <c r="Z14" s="296"/>
-      <c r="AA14" s="296"/>
-      <c r="AB14" s="296"/>
-      <c r="AC14" s="296"/>
-      <c r="AD14" s="296"/>
-      <c r="AE14" s="297"/>
-      <c r="AF14" s="292"/>
-      <c r="AG14" s="293"/>
-      <c r="AH14" s="293"/>
-      <c r="AI14" s="294"/>
+      <c r="B14" s="287"/>
+      <c r="C14" s="288"/>
+      <c r="D14" s="289"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="291"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="292"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="293"/>
+      <c r="K14" s="294"/>
+      <c r="L14" s="294"/>
+      <c r="M14" s="294"/>
+      <c r="N14" s="294"/>
+      <c r="O14" s="294"/>
+      <c r="P14" s="295"/>
+      <c r="Q14" s="296"/>
+      <c r="R14" s="297"/>
+      <c r="S14" s="297"/>
+      <c r="T14" s="297"/>
+      <c r="U14" s="297"/>
+      <c r="V14" s="297"/>
+      <c r="W14" s="297"/>
+      <c r="X14" s="297"/>
+      <c r="Y14" s="297"/>
+      <c r="Z14" s="297"/>
+      <c r="AA14" s="297"/>
+      <c r="AB14" s="297"/>
+      <c r="AC14" s="297"/>
+      <c r="AD14" s="297"/>
+      <c r="AE14" s="298"/>
+      <c r="AF14" s="293"/>
+      <c r="AG14" s="294"/>
+      <c r="AH14" s="294"/>
+      <c r="AI14" s="295"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="286"/>
-      <c r="C15" s="287"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="291"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="292"/>
-      <c r="K15" s="293"/>
-      <c r="L15" s="293"/>
-      <c r="M15" s="293"/>
-      <c r="N15" s="293"/>
-      <c r="O15" s="293"/>
-      <c r="P15" s="294"/>
-      <c r="Q15" s="295"/>
-      <c r="R15" s="296"/>
-      <c r="S15" s="296"/>
-      <c r="T15" s="296"/>
-      <c r="U15" s="296"/>
-      <c r="V15" s="296"/>
-      <c r="W15" s="296"/>
-      <c r="X15" s="296"/>
-      <c r="Y15" s="296"/>
-      <c r="Z15" s="296"/>
-      <c r="AA15" s="296"/>
-      <c r="AB15" s="296"/>
-      <c r="AC15" s="296"/>
-      <c r="AD15" s="296"/>
-      <c r="AE15" s="297"/>
-      <c r="AF15" s="292"/>
-      <c r="AG15" s="293"/>
-      <c r="AH15" s="293"/>
-      <c r="AI15" s="294"/>
+      <c r="B15" s="287"/>
+      <c r="C15" s="288"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="291"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="292"/>
+      <c r="I15" s="288"/>
+      <c r="J15" s="293"/>
+      <c r="K15" s="294"/>
+      <c r="L15" s="294"/>
+      <c r="M15" s="294"/>
+      <c r="N15" s="294"/>
+      <c r="O15" s="294"/>
+      <c r="P15" s="295"/>
+      <c r="Q15" s="296"/>
+      <c r="R15" s="297"/>
+      <c r="S15" s="297"/>
+      <c r="T15" s="297"/>
+      <c r="U15" s="297"/>
+      <c r="V15" s="297"/>
+      <c r="W15" s="297"/>
+      <c r="X15" s="297"/>
+      <c r="Y15" s="297"/>
+      <c r="Z15" s="297"/>
+      <c r="AA15" s="297"/>
+      <c r="AB15" s="297"/>
+      <c r="AC15" s="297"/>
+      <c r="AD15" s="297"/>
+      <c r="AE15" s="298"/>
+      <c r="AF15" s="293"/>
+      <c r="AG15" s="294"/>
+      <c r="AH15" s="294"/>
+      <c r="AI15" s="295"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="286"/>
-      <c r="C16" s="287"/>
-      <c r="D16" s="288"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="291"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="292"/>
-      <c r="K16" s="293"/>
-      <c r="L16" s="293"/>
-      <c r="M16" s="293"/>
-      <c r="N16" s="293"/>
-      <c r="O16" s="293"/>
-      <c r="P16" s="294"/>
-      <c r="Q16" s="295"/>
-      <c r="R16" s="296"/>
-      <c r="S16" s="296"/>
-      <c r="T16" s="296"/>
-      <c r="U16" s="296"/>
-      <c r="V16" s="296"/>
-      <c r="W16" s="296"/>
-      <c r="X16" s="296"/>
-      <c r="Y16" s="296"/>
-      <c r="Z16" s="296"/>
-      <c r="AA16" s="296"/>
-      <c r="AB16" s="296"/>
-      <c r="AC16" s="296"/>
-      <c r="AD16" s="296"/>
-      <c r="AE16" s="297"/>
-      <c r="AF16" s="292"/>
-      <c r="AG16" s="293"/>
-      <c r="AH16" s="293"/>
-      <c r="AI16" s="294"/>
+      <c r="B16" s="287"/>
+      <c r="C16" s="288"/>
+      <c r="D16" s="289"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="291"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="292"/>
+      <c r="I16" s="288"/>
+      <c r="J16" s="293"/>
+      <c r="K16" s="294"/>
+      <c r="L16" s="294"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="294"/>
+      <c r="O16" s="294"/>
+      <c r="P16" s="295"/>
+      <c r="Q16" s="296"/>
+      <c r="R16" s="297"/>
+      <c r="S16" s="297"/>
+      <c r="T16" s="297"/>
+      <c r="U16" s="297"/>
+      <c r="V16" s="297"/>
+      <c r="W16" s="297"/>
+      <c r="X16" s="297"/>
+      <c r="Y16" s="297"/>
+      <c r="Z16" s="297"/>
+      <c r="AA16" s="297"/>
+      <c r="AB16" s="297"/>
+      <c r="AC16" s="297"/>
+      <c r="AD16" s="297"/>
+      <c r="AE16" s="298"/>
+      <c r="AF16" s="293"/>
+      <c r="AG16" s="294"/>
+      <c r="AH16" s="294"/>
+      <c r="AI16" s="295"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="286"/>
-      <c r="C17" s="287"/>
-      <c r="D17" s="288"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="286"/>
-      <c r="H17" s="291"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="292"/>
-      <c r="K17" s="293"/>
-      <c r="L17" s="293"/>
-      <c r="M17" s="293"/>
-      <c r="N17" s="293"/>
-      <c r="O17" s="293"/>
-      <c r="P17" s="294"/>
-      <c r="Q17" s="295"/>
-      <c r="R17" s="296"/>
-      <c r="S17" s="296"/>
-      <c r="T17" s="296"/>
-      <c r="U17" s="296"/>
-      <c r="V17" s="296"/>
-      <c r="W17" s="296"/>
-      <c r="X17" s="296"/>
-      <c r="Y17" s="296"/>
-      <c r="Z17" s="296"/>
-      <c r="AA17" s="296"/>
-      <c r="AB17" s="296"/>
-      <c r="AC17" s="296"/>
-      <c r="AD17" s="296"/>
-      <c r="AE17" s="297"/>
-      <c r="AF17" s="292"/>
-      <c r="AG17" s="293"/>
-      <c r="AH17" s="293"/>
-      <c r="AI17" s="294"/>
+      <c r="B17" s="287"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="289"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="291"/>
+      <c r="G17" s="287"/>
+      <c r="H17" s="292"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="293"/>
+      <c r="K17" s="294"/>
+      <c r="L17" s="294"/>
+      <c r="M17" s="294"/>
+      <c r="N17" s="294"/>
+      <c r="O17" s="294"/>
+      <c r="P17" s="295"/>
+      <c r="Q17" s="296"/>
+      <c r="R17" s="297"/>
+      <c r="S17" s="297"/>
+      <c r="T17" s="297"/>
+      <c r="U17" s="297"/>
+      <c r="V17" s="297"/>
+      <c r="W17" s="297"/>
+      <c r="X17" s="297"/>
+      <c r="Y17" s="297"/>
+      <c r="Z17" s="297"/>
+      <c r="AA17" s="297"/>
+      <c r="AB17" s="297"/>
+      <c r="AC17" s="297"/>
+      <c r="AD17" s="297"/>
+      <c r="AE17" s="298"/>
+      <c r="AF17" s="293"/>
+      <c r="AG17" s="294"/>
+      <c r="AH17" s="294"/>
+      <c r="AI17" s="295"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="286"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="291"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="292"/>
-      <c r="K18" s="293"/>
-      <c r="L18" s="293"/>
-      <c r="M18" s="293"/>
-      <c r="N18" s="293"/>
-      <c r="O18" s="293"/>
-      <c r="P18" s="294"/>
-      <c r="Q18" s="295"/>
-      <c r="R18" s="296"/>
-      <c r="S18" s="296"/>
-      <c r="T18" s="296"/>
-      <c r="U18" s="296"/>
-      <c r="V18" s="296"/>
-      <c r="W18" s="296"/>
-      <c r="X18" s="296"/>
-      <c r="Y18" s="296"/>
-      <c r="Z18" s="296"/>
-      <c r="AA18" s="296"/>
-      <c r="AB18" s="296"/>
-      <c r="AC18" s="296"/>
-      <c r="AD18" s="296"/>
-      <c r="AE18" s="297"/>
-      <c r="AF18" s="292"/>
-      <c r="AG18" s="293"/>
-      <c r="AH18" s="293"/>
-      <c r="AI18" s="294"/>
+      <c r="B18" s="287"/>
+      <c r="C18" s="288"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="291"/>
+      <c r="G18" s="287"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="293"/>
+      <c r="K18" s="294"/>
+      <c r="L18" s="294"/>
+      <c r="M18" s="294"/>
+      <c r="N18" s="294"/>
+      <c r="O18" s="294"/>
+      <c r="P18" s="295"/>
+      <c r="Q18" s="296"/>
+      <c r="R18" s="297"/>
+      <c r="S18" s="297"/>
+      <c r="T18" s="297"/>
+      <c r="U18" s="297"/>
+      <c r="V18" s="297"/>
+      <c r="W18" s="297"/>
+      <c r="X18" s="297"/>
+      <c r="Y18" s="297"/>
+      <c r="Z18" s="297"/>
+      <c r="AA18" s="297"/>
+      <c r="AB18" s="297"/>
+      <c r="AC18" s="297"/>
+      <c r="AD18" s="297"/>
+      <c r="AE18" s="298"/>
+      <c r="AF18" s="293"/>
+      <c r="AG18" s="294"/>
+      <c r="AH18" s="294"/>
+      <c r="AI18" s="295"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="286"/>
-      <c r="C19" s="287"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="286"/>
-      <c r="H19" s="291"/>
-      <c r="I19" s="287"/>
-      <c r="J19" s="292"/>
-      <c r="K19" s="293"/>
-      <c r="L19" s="293"/>
-      <c r="M19" s="293"/>
-      <c r="N19" s="293"/>
-      <c r="O19" s="293"/>
-      <c r="P19" s="294"/>
-      <c r="Q19" s="295"/>
-      <c r="R19" s="296"/>
-      <c r="S19" s="296"/>
-      <c r="T19" s="296"/>
-      <c r="U19" s="296"/>
-      <c r="V19" s="296"/>
-      <c r="W19" s="296"/>
-      <c r="X19" s="296"/>
-      <c r="Y19" s="296"/>
-      <c r="Z19" s="296"/>
-      <c r="AA19" s="296"/>
-      <c r="AB19" s="296"/>
-      <c r="AC19" s="296"/>
-      <c r="AD19" s="296"/>
-      <c r="AE19" s="297"/>
-      <c r="AF19" s="292"/>
-      <c r="AG19" s="293"/>
-      <c r="AH19" s="293"/>
-      <c r="AI19" s="294"/>
+      <c r="B19" s="287"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="289"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="291"/>
+      <c r="G19" s="287"/>
+      <c r="H19" s="292"/>
+      <c r="I19" s="288"/>
+      <c r="J19" s="293"/>
+      <c r="K19" s="294"/>
+      <c r="L19" s="294"/>
+      <c r="M19" s="294"/>
+      <c r="N19" s="294"/>
+      <c r="O19" s="294"/>
+      <c r="P19" s="295"/>
+      <c r="Q19" s="296"/>
+      <c r="R19" s="297"/>
+      <c r="S19" s="297"/>
+      <c r="T19" s="297"/>
+      <c r="U19" s="297"/>
+      <c r="V19" s="297"/>
+      <c r="W19" s="297"/>
+      <c r="X19" s="297"/>
+      <c r="Y19" s="297"/>
+      <c r="Z19" s="297"/>
+      <c r="AA19" s="297"/>
+      <c r="AB19" s="297"/>
+      <c r="AC19" s="297"/>
+      <c r="AD19" s="297"/>
+      <c r="AE19" s="298"/>
+      <c r="AF19" s="293"/>
+      <c r="AG19" s="294"/>
+      <c r="AH19" s="294"/>
+      <c r="AI19" s="295"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="286"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="290"/>
-      <c r="G20" s="286"/>
-      <c r="H20" s="291"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="292"/>
-      <c r="K20" s="293"/>
-      <c r="L20" s="293"/>
-      <c r="M20" s="293"/>
-      <c r="N20" s="293"/>
-      <c r="O20" s="293"/>
-      <c r="P20" s="294"/>
-      <c r="Q20" s="295"/>
-      <c r="R20" s="296"/>
-      <c r="S20" s="296"/>
-      <c r="T20" s="296"/>
-      <c r="U20" s="296"/>
-      <c r="V20" s="296"/>
-      <c r="W20" s="296"/>
-      <c r="X20" s="296"/>
-      <c r="Y20" s="296"/>
-      <c r="Z20" s="296"/>
-      <c r="AA20" s="296"/>
-      <c r="AB20" s="296"/>
-      <c r="AC20" s="296"/>
-      <c r="AD20" s="296"/>
-      <c r="AE20" s="297"/>
-      <c r="AF20" s="292"/>
-      <c r="AG20" s="293"/>
-      <c r="AH20" s="293"/>
-      <c r="AI20" s="294"/>
+      <c r="B20" s="287"/>
+      <c r="C20" s="288"/>
+      <c r="D20" s="289"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="291"/>
+      <c r="G20" s="287"/>
+      <c r="H20" s="292"/>
+      <c r="I20" s="288"/>
+      <c r="J20" s="293"/>
+      <c r="K20" s="294"/>
+      <c r="L20" s="294"/>
+      <c r="M20" s="294"/>
+      <c r="N20" s="294"/>
+      <c r="O20" s="294"/>
+      <c r="P20" s="295"/>
+      <c r="Q20" s="296"/>
+      <c r="R20" s="297"/>
+      <c r="S20" s="297"/>
+      <c r="T20" s="297"/>
+      <c r="U20" s="297"/>
+      <c r="V20" s="297"/>
+      <c r="W20" s="297"/>
+      <c r="X20" s="297"/>
+      <c r="Y20" s="297"/>
+      <c r="Z20" s="297"/>
+      <c r="AA20" s="297"/>
+      <c r="AB20" s="297"/>
+      <c r="AC20" s="297"/>
+      <c r="AD20" s="297"/>
+      <c r="AE20" s="298"/>
+      <c r="AF20" s="293"/>
+      <c r="AG20" s="294"/>
+      <c r="AH20" s="294"/>
+      <c r="AI20" s="295"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="286"/>
-      <c r="C21" s="287"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="289"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="291"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="292"/>
-      <c r="K21" s="293"/>
-      <c r="L21" s="293"/>
-      <c r="M21" s="293"/>
-      <c r="N21" s="293"/>
-      <c r="O21" s="293"/>
-      <c r="P21" s="294"/>
-      <c r="Q21" s="295"/>
-      <c r="R21" s="296"/>
-      <c r="S21" s="296"/>
-      <c r="T21" s="296"/>
-      <c r="U21" s="296"/>
-      <c r="V21" s="296"/>
-      <c r="W21" s="296"/>
-      <c r="X21" s="296"/>
-      <c r="Y21" s="296"/>
-      <c r="Z21" s="296"/>
-      <c r="AA21" s="296"/>
-      <c r="AB21" s="296"/>
-      <c r="AC21" s="296"/>
-      <c r="AD21" s="296"/>
-      <c r="AE21" s="297"/>
-      <c r="AF21" s="292"/>
-      <c r="AG21" s="293"/>
-      <c r="AH21" s="293"/>
-      <c r="AI21" s="294"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="289"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="292"/>
+      <c r="I21" s="288"/>
+      <c r="J21" s="293"/>
+      <c r="K21" s="294"/>
+      <c r="L21" s="294"/>
+      <c r="M21" s="294"/>
+      <c r="N21" s="294"/>
+      <c r="O21" s="294"/>
+      <c r="P21" s="295"/>
+      <c r="Q21" s="296"/>
+      <c r="R21" s="297"/>
+      <c r="S21" s="297"/>
+      <c r="T21" s="297"/>
+      <c r="U21" s="297"/>
+      <c r="V21" s="297"/>
+      <c r="W21" s="297"/>
+      <c r="X21" s="297"/>
+      <c r="Y21" s="297"/>
+      <c r="Z21" s="297"/>
+      <c r="AA21" s="297"/>
+      <c r="AB21" s="297"/>
+      <c r="AC21" s="297"/>
+      <c r="AD21" s="297"/>
+      <c r="AE21" s="298"/>
+      <c r="AF21" s="293"/>
+      <c r="AG21" s="294"/>
+      <c r="AH21" s="294"/>
+      <c r="AI21" s="295"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="286"/>
-      <c r="C22" s="287"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="289"/>
-      <c r="F22" s="290"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="291"/>
-      <c r="I22" s="287"/>
-      <c r="J22" s="292"/>
-      <c r="K22" s="293"/>
-      <c r="L22" s="293"/>
-      <c r="M22" s="293"/>
-      <c r="N22" s="293"/>
-      <c r="O22" s="293"/>
-      <c r="P22" s="294"/>
-      <c r="Q22" s="295"/>
-      <c r="R22" s="296"/>
-      <c r="S22" s="296"/>
-      <c r="T22" s="296"/>
-      <c r="U22" s="296"/>
-      <c r="V22" s="296"/>
-      <c r="W22" s="296"/>
-      <c r="X22" s="296"/>
-      <c r="Y22" s="296"/>
-      <c r="Z22" s="296"/>
-      <c r="AA22" s="296"/>
-      <c r="AB22" s="296"/>
-      <c r="AC22" s="296"/>
-      <c r="AD22" s="296"/>
-      <c r="AE22" s="297"/>
-      <c r="AF22" s="292"/>
-      <c r="AG22" s="293"/>
-      <c r="AH22" s="293"/>
-      <c r="AI22" s="294"/>
+      <c r="B22" s="287"/>
+      <c r="C22" s="288"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="291"/>
+      <c r="G22" s="287"/>
+      <c r="H22" s="292"/>
+      <c r="I22" s="288"/>
+      <c r="J22" s="293"/>
+      <c r="K22" s="294"/>
+      <c r="L22" s="294"/>
+      <c r="M22" s="294"/>
+      <c r="N22" s="294"/>
+      <c r="O22" s="294"/>
+      <c r="P22" s="295"/>
+      <c r="Q22" s="296"/>
+      <c r="R22" s="297"/>
+      <c r="S22" s="297"/>
+      <c r="T22" s="297"/>
+      <c r="U22" s="297"/>
+      <c r="V22" s="297"/>
+      <c r="W22" s="297"/>
+      <c r="X22" s="297"/>
+      <c r="Y22" s="297"/>
+      <c r="Z22" s="297"/>
+      <c r="AA22" s="297"/>
+      <c r="AB22" s="297"/>
+      <c r="AC22" s="297"/>
+      <c r="AD22" s="297"/>
+      <c r="AE22" s="298"/>
+      <c r="AF22" s="293"/>
+      <c r="AG22" s="294"/>
+      <c r="AH22" s="294"/>
+      <c r="AI22" s="295"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="286"/>
-      <c r="C23" s="287"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="290"/>
-      <c r="G23" s="286"/>
-      <c r="H23" s="291"/>
-      <c r="I23" s="287"/>
-      <c r="J23" s="292"/>
-      <c r="K23" s="293"/>
-      <c r="L23" s="293"/>
-      <c r="M23" s="293"/>
-      <c r="N23" s="293"/>
-      <c r="O23" s="293"/>
-      <c r="P23" s="294"/>
-      <c r="Q23" s="295"/>
-      <c r="R23" s="296"/>
-      <c r="S23" s="296"/>
-      <c r="T23" s="296"/>
-      <c r="U23" s="296"/>
-      <c r="V23" s="296"/>
-      <c r="W23" s="296"/>
-      <c r="X23" s="296"/>
-      <c r="Y23" s="296"/>
-      <c r="Z23" s="296"/>
-      <c r="AA23" s="296"/>
-      <c r="AB23" s="296"/>
-      <c r="AC23" s="296"/>
-      <c r="AD23" s="296"/>
-      <c r="AE23" s="297"/>
-      <c r="AF23" s="292"/>
-      <c r="AG23" s="293"/>
-      <c r="AH23" s="293"/>
-      <c r="AI23" s="294"/>
+      <c r="B23" s="287"/>
+      <c r="C23" s="288"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="291"/>
+      <c r="G23" s="287"/>
+      <c r="H23" s="292"/>
+      <c r="I23" s="288"/>
+      <c r="J23" s="293"/>
+      <c r="K23" s="294"/>
+      <c r="L23" s="294"/>
+      <c r="M23" s="294"/>
+      <c r="N23" s="294"/>
+      <c r="O23" s="294"/>
+      <c r="P23" s="295"/>
+      <c r="Q23" s="296"/>
+      <c r="R23" s="297"/>
+      <c r="S23" s="297"/>
+      <c r="T23" s="297"/>
+      <c r="U23" s="297"/>
+      <c r="V23" s="297"/>
+      <c r="W23" s="297"/>
+      <c r="X23" s="297"/>
+      <c r="Y23" s="297"/>
+      <c r="Z23" s="297"/>
+      <c r="AA23" s="297"/>
+      <c r="AB23" s="297"/>
+      <c r="AC23" s="297"/>
+      <c r="AD23" s="297"/>
+      <c r="AE23" s="298"/>
+      <c r="AF23" s="293"/>
+      <c r="AG23" s="294"/>
+      <c r="AH23" s="294"/>
+      <c r="AI23" s="295"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="286"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="289"/>
-      <c r="F24" s="290"/>
-      <c r="G24" s="286"/>
-      <c r="H24" s="291"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="292"/>
-      <c r="K24" s="293"/>
-      <c r="L24" s="293"/>
-      <c r="M24" s="293"/>
-      <c r="N24" s="293"/>
-      <c r="O24" s="293"/>
-      <c r="P24" s="294"/>
-      <c r="Q24" s="295"/>
-      <c r="R24" s="296"/>
-      <c r="S24" s="296"/>
-      <c r="T24" s="296"/>
-      <c r="U24" s="296"/>
-      <c r="V24" s="296"/>
-      <c r="W24" s="296"/>
-      <c r="X24" s="296"/>
-      <c r="Y24" s="296"/>
-      <c r="Z24" s="296"/>
-      <c r="AA24" s="296"/>
-      <c r="AB24" s="296"/>
-      <c r="AC24" s="296"/>
-      <c r="AD24" s="296"/>
-      <c r="AE24" s="297"/>
-      <c r="AF24" s="292"/>
-      <c r="AG24" s="293"/>
-      <c r="AH24" s="293"/>
-      <c r="AI24" s="294"/>
+      <c r="B24" s="287"/>
+      <c r="C24" s="288"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="291"/>
+      <c r="G24" s="287"/>
+      <c r="H24" s="292"/>
+      <c r="I24" s="288"/>
+      <c r="J24" s="293"/>
+      <c r="K24" s="294"/>
+      <c r="L24" s="294"/>
+      <c r="M24" s="294"/>
+      <c r="N24" s="294"/>
+      <c r="O24" s="294"/>
+      <c r="P24" s="295"/>
+      <c r="Q24" s="296"/>
+      <c r="R24" s="297"/>
+      <c r="S24" s="297"/>
+      <c r="T24" s="297"/>
+      <c r="U24" s="297"/>
+      <c r="V24" s="297"/>
+      <c r="W24" s="297"/>
+      <c r="X24" s="297"/>
+      <c r="Y24" s="297"/>
+      <c r="Z24" s="297"/>
+      <c r="AA24" s="297"/>
+      <c r="AB24" s="297"/>
+      <c r="AC24" s="297"/>
+      <c r="AD24" s="297"/>
+      <c r="AE24" s="298"/>
+      <c r="AF24" s="293"/>
+      <c r="AG24" s="294"/>
+      <c r="AH24" s="294"/>
+      <c r="AI24" s="295"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="286"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="286"/>
-      <c r="H25" s="291"/>
-      <c r="I25" s="287"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="293"/>
-      <c r="M25" s="293"/>
-      <c r="N25" s="293"/>
-      <c r="O25" s="293"/>
-      <c r="P25" s="294"/>
-      <c r="Q25" s="295"/>
-      <c r="R25" s="296"/>
-      <c r="S25" s="296"/>
-      <c r="T25" s="296"/>
-      <c r="U25" s="296"/>
-      <c r="V25" s="296"/>
-      <c r="W25" s="296"/>
-      <c r="X25" s="296"/>
-      <c r="Y25" s="296"/>
-      <c r="Z25" s="296"/>
-      <c r="AA25" s="296"/>
-      <c r="AB25" s="296"/>
-      <c r="AC25" s="296"/>
-      <c r="AD25" s="296"/>
-      <c r="AE25" s="297"/>
-      <c r="AF25" s="292"/>
-      <c r="AG25" s="293"/>
-      <c r="AH25" s="293"/>
-      <c r="AI25" s="294"/>
+      <c r="B25" s="287"/>
+      <c r="C25" s="288"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="291"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="292"/>
+      <c r="I25" s="288"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="294"/>
+      <c r="M25" s="294"/>
+      <c r="N25" s="294"/>
+      <c r="O25" s="294"/>
+      <c r="P25" s="295"/>
+      <c r="Q25" s="296"/>
+      <c r="R25" s="297"/>
+      <c r="S25" s="297"/>
+      <c r="T25" s="297"/>
+      <c r="U25" s="297"/>
+      <c r="V25" s="297"/>
+      <c r="W25" s="297"/>
+      <c r="X25" s="297"/>
+      <c r="Y25" s="297"/>
+      <c r="Z25" s="297"/>
+      <c r="AA25" s="297"/>
+      <c r="AB25" s="297"/>
+      <c r="AC25" s="297"/>
+      <c r="AD25" s="297"/>
+      <c r="AE25" s="298"/>
+      <c r="AF25" s="293"/>
+      <c r="AG25" s="294"/>
+      <c r="AH25" s="294"/>
+      <c r="AI25" s="295"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="286"/>
-      <c r="C26" s="287"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="289"/>
-      <c r="F26" s="290"/>
-      <c r="G26" s="286"/>
-      <c r="H26" s="291"/>
-      <c r="I26" s="287"/>
-      <c r="J26" s="292"/>
-      <c r="K26" s="293"/>
-      <c r="L26" s="293"/>
-      <c r="M26" s="293"/>
-      <c r="N26" s="293"/>
-      <c r="O26" s="293"/>
-      <c r="P26" s="294"/>
-      <c r="Q26" s="295"/>
-      <c r="R26" s="296"/>
-      <c r="S26" s="296"/>
-      <c r="T26" s="296"/>
-      <c r="U26" s="296"/>
-      <c r="V26" s="296"/>
-      <c r="W26" s="296"/>
-      <c r="X26" s="296"/>
-      <c r="Y26" s="296"/>
-      <c r="Z26" s="296"/>
-      <c r="AA26" s="296"/>
-      <c r="AB26" s="296"/>
-      <c r="AC26" s="296"/>
-      <c r="AD26" s="296"/>
-      <c r="AE26" s="297"/>
-      <c r="AF26" s="292"/>
-      <c r="AG26" s="293"/>
-      <c r="AH26" s="293"/>
-      <c r="AI26" s="294"/>
+      <c r="B26" s="287"/>
+      <c r="C26" s="288"/>
+      <c r="D26" s="289"/>
+      <c r="E26" s="290"/>
+      <c r="F26" s="291"/>
+      <c r="G26" s="287"/>
+      <c r="H26" s="292"/>
+      <c r="I26" s="288"/>
+      <c r="J26" s="293"/>
+      <c r="K26" s="294"/>
+      <c r="L26" s="294"/>
+      <c r="M26" s="294"/>
+      <c r="N26" s="294"/>
+      <c r="O26" s="294"/>
+      <c r="P26" s="295"/>
+      <c r="Q26" s="296"/>
+      <c r="R26" s="297"/>
+      <c r="S26" s="297"/>
+      <c r="T26" s="297"/>
+      <c r="U26" s="297"/>
+      <c r="V26" s="297"/>
+      <c r="W26" s="297"/>
+      <c r="X26" s="297"/>
+      <c r="Y26" s="297"/>
+      <c r="Z26" s="297"/>
+      <c r="AA26" s="297"/>
+      <c r="AB26" s="297"/>
+      <c r="AC26" s="297"/>
+      <c r="AD26" s="297"/>
+      <c r="AE26" s="298"/>
+      <c r="AF26" s="293"/>
+      <c r="AG26" s="294"/>
+      <c r="AH26" s="294"/>
+      <c r="AI26" s="295"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="286"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="291"/>
-      <c r="I27" s="287"/>
-      <c r="J27" s="292"/>
-      <c r="K27" s="293"/>
-      <c r="L27" s="293"/>
-      <c r="M27" s="293"/>
-      <c r="N27" s="293"/>
-      <c r="O27" s="293"/>
-      <c r="P27" s="294"/>
-      <c r="Q27" s="295"/>
-      <c r="R27" s="296"/>
-      <c r="S27" s="296"/>
-      <c r="T27" s="296"/>
-      <c r="U27" s="296"/>
-      <c r="V27" s="296"/>
-      <c r="W27" s="296"/>
-      <c r="X27" s="296"/>
-      <c r="Y27" s="296"/>
-      <c r="Z27" s="296"/>
-      <c r="AA27" s="296"/>
-      <c r="AB27" s="296"/>
-      <c r="AC27" s="296"/>
-      <c r="AD27" s="296"/>
-      <c r="AE27" s="297"/>
-      <c r="AF27" s="292"/>
-      <c r="AG27" s="293"/>
-      <c r="AH27" s="293"/>
-      <c r="AI27" s="294"/>
+      <c r="B27" s="287"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="291"/>
+      <c r="G27" s="287"/>
+      <c r="H27" s="292"/>
+      <c r="I27" s="288"/>
+      <c r="J27" s="293"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="294"/>
+      <c r="M27" s="294"/>
+      <c r="N27" s="294"/>
+      <c r="O27" s="294"/>
+      <c r="P27" s="295"/>
+      <c r="Q27" s="296"/>
+      <c r="R27" s="297"/>
+      <c r="S27" s="297"/>
+      <c r="T27" s="297"/>
+      <c r="U27" s="297"/>
+      <c r="V27" s="297"/>
+      <c r="W27" s="297"/>
+      <c r="X27" s="297"/>
+      <c r="Y27" s="297"/>
+      <c r="Z27" s="297"/>
+      <c r="AA27" s="297"/>
+      <c r="AB27" s="297"/>
+      <c r="AC27" s="297"/>
+      <c r="AD27" s="297"/>
+      <c r="AE27" s="298"/>
+      <c r="AF27" s="293"/>
+      <c r="AG27" s="294"/>
+      <c r="AH27" s="294"/>
+      <c r="AI27" s="295"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="286"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="289"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="286"/>
-      <c r="H28" s="291"/>
-      <c r="I28" s="287"/>
-      <c r="J28" s="292"/>
-      <c r="K28" s="293"/>
-      <c r="L28" s="293"/>
-      <c r="M28" s="293"/>
-      <c r="N28" s="293"/>
-      <c r="O28" s="293"/>
-      <c r="P28" s="294"/>
-      <c r="Q28" s="295"/>
-      <c r="R28" s="296"/>
-      <c r="S28" s="296"/>
-      <c r="T28" s="296"/>
-      <c r="U28" s="296"/>
-      <c r="V28" s="296"/>
-      <c r="W28" s="296"/>
-      <c r="X28" s="296"/>
-      <c r="Y28" s="296"/>
-      <c r="Z28" s="296"/>
-      <c r="AA28" s="296"/>
-      <c r="AB28" s="296"/>
-      <c r="AC28" s="296"/>
-      <c r="AD28" s="296"/>
-      <c r="AE28" s="297"/>
-      <c r="AF28" s="292"/>
-      <c r="AG28" s="293"/>
-      <c r="AH28" s="293"/>
-      <c r="AI28" s="294"/>
+      <c r="B28" s="287"/>
+      <c r="C28" s="288"/>
+      <c r="D28" s="289"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="291"/>
+      <c r="G28" s="287"/>
+      <c r="H28" s="292"/>
+      <c r="I28" s="288"/>
+      <c r="J28" s="293"/>
+      <c r="K28" s="294"/>
+      <c r="L28" s="294"/>
+      <c r="M28" s="294"/>
+      <c r="N28" s="294"/>
+      <c r="O28" s="294"/>
+      <c r="P28" s="295"/>
+      <c r="Q28" s="296"/>
+      <c r="R28" s="297"/>
+      <c r="S28" s="297"/>
+      <c r="T28" s="297"/>
+      <c r="U28" s="297"/>
+      <c r="V28" s="297"/>
+      <c r="W28" s="297"/>
+      <c r="X28" s="297"/>
+      <c r="Y28" s="297"/>
+      <c r="Z28" s="297"/>
+      <c r="AA28" s="297"/>
+      <c r="AB28" s="297"/>
+      <c r="AC28" s="297"/>
+      <c r="AD28" s="297"/>
+      <c r="AE28" s="298"/>
+      <c r="AF28" s="293"/>
+      <c r="AG28" s="294"/>
+      <c r="AH28" s="294"/>
+      <c r="AI28" s="295"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="286"/>
-      <c r="C29" s="287"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="291"/>
-      <c r="I29" s="287"/>
-      <c r="J29" s="292"/>
-      <c r="K29" s="293"/>
-      <c r="L29" s="293"/>
-      <c r="M29" s="293"/>
-      <c r="N29" s="293"/>
-      <c r="O29" s="293"/>
-      <c r="P29" s="294"/>
-      <c r="Q29" s="295"/>
-      <c r="R29" s="296"/>
-      <c r="S29" s="296"/>
-      <c r="T29" s="296"/>
-      <c r="U29" s="296"/>
-      <c r="V29" s="296"/>
-      <c r="W29" s="296"/>
-      <c r="X29" s="296"/>
-      <c r="Y29" s="296"/>
-      <c r="Z29" s="296"/>
-      <c r="AA29" s="296"/>
-      <c r="AB29" s="296"/>
-      <c r="AC29" s="296"/>
-      <c r="AD29" s="296"/>
-      <c r="AE29" s="297"/>
-      <c r="AF29" s="292"/>
-      <c r="AG29" s="293"/>
-      <c r="AH29" s="293"/>
-      <c r="AI29" s="294"/>
+      <c r="B29" s="287"/>
+      <c r="C29" s="288"/>
+      <c r="D29" s="289"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="291"/>
+      <c r="G29" s="287"/>
+      <c r="H29" s="292"/>
+      <c r="I29" s="288"/>
+      <c r="J29" s="293"/>
+      <c r="K29" s="294"/>
+      <c r="L29" s="294"/>
+      <c r="M29" s="294"/>
+      <c r="N29" s="294"/>
+      <c r="O29" s="294"/>
+      <c r="P29" s="295"/>
+      <c r="Q29" s="296"/>
+      <c r="R29" s="297"/>
+      <c r="S29" s="297"/>
+      <c r="T29" s="297"/>
+      <c r="U29" s="297"/>
+      <c r="V29" s="297"/>
+      <c r="W29" s="297"/>
+      <c r="X29" s="297"/>
+      <c r="Y29" s="297"/>
+      <c r="Z29" s="297"/>
+      <c r="AA29" s="297"/>
+      <c r="AB29" s="297"/>
+      <c r="AC29" s="297"/>
+      <c r="AD29" s="297"/>
+      <c r="AE29" s="298"/>
+      <c r="AF29" s="293"/>
+      <c r="AG29" s="294"/>
+      <c r="AH29" s="294"/>
+      <c r="AI29" s="295"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="286"/>
-      <c r="C30" s="287"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="289"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="286"/>
-      <c r="H30" s="291"/>
-      <c r="I30" s="287"/>
-      <c r="J30" s="292"/>
-      <c r="K30" s="293"/>
-      <c r="L30" s="293"/>
-      <c r="M30" s="293"/>
-      <c r="N30" s="293"/>
-      <c r="O30" s="293"/>
-      <c r="P30" s="294"/>
-      <c r="Q30" s="295"/>
-      <c r="R30" s="296"/>
-      <c r="S30" s="296"/>
-      <c r="T30" s="296"/>
-      <c r="U30" s="296"/>
-      <c r="V30" s="296"/>
-      <c r="W30" s="296"/>
-      <c r="X30" s="296"/>
-      <c r="Y30" s="296"/>
-      <c r="Z30" s="296"/>
-      <c r="AA30" s="296"/>
-      <c r="AB30" s="296"/>
-      <c r="AC30" s="296"/>
-      <c r="AD30" s="296"/>
-      <c r="AE30" s="297"/>
-      <c r="AF30" s="292"/>
-      <c r="AG30" s="293"/>
-      <c r="AH30" s="293"/>
-      <c r="AI30" s="294"/>
+      <c r="B30" s="287"/>
+      <c r="C30" s="288"/>
+      <c r="D30" s="289"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="291"/>
+      <c r="G30" s="287"/>
+      <c r="H30" s="292"/>
+      <c r="I30" s="288"/>
+      <c r="J30" s="293"/>
+      <c r="K30" s="294"/>
+      <c r="L30" s="294"/>
+      <c r="M30" s="294"/>
+      <c r="N30" s="294"/>
+      <c r="O30" s="294"/>
+      <c r="P30" s="295"/>
+      <c r="Q30" s="296"/>
+      <c r="R30" s="297"/>
+      <c r="S30" s="297"/>
+      <c r="T30" s="297"/>
+      <c r="U30" s="297"/>
+      <c r="V30" s="297"/>
+      <c r="W30" s="297"/>
+      <c r="X30" s="297"/>
+      <c r="Y30" s="297"/>
+      <c r="Z30" s="297"/>
+      <c r="AA30" s="297"/>
+      <c r="AB30" s="297"/>
+      <c r="AC30" s="297"/>
+      <c r="AD30" s="297"/>
+      <c r="AE30" s="298"/>
+      <c r="AF30" s="293"/>
+      <c r="AG30" s="294"/>
+      <c r="AH30" s="294"/>
+      <c r="AI30" s="295"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="286"/>
-      <c r="C31" s="287"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="289"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="286"/>
-      <c r="H31" s="291"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="292"/>
-      <c r="K31" s="293"/>
-      <c r="L31" s="293"/>
-      <c r="M31" s="293"/>
-      <c r="N31" s="293"/>
-      <c r="O31" s="293"/>
-      <c r="P31" s="294"/>
-      <c r="Q31" s="295"/>
-      <c r="R31" s="296"/>
-      <c r="S31" s="296"/>
-      <c r="T31" s="296"/>
-      <c r="U31" s="296"/>
-      <c r="V31" s="296"/>
-      <c r="W31" s="296"/>
-      <c r="X31" s="296"/>
-      <c r="Y31" s="296"/>
-      <c r="Z31" s="296"/>
-      <c r="AA31" s="296"/>
-      <c r="AB31" s="296"/>
-      <c r="AC31" s="296"/>
-      <c r="AD31" s="296"/>
-      <c r="AE31" s="297"/>
-      <c r="AF31" s="292"/>
-      <c r="AG31" s="293"/>
-      <c r="AH31" s="293"/>
-      <c r="AI31" s="294"/>
+      <c r="B31" s="287"/>
+      <c r="C31" s="288"/>
+      <c r="D31" s="289"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="291"/>
+      <c r="G31" s="287"/>
+      <c r="H31" s="292"/>
+      <c r="I31" s="288"/>
+      <c r="J31" s="293"/>
+      <c r="K31" s="294"/>
+      <c r="L31" s="294"/>
+      <c r="M31" s="294"/>
+      <c r="N31" s="294"/>
+      <c r="O31" s="294"/>
+      <c r="P31" s="295"/>
+      <c r="Q31" s="296"/>
+      <c r="R31" s="297"/>
+      <c r="S31" s="297"/>
+      <c r="T31" s="297"/>
+      <c r="U31" s="297"/>
+      <c r="V31" s="297"/>
+      <c r="W31" s="297"/>
+      <c r="X31" s="297"/>
+      <c r="Y31" s="297"/>
+      <c r="Z31" s="297"/>
+      <c r="AA31" s="297"/>
+      <c r="AB31" s="297"/>
+      <c r="AC31" s="297"/>
+      <c r="AD31" s="297"/>
+      <c r="AE31" s="298"/>
+      <c r="AF31" s="293"/>
+      <c r="AG31" s="294"/>
+      <c r="AH31" s="294"/>
+      <c r="AI31" s="295"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="286"/>
-      <c r="C32" s="287"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="286"/>
-      <c r="H32" s="291"/>
-      <c r="I32" s="287"/>
-      <c r="J32" s="292"/>
-      <c r="K32" s="311"/>
-      <c r="L32" s="293"/>
-      <c r="M32" s="293"/>
-      <c r="N32" s="293"/>
-      <c r="O32" s="293"/>
-      <c r="P32" s="294"/>
-      <c r="Q32" s="295"/>
-      <c r="R32" s="296"/>
-      <c r="S32" s="296"/>
-      <c r="T32" s="296"/>
-      <c r="U32" s="296"/>
-      <c r="V32" s="296"/>
-      <c r="W32" s="296"/>
-      <c r="X32" s="296"/>
-      <c r="Y32" s="296"/>
-      <c r="Z32" s="296"/>
-      <c r="AA32" s="296"/>
-      <c r="AB32" s="296"/>
-      <c r="AC32" s="296"/>
-      <c r="AD32" s="296"/>
-      <c r="AE32" s="297"/>
-      <c r="AF32" s="292"/>
-      <c r="AG32" s="293"/>
-      <c r="AH32" s="293"/>
-      <c r="AI32" s="294"/>
+      <c r="B32" s="287"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="289"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="291"/>
+      <c r="G32" s="287"/>
+      <c r="H32" s="292"/>
+      <c r="I32" s="288"/>
+      <c r="J32" s="293"/>
+      <c r="K32" s="312"/>
+      <c r="L32" s="294"/>
+      <c r="M32" s="294"/>
+      <c r="N32" s="294"/>
+      <c r="O32" s="294"/>
+      <c r="P32" s="295"/>
+      <c r="Q32" s="296"/>
+      <c r="R32" s="297"/>
+      <c r="S32" s="297"/>
+      <c r="T32" s="297"/>
+      <c r="U32" s="297"/>
+      <c r="V32" s="297"/>
+      <c r="W32" s="297"/>
+      <c r="X32" s="297"/>
+      <c r="Y32" s="297"/>
+      <c r="Z32" s="297"/>
+      <c r="AA32" s="297"/>
+      <c r="AB32" s="297"/>
+      <c r="AC32" s="297"/>
+      <c r="AD32" s="297"/>
+      <c r="AE32" s="298"/>
+      <c r="AF32" s="293"/>
+      <c r="AG32" s="294"/>
+      <c r="AH32" s="294"/>
+      <c r="AI32" s="295"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="286"/>
-      <c r="C33" s="287"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="286"/>
-      <c r="H33" s="291"/>
-      <c r="I33" s="287"/>
-      <c r="J33" s="292"/>
-      <c r="K33" s="293"/>
-      <c r="L33" s="293"/>
-      <c r="M33" s="293"/>
-      <c r="N33" s="293"/>
-      <c r="O33" s="293"/>
-      <c r="P33" s="294"/>
-      <c r="Q33" s="295"/>
-      <c r="R33" s="296"/>
-      <c r="S33" s="296"/>
-      <c r="T33" s="296"/>
-      <c r="U33" s="296"/>
-      <c r="V33" s="296"/>
-      <c r="W33" s="296"/>
-      <c r="X33" s="296"/>
-      <c r="Y33" s="296"/>
-      <c r="Z33" s="296"/>
-      <c r="AA33" s="296"/>
-      <c r="AB33" s="296"/>
-      <c r="AC33" s="296"/>
-      <c r="AD33" s="296"/>
-      <c r="AE33" s="297"/>
-      <c r="AF33" s="292"/>
-      <c r="AG33" s="293"/>
-      <c r="AH33" s="293"/>
-      <c r="AI33" s="294"/>
+      <c r="B33" s="287"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="289"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="291"/>
+      <c r="G33" s="287"/>
+      <c r="H33" s="292"/>
+      <c r="I33" s="288"/>
+      <c r="J33" s="293"/>
+      <c r="K33" s="294"/>
+      <c r="L33" s="294"/>
+      <c r="M33" s="294"/>
+      <c r="N33" s="294"/>
+      <c r="O33" s="294"/>
+      <c r="P33" s="295"/>
+      <c r="Q33" s="296"/>
+      <c r="R33" s="297"/>
+      <c r="S33" s="297"/>
+      <c r="T33" s="297"/>
+      <c r="U33" s="297"/>
+      <c r="V33" s="297"/>
+      <c r="W33" s="297"/>
+      <c r="X33" s="297"/>
+      <c r="Y33" s="297"/>
+      <c r="Z33" s="297"/>
+      <c r="AA33" s="297"/>
+      <c r="AB33" s="297"/>
+      <c r="AC33" s="297"/>
+      <c r="AD33" s="297"/>
+      <c r="AE33" s="298"/>
+      <c r="AF33" s="293"/>
+      <c r="AG33" s="294"/>
+      <c r="AH33" s="294"/>
+      <c r="AI33" s="295"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
@@ -14426,12 +14459,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -14510,7 +14543,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>4</v>
@@ -15442,7 +15475,7 @@
       <c r="H36" s="120"/>
       <c r="I36" s="120"/>
       <c r="J36" s="121" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K36" s="207"/>
       <c r="L36" s="95"/>
@@ -15476,7 +15509,7 @@
       <c r="H37" s="120"/>
       <c r="I37" s="120"/>
       <c r="J37" s="121" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K37" s="207"/>
       <c r="L37" s="95"/>
@@ -15510,7 +15543,7 @@
       <c r="H38" s="120"/>
       <c r="I38" s="121"/>
       <c r="J38" s="121" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K38" s="121"/>
       <c r="L38" s="95"/>
@@ -15544,7 +15577,7 @@
       <c r="H39" s="120"/>
       <c r="I39" s="121"/>
       <c r="J39" s="121" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K39" s="121"/>
       <c r="L39" s="95"/>
@@ -15582,7 +15615,7 @@
       <c r="H40" s="120"/>
       <c r="I40" s="120"/>
       <c r="J40" s="121" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K40" s="78"/>
       <c r="L40" s="95"/>
@@ -15616,7 +15649,7 @@
       <c r="H41" s="120"/>
       <c r="I41" s="120"/>
       <c r="J41" s="121" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K41" s="78"/>
       <c r="L41" s="95"/>
@@ -18106,7 +18139,7 @@
       <c r="H111" s="120"/>
       <c r="I111" s="120"/>
       <c r="J111" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K111" s="94"/>
       <c r="L111" s="94"/>
@@ -18129,7 +18162,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="312" t="s">
+      <c r="B112" s="313" t="s">
         <v>194</v>
       </c>
       <c r="C112" s="138"/>
@@ -18142,7 +18175,7 @@
       <c r="H112" s="120"/>
       <c r="I112" s="120"/>
       <c r="J112" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K112" s="94"/>
       <c r="L112" s="94"/>
@@ -18165,7 +18198,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="312"/>
+      <c r="B113" s="313"/>
       <c r="C113" s="138"/>
       <c r="D113" s="133"/>
       <c r="E113" s="147"/>
@@ -18176,7 +18209,7 @@
       <c r="H113" s="120"/>
       <c r="I113" s="120"/>
       <c r="J113" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K113" s="94"/>
       <c r="L113" s="94"/>
@@ -18210,7 +18243,7 @@
       <c r="H114" s="120"/>
       <c r="I114" s="120"/>
       <c r="J114" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K114" s="94"/>
       <c r="L114" s="94"/>
@@ -18246,7 +18279,7 @@
       <c r="H115" s="120"/>
       <c r="I115" s="120"/>
       <c r="J115" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K115" s="94"/>
       <c r="L115" s="94"/>
@@ -18280,7 +18313,7 @@
       <c r="H116" s="120"/>
       <c r="I116" s="120"/>
       <c r="J116" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K116" s="94"/>
       <c r="L116" s="94"/>
@@ -18314,7 +18347,7 @@
       <c r="H117" s="120"/>
       <c r="I117" s="120"/>
       <c r="J117" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K117" s="94"/>
       <c r="L117" s="94"/>
@@ -18348,7 +18381,7 @@
       <c r="H118" s="120"/>
       <c r="I118" s="120"/>
       <c r="J118" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K118" s="94"/>
       <c r="L118" s="94"/>
@@ -18379,7 +18412,7 @@
         <v>202</v>
       </c>
       <c r="G119" s="120" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H119" s="120"/>
       <c r="I119" s="120"/>
@@ -18418,7 +18451,7 @@
       <c r="H120" s="120"/>
       <c r="I120" s="120"/>
       <c r="J120" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K120" s="94"/>
       <c r="L120" s="94"/>
@@ -18452,7 +18485,7 @@
       <c r="H121" s="120"/>
       <c r="I121" s="120"/>
       <c r="J121" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K121" s="94"/>
       <c r="L121" s="94"/>
@@ -18590,7 +18623,7 @@
       <c r="H125" s="120"/>
       <c r="I125" s="120"/>
       <c r="J125" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K125" s="94"/>
       <c r="L125" s="94"/>
@@ -18628,7 +18661,7 @@
       <c r="H126" s="120"/>
       <c r="I126" s="120"/>
       <c r="J126" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K126" s="94"/>
       <c r="L126" s="94"/>
@@ -18704,7 +18737,7 @@
       <c r="H128" s="120"/>
       <c r="I128" s="120"/>
       <c r="J128" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K128" s="94"/>
       <c r="L128" s="94"/>
@@ -18738,7 +18771,7 @@
       <c r="H129" s="120"/>
       <c r="I129" s="120"/>
       <c r="J129" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K129" s="94"/>
       <c r="L129" s="94"/>
@@ -18772,7 +18805,7 @@
       <c r="H130" s="120"/>
       <c r="I130" s="120"/>
       <c r="J130" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K130" s="94"/>
       <c r="L130" s="94"/>
@@ -18837,7 +18870,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="312" t="s">
+      <c r="B132" s="313" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="138"/>
@@ -18873,7 +18906,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="312"/>
+      <c r="B133" s="313"/>
       <c r="C133" s="138"/>
       <c r="D133" s="133"/>
       <c r="E133" s="133"/>
@@ -19026,7 +19059,7 @@
       <c r="H137" s="120"/>
       <c r="I137" s="120"/>
       <c r="J137" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K137" s="94"/>
       <c r="L137" s="94"/>
@@ -19066,7 +19099,7 @@
       <c r="H138" s="120"/>
       <c r="I138" s="120"/>
       <c r="J138" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K138" s="94"/>
       <c r="L138" s="94"/>
@@ -19102,7 +19135,7 @@
       <c r="H139" s="120"/>
       <c r="I139" s="120"/>
       <c r="J139" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K139" s="94"/>
       <c r="L139" s="94"/>
@@ -19138,7 +19171,7 @@
       <c r="H140" s="120"/>
       <c r="I140" s="120"/>
       <c r="J140" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K140" s="94"/>
       <c r="L140" s="94"/>
@@ -19210,7 +19243,7 @@
       <c r="H142" s="120"/>
       <c r="I142" s="120"/>
       <c r="J142" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K142" s="94"/>
       <c r="L142" s="94"/>
@@ -19454,7 +19487,7 @@
       <c r="H149" s="120"/>
       <c r="I149" s="120"/>
       <c r="J149" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K149" s="94"/>
       <c r="L149" s="94"/>
@@ -19488,7 +19521,7 @@
       <c r="H150" s="120"/>
       <c r="I150" s="120"/>
       <c r="J150" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K150" s="94"/>
       <c r="L150" s="94"/>
@@ -19524,7 +19557,7 @@
       <c r="H151" s="120"/>
       <c r="I151" s="120"/>
       <c r="J151" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K151" s="94"/>
       <c r="L151" s="94"/>
@@ -19558,7 +19591,7 @@
       <c r="H152" s="120"/>
       <c r="I152" s="120"/>
       <c r="J152" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K152" s="94"/>
       <c r="L152" s="94"/>
@@ -19592,7 +19625,7 @@
       <c r="H153" s="120"/>
       <c r="I153" s="120"/>
       <c r="J153" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K153" s="94"/>
       <c r="L153" s="94"/>
@@ -19626,7 +19659,7 @@
       <c r="H154" s="120"/>
       <c r="I154" s="120"/>
       <c r="J154" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K154" s="94"/>
       <c r="L154" s="94"/>
@@ -19660,7 +19693,7 @@
       <c r="H155" s="120"/>
       <c r="I155" s="120"/>
       <c r="J155" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K155" s="94"/>
       <c r="L155" s="94"/>
@@ -19694,7 +19727,7 @@
       <c r="H156" s="120"/>
       <c r="I156" s="120"/>
       <c r="J156" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K156" s="94"/>
       <c r="L156" s="94"/>
@@ -19728,7 +19761,7 @@
       <c r="H157" s="120"/>
       <c r="I157" s="120"/>
       <c r="J157" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K157" s="94"/>
       <c r="L157" s="94"/>
@@ -19762,7 +19795,7 @@
       <c r="H158" s="120"/>
       <c r="I158" s="120"/>
       <c r="J158" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K158" s="94"/>
       <c r="L158" s="94"/>
@@ -19796,7 +19829,7 @@
       <c r="H159" s="120"/>
       <c r="I159" s="120"/>
       <c r="J159" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K159" s="94"/>
       <c r="L159" s="94"/>
@@ -19830,7 +19863,7 @@
       <c r="H160" s="120"/>
       <c r="I160" s="120"/>
       <c r="J160" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K160" s="94"/>
       <c r="L160" s="94"/>
@@ -19864,7 +19897,7 @@
       <c r="H161" s="120"/>
       <c r="I161" s="120"/>
       <c r="J161" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K161" s="94"/>
       <c r="L161" s="94"/>
@@ -19900,7 +19933,7 @@
       <c r="H162" s="120"/>
       <c r="I162" s="120"/>
       <c r="J162" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K162" s="94"/>
       <c r="L162" s="94"/>
@@ -19934,7 +19967,7 @@
       <c r="H163" s="120"/>
       <c r="I163" s="120"/>
       <c r="J163" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K163" s="94"/>
       <c r="L163" s="94"/>
@@ -19968,7 +20001,7 @@
       <c r="H164" s="120"/>
       <c r="I164" s="120"/>
       <c r="J164" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K164" s="94"/>
       <c r="L164" s="94"/>
@@ -20002,7 +20035,7 @@
       <c r="H165" s="120"/>
       <c r="I165" s="120"/>
       <c r="J165" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K165" s="94"/>
       <c r="L165" s="94"/>
@@ -20036,7 +20069,7 @@
       <c r="H166" s="120"/>
       <c r="I166" s="120"/>
       <c r="J166" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K166" s="94"/>
       <c r="L166" s="94"/>
@@ -20067,7 +20100,7 @@
         <v>265</v>
       </c>
       <c r="G167" s="120" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H167" s="120"/>
       <c r="I167" s="120"/>
@@ -20140,7 +20173,7 @@
       <c r="H169" s="120"/>
       <c r="I169" s="120"/>
       <c r="J169" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K169" s="94"/>
       <c r="L169" s="94"/>
@@ -20174,7 +20207,7 @@
       <c r="H170" s="120"/>
       <c r="I170" s="120"/>
       <c r="J170" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K170" s="94"/>
       <c r="L170" s="94"/>
@@ -20208,7 +20241,7 @@
       <c r="H171" s="120"/>
       <c r="I171" s="120"/>
       <c r="J171" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K171" s="94"/>
       <c r="L171" s="94"/>
@@ -20242,7 +20275,7 @@
       <c r="H172" s="120"/>
       <c r="I172" s="120"/>
       <c r="J172" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K172" s="94"/>
       <c r="L172" s="94"/>
@@ -20276,7 +20309,7 @@
       <c r="H173" s="120"/>
       <c r="I173" s="120"/>
       <c r="J173" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K173" s="94"/>
       <c r="L173" s="94"/>
@@ -20310,7 +20343,7 @@
       <c r="H174" s="120"/>
       <c r="I174" s="120"/>
       <c r="J174" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K174" s="94"/>
       <c r="L174" s="94"/>
@@ -20448,7 +20481,7 @@
       <c r="H178" s="120"/>
       <c r="I178" s="120"/>
       <c r="J178" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K178" s="94"/>
       <c r="L178" s="94"/>
@@ -24002,7 +24035,7 @@
       <c r="H279" s="120"/>
       <c r="I279" s="120"/>
       <c r="J279" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K279" s="94"/>
       <c r="L279" s="95"/>
@@ -24036,7 +24069,7 @@
       <c r="H280" s="120"/>
       <c r="I280" s="120"/>
       <c r="J280" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K280" s="94"/>
       <c r="L280" s="95"/>
@@ -24070,7 +24103,7 @@
       <c r="H281" s="120"/>
       <c r="I281" s="120"/>
       <c r="J281" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K281" s="94"/>
       <c r="L281" s="95"/>
@@ -24104,7 +24137,7 @@
       <c r="H282" s="120"/>
       <c r="I282" s="120"/>
       <c r="J282" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K282" s="94"/>
       <c r="L282" s="95"/>
@@ -24144,7 +24177,7 @@
       <c r="H283" s="120"/>
       <c r="I283" s="120"/>
       <c r="J283" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K283" s="94"/>
       <c r="L283" s="95"/>
@@ -24180,7 +24213,7 @@
       <c r="H284" s="120"/>
       <c r="I284" s="120"/>
       <c r="J284" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K284" s="94"/>
       <c r="L284" s="95"/>
@@ -24216,7 +24249,7 @@
       <c r="H285" s="120"/>
       <c r="I285" s="120"/>
       <c r="J285" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K285" s="94"/>
       <c r="L285" s="95"/>
@@ -24252,7 +24285,7 @@
       <c r="H286" s="120"/>
       <c r="I286" s="120"/>
       <c r="J286" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K286" s="94"/>
       <c r="L286" s="95"/>
@@ -24290,7 +24323,7 @@
       <c r="H287" s="120"/>
       <c r="I287" s="120"/>
       <c r="J287" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K287" s="94"/>
       <c r="L287" s="95"/>
@@ -24324,7 +24357,7 @@
       <c r="H288" s="120"/>
       <c r="I288" s="120"/>
       <c r="J288" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K288" s="94"/>
       <c r="L288" s="95"/>
@@ -24358,7 +24391,7 @@
       <c r="H289" s="120"/>
       <c r="I289" s="120"/>
       <c r="J289" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K289" s="94"/>
       <c r="L289" s="95"/>
@@ -24392,7 +24425,7 @@
       <c r="H290" s="120"/>
       <c r="I290" s="120"/>
       <c r="J290" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K290" s="94"/>
       <c r="L290" s="95"/>
@@ -24426,7 +24459,7 @@
       <c r="H291" s="120"/>
       <c r="I291" s="120"/>
       <c r="J291" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K291" s="94"/>
       <c r="L291" s="95"/>
@@ -24460,7 +24493,7 @@
       <c r="H292" s="120"/>
       <c r="I292" s="120"/>
       <c r="J292" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K292" s="94"/>
       <c r="L292" s="95"/>
@@ -24494,7 +24527,7 @@
       <c r="H293" s="120"/>
       <c r="I293" s="120"/>
       <c r="J293" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K293" s="94"/>
       <c r="L293" s="95"/>
@@ -24528,7 +24561,7 @@
       <c r="H294" s="120"/>
       <c r="I294" s="120"/>
       <c r="J294" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K294" s="94"/>
       <c r="L294" s="95"/>
@@ -24562,7 +24595,7 @@
       <c r="H295" s="120"/>
       <c r="I295" s="120"/>
       <c r="J295" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K295" s="94"/>
       <c r="L295" s="95"/>
@@ -24643,12 +24676,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -24663,7 +24696,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -25897,7 +25930,7 @@
       <c r="H42" s="120"/>
       <c r="I42" s="120"/>
       <c r="J42" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K42" s="78"/>
       <c r="L42" s="94"/>
@@ -25931,7 +25964,7 @@
       <c r="H43" s="132"/>
       <c r="I43" s="120"/>
       <c r="J43" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K43" s="78"/>
       <c r="L43" s="94"/>
@@ -25965,7 +25998,7 @@
       <c r="H44" s="132"/>
       <c r="I44" s="120"/>
       <c r="J44" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K44" s="78"/>
       <c r="L44" s="94"/>
@@ -26001,7 +26034,7 @@
       <c r="H45" s="94"/>
       <c r="I45" s="94"/>
       <c r="J45" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K45" s="95"/>
       <c r="L45" s="94"/>
@@ -26035,7 +26068,7 @@
       <c r="H46" s="94"/>
       <c r="I46" s="94"/>
       <c r="J46" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K46" s="95"/>
       <c r="L46" s="94"/>
@@ -26069,7 +26102,7 @@
       <c r="H47" s="94"/>
       <c r="I47" s="94"/>
       <c r="J47" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K47" s="95"/>
       <c r="L47" s="94"/>
@@ -26105,7 +26138,7 @@
       <c r="H48" s="120"/>
       <c r="I48" s="120"/>
       <c r="J48" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K48" s="78"/>
       <c r="L48" s="94"/>
@@ -26139,7 +26172,7 @@
       <c r="H49" s="120"/>
       <c r="I49" s="120"/>
       <c r="J49" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K49" s="78"/>
       <c r="L49" s="94"/>
@@ -26175,7 +26208,7 @@
       <c r="H50" s="94"/>
       <c r="I50" s="94"/>
       <c r="J50" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K50" s="95"/>
       <c r="L50" s="94"/>
@@ -26209,7 +26242,7 @@
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
       <c r="J51" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K51" s="95"/>
       <c r="L51" s="94"/>
@@ -26243,7 +26276,7 @@
       <c r="H52" s="94"/>
       <c r="I52" s="94"/>
       <c r="J52" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K52" s="95"/>
       <c r="L52" s="94"/>
@@ -26277,7 +26310,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="94"/>
       <c r="J53" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K53" s="95"/>
       <c r="L53" s="94"/>
@@ -26311,7 +26344,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
       <c r="J54" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K54" s="95"/>
       <c r="L54" s="94"/>
@@ -26345,7 +26378,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
       <c r="J55" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K55" s="95"/>
       <c r="L55" s="94"/>
@@ -26381,7 +26414,7 @@
       <c r="H56" s="120"/>
       <c r="I56" s="120"/>
       <c r="J56" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K56" s="78"/>
       <c r="L56" s="94"/>
@@ -26417,7 +26450,7 @@
       <c r="H57" s="94"/>
       <c r="I57" s="94"/>
       <c r="J57" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K57" s="95"/>
       <c r="L57" s="94"/>
@@ -26453,7 +26486,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
       <c r="J58" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K58" s="95"/>
       <c r="L58" s="94"/>
@@ -26491,7 +26524,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
       <c r="J59" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K59" s="95"/>
       <c r="L59" s="94"/>
@@ -26525,7 +26558,7 @@
       <c r="H60" s="120"/>
       <c r="I60" s="120"/>
       <c r="J60" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K60" s="78"/>
       <c r="L60" s="94"/>
@@ -26559,7 +26592,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
       <c r="J61" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K61" s="95"/>
       <c r="L61" s="94"/>
@@ -26593,7 +26626,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
       <c r="J62" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K62" s="95"/>
       <c r="L62" s="94"/>
@@ -26627,7 +26660,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
       <c r="J63" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K63" s="95"/>
       <c r="L63" s="94"/>
@@ -26663,7 +26696,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
       <c r="J64" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K64" s="95"/>
       <c r="L64" s="94"/>
@@ -26697,7 +26730,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
       <c r="J65" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K65" s="95"/>
       <c r="L65" s="94"/>
@@ -26731,7 +26764,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
       <c r="J66" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K66" s="95"/>
       <c r="L66" s="94"/>
@@ -26765,7 +26798,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
       <c r="J67" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K67" s="95"/>
       <c r="L67" s="94"/>
@@ -26799,7 +26832,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
       <c r="J68" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K68" s="95"/>
       <c r="L68" s="94"/>
@@ -26833,7 +26866,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
       <c r="J69" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K69" s="95"/>
       <c r="L69" s="94"/>
@@ -26867,7 +26900,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
       <c r="J70" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K70" s="95"/>
       <c r="L70" s="94"/>
@@ -26901,7 +26934,7 @@
       <c r="H71" s="94"/>
       <c r="I71" s="94"/>
       <c r="J71" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K71" s="95"/>
       <c r="L71" s="94"/>
@@ -26937,7 +26970,7 @@
       <c r="H72" s="120"/>
       <c r="I72" s="120"/>
       <c r="J72" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K72" s="78"/>
       <c r="L72" s="206"/>
@@ -26973,7 +27006,7 @@
       <c r="H73" s="94"/>
       <c r="I73" s="94"/>
       <c r="J73" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K73" s="95"/>
       <c r="L73" s="94"/>
@@ -27007,7 +27040,7 @@
       <c r="H74" s="94"/>
       <c r="I74" s="94"/>
       <c r="J74" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K74" s="95"/>
       <c r="L74" s="94"/>
@@ -27041,7 +27074,7 @@
       <c r="H75" s="94"/>
       <c r="I75" s="94"/>
       <c r="J75" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K75" s="95"/>
       <c r="L75" s="94"/>
@@ -27075,7 +27108,7 @@
       <c r="H76" s="94"/>
       <c r="I76" s="94"/>
       <c r="J76" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K76" s="95"/>
       <c r="L76" s="94"/>
@@ -27106,7 +27139,7 @@
         <v>141</v>
       </c>
       <c r="G77" s="93" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H77" s="94"/>
       <c r="I77" s="94"/>
@@ -27149,7 +27182,7 @@
       <c r="H78" s="120"/>
       <c r="I78" s="120"/>
       <c r="J78" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K78" s="78"/>
       <c r="L78" s="94"/>
@@ -27183,7 +27216,7 @@
       <c r="H79" s="120"/>
       <c r="I79" s="120"/>
       <c r="J79" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K79" s="78"/>
       <c r="L79" s="94"/>
@@ -27219,7 +27252,7 @@
       <c r="H80" s="94"/>
       <c r="I80" s="94"/>
       <c r="J80" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K80" s="95"/>
       <c r="L80" s="94"/>
@@ -27255,7 +27288,7 @@
       <c r="H81" s="94"/>
       <c r="I81" s="94"/>
       <c r="J81" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K81" s="95"/>
       <c r="L81" s="94"/>
@@ -27289,7 +27322,7 @@
       <c r="H82" s="94"/>
       <c r="I82" s="94"/>
       <c r="J82" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K82" s="95"/>
       <c r="L82" s="94"/>
@@ -27325,7 +27358,7 @@
       <c r="H83" s="94"/>
       <c r="I83" s="94"/>
       <c r="J83" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K83" s="95"/>
       <c r="L83" s="94"/>
@@ -27361,7 +27394,7 @@
       <c r="H84" s="94"/>
       <c r="I84" s="94"/>
       <c r="J84" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K84" s="95"/>
       <c r="L84" s="94"/>
@@ -27401,7 +27434,7 @@
       <c r="H85" s="94"/>
       <c r="I85" s="94"/>
       <c r="J85" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K85" s="95"/>
       <c r="L85" s="94"/>
@@ -27437,7 +27470,7 @@
       <c r="H86" s="94"/>
       <c r="I86" s="94"/>
       <c r="J86" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K86" s="95"/>
       <c r="L86" s="94"/>
@@ -27473,7 +27506,7 @@
       <c r="H87" s="94"/>
       <c r="I87" s="94"/>
       <c r="J87" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K87" s="95"/>
       <c r="L87" s="94"/>
@@ -27513,7 +27546,7 @@
       <c r="H88" s="120"/>
       <c r="I88" s="120"/>
       <c r="J88" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K88" s="94"/>
       <c r="L88" s="94"/>
@@ -27547,7 +27580,7 @@
       <c r="H89" s="94"/>
       <c r="I89" s="94"/>
       <c r="J89" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K89" s="95"/>
       <c r="L89" s="94"/>
@@ -27583,7 +27616,7 @@
       <c r="H90" s="94"/>
       <c r="I90" s="94"/>
       <c r="J90" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K90" s="95"/>
       <c r="L90" s="94"/>
@@ -27619,7 +27652,7 @@
       <c r="H91" s="94"/>
       <c r="I91" s="94"/>
       <c r="J91" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K91" s="95"/>
       <c r="L91" s="94"/>
@@ -27653,7 +27686,7 @@
       <c r="H92" s="94"/>
       <c r="I92" s="94"/>
       <c r="J92" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K92" s="95"/>
       <c r="L92" s="94"/>
@@ -27689,7 +27722,7 @@
       <c r="H93" s="94"/>
       <c r="I93" s="94"/>
       <c r="J93" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K93" s="95"/>
       <c r="L93" s="94"/>
@@ -27729,7 +27762,7 @@
       <c r="H94" s="94"/>
       <c r="I94" s="94"/>
       <c r="J94" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K94" s="95"/>
       <c r="L94" s="94"/>
@@ -27763,7 +27796,7 @@
       <c r="H95" s="94"/>
       <c r="I95" s="94"/>
       <c r="J95" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K95" s="95"/>
       <c r="L95" s="94"/>
@@ -27797,7 +27830,7 @@
       <c r="H96" s="94"/>
       <c r="I96" s="94"/>
       <c r="J96" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K96" s="95"/>
       <c r="L96" s="94"/>
@@ -27831,7 +27864,7 @@
       <c r="H97" s="94"/>
       <c r="I97" s="94"/>
       <c r="J97" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K97" s="95"/>
       <c r="L97" s="94"/>
@@ -27865,7 +27898,7 @@
       <c r="H98" s="94"/>
       <c r="I98" s="94"/>
       <c r="J98" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K98" s="95"/>
       <c r="L98" s="94"/>
@@ -27901,7 +27934,7 @@
       <c r="H99" s="94"/>
       <c r="I99" s="94"/>
       <c r="J99" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K99" s="95"/>
       <c r="L99" s="94"/>
@@ -27935,7 +27968,7 @@
       <c r="H100" s="94"/>
       <c r="I100" s="94"/>
       <c r="J100" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K100" s="95"/>
       <c r="L100" s="94"/>
@@ -27969,7 +28002,7 @@
       <c r="H101" s="94"/>
       <c r="I101" s="94"/>
       <c r="J101" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K101" s="95"/>
       <c r="L101" s="94"/>
@@ -28003,7 +28036,7 @@
       <c r="H102" s="94"/>
       <c r="I102" s="94"/>
       <c r="J102" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K102" s="95"/>
       <c r="L102" s="94"/>
@@ -28037,7 +28070,7 @@
       <c r="H103" s="94"/>
       <c r="I103" s="94"/>
       <c r="J103" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K103" s="95"/>
       <c r="L103" s="94"/>
@@ -28073,7 +28106,7 @@
       <c r="H104" s="94"/>
       <c r="I104" s="94"/>
       <c r="J104" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K104" s="95"/>
       <c r="L104" s="94"/>
@@ -28115,7 +28148,7 @@
       <c r="H105" s="94"/>
       <c r="I105" s="94"/>
       <c r="J105" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K105" s="95"/>
       <c r="L105" s="94"/>
@@ -28155,7 +28188,7 @@
       <c r="H106" s="94"/>
       <c r="I106" s="94"/>
       <c r="J106" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K106" s="95"/>
       <c r="L106" s="94"/>
@@ -28189,7 +28222,7 @@
       <c r="H107" s="94"/>
       <c r="I107" s="94"/>
       <c r="J107" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K107" s="95"/>
       <c r="L107" s="94"/>
@@ -28229,7 +28262,7 @@
       <c r="H108" s="94"/>
       <c r="I108" s="94"/>
       <c r="J108" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K108" s="95"/>
       <c r="L108" s="94"/>
@@ -28269,7 +28302,7 @@
       <c r="H109" s="94"/>
       <c r="I109" s="94"/>
       <c r="J109" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K109" s="95"/>
       <c r="L109" s="94"/>
@@ -28303,7 +28336,7 @@
       <c r="H110" s="94"/>
       <c r="I110" s="94"/>
       <c r="J110" s="95" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K110" s="95"/>
       <c r="L110" s="94"/>
@@ -28345,7 +28378,7 @@
       <c r="H111" s="94"/>
       <c r="I111" s="94"/>
       <c r="J111" s="95" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K111" s="95"/>
       <c r="L111" s="94"/>
@@ -28368,7 +28401,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="313" t="s">
+      <c r="B112" s="314" t="s">
         <v>540</v>
       </c>
       <c r="C112" s="168"/>
@@ -28381,7 +28414,7 @@
       <c r="H112" s="94"/>
       <c r="I112" s="94"/>
       <c r="J112" s="95" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K112" s="95"/>
       <c r="L112" s="94"/>
@@ -28404,7 +28437,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="313"/>
+      <c r="B113" s="314"/>
       <c r="C113" s="168"/>
       <c r="D113" s="165"/>
       <c r="E113" s="185"/>
@@ -28415,7 +28448,7 @@
       <c r="H113" s="94"/>
       <c r="I113" s="94"/>
       <c r="J113" s="95" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K113" s="95"/>
       <c r="L113" s="94"/>
@@ -28449,7 +28482,7 @@
       <c r="H114" s="94"/>
       <c r="I114" s="94"/>
       <c r="J114" s="95" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K114" s="95"/>
       <c r="L114" s="94"/>
@@ -28867,7 +28900,7 @@
       <c r="H126" s="94"/>
       <c r="I126" s="94"/>
       <c r="J126" s="95" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K126" s="95"/>
       <c r="L126" s="94"/>
@@ -29053,7 +29086,7 @@
       <c r="H131" s="94"/>
       <c r="I131" s="94"/>
       <c r="J131" s="95" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K131" s="95"/>
       <c r="L131" s="94"/>
@@ -29076,7 +29109,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="313" t="s">
+      <c r="B132" s="314" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="168"/>
@@ -29112,7 +29145,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="313"/>
+      <c r="B133" s="314"/>
       <c r="C133" s="168"/>
       <c r="D133" s="165"/>
       <c r="E133" s="168"/>
@@ -29193,7 +29226,7 @@
       <c r="H135" s="94"/>
       <c r="I135" s="94"/>
       <c r="J135" s="95" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K135" s="95"/>
       <c r="L135" s="94"/>
@@ -29227,7 +29260,7 @@
       <c r="H136" s="94"/>
       <c r="I136" s="94"/>
       <c r="J136" s="95" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K136" s="95"/>
       <c r="L136" s="94"/>
@@ -29265,7 +29298,7 @@
       <c r="H137" s="94"/>
       <c r="I137" s="94"/>
       <c r="J137" s="95" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K137" s="95"/>
       <c r="L137" s="94"/>
@@ -30549,7 +30582,7 @@
       <c r="H174" s="94"/>
       <c r="I174" s="94"/>
       <c r="J174" s="95" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K174" s="95"/>
       <c r="L174" s="94"/>
@@ -34241,7 +34274,7 @@
       <c r="H279" s="94"/>
       <c r="I279" s="94"/>
       <c r="J279" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K279" s="95"/>
       <c r="L279" s="94"/>
@@ -34275,7 +34308,7 @@
       <c r="H280" s="94"/>
       <c r="I280" s="94"/>
       <c r="J280" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K280" s="95"/>
       <c r="L280" s="94"/>
@@ -34309,7 +34342,7 @@
       <c r="H281" s="94"/>
       <c r="I281" s="94"/>
       <c r="J281" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K281" s="95"/>
       <c r="L281" s="94"/>
@@ -34343,7 +34376,7 @@
       <c r="H282" s="94"/>
       <c r="I282" s="94"/>
       <c r="J282" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K282" s="95"/>
       <c r="L282" s="94"/>
@@ -34383,7 +34416,7 @@
       <c r="H283" s="94"/>
       <c r="I283" s="94"/>
       <c r="J283" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K283" s="95"/>
       <c r="L283" s="94"/>
@@ -34419,7 +34452,7 @@
       <c r="H284" s="94"/>
       <c r="I284" s="94"/>
       <c r="J284" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K284" s="95"/>
       <c r="L284" s="94"/>
@@ -34455,7 +34488,7 @@
       <c r="H285" s="94"/>
       <c r="I285" s="94"/>
       <c r="J285" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K285" s="95"/>
       <c r="L285" s="94"/>
@@ -34491,7 +34524,7 @@
       <c r="H286" s="94"/>
       <c r="I286" s="94"/>
       <c r="J286" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K286" s="95"/>
       <c r="L286" s="94"/>
@@ -34529,7 +34562,7 @@
       <c r="H287" s="94"/>
       <c r="I287" s="94"/>
       <c r="J287" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K287" s="95"/>
       <c r="L287" s="94"/>
@@ -34563,7 +34596,7 @@
       <c r="H288" s="94"/>
       <c r="I288" s="94"/>
       <c r="J288" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K288" s="95"/>
       <c r="L288" s="94"/>
@@ -34597,7 +34630,7 @@
       <c r="H289" s="94"/>
       <c r="I289" s="94"/>
       <c r="J289" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K289" s="95"/>
       <c r="L289" s="94"/>
@@ -34631,7 +34664,7 @@
       <c r="H290" s="94"/>
       <c r="I290" s="94"/>
       <c r="J290" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K290" s="95"/>
       <c r="L290" s="94"/>
@@ -34665,7 +34698,7 @@
       <c r="H291" s="94"/>
       <c r="I291" s="94"/>
       <c r="J291" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K291" s="95"/>
       <c r="L291" s="94"/>
@@ -34699,7 +34732,7 @@
       <c r="H292" s="94"/>
       <c r="I292" s="94"/>
       <c r="J292" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K292" s="95"/>
       <c r="L292" s="94"/>
@@ -34733,7 +34766,7 @@
       <c r="H293" s="94"/>
       <c r="I293" s="94"/>
       <c r="J293" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K293" s="95"/>
       <c r="L293" s="94"/>
@@ -34767,7 +34800,7 @@
       <c r="H294" s="94"/>
       <c r="I294" s="94"/>
       <c r="J294" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K294" s="95"/>
       <c r="L294" s="94"/>
@@ -34801,7 +34834,7 @@
       <c r="H295" s="94"/>
       <c r="I295" s="94"/>
       <c r="J295" s="200" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K295" s="95"/>
       <c r="L295" s="94"/>
@@ -34840,7 +34873,7 @@
         <v>415</v>
       </c>
       <c r="G296" s="78" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H296" s="78"/>
       <c r="I296" s="78"/>
@@ -34874,7 +34907,7 @@
         <v>416</v>
       </c>
       <c r="G297" s="78" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H297" s="78"/>
       <c r="I297" s="78"/>
@@ -34909,16 +34942,16 @@
       </c>
       <c r="G298" s="33"/>
       <c r="H298" s="116" t="s">
+        <v>663</v>
+      </c>
+      <c r="I298" s="116" t="s">
         <v>664</v>
       </c>
-      <c r="I298" s="116" t="s">
-        <v>665</v>
-      </c>
       <c r="J298" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K298" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L298" s="113"/>
       <c r="M298" s="113"/>
@@ -34949,16 +34982,16 @@
       </c>
       <c r="G299" s="49"/>
       <c r="H299" s="123" t="s">
+        <v>663</v>
+      </c>
+      <c r="I299" s="123" t="s">
         <v>664</v>
       </c>
-      <c r="I299" s="123" t="s">
-        <v>665</v>
-      </c>
       <c r="J299" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K299" s="49" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L299" s="118"/>
       <c r="M299" s="118"/>
@@ -34989,16 +35022,16 @@
       </c>
       <c r="G300" s="49"/>
       <c r="H300" s="123" t="s">
+        <v>663</v>
+      </c>
+      <c r="I300" s="123" t="s">
         <v>664</v>
       </c>
-      <c r="I300" s="123" t="s">
-        <v>665</v>
-      </c>
       <c r="J300" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K300" s="49" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L300" s="118"/>
       <c r="M300" s="118"/>
@@ -35029,16 +35062,16 @@
       </c>
       <c r="G301" s="48"/>
       <c r="H301" s="123" t="s">
+        <v>663</v>
+      </c>
+      <c r="I301" s="123" t="s">
         <v>664</v>
       </c>
-      <c r="I301" s="123" t="s">
-        <v>665</v>
-      </c>
       <c r="J301" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K301" s="49" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L301" s="127"/>
       <c r="M301" s="126"/>
@@ -35069,16 +35102,16 @@
       </c>
       <c r="G302" s="49"/>
       <c r="H302" s="123" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I302" s="123" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J302" s="123" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K302" s="49" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L302" s="118"/>
       <c r="M302" s="118"/>
@@ -35109,16 +35142,16 @@
       </c>
       <c r="G303" s="49"/>
       <c r="H303" s="123" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I303" s="123" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J303" s="123" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K303" s="49" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L303" s="118"/>
       <c r="M303" s="118"/>
@@ -35149,16 +35182,16 @@
       </c>
       <c r="G304" s="49"/>
       <c r="H304" s="123" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I304" s="123" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J304" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K304" s="49" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L304" s="118"/>
       <c r="M304" s="118"/>
@@ -35189,16 +35222,16 @@
       </c>
       <c r="G305" s="49"/>
       <c r="H305" s="123" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I305" s="123" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J305" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K305" s="49" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L305" s="118"/>
       <c r="M305" s="118"/>
@@ -35229,16 +35262,16 @@
       </c>
       <c r="G306" s="49"/>
       <c r="H306" s="123" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I306" s="123" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J306" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K306" s="49" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L306" s="118"/>
       <c r="M306" s="118"/>
@@ -35269,16 +35302,16 @@
       </c>
       <c r="G307" s="49"/>
       <c r="H307" s="123" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I307" s="123" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J307" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K307" s="49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L307" s="118"/>
       <c r="M307" s="118"/>
@@ -35309,16 +35342,16 @@
       </c>
       <c r="G308" s="49"/>
       <c r="H308" s="123" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I308" s="123" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J308" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K308" s="49" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L308" s="118"/>
       <c r="M308" s="118"/>
@@ -35351,7 +35384,7 @@
       <c r="H309" s="120"/>
       <c r="I309" s="120"/>
       <c r="J309" s="120" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K309" s="78"/>
       <c r="L309" s="94"/>
@@ -35383,16 +35416,16 @@
       </c>
       <c r="G310" s="49"/>
       <c r="H310" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I310" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I310" s="123" t="s">
+      <c r="J310" s="116" t="s">
+        <v>680</v>
+      </c>
+      <c r="K310" s="49" t="s">
         <v>685</v>
-      </c>
-      <c r="J310" s="116" t="s">
-        <v>681</v>
-      </c>
-      <c r="K310" s="49" t="s">
-        <v>686</v>
       </c>
       <c r="L310" s="118"/>
       <c r="M310" s="118"/>
@@ -35425,7 +35458,7 @@
       <c r="H311" s="120"/>
       <c r="I311" s="120"/>
       <c r="J311" s="78" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K311" s="78"/>
       <c r="L311" s="94"/>
@@ -35457,16 +35490,16 @@
       </c>
       <c r="G312" s="49"/>
       <c r="H312" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I312" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I312" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J312" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K312" s="49" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L312" s="118"/>
       <c r="M312" s="118"/>
@@ -35495,16 +35528,16 @@
       <c r="F313" s="228"/>
       <c r="G313" s="49"/>
       <c r="H313" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I313" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I313" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J313" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K313" s="49" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L313" s="118"/>
       <c r="M313" s="118"/>
@@ -35533,16 +35566,16 @@
       <c r="F314" s="228"/>
       <c r="G314" s="49"/>
       <c r="H314" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I314" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I314" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J314" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K314" s="49" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L314" s="118"/>
       <c r="M314" s="118"/>
@@ -35571,16 +35604,16 @@
       <c r="F315" s="228"/>
       <c r="G315" s="49"/>
       <c r="H315" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I315" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I315" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J315" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K315" s="49" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L315" s="118"/>
       <c r="M315" s="118"/>
@@ -35609,16 +35642,16 @@
       <c r="F316" s="228"/>
       <c r="G316" s="49"/>
       <c r="H316" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I316" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I316" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J316" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K316" s="49" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L316" s="118"/>
       <c r="M316" s="118"/>
@@ -35647,16 +35680,16 @@
       <c r="F317" s="229"/>
       <c r="G317" s="49"/>
       <c r="H317" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I317" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I317" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J317" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K317" s="49" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L317" s="118"/>
       <c r="M317" s="118"/>
@@ -35687,16 +35720,16 @@
       </c>
       <c r="G318" s="49"/>
       <c r="H318" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I318" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I318" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J318" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K318" s="49" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L318" s="118"/>
       <c r="M318" s="118"/>
@@ -35725,16 +35758,16 @@
       <c r="F319" s="228"/>
       <c r="G319" s="49"/>
       <c r="H319" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I319" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I319" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J319" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K319" s="49" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L319" s="118"/>
       <c r="M319" s="118"/>
@@ -35763,16 +35796,16 @@
       <c r="F320" s="228"/>
       <c r="G320" s="49"/>
       <c r="H320" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I320" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I320" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J320" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K320" s="49" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L320" s="118"/>
       <c r="M320" s="118"/>
@@ -35801,16 +35834,16 @@
       <c r="F321" s="228"/>
       <c r="G321" s="49"/>
       <c r="H321" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I321" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I321" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J321" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K321" s="49" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L321" s="118"/>
       <c r="M321" s="118"/>
@@ -35839,16 +35872,16 @@
       <c r="F322" s="228"/>
       <c r="G322" s="49"/>
       <c r="H322" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I322" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I322" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J322" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K322" s="49" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L322" s="118"/>
       <c r="M322" s="118"/>
@@ -35877,16 +35910,16 @@
       <c r="F323" s="229"/>
       <c r="G323" s="49"/>
       <c r="H323" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="I323" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="I323" s="123" t="s">
-        <v>685</v>
-      </c>
       <c r="J323" s="116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K323" s="49" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L323" s="118"/>
       <c r="M323" s="118"/>
@@ -35919,7 +35952,7 @@
       <c r="H324" s="120"/>
       <c r="I324" s="120"/>
       <c r="J324" s="120" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K324" s="78"/>
       <c r="L324" s="94"/>
@@ -35953,7 +35986,7 @@
       <c r="H325" s="120"/>
       <c r="I325" s="120"/>
       <c r="J325" s="78" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K325" s="117"/>
       <c r="L325" s="94"/>
@@ -36023,7 +36056,7 @@
       <c r="H327" s="120"/>
       <c r="I327" s="78"/>
       <c r="J327" s="78" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K327" s="117"/>
       <c r="L327" s="94"/>
@@ -36057,7 +36090,7 @@
       <c r="H328" s="120"/>
       <c r="I328" s="78"/>
       <c r="J328" s="78" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K328" s="117"/>
       <c r="L328" s="94"/>
@@ -36091,16 +36124,16 @@
       </c>
       <c r="G329" s="66"/>
       <c r="H329" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I329" s="123" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J329" s="113" t="s">
+        <v>704</v>
+      </c>
+      <c r="K329" s="49" t="s">
         <v>705</v>
-      </c>
-      <c r="K329" s="49" t="s">
-        <v>706</v>
       </c>
       <c r="L329" s="116"/>
       <c r="M329" s="113"/>
@@ -36129,16 +36162,16 @@
       <c r="F330" s="230"/>
       <c r="G330" s="66"/>
       <c r="H330" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I330" s="123" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J330" s="113" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K330" s="49" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L330" s="116"/>
       <c r="M330" s="113"/>
@@ -36167,16 +36200,16 @@
       <c r="F331" s="230"/>
       <c r="G331" s="66"/>
       <c r="H331" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I331" s="123" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J331" s="113" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K331" s="49" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L331" s="116"/>
       <c r="M331" s="113"/>
@@ -36205,16 +36238,16 @@
       <c r="F332" s="230"/>
       <c r="G332" s="66"/>
       <c r="H332" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I332" s="123" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J332" s="113" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K332" s="49" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L332" s="116"/>
       <c r="M332" s="113"/>
@@ -36243,16 +36276,16 @@
       <c r="F333" s="230"/>
       <c r="G333" s="66"/>
       <c r="H333" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I333" s="123" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J333" s="113" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K333" s="49" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L333" s="116"/>
       <c r="M333" s="113"/>
@@ -36281,16 +36314,16 @@
       <c r="F334" s="230"/>
       <c r="G334" s="66"/>
       <c r="H334" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I334" s="123" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J334" s="113" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K334" s="49" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L334" s="116"/>
       <c r="M334" s="113"/>
@@ -36319,16 +36352,16 @@
       <c r="F335" s="230"/>
       <c r="G335" s="66"/>
       <c r="H335" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I335" s="123" t="s">
+        <v>702</v>
+      </c>
+      <c r="J335" s="113" t="s">
         <v>703</v>
       </c>
-      <c r="J335" s="113" t="s">
-        <v>704</v>
-      </c>
       <c r="K335" s="49" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L335" s="116"/>
       <c r="M335" s="113"/>
@@ -36357,16 +36390,16 @@
       <c r="F336" s="231"/>
       <c r="G336" s="66"/>
       <c r="H336" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I336" s="123" t="s">
+        <v>702</v>
+      </c>
+      <c r="J336" s="113" t="s">
         <v>703</v>
       </c>
-      <c r="J336" s="113" t="s">
-        <v>704</v>
-      </c>
       <c r="K336" s="49" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L336" s="116"/>
       <c r="M336" s="113"/>
@@ -36397,16 +36430,16 @@
       </c>
       <c r="G337" s="66"/>
       <c r="H337" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I337" s="123" t="s">
+        <v>702</v>
+      </c>
+      <c r="J337" s="113" t="s">
         <v>703</v>
       </c>
-      <c r="J337" s="113" t="s">
-        <v>704</v>
-      </c>
       <c r="K337" s="49" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L337" s="116"/>
       <c r="M337" s="113"/>
@@ -36435,16 +36468,16 @@
       <c r="F338" s="230"/>
       <c r="G338" s="66"/>
       <c r="H338" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I338" s="123" t="s">
+        <v>702</v>
+      </c>
+      <c r="J338" s="113" t="s">
         <v>703</v>
       </c>
-      <c r="J338" s="113" t="s">
-        <v>704</v>
-      </c>
       <c r="K338" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L338" s="116"/>
       <c r="M338" s="113"/>
@@ -36473,16 +36506,16 @@
       <c r="F339" s="230"/>
       <c r="G339" s="66"/>
       <c r="H339" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I339" s="123" t="s">
+        <v>702</v>
+      </c>
+      <c r="J339" s="113" t="s">
         <v>703</v>
       </c>
-      <c r="J339" s="113" t="s">
-        <v>704</v>
-      </c>
       <c r="K339" s="49" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L339" s="116"/>
       <c r="M339" s="113"/>
@@ -36511,16 +36544,16 @@
       <c r="F340" s="231"/>
       <c r="G340" s="66"/>
       <c r="H340" s="123" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I340" s="123" t="s">
+        <v>702</v>
+      </c>
+      <c r="J340" s="113" t="s">
         <v>703</v>
       </c>
-      <c r="J340" s="113" t="s">
-        <v>704</v>
-      </c>
       <c r="K340" s="49" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L340" s="116"/>
       <c r="M340" s="113"/>
@@ -36555,7 +36588,7 @@
       <c r="H341" s="120"/>
       <c r="I341" s="78"/>
       <c r="J341" s="94" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K341" s="117"/>
       <c r="L341" s="94"/>
@@ -36591,7 +36624,7 @@
       <c r="H342" s="120"/>
       <c r="I342" s="120"/>
       <c r="J342" s="120" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K342" s="78"/>
       <c r="L342" s="94"/>
@@ -36625,7 +36658,7 @@
       <c r="H343" s="120"/>
       <c r="I343" s="120"/>
       <c r="J343" s="120" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K343" s="78"/>
       <c r="L343" s="94"/>
@@ -36659,7 +36692,7 @@
       <c r="H344" s="94"/>
       <c r="I344" s="94"/>
       <c r="J344" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K344" s="95"/>
       <c r="L344" s="94"/>
@@ -36693,7 +36726,7 @@
       <c r="H345" s="94"/>
       <c r="I345" s="94"/>
       <c r="J345" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K345" s="95"/>
       <c r="L345" s="94"/>
@@ -36727,7 +36760,7 @@
       <c r="H346" s="94"/>
       <c r="I346" s="94"/>
       <c r="J346" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K346" s="95"/>
       <c r="L346" s="94"/>
@@ -36761,7 +36794,7 @@
       <c r="H347" s="94"/>
       <c r="I347" s="94"/>
       <c r="J347" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K347" s="95"/>
       <c r="L347" s="94"/>
@@ -36795,7 +36828,7 @@
       <c r="H348" s="94"/>
       <c r="I348" s="94"/>
       <c r="J348" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K348" s="95"/>
       <c r="L348" s="94"/>
@@ -36829,7 +36862,7 @@
       <c r="H349" s="94"/>
       <c r="I349" s="94"/>
       <c r="J349" s="95" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K349" s="95"/>
       <c r="L349" s="94"/>
@@ -36861,16 +36894,16 @@
       </c>
       <c r="G350" s="67"/>
       <c r="H350" s="113" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I350" s="113" t="s">
+        <v>717</v>
+      </c>
+      <c r="J350" s="114" t="s">
+        <v>719</v>
+      </c>
+      <c r="K350" s="76" t="s">
         <v>718</v>
-      </c>
-      <c r="J350" s="114" t="s">
-        <v>720</v>
-      </c>
-      <c r="K350" s="76" t="s">
-        <v>719</v>
       </c>
       <c r="L350" s="113"/>
       <c r="M350" s="113"/>
@@ -36903,16 +36936,16 @@
       </c>
       <c r="G351" s="67"/>
       <c r="H351" s="116" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I351" s="116" t="s">
+        <v>720</v>
+      </c>
+      <c r="J351" s="116" t="s">
+        <v>680</v>
+      </c>
+      <c r="K351" s="33" t="s">
         <v>721</v>
-      </c>
-      <c r="J351" s="116" t="s">
-        <v>681</v>
-      </c>
-      <c r="K351" s="33" t="s">
-        <v>722</v>
       </c>
       <c r="L351" s="113"/>
       <c r="M351" s="113"/>
@@ -36945,16 +36978,16 @@
       </c>
       <c r="G352" s="67"/>
       <c r="H352" s="116" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I352" s="116" t="s">
+        <v>722</v>
+      </c>
+      <c r="J352" s="116" t="s">
+        <v>680</v>
+      </c>
+      <c r="K352" s="113" t="s">
         <v>723</v>
-      </c>
-      <c r="J352" s="116" t="s">
-        <v>681</v>
-      </c>
-      <c r="K352" s="113" t="s">
-        <v>724</v>
       </c>
       <c r="L352" s="113"/>
       <c r="M352" s="113"/>
@@ -36989,16 +37022,16 @@
       </c>
       <c r="G353" s="67"/>
       <c r="H353" s="116" t="s">
+        <v>683</v>
+      </c>
+      <c r="I353" s="116" t="s">
         <v>684</v>
       </c>
-      <c r="I353" s="116" t="s">
-        <v>685</v>
-      </c>
       <c r="J353" s="116" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K353" s="33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L353" s="113"/>
       <c r="M353" s="113"/>
@@ -37027,16 +37060,16 @@
       <c r="F354" s="230"/>
       <c r="G354" s="67"/>
       <c r="H354" s="116" t="s">
+        <v>683</v>
+      </c>
+      <c r="I354" s="116" t="s">
         <v>684</v>
       </c>
-      <c r="I354" s="116" t="s">
-        <v>685</v>
-      </c>
       <c r="J354" s="116" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K354" s="33" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L354" s="113"/>
       <c r="M354" s="113"/>
@@ -37065,16 +37098,16 @@
       <c r="F355" s="230"/>
       <c r="G355" s="67"/>
       <c r="H355" s="116" t="s">
+        <v>683</v>
+      </c>
+      <c r="I355" s="116" t="s">
         <v>684</v>
       </c>
-      <c r="I355" s="116" t="s">
-        <v>685</v>
-      </c>
       <c r="J355" s="116" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K355" s="33" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L355" s="113"/>
       <c r="M355" s="113"/>
@@ -37103,16 +37136,16 @@
       <c r="F356" s="230"/>
       <c r="G356" s="67"/>
       <c r="H356" s="116" t="s">
+        <v>683</v>
+      </c>
+      <c r="I356" s="116" t="s">
         <v>684</v>
       </c>
-      <c r="I356" s="116" t="s">
-        <v>685</v>
-      </c>
       <c r="J356" s="116" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K356" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L356" s="113"/>
       <c r="M356" s="113"/>
@@ -37141,16 +37174,16 @@
       <c r="F357" s="230"/>
       <c r="G357" s="67"/>
       <c r="H357" s="116" t="s">
+        <v>683</v>
+      </c>
+      <c r="I357" s="116" t="s">
         <v>684</v>
       </c>
-      <c r="I357" s="116" t="s">
-        <v>685</v>
-      </c>
       <c r="J357" s="116" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K357" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L357" s="113"/>
       <c r="M357" s="113"/>
@@ -37179,16 +37212,16 @@
       <c r="F358" s="231"/>
       <c r="G358" s="67"/>
       <c r="H358" s="116" t="s">
+        <v>683</v>
+      </c>
+      <c r="I358" s="116" t="s">
         <v>684</v>
       </c>
-      <c r="I358" s="116" t="s">
-        <v>685</v>
-      </c>
       <c r="J358" s="116" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K358" s="33" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L358" s="113"/>
       <c r="M358" s="113"/>
@@ -37223,7 +37256,7 @@
       <c r="H359" s="120"/>
       <c r="I359" s="120"/>
       <c r="J359" s="120" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K359" s="78"/>
       <c r="L359" s="94"/>
@@ -37257,7 +37290,7 @@
       <c r="H360" s="120"/>
       <c r="I360" s="120"/>
       <c r="J360" s="120" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K360" s="78"/>
       <c r="L360" s="94"/>
@@ -37291,7 +37324,7 @@
       <c r="H361" s="94"/>
       <c r="I361" s="94"/>
       <c r="J361" s="120" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K361" s="95"/>
       <c r="L361" s="94"/>
@@ -37325,7 +37358,7 @@
       <c r="H362" s="94"/>
       <c r="I362" s="94"/>
       <c r="J362" s="95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K362" s="95"/>
       <c r="L362" s="94"/>
@@ -37363,7 +37396,7 @@
       <c r="H363" s="94"/>
       <c r="I363" s="94"/>
       <c r="J363" s="95" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K363" s="95"/>
       <c r="L363" s="94"/>
@@ -37397,7 +37430,7 @@
       <c r="H364" s="94"/>
       <c r="I364" s="94"/>
       <c r="J364" s="95" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K364" s="95"/>
       <c r="L364" s="94"/>
@@ -37431,7 +37464,7 @@
       <c r="H365" s="94"/>
       <c r="I365" s="94"/>
       <c r="J365" s="95" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K365" s="95"/>
       <c r="L365" s="94"/>
@@ -37469,7 +37502,7 @@
       <c r="H366" s="94"/>
       <c r="I366" s="94"/>
       <c r="J366" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K366" s="95"/>
       <c r="L366" s="94"/>
@@ -37503,7 +37536,7 @@
       <c r="H367" s="94"/>
       <c r="I367" s="94"/>
       <c r="J367" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K367" s="95"/>
       <c r="L367" s="94"/>
@@ -37537,7 +37570,7 @@
       <c r="H368" s="94"/>
       <c r="I368" s="94"/>
       <c r="J368" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K368" s="95"/>
       <c r="L368" s="94"/>
@@ -37571,7 +37604,7 @@
       <c r="H369" s="94"/>
       <c r="I369" s="94"/>
       <c r="J369" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K369" s="95"/>
       <c r="L369" s="94"/>
@@ -37605,7 +37638,7 @@
       <c r="H370" s="94"/>
       <c r="I370" s="94"/>
       <c r="J370" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K370" s="95"/>
       <c r="L370" s="94"/>
@@ -37636,7 +37669,7 @@
         <v>469</v>
       </c>
       <c r="G371" s="93" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H371" s="94"/>
       <c r="I371" s="94"/>
@@ -37673,7 +37706,7 @@
       <c r="H372" s="94"/>
       <c r="I372" s="94"/>
       <c r="J372" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K372" s="95"/>
       <c r="L372" s="94"/>
@@ -37707,7 +37740,7 @@
       <c r="H373" s="94"/>
       <c r="I373" s="94"/>
       <c r="J373" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K373" s="95"/>
       <c r="L373" s="94"/>
@@ -37741,7 +37774,7 @@
       <c r="H374" s="94"/>
       <c r="I374" s="94"/>
       <c r="J374" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K374" s="95"/>
       <c r="L374" s="94"/>
@@ -37775,7 +37808,7 @@
       <c r="H375" s="94"/>
       <c r="I375" s="94"/>
       <c r="J375" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K375" s="95"/>
       <c r="L375" s="94"/>
@@ -37809,7 +37842,7 @@
       <c r="H376" s="94"/>
       <c r="I376" s="94"/>
       <c r="J376" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K376" s="95"/>
       <c r="L376" s="94"/>
@@ -37843,7 +37876,7 @@
       <c r="H377" s="94"/>
       <c r="I377" s="94"/>
       <c r="J377" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K377" s="95"/>
       <c r="L377" s="94"/>
@@ -37877,7 +37910,7 @@
       <c r="H378" s="94"/>
       <c r="I378" s="94"/>
       <c r="J378" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K378" s="95"/>
       <c r="L378" s="94"/>
@@ -37911,7 +37944,7 @@
       <c r="H379" s="94"/>
       <c r="I379" s="94"/>
       <c r="J379" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K379" s="95"/>
       <c r="L379" s="94"/>
@@ -37947,7 +37980,7 @@
       <c r="H380" s="94"/>
       <c r="I380" s="94"/>
       <c r="J380" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K380" s="95"/>
       <c r="L380" s="94"/>
@@ -37981,7 +38014,7 @@
       <c r="H381" s="94"/>
       <c r="I381" s="94"/>
       <c r="J381" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K381" s="95"/>
       <c r="L381" s="94"/>
@@ -38015,7 +38048,7 @@
       <c r="H382" s="94"/>
       <c r="I382" s="94"/>
       <c r="J382" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K382" s="95"/>
       <c r="L382" s="94"/>
@@ -38049,7 +38082,7 @@
       <c r="H383" s="94"/>
       <c r="I383" s="94"/>
       <c r="J383" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K383" s="95"/>
       <c r="L383" s="94"/>
@@ -38083,7 +38116,7 @@
       <c r="H384" s="94"/>
       <c r="I384" s="94"/>
       <c r="J384" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K384" s="95"/>
       <c r="L384" s="94"/>
@@ -38117,7 +38150,7 @@
       <c r="H385" s="94"/>
       <c r="I385" s="94"/>
       <c r="J385" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K385" s="95"/>
       <c r="L385" s="94"/>
@@ -38151,7 +38184,7 @@
       <c r="H386" s="94"/>
       <c r="I386" s="94"/>
       <c r="J386" s="200" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K386" s="95"/>
       <c r="L386" s="94"/>
@@ -38193,7 +38226,7 @@
       <c r="H387" s="81"/>
       <c r="I387" s="81"/>
       <c r="J387" s="94" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K387" s="232"/>
       <c r="L387" s="233"/>
@@ -38227,7 +38260,7 @@
       <c r="H388" s="81"/>
       <c r="I388" s="81"/>
       <c r="J388" s="94" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K388" s="200"/>
       <c r="L388" s="201"/>
@@ -38261,7 +38294,7 @@
       <c r="H389" s="81"/>
       <c r="I389" s="81"/>
       <c r="J389" s="94" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K389" s="200"/>
       <c r="L389" s="201"/>
@@ -38295,7 +38328,7 @@
       <c r="H390" s="81"/>
       <c r="I390" s="81"/>
       <c r="J390" s="94" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K390" s="200"/>
       <c r="L390" s="201"/>
@@ -38326,7 +38359,7 @@
         <v>506</v>
       </c>
       <c r="G391" s="199" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H391" s="81"/>
       <c r="I391" s="81"/>
@@ -38367,7 +38400,7 @@
       <c r="H392" s="120"/>
       <c r="I392" s="120"/>
       <c r="J392" s="81" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K392" s="200"/>
       <c r="L392" s="201"/>
@@ -38401,7 +38434,7 @@
       <c r="H393" s="81"/>
       <c r="I393" s="81"/>
       <c r="J393" s="120" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K393" s="200"/>
       <c r="L393" s="201"/>
@@ -38432,7 +38465,7 @@
         <v>511</v>
       </c>
       <c r="G394" s="199" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H394" s="81"/>
       <c r="I394" s="81"/>
@@ -38469,7 +38502,7 @@
       <c r="H395" s="120"/>
       <c r="I395" s="120"/>
       <c r="J395" s="120" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K395" s="94"/>
       <c r="L395" s="201"/>
@@ -38503,7 +38536,7 @@
       <c r="H396" s="81"/>
       <c r="I396" s="81"/>
       <c r="J396" s="200" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K396" s="200"/>
       <c r="L396" s="201"/>
@@ -38541,16 +38574,16 @@
       </c>
       <c r="G397" s="96"/>
       <c r="H397" s="116" t="s">
+        <v>742</v>
+      </c>
+      <c r="I397" s="116" t="s">
+        <v>744</v>
+      </c>
+      <c r="J397" s="116" t="s">
+        <v>746</v>
+      </c>
+      <c r="K397" s="52" t="s">
         <v>743</v>
-      </c>
-      <c r="I397" s="116" t="s">
-        <v>745</v>
-      </c>
-      <c r="J397" s="116" t="s">
-        <v>747</v>
-      </c>
-      <c r="K397" s="52" t="s">
-        <v>744</v>
       </c>
       <c r="L397" s="128"/>
       <c r="M397" s="129"/>
@@ -38579,16 +38612,16 @@
       <c r="F398" s="91"/>
       <c r="G398" s="96"/>
       <c r="H398" s="116" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I398" s="116" t="s">
+        <v>744</v>
+      </c>
+      <c r="J398" s="116" t="s">
         <v>745</v>
       </c>
-      <c r="J398" s="116" t="s">
-        <v>746</v>
-      </c>
       <c r="K398" s="52" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L398" s="128"/>
       <c r="M398" s="129"/>
@@ -38617,16 +38650,16 @@
       <c r="F399" s="91"/>
       <c r="G399" s="96"/>
       <c r="H399" s="116" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I399" s="116" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J399" s="116" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K399" s="52" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L399" s="128"/>
       <c r="M399" s="129"/>
@@ -38655,16 +38688,16 @@
       <c r="F400" s="91"/>
       <c r="G400" s="96"/>
       <c r="H400" s="116" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I400" s="116" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J400" s="116" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K400" s="52" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L400" s="128"/>
       <c r="M400" s="129"/>
@@ -38693,16 +38726,16 @@
       <c r="F401" s="91"/>
       <c r="G401" s="96"/>
       <c r="H401" s="116" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I401" s="116" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J401" s="116" t="s">
+        <v>752</v>
+      </c>
+      <c r="K401" s="52" t="s">
         <v>753</v>
-      </c>
-      <c r="K401" s="52" t="s">
-        <v>754</v>
       </c>
       <c r="L401" s="128"/>
       <c r="M401" s="129"/>
@@ -38731,16 +38764,16 @@
       <c r="F402" s="163"/>
       <c r="G402" s="96"/>
       <c r="H402" s="116" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I402" s="116" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J402" s="116" t="s">
+        <v>754</v>
+      </c>
+      <c r="K402" s="52" t="s">
         <v>755</v>
-      </c>
-      <c r="K402" s="52" t="s">
-        <v>756</v>
       </c>
       <c r="L402" s="128"/>
       <c r="M402" s="129"/>
@@ -38773,7 +38806,7 @@
       <c r="H403" s="120"/>
       <c r="I403" s="120"/>
       <c r="J403" s="120" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K403" s="121"/>
       <c r="L403" s="157"/>
@@ -38805,16 +38838,16 @@
       </c>
       <c r="G404" s="96"/>
       <c r="H404" s="116" t="s">
+        <v>758</v>
+      </c>
+      <c r="I404" s="116" t="s">
         <v>759</v>
       </c>
-      <c r="I404" s="116" t="s">
+      <c r="J404" s="116" t="s">
+        <v>746</v>
+      </c>
+      <c r="K404" s="118" t="s">
         <v>760</v>
-      </c>
-      <c r="J404" s="116" t="s">
-        <v>747</v>
-      </c>
-      <c r="K404" s="118" t="s">
-        <v>761</v>
       </c>
       <c r="L404" s="128"/>
       <c r="M404" s="129"/>
@@ -38843,16 +38876,16 @@
       <c r="F405" s="91"/>
       <c r="G405" s="96"/>
       <c r="H405" s="116" t="s">
+        <v>758</v>
+      </c>
+      <c r="I405" s="116" t="s">
         <v>759</v>
       </c>
-      <c r="I405" s="116" t="s">
+      <c r="J405" s="116" t="s">
+        <v>745</v>
+      </c>
+      <c r="K405" s="118" t="s">
         <v>760</v>
-      </c>
-      <c r="J405" s="116" t="s">
-        <v>746</v>
-      </c>
-      <c r="K405" s="118" t="s">
-        <v>761</v>
       </c>
       <c r="L405" s="128"/>
       <c r="M405" s="129"/>
@@ -38881,16 +38914,16 @@
       <c r="F406" s="91"/>
       <c r="G406" s="96"/>
       <c r="H406" s="116" t="s">
+        <v>758</v>
+      </c>
+      <c r="I406" s="116" t="s">
         <v>759</v>
       </c>
-      <c r="I406" s="116" t="s">
+      <c r="J406" s="116" t="s">
+        <v>748</v>
+      </c>
+      <c r="K406" s="118" t="s">
         <v>760</v>
-      </c>
-      <c r="J406" s="116" t="s">
-        <v>749</v>
-      </c>
-      <c r="K406" s="118" t="s">
-        <v>761</v>
       </c>
       <c r="L406" s="128"/>
       <c r="M406" s="129"/>
@@ -38919,16 +38952,16 @@
       <c r="F407" s="91"/>
       <c r="G407" s="96"/>
       <c r="H407" s="116" t="s">
+        <v>758</v>
+      </c>
+      <c r="I407" s="116" t="s">
         <v>759</v>
       </c>
-      <c r="I407" s="116" t="s">
+      <c r="J407" s="116" t="s">
+        <v>749</v>
+      </c>
+      <c r="K407" s="118" t="s">
         <v>760</v>
-      </c>
-      <c r="J407" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="K407" s="118" t="s">
-        <v>761</v>
       </c>
       <c r="L407" s="128"/>
       <c r="M407" s="129"/>
@@ -38957,16 +38990,16 @@
       <c r="F408" s="91"/>
       <c r="G408" s="96"/>
       <c r="H408" s="116" t="s">
+        <v>758</v>
+      </c>
+      <c r="I408" s="116" t="s">
         <v>759</v>
       </c>
-      <c r="I408" s="116" t="s">
+      <c r="J408" s="116" t="s">
+        <v>752</v>
+      </c>
+      <c r="K408" s="118" t="s">
         <v>760</v>
-      </c>
-      <c r="J408" s="116" t="s">
-        <v>753</v>
-      </c>
-      <c r="K408" s="118" t="s">
-        <v>761</v>
       </c>
       <c r="L408" s="128"/>
       <c r="M408" s="129"/>
@@ -38995,16 +39028,16 @@
       <c r="F409" s="163"/>
       <c r="G409" s="96"/>
       <c r="H409" s="116" t="s">
+        <v>758</v>
+      </c>
+      <c r="I409" s="116" t="s">
         <v>759</v>
       </c>
-      <c r="I409" s="116" t="s">
+      <c r="J409" s="116" t="s">
+        <v>754</v>
+      </c>
+      <c r="K409" s="118" t="s">
         <v>760</v>
-      </c>
-      <c r="J409" s="116" t="s">
-        <v>755</v>
-      </c>
-      <c r="K409" s="118" t="s">
-        <v>761</v>
       </c>
       <c r="L409" s="128"/>
       <c r="M409" s="129"/>
@@ -39037,7 +39070,7 @@
       <c r="H410" s="81"/>
       <c r="I410" s="81"/>
       <c r="J410" s="120" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K410" s="156"/>
       <c r="L410" s="157"/>
@@ -39105,7 +39138,7 @@
       <c r="H412" s="120"/>
       <c r="I412" s="120"/>
       <c r="J412" s="120" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K412" s="121"/>
       <c r="L412" s="157"/>
@@ -39115,7 +39148,7 @@
       <c r="P412" s="158"/>
       <c r="Q412" s="158"/>
     </row>
-    <row r="413" spans="1:17" s="34" customFormat="1" ht="22.5">
+    <row r="413" spans="1:17" s="34" customFormat="1" ht="33.75">
       <c r="A413" s="50" t="str" cm="1">
         <f t="array" aca="1" ref="A413" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E413),
@@ -39130,28 +39163,34 @@
       </c>
       <c r="B413" s="91"/>
       <c r="C413" s="91"/>
-      <c r="D413" s="119" t="s">
+      <c r="D413" s="124" t="s">
         <v>521</v>
       </c>
-      <c r="E413" s="164" t="s">
+      <c r="E413" s="180" t="s">
         <v>493</v>
       </c>
-      <c r="F413" s="155" t="s">
+      <c r="F413" s="96" t="s">
         <v>524</v>
       </c>
-      <c r="G413" s="155"/>
-      <c r="H413" s="81"/>
-      <c r="I413" s="81"/>
-      <c r="J413" s="121" t="s">
-        <v>763</v>
-      </c>
-      <c r="K413" s="156"/>
-      <c r="L413" s="157"/>
-      <c r="M413" s="158"/>
-      <c r="N413" s="158"/>
-      <c r="O413" s="158"/>
-      <c r="P413" s="158"/>
-      <c r="Q413" s="158"/>
+      <c r="G413" s="96"/>
+      <c r="H413" s="90" t="s">
+        <v>768</v>
+      </c>
+      <c r="I413" s="90" t="s">
+        <v>770</v>
+      </c>
+      <c r="J413" s="52" t="s">
+        <v>771</v>
+      </c>
+      <c r="K413" s="249" t="s">
+        <v>769</v>
+      </c>
+      <c r="L413" s="128"/>
+      <c r="M413" s="129"/>
+      <c r="N413" s="129"/>
+      <c r="O413" s="129"/>
+      <c r="P413" s="129"/>
+      <c r="Q413" s="129"/>
     </row>
     <row r="414" spans="1:17" s="34" customFormat="1" ht="45">
       <c r="A414" s="50" t="str" cm="1">
@@ -39179,16 +39218,16 @@
       </c>
       <c r="G414" s="96"/>
       <c r="H414" s="116" t="s">
+        <v>762</v>
+      </c>
+      <c r="I414" s="116" t="s">
+        <v>763</v>
+      </c>
+      <c r="J414" s="116" t="s">
+        <v>680</v>
+      </c>
+      <c r="K414" s="113" t="s">
         <v>764</v>
-      </c>
-      <c r="I414" s="116" t="s">
-        <v>765</v>
-      </c>
-      <c r="J414" s="116" t="s">
-        <v>681</v>
-      </c>
-      <c r="K414" s="113" t="s">
-        <v>766</v>
       </c>
       <c r="L414" s="128"/>
       <c r="M414" s="129"/>
@@ -39217,16 +39256,16 @@
       <c r="F415" s="91"/>
       <c r="G415" s="96"/>
       <c r="H415" s="116" t="s">
+        <v>762</v>
+      </c>
+      <c r="I415" s="116" t="s">
+        <v>763</v>
+      </c>
+      <c r="J415" s="116" t="s">
+        <v>746</v>
+      </c>
+      <c r="K415" s="113" t="s">
         <v>764</v>
-      </c>
-      <c r="I415" s="116" t="s">
-        <v>765</v>
-      </c>
-      <c r="J415" s="116" t="s">
-        <v>747</v>
-      </c>
-      <c r="K415" s="113" t="s">
-        <v>766</v>
       </c>
       <c r="L415" s="130"/>
       <c r="M415" s="131"/>
@@ -39255,16 +39294,16 @@
       <c r="F416" s="91"/>
       <c r="G416" s="96"/>
       <c r="H416" s="116" t="s">
+        <v>762</v>
+      </c>
+      <c r="I416" s="116" t="s">
+        <v>763</v>
+      </c>
+      <c r="J416" s="116" t="s">
+        <v>745</v>
+      </c>
+      <c r="K416" s="113" t="s">
         <v>764</v>
-      </c>
-      <c r="I416" s="116" t="s">
-        <v>765</v>
-      </c>
-      <c r="J416" s="116" t="s">
-        <v>746</v>
-      </c>
-      <c r="K416" s="113" t="s">
-        <v>766</v>
       </c>
       <c r="L416" s="130"/>
       <c r="M416" s="131"/>
@@ -39293,16 +39332,16 @@
       <c r="F417" s="91"/>
       <c r="G417" s="96"/>
       <c r="H417" s="116" t="s">
+        <v>762</v>
+      </c>
+      <c r="I417" s="116" t="s">
+        <v>763</v>
+      </c>
+      <c r="J417" s="116" t="s">
+        <v>748</v>
+      </c>
+      <c r="K417" s="113" t="s">
         <v>764</v>
-      </c>
-      <c r="I417" s="116" t="s">
-        <v>765</v>
-      </c>
-      <c r="J417" s="116" t="s">
-        <v>749</v>
-      </c>
-      <c r="K417" s="113" t="s">
-        <v>766</v>
       </c>
       <c r="L417" s="130"/>
       <c r="M417" s="131"/>
@@ -39331,16 +39370,16 @@
       <c r="F418" s="91"/>
       <c r="G418" s="96"/>
       <c r="H418" s="116" t="s">
+        <v>762</v>
+      </c>
+      <c r="I418" s="116" t="s">
+        <v>763</v>
+      </c>
+      <c r="J418" s="116" t="s">
+        <v>749</v>
+      </c>
+      <c r="K418" s="113" t="s">
         <v>764</v>
-      </c>
-      <c r="I418" s="116" t="s">
-        <v>765</v>
-      </c>
-      <c r="J418" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="K418" s="113" t="s">
-        <v>766</v>
       </c>
       <c r="L418" s="130"/>
       <c r="M418" s="131"/>
@@ -39369,16 +39408,16 @@
       <c r="F419" s="91"/>
       <c r="G419" s="96"/>
       <c r="H419" s="116" t="s">
+        <v>762</v>
+      </c>
+      <c r="I419" s="116" t="s">
+        <v>763</v>
+      </c>
+      <c r="J419" s="116" t="s">
+        <v>752</v>
+      </c>
+      <c r="K419" s="113" t="s">
         <v>764</v>
-      </c>
-      <c r="I419" s="116" t="s">
-        <v>765</v>
-      </c>
-      <c r="J419" s="116" t="s">
-        <v>753</v>
-      </c>
-      <c r="K419" s="113" t="s">
-        <v>766</v>
       </c>
       <c r="L419" s="130"/>
       <c r="M419" s="131"/>
@@ -39407,16 +39446,16 @@
       <c r="F420" s="163"/>
       <c r="G420" s="96"/>
       <c r="H420" s="116" t="s">
+        <v>762</v>
+      </c>
+      <c r="I420" s="116" t="s">
+        <v>763</v>
+      </c>
+      <c r="J420" s="116" t="s">
+        <v>754</v>
+      </c>
+      <c r="K420" s="113" t="s">
         <v>764</v>
-      </c>
-      <c r="I420" s="116" t="s">
-        <v>765</v>
-      </c>
-      <c r="J420" s="116" t="s">
-        <v>755</v>
-      </c>
-      <c r="K420" s="113" t="s">
-        <v>766</v>
       </c>
       <c r="L420" s="130"/>
       <c r="M420" s="131"/>
@@ -39451,16 +39490,16 @@
       </c>
       <c r="G421" s="96"/>
       <c r="H421" s="90" t="s">
+        <v>765</v>
+      </c>
+      <c r="I421" s="90" t="s">
+        <v>766</v>
+      </c>
+      <c r="J421" s="116" t="s">
+        <v>680</v>
+      </c>
+      <c r="K421" s="115" t="s">
         <v>767</v>
-      </c>
-      <c r="I421" s="90" t="s">
-        <v>768</v>
-      </c>
-      <c r="J421" s="116" t="s">
-        <v>681</v>
-      </c>
-      <c r="K421" s="115" t="s">
-        <v>769</v>
       </c>
       <c r="L421" s="130"/>
       <c r="M421" s="131"/>
@@ -39501,7 +39540,7 @@
       <c r="H422" s="94"/>
       <c r="I422" s="94"/>
       <c r="J422" s="95" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K422" s="95"/>
       <c r="L422" s="94"/>
@@ -39535,7 +39574,7 @@
       <c r="H423" s="120"/>
       <c r="I423" s="120"/>
       <c r="J423" s="95" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K423" s="94"/>
       <c r="L423" s="94"/>
@@ -39619,12 +39658,12 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="25" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>14</v>
@@ -39723,7 +39762,7 @@
         <v>569</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D11" s="204" t="s">
         <v>570</v>
@@ -39979,9 +40018,7 @@
       <c r="E20" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="F20" s="94" t="s">
-        <v>645</v>
-      </c>
+      <c r="F20" s="94"/>
       <c r="G20" s="81" t="s">
         <v>571</v>
       </c>
@@ -40003,10 +40040,10 @@
       </c>
       <c r="B21" s="244"/>
       <c r="C21" s="244"/>
-      <c r="D21" s="314" t="s">
+      <c r="D21" s="315" t="s">
         <v>630</v>
       </c>
-      <c r="E21" s="315"/>
+      <c r="E21" s="316"/>
       <c r="F21" s="94" t="s">
         <v>644</v>
       </c>
@@ -40092,7 +40129,7 @@
         <v>623</v>
       </c>
       <c r="D24" s="155" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E24" s="245" t="s">
         <v>624</v>
@@ -40146,7 +40183,7 @@
       <c r="B26" s="244"/>
       <c r="C26" s="244"/>
       <c r="D26" s="155" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E26" s="245" t="s">
         <v>624</v>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10301_TOPメニュー.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10301_TOPメニュー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525C4181-3DA1-4D67-AE54-33D3F1BCFD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0747023-30ED-4A1F-86FB-CD0DDB3DADA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9518,15 +9518,15 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>以下のURLを直接指定しアクセスする。
+    <t>ログインしている状態で以下のURLを直接指定しアクセスする。
 http://localhost:9088/</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="11" eb="13">
       <t>イカ</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="18" eb="20">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="20" eb="22">
       <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -11118,6 +11118,84 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -11224,84 +11302,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13030,51 +13030,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="260" t="s">
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="286" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="262"/>
-      <c r="O1" s="266" t="s">
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="267"/>
-      <c r="Q1" s="267"/>
-      <c r="R1" s="268"/>
-      <c r="S1" s="275" t="s">
+      <c r="P1" s="293"/>
+      <c r="Q1" s="293"/>
+      <c r="R1" s="294"/>
+      <c r="S1" s="301" t="s">
         <v>651</v>
       </c>
-      <c r="T1" s="276"/>
-      <c r="U1" s="276"/>
-      <c r="V1" s="276"/>
-      <c r="W1" s="276"/>
-      <c r="X1" s="276"/>
-      <c r="Y1" s="276"/>
-      <c r="Z1" s="277"/>
-      <c r="AA1" s="257" t="s">
+      <c r="T1" s="302"/>
+      <c r="U1" s="302"/>
+      <c r="V1" s="302"/>
+      <c r="W1" s="302"/>
+      <c r="X1" s="302"/>
+      <c r="Y1" s="302"/>
+      <c r="Z1" s="303"/>
+      <c r="AA1" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="259"/>
-      <c r="AC1" s="284"/>
-      <c r="AD1" s="285"/>
-      <c r="AE1" s="285"/>
-      <c r="AF1" s="286"/>
-      <c r="AG1" s="251"/>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="310"/>
+      <c r="AD1" s="311"/>
+      <c r="AE1" s="311"/>
+      <c r="AF1" s="312"/>
+      <c r="AG1" s="277"/>
+      <c r="AH1" s="278"/>
+      <c r="AI1" s="279"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13082,53 +13082,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="283" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="260" t="s">
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="286" t="s">
         <v>641</v>
       </c>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="262"/>
-      <c r="O2" s="269"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="271"/>
-      <c r="S2" s="278"/>
-      <c r="T2" s="279"/>
-      <c r="U2" s="279"/>
-      <c r="V2" s="279"/>
-      <c r="W2" s="279"/>
-      <c r="X2" s="279"/>
-      <c r="Y2" s="279"/>
-      <c r="Z2" s="280"/>
-      <c r="AA2" s="257" t="s">
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="287"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="296"/>
+      <c r="Q2" s="296"/>
+      <c r="R2" s="297"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="305"/>
+      <c r="U2" s="305"/>
+      <c r="V2" s="305"/>
+      <c r="W2" s="305"/>
+      <c r="X2" s="305"/>
+      <c r="Y2" s="305"/>
+      <c r="Z2" s="306"/>
+      <c r="AA2" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="259"/>
-      <c r="AC2" s="263" t="str">
+      <c r="AB2" s="285"/>
+      <c r="AC2" s="289" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="265"/>
-      <c r="AG2" s="251" t="str">
+      <c r="AD2" s="290"/>
+      <c r="AE2" s="290"/>
+      <c r="AF2" s="291"/>
+      <c r="AG2" s="277" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
+      <c r="AH2" s="278"/>
+      <c r="AI2" s="279"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13136,45 +13136,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="257" t="s">
+      <c r="A3" s="283" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="260" t="s">
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="286" t="s">
         <v>642</v>
       </c>
-      <c r="F3" s="261"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="262"/>
-      <c r="O3" s="272"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="274"/>
-      <c r="S3" s="281"/>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="282"/>
-      <c r="Y3" s="282"/>
-      <c r="Z3" s="283"/>
-      <c r="AA3" s="257"/>
-      <c r="AB3" s="259"/>
-      <c r="AC3" s="284"/>
-      <c r="AD3" s="285"/>
-      <c r="AE3" s="285"/>
-      <c r="AF3" s="286"/>
-      <c r="AG3" s="251"/>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
+      <c r="F3" s="287"/>
+      <c r="G3" s="287"/>
+      <c r="H3" s="287"/>
+      <c r="I3" s="287"/>
+      <c r="J3" s="287"/>
+      <c r="K3" s="287"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="288"/>
+      <c r="O3" s="298"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="299"/>
+      <c r="R3" s="300"/>
+      <c r="S3" s="307"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="308"/>
+      <c r="W3" s="308"/>
+      <c r="X3" s="308"/>
+      <c r="Y3" s="308"/>
+      <c r="Z3" s="309"/>
+      <c r="AA3" s="283"/>
+      <c r="AB3" s="285"/>
+      <c r="AC3" s="310"/>
+      <c r="AD3" s="311"/>
+      <c r="AE3" s="311"/>
+      <c r="AF3" s="312"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="278"/>
+      <c r="AI3" s="279"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13211,1176 +13211,1020 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="254" t="s">
+      <c r="B7" s="280" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="255"/>
-      <c r="D7" s="254" t="s">
+      <c r="C7" s="281"/>
+      <c r="D7" s="280" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="256"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="254" t="s">
+      <c r="E7" s="282"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="256"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="254" t="s">
+      <c r="H7" s="282"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="256"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="256"/>
-      <c r="O7" s="256"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="254" t="s">
+      <c r="K7" s="282"/>
+      <c r="L7" s="282"/>
+      <c r="M7" s="282"/>
+      <c r="N7" s="282"/>
+      <c r="O7" s="282"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="280" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="256"/>
-      <c r="S7" s="256"/>
-      <c r="T7" s="256"/>
-      <c r="U7" s="256"/>
-      <c r="V7" s="256"/>
-      <c r="W7" s="256"/>
-      <c r="X7" s="256"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="256"/>
-      <c r="AA7" s="256"/>
-      <c r="AB7" s="256"/>
-      <c r="AC7" s="256"/>
-      <c r="AD7" s="256"/>
-      <c r="AE7" s="255"/>
-      <c r="AF7" s="254" t="s">
+      <c r="R7" s="282"/>
+      <c r="S7" s="282"/>
+      <c r="T7" s="282"/>
+      <c r="U7" s="282"/>
+      <c r="V7" s="282"/>
+      <c r="W7" s="282"/>
+      <c r="X7" s="282"/>
+      <c r="Y7" s="282"/>
+      <c r="Z7" s="282"/>
+      <c r="AA7" s="282"/>
+      <c r="AB7" s="282"/>
+      <c r="AC7" s="282"/>
+      <c r="AD7" s="282"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="280" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="256"/>
-      <c r="AH7" s="256"/>
-      <c r="AI7" s="255"/>
+      <c r="AG7" s="282"/>
+      <c r="AH7" s="282"/>
+      <c r="AI7" s="281"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="299"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="301"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="304"/>
-      <c r="H8" s="305"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="306"/>
-      <c r="K8" s="307"/>
-      <c r="L8" s="307"/>
-      <c r="M8" s="307"/>
-      <c r="N8" s="307"/>
-      <c r="O8" s="307"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="309"/>
-      <c r="R8" s="310"/>
-      <c r="S8" s="310"/>
-      <c r="T8" s="310"/>
-      <c r="U8" s="310"/>
-      <c r="V8" s="310"/>
-      <c r="W8" s="310"/>
-      <c r="X8" s="310"/>
-      <c r="Y8" s="310"/>
-      <c r="Z8" s="310"/>
-      <c r="AA8" s="310"/>
-      <c r="AB8" s="310"/>
-      <c r="AC8" s="310"/>
-      <c r="AD8" s="310"/>
-      <c r="AE8" s="311"/>
-      <c r="AF8" s="306"/>
-      <c r="AG8" s="307"/>
-      <c r="AH8" s="307"/>
-      <c r="AI8" s="308"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="269"/>
+      <c r="H8" s="270"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="271"/>
+      <c r="K8" s="272"/>
+      <c r="L8" s="272"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="273"/>
+      <c r="Q8" s="274"/>
+      <c r="R8" s="275"/>
+      <c r="S8" s="275"/>
+      <c r="T8" s="275"/>
+      <c r="U8" s="275"/>
+      <c r="V8" s="275"/>
+      <c r="W8" s="275"/>
+      <c r="X8" s="275"/>
+      <c r="Y8" s="275"/>
+      <c r="Z8" s="275"/>
+      <c r="AA8" s="275"/>
+      <c r="AB8" s="275"/>
+      <c r="AC8" s="275"/>
+      <c r="AD8" s="275"/>
+      <c r="AE8" s="276"/>
+      <c r="AF8" s="271"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="272"/>
+      <c r="AI8" s="273"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="287"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="293"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="294"/>
-      <c r="M9" s="294"/>
-      <c r="N9" s="294"/>
-      <c r="O9" s="294"/>
-      <c r="P9" s="295"/>
-      <c r="Q9" s="296"/>
-      <c r="R9" s="297"/>
-      <c r="S9" s="297"/>
-      <c r="T9" s="297"/>
-      <c r="U9" s="297"/>
-      <c r="V9" s="297"/>
-      <c r="W9" s="297"/>
-      <c r="X9" s="297"/>
-      <c r="Y9" s="297"/>
-      <c r="Z9" s="297"/>
-      <c r="AA9" s="297"/>
-      <c r="AB9" s="297"/>
-      <c r="AC9" s="297"/>
-      <c r="AD9" s="297"/>
-      <c r="AE9" s="298"/>
-      <c r="AF9" s="293"/>
-      <c r="AG9" s="294"/>
-      <c r="AH9" s="294"/>
-      <c r="AI9" s="295"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="255"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="258"/>
+      <c r="L9" s="258"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="258"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="259"/>
+      <c r="Q9" s="260"/>
+      <c r="R9" s="261"/>
+      <c r="S9" s="261"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="261"/>
+      <c r="AD9" s="261"/>
+      <c r="AE9" s="262"/>
+      <c r="AF9" s="257"/>
+      <c r="AG9" s="258"/>
+      <c r="AH9" s="258"/>
+      <c r="AI9" s="259"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="287"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="291"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="293"/>
-      <c r="K10" s="294"/>
-      <c r="L10" s="294"/>
-      <c r="M10" s="294"/>
-      <c r="N10" s="294"/>
-      <c r="O10" s="294"/>
-      <c r="P10" s="295"/>
-      <c r="Q10" s="296"/>
-      <c r="R10" s="297"/>
-      <c r="S10" s="297"/>
-      <c r="T10" s="297"/>
-      <c r="U10" s="297"/>
-      <c r="V10" s="297"/>
-      <c r="W10" s="297"/>
-      <c r="X10" s="297"/>
-      <c r="Y10" s="297"/>
-      <c r="Z10" s="297"/>
-      <c r="AA10" s="297"/>
-      <c r="AB10" s="297"/>
-      <c r="AC10" s="297"/>
-      <c r="AD10" s="297"/>
-      <c r="AE10" s="298"/>
-      <c r="AF10" s="293"/>
-      <c r="AG10" s="294"/>
-      <c r="AH10" s="294"/>
-      <c r="AI10" s="295"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="257"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="258"/>
+      <c r="M10" s="258"/>
+      <c r="N10" s="258"/>
+      <c r="O10" s="258"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="260"/>
+      <c r="R10" s="261"/>
+      <c r="S10" s="261"/>
+      <c r="T10" s="261"/>
+      <c r="U10" s="261"/>
+      <c r="V10" s="261"/>
+      <c r="W10" s="261"/>
+      <c r="X10" s="261"/>
+      <c r="Y10" s="261"/>
+      <c r="Z10" s="261"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="261"/>
+      <c r="AD10" s="261"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="257"/>
+      <c r="AG10" s="258"/>
+      <c r="AH10" s="258"/>
+      <c r="AI10" s="259"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="287"/>
-      <c r="C11" s="288"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="291"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="292"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="293"/>
-      <c r="K11" s="294"/>
-      <c r="L11" s="294"/>
-      <c r="M11" s="294"/>
-      <c r="N11" s="294"/>
-      <c r="O11" s="294"/>
-      <c r="P11" s="295"/>
-      <c r="Q11" s="296"/>
-      <c r="R11" s="297"/>
-      <c r="S11" s="297"/>
-      <c r="T11" s="297"/>
-      <c r="U11" s="297"/>
-      <c r="V11" s="297"/>
-      <c r="W11" s="297"/>
-      <c r="X11" s="297"/>
-      <c r="Y11" s="297"/>
-      <c r="Z11" s="297"/>
-      <c r="AA11" s="297"/>
-      <c r="AB11" s="297"/>
-      <c r="AC11" s="297"/>
-      <c r="AD11" s="297"/>
-      <c r="AE11" s="298"/>
-      <c r="AF11" s="293"/>
-      <c r="AG11" s="294"/>
-      <c r="AH11" s="294"/>
-      <c r="AI11" s="295"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="255"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="258"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="259"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="261"/>
+      <c r="S11" s="261"/>
+      <c r="T11" s="261"/>
+      <c r="U11" s="261"/>
+      <c r="V11" s="261"/>
+      <c r="W11" s="261"/>
+      <c r="X11" s="261"/>
+      <c r="Y11" s="261"/>
+      <c r="Z11" s="261"/>
+      <c r="AA11" s="261"/>
+      <c r="AB11" s="261"/>
+      <c r="AC11" s="261"/>
+      <c r="AD11" s="261"/>
+      <c r="AE11" s="262"/>
+      <c r="AF11" s="257"/>
+      <c r="AG11" s="258"/>
+      <c r="AH11" s="258"/>
+      <c r="AI11" s="259"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="287"/>
-      <c r="C12" s="288"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="291"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="292"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="293"/>
-      <c r="K12" s="294"/>
-      <c r="L12" s="294"/>
-      <c r="M12" s="294"/>
-      <c r="N12" s="294"/>
-      <c r="O12" s="294"/>
-      <c r="P12" s="295"/>
-      <c r="Q12" s="296"/>
-      <c r="R12" s="297"/>
-      <c r="S12" s="297"/>
-      <c r="T12" s="297"/>
-      <c r="U12" s="297"/>
-      <c r="V12" s="297"/>
-      <c r="W12" s="297"/>
-      <c r="X12" s="297"/>
-      <c r="Y12" s="297"/>
-      <c r="Z12" s="297"/>
-      <c r="AA12" s="297"/>
-      <c r="AB12" s="297"/>
-      <c r="AC12" s="297"/>
-      <c r="AD12" s="297"/>
-      <c r="AE12" s="298"/>
-      <c r="AF12" s="293"/>
-      <c r="AG12" s="294"/>
-      <c r="AH12" s="294"/>
-      <c r="AI12" s="295"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="255"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="258"/>
+      <c r="L12" s="258"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="258"/>
+      <c r="O12" s="258"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="260"/>
+      <c r="R12" s="261"/>
+      <c r="S12" s="261"/>
+      <c r="T12" s="261"/>
+      <c r="U12" s="261"/>
+      <c r="V12" s="261"/>
+      <c r="W12" s="261"/>
+      <c r="X12" s="261"/>
+      <c r="Y12" s="261"/>
+      <c r="Z12" s="261"/>
+      <c r="AA12" s="261"/>
+      <c r="AB12" s="261"/>
+      <c r="AC12" s="261"/>
+      <c r="AD12" s="261"/>
+      <c r="AE12" s="262"/>
+      <c r="AF12" s="257"/>
+      <c r="AG12" s="258"/>
+      <c r="AH12" s="258"/>
+      <c r="AI12" s="259"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="287"/>
-      <c r="C13" s="288"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="292"/>
-      <c r="I13" s="288"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="294"/>
-      <c r="M13" s="294"/>
-      <c r="N13" s="294"/>
-      <c r="O13" s="294"/>
-      <c r="P13" s="295"/>
-      <c r="Q13" s="296"/>
-      <c r="R13" s="297"/>
-      <c r="S13" s="297"/>
-      <c r="T13" s="297"/>
-      <c r="U13" s="297"/>
-      <c r="V13" s="297"/>
-      <c r="W13" s="297"/>
-      <c r="X13" s="297"/>
-      <c r="Y13" s="297"/>
-      <c r="Z13" s="297"/>
-      <c r="AA13" s="297"/>
-      <c r="AB13" s="297"/>
-      <c r="AC13" s="297"/>
-      <c r="AD13" s="297"/>
-      <c r="AE13" s="298"/>
-      <c r="AF13" s="293"/>
-      <c r="AG13" s="294"/>
-      <c r="AH13" s="294"/>
-      <c r="AI13" s="295"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="258"/>
+      <c r="L13" s="258"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="258"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="259"/>
+      <c r="Q13" s="260"/>
+      <c r="R13" s="261"/>
+      <c r="S13" s="261"/>
+      <c r="T13" s="261"/>
+      <c r="U13" s="261"/>
+      <c r="V13" s="261"/>
+      <c r="W13" s="261"/>
+      <c r="X13" s="261"/>
+      <c r="Y13" s="261"/>
+      <c r="Z13" s="261"/>
+      <c r="AA13" s="261"/>
+      <c r="AB13" s="261"/>
+      <c r="AC13" s="261"/>
+      <c r="AD13" s="261"/>
+      <c r="AE13" s="262"/>
+      <c r="AF13" s="257"/>
+      <c r="AG13" s="258"/>
+      <c r="AH13" s="258"/>
+      <c r="AI13" s="259"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="287"/>
-      <c r="C14" s="288"/>
-      <c r="D14" s="289"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="291"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="292"/>
-      <c r="I14" s="288"/>
-      <c r="J14" s="293"/>
-      <c r="K14" s="294"/>
-      <c r="L14" s="294"/>
-      <c r="M14" s="294"/>
-      <c r="N14" s="294"/>
-      <c r="O14" s="294"/>
-      <c r="P14" s="295"/>
-      <c r="Q14" s="296"/>
-      <c r="R14" s="297"/>
-      <c r="S14" s="297"/>
-      <c r="T14" s="297"/>
-      <c r="U14" s="297"/>
-      <c r="V14" s="297"/>
-      <c r="W14" s="297"/>
-      <c r="X14" s="297"/>
-      <c r="Y14" s="297"/>
-      <c r="Z14" s="297"/>
-      <c r="AA14" s="297"/>
-      <c r="AB14" s="297"/>
-      <c r="AC14" s="297"/>
-      <c r="AD14" s="297"/>
-      <c r="AE14" s="298"/>
-      <c r="AF14" s="293"/>
-      <c r="AG14" s="294"/>
-      <c r="AH14" s="294"/>
-      <c r="AI14" s="295"/>
+      <c r="B14" s="251"/>
+      <c r="C14" s="252"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="255"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="258"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="258"/>
+      <c r="O14" s="258"/>
+      <c r="P14" s="259"/>
+      <c r="Q14" s="260"/>
+      <c r="R14" s="261"/>
+      <c r="S14" s="261"/>
+      <c r="T14" s="261"/>
+      <c r="U14" s="261"/>
+      <c r="V14" s="261"/>
+      <c r="W14" s="261"/>
+      <c r="X14" s="261"/>
+      <c r="Y14" s="261"/>
+      <c r="Z14" s="261"/>
+      <c r="AA14" s="261"/>
+      <c r="AB14" s="261"/>
+      <c r="AC14" s="261"/>
+      <c r="AD14" s="261"/>
+      <c r="AE14" s="262"/>
+      <c r="AF14" s="257"/>
+      <c r="AG14" s="258"/>
+      <c r="AH14" s="258"/>
+      <c r="AI14" s="259"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="287"/>
-      <c r="C15" s="288"/>
-      <c r="D15" s="289"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="291"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="292"/>
-      <c r="I15" s="288"/>
-      <c r="J15" s="293"/>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
-      <c r="M15" s="294"/>
-      <c r="N15" s="294"/>
-      <c r="O15" s="294"/>
-      <c r="P15" s="295"/>
-      <c r="Q15" s="296"/>
-      <c r="R15" s="297"/>
-      <c r="S15" s="297"/>
-      <c r="T15" s="297"/>
-      <c r="U15" s="297"/>
-      <c r="V15" s="297"/>
-      <c r="W15" s="297"/>
-      <c r="X15" s="297"/>
-      <c r="Y15" s="297"/>
-      <c r="Z15" s="297"/>
-      <c r="AA15" s="297"/>
-      <c r="AB15" s="297"/>
-      <c r="AC15" s="297"/>
-      <c r="AD15" s="297"/>
-      <c r="AE15" s="298"/>
-      <c r="AF15" s="293"/>
-      <c r="AG15" s="294"/>
-      <c r="AH15" s="294"/>
-      <c r="AI15" s="295"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="255"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="258"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="258"/>
+      <c r="O15" s="258"/>
+      <c r="P15" s="259"/>
+      <c r="Q15" s="260"/>
+      <c r="R15" s="261"/>
+      <c r="S15" s="261"/>
+      <c r="T15" s="261"/>
+      <c r="U15" s="261"/>
+      <c r="V15" s="261"/>
+      <c r="W15" s="261"/>
+      <c r="X15" s="261"/>
+      <c r="Y15" s="261"/>
+      <c r="Z15" s="261"/>
+      <c r="AA15" s="261"/>
+      <c r="AB15" s="261"/>
+      <c r="AC15" s="261"/>
+      <c r="AD15" s="261"/>
+      <c r="AE15" s="262"/>
+      <c r="AF15" s="257"/>
+      <c r="AG15" s="258"/>
+      <c r="AH15" s="258"/>
+      <c r="AI15" s="259"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="287"/>
-      <c r="C16" s="288"/>
-      <c r="D16" s="289"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="291"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="292"/>
-      <c r="I16" s="288"/>
-      <c r="J16" s="293"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
-      <c r="M16" s="294"/>
-      <c r="N16" s="294"/>
-      <c r="O16" s="294"/>
-      <c r="P16" s="295"/>
-      <c r="Q16" s="296"/>
-      <c r="R16" s="297"/>
-      <c r="S16" s="297"/>
-      <c r="T16" s="297"/>
-      <c r="U16" s="297"/>
-      <c r="V16" s="297"/>
-      <c r="W16" s="297"/>
-      <c r="X16" s="297"/>
-      <c r="Y16" s="297"/>
-      <c r="Z16" s="297"/>
-      <c r="AA16" s="297"/>
-      <c r="AB16" s="297"/>
-      <c r="AC16" s="297"/>
-      <c r="AD16" s="297"/>
-      <c r="AE16" s="298"/>
-      <c r="AF16" s="293"/>
-      <c r="AG16" s="294"/>
-      <c r="AH16" s="294"/>
-      <c r="AI16" s="295"/>
+      <c r="B16" s="251"/>
+      <c r="C16" s="252"/>
+      <c r="D16" s="253"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="255"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="258"/>
+      <c r="L16" s="258"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="258"/>
+      <c r="O16" s="258"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="260"/>
+      <c r="R16" s="261"/>
+      <c r="S16" s="261"/>
+      <c r="T16" s="261"/>
+      <c r="U16" s="261"/>
+      <c r="V16" s="261"/>
+      <c r="W16" s="261"/>
+      <c r="X16" s="261"/>
+      <c r="Y16" s="261"/>
+      <c r="Z16" s="261"/>
+      <c r="AA16" s="261"/>
+      <c r="AB16" s="261"/>
+      <c r="AC16" s="261"/>
+      <c r="AD16" s="261"/>
+      <c r="AE16" s="262"/>
+      <c r="AF16" s="257"/>
+      <c r="AG16" s="258"/>
+      <c r="AH16" s="258"/>
+      <c r="AI16" s="259"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="287"/>
-      <c r="C17" s="288"/>
-      <c r="D17" s="289"/>
-      <c r="E17" s="290"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="292"/>
-      <c r="I17" s="288"/>
-      <c r="J17" s="293"/>
-      <c r="K17" s="294"/>
-      <c r="L17" s="294"/>
-      <c r="M17" s="294"/>
-      <c r="N17" s="294"/>
-      <c r="O17" s="294"/>
-      <c r="P17" s="295"/>
-      <c r="Q17" s="296"/>
-      <c r="R17" s="297"/>
-      <c r="S17" s="297"/>
-      <c r="T17" s="297"/>
-      <c r="U17" s="297"/>
-      <c r="V17" s="297"/>
-      <c r="W17" s="297"/>
-      <c r="X17" s="297"/>
-      <c r="Y17" s="297"/>
-      <c r="Z17" s="297"/>
-      <c r="AA17" s="297"/>
-      <c r="AB17" s="297"/>
-      <c r="AC17" s="297"/>
-      <c r="AD17" s="297"/>
-      <c r="AE17" s="298"/>
-      <c r="AF17" s="293"/>
-      <c r="AG17" s="294"/>
-      <c r="AH17" s="294"/>
-      <c r="AI17" s="295"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="255"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="257"/>
+      <c r="K17" s="258"/>
+      <c r="L17" s="258"/>
+      <c r="M17" s="258"/>
+      <c r="N17" s="258"/>
+      <c r="O17" s="258"/>
+      <c r="P17" s="259"/>
+      <c r="Q17" s="260"/>
+      <c r="R17" s="261"/>
+      <c r="S17" s="261"/>
+      <c r="T17" s="261"/>
+      <c r="U17" s="261"/>
+      <c r="V17" s="261"/>
+      <c r="W17" s="261"/>
+      <c r="X17" s="261"/>
+      <c r="Y17" s="261"/>
+      <c r="Z17" s="261"/>
+      <c r="AA17" s="261"/>
+      <c r="AB17" s="261"/>
+      <c r="AC17" s="261"/>
+      <c r="AD17" s="261"/>
+      <c r="AE17" s="262"/>
+      <c r="AF17" s="257"/>
+      <c r="AG17" s="258"/>
+      <c r="AH17" s="258"/>
+      <c r="AI17" s="259"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="287"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="290"/>
-      <c r="F18" s="291"/>
-      <c r="G18" s="287"/>
-      <c r="H18" s="292"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="293"/>
-      <c r="K18" s="294"/>
-      <c r="L18" s="294"/>
-      <c r="M18" s="294"/>
-      <c r="N18" s="294"/>
-      <c r="O18" s="294"/>
-      <c r="P18" s="295"/>
-      <c r="Q18" s="296"/>
-      <c r="R18" s="297"/>
-      <c r="S18" s="297"/>
-      <c r="T18" s="297"/>
-      <c r="U18" s="297"/>
-      <c r="V18" s="297"/>
-      <c r="W18" s="297"/>
-      <c r="X18" s="297"/>
-      <c r="Y18" s="297"/>
-      <c r="Z18" s="297"/>
-      <c r="AA18" s="297"/>
-      <c r="AB18" s="297"/>
-      <c r="AC18" s="297"/>
-      <c r="AD18" s="297"/>
-      <c r="AE18" s="298"/>
-      <c r="AF18" s="293"/>
-      <c r="AG18" s="294"/>
-      <c r="AH18" s="294"/>
-      <c r="AI18" s="295"/>
+      <c r="B18" s="251"/>
+      <c r="C18" s="252"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="255"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="252"/>
+      <c r="J18" s="257"/>
+      <c r="K18" s="258"/>
+      <c r="L18" s="258"/>
+      <c r="M18" s="258"/>
+      <c r="N18" s="258"/>
+      <c r="O18" s="258"/>
+      <c r="P18" s="259"/>
+      <c r="Q18" s="260"/>
+      <c r="R18" s="261"/>
+      <c r="S18" s="261"/>
+      <c r="T18" s="261"/>
+      <c r="U18" s="261"/>
+      <c r="V18" s="261"/>
+      <c r="W18" s="261"/>
+      <c r="X18" s="261"/>
+      <c r="Y18" s="261"/>
+      <c r="Z18" s="261"/>
+      <c r="AA18" s="261"/>
+      <c r="AB18" s="261"/>
+      <c r="AC18" s="261"/>
+      <c r="AD18" s="261"/>
+      <c r="AE18" s="262"/>
+      <c r="AF18" s="257"/>
+      <c r="AG18" s="258"/>
+      <c r="AH18" s="258"/>
+      <c r="AI18" s="259"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="287"/>
-      <c r="C19" s="288"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="291"/>
-      <c r="G19" s="287"/>
-      <c r="H19" s="292"/>
-      <c r="I19" s="288"/>
-      <c r="J19" s="293"/>
-      <c r="K19" s="294"/>
-      <c r="L19" s="294"/>
-      <c r="M19" s="294"/>
-      <c r="N19" s="294"/>
-      <c r="O19" s="294"/>
-      <c r="P19" s="295"/>
-      <c r="Q19" s="296"/>
-      <c r="R19" s="297"/>
-      <c r="S19" s="297"/>
-      <c r="T19" s="297"/>
-      <c r="U19" s="297"/>
-      <c r="V19" s="297"/>
-      <c r="W19" s="297"/>
-      <c r="X19" s="297"/>
-      <c r="Y19" s="297"/>
-      <c r="Z19" s="297"/>
-      <c r="AA19" s="297"/>
-      <c r="AB19" s="297"/>
-      <c r="AC19" s="297"/>
-      <c r="AD19" s="297"/>
-      <c r="AE19" s="298"/>
-      <c r="AF19" s="293"/>
-      <c r="AG19" s="294"/>
-      <c r="AH19" s="294"/>
-      <c r="AI19" s="295"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="252"/>
+      <c r="D19" s="253"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="257"/>
+      <c r="K19" s="258"/>
+      <c r="L19" s="258"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="258"/>
+      <c r="O19" s="258"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="260"/>
+      <c r="R19" s="261"/>
+      <c r="S19" s="261"/>
+      <c r="T19" s="261"/>
+      <c r="U19" s="261"/>
+      <c r="V19" s="261"/>
+      <c r="W19" s="261"/>
+      <c r="X19" s="261"/>
+      <c r="Y19" s="261"/>
+      <c r="Z19" s="261"/>
+      <c r="AA19" s="261"/>
+      <c r="AB19" s="261"/>
+      <c r="AC19" s="261"/>
+      <c r="AD19" s="261"/>
+      <c r="AE19" s="262"/>
+      <c r="AF19" s="257"/>
+      <c r="AG19" s="258"/>
+      <c r="AH19" s="258"/>
+      <c r="AI19" s="259"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="287"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="289"/>
-      <c r="E20" s="290"/>
-      <c r="F20" s="291"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="292"/>
-      <c r="I20" s="288"/>
-      <c r="J20" s="293"/>
-      <c r="K20" s="294"/>
-      <c r="L20" s="294"/>
-      <c r="M20" s="294"/>
-      <c r="N20" s="294"/>
-      <c r="O20" s="294"/>
-      <c r="P20" s="295"/>
-      <c r="Q20" s="296"/>
-      <c r="R20" s="297"/>
-      <c r="S20" s="297"/>
-      <c r="T20" s="297"/>
-      <c r="U20" s="297"/>
-      <c r="V20" s="297"/>
-      <c r="W20" s="297"/>
-      <c r="X20" s="297"/>
-      <c r="Y20" s="297"/>
-      <c r="Z20" s="297"/>
-      <c r="AA20" s="297"/>
-      <c r="AB20" s="297"/>
-      <c r="AC20" s="297"/>
-      <c r="AD20" s="297"/>
-      <c r="AE20" s="298"/>
-      <c r="AF20" s="293"/>
-      <c r="AG20" s="294"/>
-      <c r="AH20" s="294"/>
-      <c r="AI20" s="295"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="252"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="255"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="257"/>
+      <c r="K20" s="258"/>
+      <c r="L20" s="258"/>
+      <c r="M20" s="258"/>
+      <c r="N20" s="258"/>
+      <c r="O20" s="258"/>
+      <c r="P20" s="259"/>
+      <c r="Q20" s="260"/>
+      <c r="R20" s="261"/>
+      <c r="S20" s="261"/>
+      <c r="T20" s="261"/>
+      <c r="U20" s="261"/>
+      <c r="V20" s="261"/>
+      <c r="W20" s="261"/>
+      <c r="X20" s="261"/>
+      <c r="Y20" s="261"/>
+      <c r="Z20" s="261"/>
+      <c r="AA20" s="261"/>
+      <c r="AB20" s="261"/>
+      <c r="AC20" s="261"/>
+      <c r="AD20" s="261"/>
+      <c r="AE20" s="262"/>
+      <c r="AF20" s="257"/>
+      <c r="AG20" s="258"/>
+      <c r="AH20" s="258"/>
+      <c r="AI20" s="259"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="287"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="289"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="292"/>
-      <c r="I21" s="288"/>
-      <c r="J21" s="293"/>
-      <c r="K21" s="294"/>
-      <c r="L21" s="294"/>
-      <c r="M21" s="294"/>
-      <c r="N21" s="294"/>
-      <c r="O21" s="294"/>
-      <c r="P21" s="295"/>
-      <c r="Q21" s="296"/>
-      <c r="R21" s="297"/>
-      <c r="S21" s="297"/>
-      <c r="T21" s="297"/>
-      <c r="U21" s="297"/>
-      <c r="V21" s="297"/>
-      <c r="W21" s="297"/>
-      <c r="X21" s="297"/>
-      <c r="Y21" s="297"/>
-      <c r="Z21" s="297"/>
-      <c r="AA21" s="297"/>
-      <c r="AB21" s="297"/>
-      <c r="AC21" s="297"/>
-      <c r="AD21" s="297"/>
-      <c r="AE21" s="298"/>
-      <c r="AF21" s="293"/>
-      <c r="AG21" s="294"/>
-      <c r="AH21" s="294"/>
-      <c r="AI21" s="295"/>
+      <c r="B21" s="251"/>
+      <c r="C21" s="252"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="255"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="257"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="258"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="258"/>
+      <c r="O21" s="258"/>
+      <c r="P21" s="259"/>
+      <c r="Q21" s="260"/>
+      <c r="R21" s="261"/>
+      <c r="S21" s="261"/>
+      <c r="T21" s="261"/>
+      <c r="U21" s="261"/>
+      <c r="V21" s="261"/>
+      <c r="W21" s="261"/>
+      <c r="X21" s="261"/>
+      <c r="Y21" s="261"/>
+      <c r="Z21" s="261"/>
+      <c r="AA21" s="261"/>
+      <c r="AB21" s="261"/>
+      <c r="AC21" s="261"/>
+      <c r="AD21" s="261"/>
+      <c r="AE21" s="262"/>
+      <c r="AF21" s="257"/>
+      <c r="AG21" s="258"/>
+      <c r="AH21" s="258"/>
+      <c r="AI21" s="259"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="287"/>
-      <c r="C22" s="288"/>
-      <c r="D22" s="289"/>
-      <c r="E22" s="290"/>
-      <c r="F22" s="291"/>
-      <c r="G22" s="287"/>
-      <c r="H22" s="292"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="293"/>
-      <c r="K22" s="294"/>
-      <c r="L22" s="294"/>
-      <c r="M22" s="294"/>
-      <c r="N22" s="294"/>
-      <c r="O22" s="294"/>
-      <c r="P22" s="295"/>
-      <c r="Q22" s="296"/>
-      <c r="R22" s="297"/>
-      <c r="S22" s="297"/>
-      <c r="T22" s="297"/>
-      <c r="U22" s="297"/>
-      <c r="V22" s="297"/>
-      <c r="W22" s="297"/>
-      <c r="X22" s="297"/>
-      <c r="Y22" s="297"/>
-      <c r="Z22" s="297"/>
-      <c r="AA22" s="297"/>
-      <c r="AB22" s="297"/>
-      <c r="AC22" s="297"/>
-      <c r="AD22" s="297"/>
-      <c r="AE22" s="298"/>
-      <c r="AF22" s="293"/>
-      <c r="AG22" s="294"/>
-      <c r="AH22" s="294"/>
-      <c r="AI22" s="295"/>
+      <c r="B22" s="251"/>
+      <c r="C22" s="252"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="257"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="258"/>
+      <c r="M22" s="258"/>
+      <c r="N22" s="258"/>
+      <c r="O22" s="258"/>
+      <c r="P22" s="259"/>
+      <c r="Q22" s="260"/>
+      <c r="R22" s="261"/>
+      <c r="S22" s="261"/>
+      <c r="T22" s="261"/>
+      <c r="U22" s="261"/>
+      <c r="V22" s="261"/>
+      <c r="W22" s="261"/>
+      <c r="X22" s="261"/>
+      <c r="Y22" s="261"/>
+      <c r="Z22" s="261"/>
+      <c r="AA22" s="261"/>
+      <c r="AB22" s="261"/>
+      <c r="AC22" s="261"/>
+      <c r="AD22" s="261"/>
+      <c r="AE22" s="262"/>
+      <c r="AF22" s="257"/>
+      <c r="AG22" s="258"/>
+      <c r="AH22" s="258"/>
+      <c r="AI22" s="259"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="287"/>
-      <c r="C23" s="288"/>
-      <c r="D23" s="289"/>
-      <c r="E23" s="290"/>
-      <c r="F23" s="291"/>
-      <c r="G23" s="287"/>
-      <c r="H23" s="292"/>
-      <c r="I23" s="288"/>
-      <c r="J23" s="293"/>
-      <c r="K23" s="294"/>
-      <c r="L23" s="294"/>
-      <c r="M23" s="294"/>
-      <c r="N23" s="294"/>
-      <c r="O23" s="294"/>
-      <c r="P23" s="295"/>
-      <c r="Q23" s="296"/>
-      <c r="R23" s="297"/>
-      <c r="S23" s="297"/>
-      <c r="T23" s="297"/>
-      <c r="U23" s="297"/>
-      <c r="V23" s="297"/>
-      <c r="W23" s="297"/>
-      <c r="X23" s="297"/>
-      <c r="Y23" s="297"/>
-      <c r="Z23" s="297"/>
-      <c r="AA23" s="297"/>
-      <c r="AB23" s="297"/>
-      <c r="AC23" s="297"/>
-      <c r="AD23" s="297"/>
-      <c r="AE23" s="298"/>
-      <c r="AF23" s="293"/>
-      <c r="AG23" s="294"/>
-      <c r="AH23" s="294"/>
-      <c r="AI23" s="295"/>
+      <c r="B23" s="251"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="255"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="257"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="258"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="258"/>
+      <c r="O23" s="258"/>
+      <c r="P23" s="259"/>
+      <c r="Q23" s="260"/>
+      <c r="R23" s="261"/>
+      <c r="S23" s="261"/>
+      <c r="T23" s="261"/>
+      <c r="U23" s="261"/>
+      <c r="V23" s="261"/>
+      <c r="W23" s="261"/>
+      <c r="X23" s="261"/>
+      <c r="Y23" s="261"/>
+      <c r="Z23" s="261"/>
+      <c r="AA23" s="261"/>
+      <c r="AB23" s="261"/>
+      <c r="AC23" s="261"/>
+      <c r="AD23" s="261"/>
+      <c r="AE23" s="262"/>
+      <c r="AF23" s="257"/>
+      <c r="AG23" s="258"/>
+      <c r="AH23" s="258"/>
+      <c r="AI23" s="259"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="287"/>
-      <c r="C24" s="288"/>
-      <c r="D24" s="289"/>
-      <c r="E24" s="290"/>
-      <c r="F24" s="291"/>
-      <c r="G24" s="287"/>
-      <c r="H24" s="292"/>
-      <c r="I24" s="288"/>
-      <c r="J24" s="293"/>
-      <c r="K24" s="294"/>
-      <c r="L24" s="294"/>
-      <c r="M24" s="294"/>
-      <c r="N24" s="294"/>
-      <c r="O24" s="294"/>
-      <c r="P24" s="295"/>
-      <c r="Q24" s="296"/>
-      <c r="R24" s="297"/>
-      <c r="S24" s="297"/>
-      <c r="T24" s="297"/>
-      <c r="U24" s="297"/>
-      <c r="V24" s="297"/>
-      <c r="W24" s="297"/>
-      <c r="X24" s="297"/>
-      <c r="Y24" s="297"/>
-      <c r="Z24" s="297"/>
-      <c r="AA24" s="297"/>
-      <c r="AB24" s="297"/>
-      <c r="AC24" s="297"/>
-      <c r="AD24" s="297"/>
-      <c r="AE24" s="298"/>
-      <c r="AF24" s="293"/>
-      <c r="AG24" s="294"/>
-      <c r="AH24" s="294"/>
-      <c r="AI24" s="295"/>
+      <c r="B24" s="251"/>
+      <c r="C24" s="252"/>
+      <c r="D24" s="253"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="255"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="252"/>
+      <c r="J24" s="257"/>
+      <c r="K24" s="258"/>
+      <c r="L24" s="258"/>
+      <c r="M24" s="258"/>
+      <c r="N24" s="258"/>
+      <c r="O24" s="258"/>
+      <c r="P24" s="259"/>
+      <c r="Q24" s="260"/>
+      <c r="R24" s="261"/>
+      <c r="S24" s="261"/>
+      <c r="T24" s="261"/>
+      <c r="U24" s="261"/>
+      <c r="V24" s="261"/>
+      <c r="W24" s="261"/>
+      <c r="X24" s="261"/>
+      <c r="Y24" s="261"/>
+      <c r="Z24" s="261"/>
+      <c r="AA24" s="261"/>
+      <c r="AB24" s="261"/>
+      <c r="AC24" s="261"/>
+      <c r="AD24" s="261"/>
+      <c r="AE24" s="262"/>
+      <c r="AF24" s="257"/>
+      <c r="AG24" s="258"/>
+      <c r="AH24" s="258"/>
+      <c r="AI24" s="259"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="287"/>
-      <c r="C25" s="288"/>
-      <c r="D25" s="289"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="291"/>
-      <c r="G25" s="287"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="288"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="294"/>
-      <c r="L25" s="294"/>
-      <c r="M25" s="294"/>
-      <c r="N25" s="294"/>
-      <c r="O25" s="294"/>
-      <c r="P25" s="295"/>
-      <c r="Q25" s="296"/>
-      <c r="R25" s="297"/>
-      <c r="S25" s="297"/>
-      <c r="T25" s="297"/>
-      <c r="U25" s="297"/>
-      <c r="V25" s="297"/>
-      <c r="W25" s="297"/>
-      <c r="X25" s="297"/>
-      <c r="Y25" s="297"/>
-      <c r="Z25" s="297"/>
-      <c r="AA25" s="297"/>
-      <c r="AB25" s="297"/>
-      <c r="AC25" s="297"/>
-      <c r="AD25" s="297"/>
-      <c r="AE25" s="298"/>
-      <c r="AF25" s="293"/>
-      <c r="AG25" s="294"/>
-      <c r="AH25" s="294"/>
-      <c r="AI25" s="295"/>
+      <c r="B25" s="251"/>
+      <c r="C25" s="252"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="255"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="257"/>
+      <c r="K25" s="258"/>
+      <c r="L25" s="258"/>
+      <c r="M25" s="258"/>
+      <c r="N25" s="258"/>
+      <c r="O25" s="258"/>
+      <c r="P25" s="259"/>
+      <c r="Q25" s="260"/>
+      <c r="R25" s="261"/>
+      <c r="S25" s="261"/>
+      <c r="T25" s="261"/>
+      <c r="U25" s="261"/>
+      <c r="V25" s="261"/>
+      <c r="W25" s="261"/>
+      <c r="X25" s="261"/>
+      <c r="Y25" s="261"/>
+      <c r="Z25" s="261"/>
+      <c r="AA25" s="261"/>
+      <c r="AB25" s="261"/>
+      <c r="AC25" s="261"/>
+      <c r="AD25" s="261"/>
+      <c r="AE25" s="262"/>
+      <c r="AF25" s="257"/>
+      <c r="AG25" s="258"/>
+      <c r="AH25" s="258"/>
+      <c r="AI25" s="259"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="287"/>
-      <c r="C26" s="288"/>
-      <c r="D26" s="289"/>
-      <c r="E26" s="290"/>
-      <c r="F26" s="291"/>
-      <c r="G26" s="287"/>
-      <c r="H26" s="292"/>
-      <c r="I26" s="288"/>
-      <c r="J26" s="293"/>
-      <c r="K26" s="294"/>
-      <c r="L26" s="294"/>
-      <c r="M26" s="294"/>
-      <c r="N26" s="294"/>
-      <c r="O26" s="294"/>
-      <c r="P26" s="295"/>
-      <c r="Q26" s="296"/>
-      <c r="R26" s="297"/>
-      <c r="S26" s="297"/>
-      <c r="T26" s="297"/>
-      <c r="U26" s="297"/>
-      <c r="V26" s="297"/>
-      <c r="W26" s="297"/>
-      <c r="X26" s="297"/>
-      <c r="Y26" s="297"/>
-      <c r="Z26" s="297"/>
-      <c r="AA26" s="297"/>
-      <c r="AB26" s="297"/>
-      <c r="AC26" s="297"/>
-      <c r="AD26" s="297"/>
-      <c r="AE26" s="298"/>
-      <c r="AF26" s="293"/>
-      <c r="AG26" s="294"/>
-      <c r="AH26" s="294"/>
-      <c r="AI26" s="295"/>
+      <c r="B26" s="251"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="253"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="255"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="258"/>
+      <c r="M26" s="258"/>
+      <c r="N26" s="258"/>
+      <c r="O26" s="258"/>
+      <c r="P26" s="259"/>
+      <c r="Q26" s="260"/>
+      <c r="R26" s="261"/>
+      <c r="S26" s="261"/>
+      <c r="T26" s="261"/>
+      <c r="U26" s="261"/>
+      <c r="V26" s="261"/>
+      <c r="W26" s="261"/>
+      <c r="X26" s="261"/>
+      <c r="Y26" s="261"/>
+      <c r="Z26" s="261"/>
+      <c r="AA26" s="261"/>
+      <c r="AB26" s="261"/>
+      <c r="AC26" s="261"/>
+      <c r="AD26" s="261"/>
+      <c r="AE26" s="262"/>
+      <c r="AF26" s="257"/>
+      <c r="AG26" s="258"/>
+      <c r="AH26" s="258"/>
+      <c r="AI26" s="259"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="287"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="291"/>
-      <c r="G27" s="287"/>
-      <c r="H27" s="292"/>
-      <c r="I27" s="288"/>
-      <c r="J27" s="293"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="294"/>
-      <c r="M27" s="294"/>
-      <c r="N27" s="294"/>
-      <c r="O27" s="294"/>
-      <c r="P27" s="295"/>
-      <c r="Q27" s="296"/>
-      <c r="R27" s="297"/>
-      <c r="S27" s="297"/>
-      <c r="T27" s="297"/>
-      <c r="U27" s="297"/>
-      <c r="V27" s="297"/>
-      <c r="W27" s="297"/>
-      <c r="X27" s="297"/>
-      <c r="Y27" s="297"/>
-      <c r="Z27" s="297"/>
-      <c r="AA27" s="297"/>
-      <c r="AB27" s="297"/>
-      <c r="AC27" s="297"/>
-      <c r="AD27" s="297"/>
-      <c r="AE27" s="298"/>
-      <c r="AF27" s="293"/>
-      <c r="AG27" s="294"/>
-      <c r="AH27" s="294"/>
-      <c r="AI27" s="295"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="252"/>
+      <c r="D27" s="253"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="255"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="252"/>
+      <c r="J27" s="257"/>
+      <c r="K27" s="258"/>
+      <c r="L27" s="258"/>
+      <c r="M27" s="258"/>
+      <c r="N27" s="258"/>
+      <c r="O27" s="258"/>
+      <c r="P27" s="259"/>
+      <c r="Q27" s="260"/>
+      <c r="R27" s="261"/>
+      <c r="S27" s="261"/>
+      <c r="T27" s="261"/>
+      <c r="U27" s="261"/>
+      <c r="V27" s="261"/>
+      <c r="W27" s="261"/>
+      <c r="X27" s="261"/>
+      <c r="Y27" s="261"/>
+      <c r="Z27" s="261"/>
+      <c r="AA27" s="261"/>
+      <c r="AB27" s="261"/>
+      <c r="AC27" s="261"/>
+      <c r="AD27" s="261"/>
+      <c r="AE27" s="262"/>
+      <c r="AF27" s="257"/>
+      <c r="AG27" s="258"/>
+      <c r="AH27" s="258"/>
+      <c r="AI27" s="259"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="287"/>
-      <c r="C28" s="288"/>
-      <c r="D28" s="289"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="291"/>
-      <c r="G28" s="287"/>
-      <c r="H28" s="292"/>
-      <c r="I28" s="288"/>
-      <c r="J28" s="293"/>
-      <c r="K28" s="294"/>
-      <c r="L28" s="294"/>
-      <c r="M28" s="294"/>
-      <c r="N28" s="294"/>
-      <c r="O28" s="294"/>
-      <c r="P28" s="295"/>
-      <c r="Q28" s="296"/>
-      <c r="R28" s="297"/>
-      <c r="S28" s="297"/>
-      <c r="T28" s="297"/>
-      <c r="U28" s="297"/>
-      <c r="V28" s="297"/>
-      <c r="W28" s="297"/>
-      <c r="X28" s="297"/>
-      <c r="Y28" s="297"/>
-      <c r="Z28" s="297"/>
-      <c r="AA28" s="297"/>
-      <c r="AB28" s="297"/>
-      <c r="AC28" s="297"/>
-      <c r="AD28" s="297"/>
-      <c r="AE28" s="298"/>
-      <c r="AF28" s="293"/>
-      <c r="AG28" s="294"/>
-      <c r="AH28" s="294"/>
-      <c r="AI28" s="295"/>
+      <c r="B28" s="251"/>
+      <c r="C28" s="252"/>
+      <c r="D28" s="253"/>
+      <c r="E28" s="254"/>
+      <c r="F28" s="255"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="252"/>
+      <c r="J28" s="257"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="258"/>
+      <c r="M28" s="258"/>
+      <c r="N28" s="258"/>
+      <c r="O28" s="258"/>
+      <c r="P28" s="259"/>
+      <c r="Q28" s="260"/>
+      <c r="R28" s="261"/>
+      <c r="S28" s="261"/>
+      <c r="T28" s="261"/>
+      <c r="U28" s="261"/>
+      <c r="V28" s="261"/>
+      <c r="W28" s="261"/>
+      <c r="X28" s="261"/>
+      <c r="Y28" s="261"/>
+      <c r="Z28" s="261"/>
+      <c r="AA28" s="261"/>
+      <c r="AB28" s="261"/>
+      <c r="AC28" s="261"/>
+      <c r="AD28" s="261"/>
+      <c r="AE28" s="262"/>
+      <c r="AF28" s="257"/>
+      <c r="AG28" s="258"/>
+      <c r="AH28" s="258"/>
+      <c r="AI28" s="259"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="287"/>
-      <c r="C29" s="288"/>
-      <c r="D29" s="289"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="291"/>
-      <c r="G29" s="287"/>
-      <c r="H29" s="292"/>
-      <c r="I29" s="288"/>
-      <c r="J29" s="293"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="294"/>
-      <c r="M29" s="294"/>
-      <c r="N29" s="294"/>
-      <c r="O29" s="294"/>
-      <c r="P29" s="295"/>
-      <c r="Q29" s="296"/>
-      <c r="R29" s="297"/>
-      <c r="S29" s="297"/>
-      <c r="T29" s="297"/>
-      <c r="U29" s="297"/>
-      <c r="V29" s="297"/>
-      <c r="W29" s="297"/>
-      <c r="X29" s="297"/>
-      <c r="Y29" s="297"/>
-      <c r="Z29" s="297"/>
-      <c r="AA29" s="297"/>
-      <c r="AB29" s="297"/>
-      <c r="AC29" s="297"/>
-      <c r="AD29" s="297"/>
-      <c r="AE29" s="298"/>
-      <c r="AF29" s="293"/>
-      <c r="AG29" s="294"/>
-      <c r="AH29" s="294"/>
-      <c r="AI29" s="295"/>
+      <c r="B29" s="251"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="253"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="255"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="256"/>
+      <c r="I29" s="252"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="258"/>
+      <c r="M29" s="258"/>
+      <c r="N29" s="258"/>
+      <c r="O29" s="258"/>
+      <c r="P29" s="259"/>
+      <c r="Q29" s="260"/>
+      <c r="R29" s="261"/>
+      <c r="S29" s="261"/>
+      <c r="T29" s="261"/>
+      <c r="U29" s="261"/>
+      <c r="V29" s="261"/>
+      <c r="W29" s="261"/>
+      <c r="X29" s="261"/>
+      <c r="Y29" s="261"/>
+      <c r="Z29" s="261"/>
+      <c r="AA29" s="261"/>
+      <c r="AB29" s="261"/>
+      <c r="AC29" s="261"/>
+      <c r="AD29" s="261"/>
+      <c r="AE29" s="262"/>
+      <c r="AF29" s="257"/>
+      <c r="AG29" s="258"/>
+      <c r="AH29" s="258"/>
+      <c r="AI29" s="259"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="287"/>
-      <c r="C30" s="288"/>
-      <c r="D30" s="289"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="291"/>
-      <c r="G30" s="287"/>
-      <c r="H30" s="292"/>
-      <c r="I30" s="288"/>
-      <c r="J30" s="293"/>
-      <c r="K30" s="294"/>
-      <c r="L30" s="294"/>
-      <c r="M30" s="294"/>
-      <c r="N30" s="294"/>
-      <c r="O30" s="294"/>
-      <c r="P30" s="295"/>
-      <c r="Q30" s="296"/>
-      <c r="R30" s="297"/>
-      <c r="S30" s="297"/>
-      <c r="T30" s="297"/>
-      <c r="U30" s="297"/>
-      <c r="V30" s="297"/>
-      <c r="W30" s="297"/>
-      <c r="X30" s="297"/>
-      <c r="Y30" s="297"/>
-      <c r="Z30" s="297"/>
-      <c r="AA30" s="297"/>
-      <c r="AB30" s="297"/>
-      <c r="AC30" s="297"/>
-      <c r="AD30" s="297"/>
-      <c r="AE30" s="298"/>
-      <c r="AF30" s="293"/>
-      <c r="AG30" s="294"/>
-      <c r="AH30" s="294"/>
-      <c r="AI30" s="295"/>
+      <c r="B30" s="251"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="253"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="252"/>
+      <c r="J30" s="257"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="258"/>
+      <c r="M30" s="258"/>
+      <c r="N30" s="258"/>
+      <c r="O30" s="258"/>
+      <c r="P30" s="259"/>
+      <c r="Q30" s="260"/>
+      <c r="R30" s="261"/>
+      <c r="S30" s="261"/>
+      <c r="T30" s="261"/>
+      <c r="U30" s="261"/>
+      <c r="V30" s="261"/>
+      <c r="W30" s="261"/>
+      <c r="X30" s="261"/>
+      <c r="Y30" s="261"/>
+      <c r="Z30" s="261"/>
+      <c r="AA30" s="261"/>
+      <c r="AB30" s="261"/>
+      <c r="AC30" s="261"/>
+      <c r="AD30" s="261"/>
+      <c r="AE30" s="262"/>
+      <c r="AF30" s="257"/>
+      <c r="AG30" s="258"/>
+      <c r="AH30" s="258"/>
+      <c r="AI30" s="259"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="287"/>
-      <c r="C31" s="288"/>
-      <c r="D31" s="289"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="291"/>
-      <c r="G31" s="287"/>
-      <c r="H31" s="292"/>
-      <c r="I31" s="288"/>
-      <c r="J31" s="293"/>
-      <c r="K31" s="294"/>
-      <c r="L31" s="294"/>
-      <c r="M31" s="294"/>
-      <c r="N31" s="294"/>
-      <c r="O31" s="294"/>
-      <c r="P31" s="295"/>
-      <c r="Q31" s="296"/>
-      <c r="R31" s="297"/>
-      <c r="S31" s="297"/>
-      <c r="T31" s="297"/>
-      <c r="U31" s="297"/>
-      <c r="V31" s="297"/>
-      <c r="W31" s="297"/>
-      <c r="X31" s="297"/>
-      <c r="Y31" s="297"/>
-      <c r="Z31" s="297"/>
-      <c r="AA31" s="297"/>
-      <c r="AB31" s="297"/>
-      <c r="AC31" s="297"/>
-      <c r="AD31" s="297"/>
-      <c r="AE31" s="298"/>
-      <c r="AF31" s="293"/>
-      <c r="AG31" s="294"/>
-      <c r="AH31" s="294"/>
-      <c r="AI31" s="295"/>
+      <c r="B31" s="251"/>
+      <c r="C31" s="252"/>
+      <c r="D31" s="253"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="255"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="252"/>
+      <c r="J31" s="257"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="258"/>
+      <c r="M31" s="258"/>
+      <c r="N31" s="258"/>
+      <c r="O31" s="258"/>
+      <c r="P31" s="259"/>
+      <c r="Q31" s="260"/>
+      <c r="R31" s="261"/>
+      <c r="S31" s="261"/>
+      <c r="T31" s="261"/>
+      <c r="U31" s="261"/>
+      <c r="V31" s="261"/>
+      <c r="W31" s="261"/>
+      <c r="X31" s="261"/>
+      <c r="Y31" s="261"/>
+      <c r="Z31" s="261"/>
+      <c r="AA31" s="261"/>
+      <c r="AB31" s="261"/>
+      <c r="AC31" s="261"/>
+      <c r="AD31" s="261"/>
+      <c r="AE31" s="262"/>
+      <c r="AF31" s="257"/>
+      <c r="AG31" s="258"/>
+      <c r="AH31" s="258"/>
+      <c r="AI31" s="259"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="287"/>
-      <c r="C32" s="288"/>
-      <c r="D32" s="289"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="291"/>
-      <c r="G32" s="287"/>
-      <c r="H32" s="292"/>
-      <c r="I32" s="288"/>
-      <c r="J32" s="293"/>
-      <c r="K32" s="312"/>
-      <c r="L32" s="294"/>
-      <c r="M32" s="294"/>
-      <c r="N32" s="294"/>
-      <c r="O32" s="294"/>
-      <c r="P32" s="295"/>
-      <c r="Q32" s="296"/>
-      <c r="R32" s="297"/>
-      <c r="S32" s="297"/>
-      <c r="T32" s="297"/>
-      <c r="U32" s="297"/>
-      <c r="V32" s="297"/>
-      <c r="W32" s="297"/>
-      <c r="X32" s="297"/>
-      <c r="Y32" s="297"/>
-      <c r="Z32" s="297"/>
-      <c r="AA32" s="297"/>
-      <c r="AB32" s="297"/>
-      <c r="AC32" s="297"/>
-      <c r="AD32" s="297"/>
-      <c r="AE32" s="298"/>
-      <c r="AF32" s="293"/>
-      <c r="AG32" s="294"/>
-      <c r="AH32" s="294"/>
-      <c r="AI32" s="295"/>
+      <c r="B32" s="251"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="253"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="255"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="252"/>
+      <c r="J32" s="257"/>
+      <c r="K32" s="263"/>
+      <c r="L32" s="258"/>
+      <c r="M32" s="258"/>
+      <c r="N32" s="258"/>
+      <c r="O32" s="258"/>
+      <c r="P32" s="259"/>
+      <c r="Q32" s="260"/>
+      <c r="R32" s="261"/>
+      <c r="S32" s="261"/>
+      <c r="T32" s="261"/>
+      <c r="U32" s="261"/>
+      <c r="V32" s="261"/>
+      <c r="W32" s="261"/>
+      <c r="X32" s="261"/>
+      <c r="Y32" s="261"/>
+      <c r="Z32" s="261"/>
+      <c r="AA32" s="261"/>
+      <c r="AB32" s="261"/>
+      <c r="AC32" s="261"/>
+      <c r="AD32" s="261"/>
+      <c r="AE32" s="262"/>
+      <c r="AF32" s="257"/>
+      <c r="AG32" s="258"/>
+      <c r="AH32" s="258"/>
+      <c r="AI32" s="259"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="287"/>
-      <c r="C33" s="288"/>
-      <c r="D33" s="289"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="291"/>
-      <c r="G33" s="287"/>
-      <c r="H33" s="292"/>
-      <c r="I33" s="288"/>
-      <c r="J33" s="293"/>
-      <c r="K33" s="294"/>
-      <c r="L33" s="294"/>
-      <c r="M33" s="294"/>
-      <c r="N33" s="294"/>
-      <c r="O33" s="294"/>
-      <c r="P33" s="295"/>
-      <c r="Q33" s="296"/>
-      <c r="R33" s="297"/>
-      <c r="S33" s="297"/>
-      <c r="T33" s="297"/>
-      <c r="U33" s="297"/>
-      <c r="V33" s="297"/>
-      <c r="W33" s="297"/>
-      <c r="X33" s="297"/>
-      <c r="Y33" s="297"/>
-      <c r="Z33" s="297"/>
-      <c r="AA33" s="297"/>
-      <c r="AB33" s="297"/>
-      <c r="AC33" s="297"/>
-      <c r="AD33" s="297"/>
-      <c r="AE33" s="298"/>
-      <c r="AF33" s="293"/>
-      <c r="AG33" s="294"/>
-      <c r="AH33" s="294"/>
-      <c r="AI33" s="295"/>
+      <c r="B33" s="251"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="253"/>
+      <c r="E33" s="254"/>
+      <c r="F33" s="255"/>
+      <c r="G33" s="251"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="252"/>
+      <c r="J33" s="257"/>
+      <c r="K33" s="258"/>
+      <c r="L33" s="258"/>
+      <c r="M33" s="258"/>
+      <c r="N33" s="258"/>
+      <c r="O33" s="258"/>
+      <c r="P33" s="259"/>
+      <c r="Q33" s="260"/>
+      <c r="R33" s="261"/>
+      <c r="S33" s="261"/>
+      <c r="T33" s="261"/>
+      <c r="U33" s="261"/>
+      <c r="V33" s="261"/>
+      <c r="W33" s="261"/>
+      <c r="X33" s="261"/>
+      <c r="Y33" s="261"/>
+      <c r="Z33" s="261"/>
+      <c r="AA33" s="261"/>
+      <c r="AB33" s="261"/>
+      <c r="AC33" s="261"/>
+      <c r="AD33" s="261"/>
+      <c r="AE33" s="262"/>
+      <c r="AF33" s="257"/>
+      <c r="AG33" s="258"/>
+      <c r="AH33" s="258"/>
+      <c r="AI33" s="259"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14404,6 +14248,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10301_TOPメニュー.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10301_TOPメニュー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0747023-30ED-4A1F-86FB-CD0DDB3DADA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB212EF0-0DCE-42CF-91D1-9412A3E6AF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="763">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -7720,33 +7720,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面遷移図
-システム機能設計書</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">画面遷移図
-画面イベント一覧
-(バリエーションがある場合は、バリエーションを整理した上でバリエーションごとに実行すること)
-</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>2-1-1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7880,14 +7853,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面遷移図
-画面イベント一覧</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>8-1-1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -8139,61 +8104,6 @@
   </si>
   <si>
     <t>13-1-1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システム機能設計書
-ドメイン定義書
-メッセージ設計書</t>
-    <rPh sb="4" eb="9">
-      <t>キノウセッケイショ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バリデーション処理
-ドメイン定義
-メッセージ設計（日本語）</t>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ニホンゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バリデーション処理
-ドメイン定義</t>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システム機能設計書
-ドメイン定義書</t>
-    <rPh sb="4" eb="9">
-      <t>キノウセッケイショ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイギショ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -8244,22 +8154,6 @@
   <si>
     <t>テスト不要
 アーキがテストをするため</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システム機能設計書</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>項目定義
-画面イベント一覧
-画面イベント詳細</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -11118,84 +11012,6 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -11302,6 +11118,84 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11944,15 +11838,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
+      <xdr:rowOff>285749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>340518</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1493043</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11967,8 +11861,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="1914525"/>
-          <a:ext cx="10922793" cy="3209924"/>
+          <a:off x="2657475" y="1733549"/>
+          <a:ext cx="10922793" cy="2543175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13030,51 +12924,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="286" t="s">
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="260" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="292" t="s">
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="266" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="293"/>
-      <c r="Q1" s="293"/>
-      <c r="R1" s="294"/>
-      <c r="S1" s="301" t="s">
-        <v>651</v>
-      </c>
-      <c r="T1" s="302"/>
-      <c r="U1" s="302"/>
-      <c r="V1" s="302"/>
-      <c r="W1" s="302"/>
-      <c r="X1" s="302"/>
-      <c r="Y1" s="302"/>
-      <c r="Z1" s="303"/>
-      <c r="AA1" s="283" t="s">
+      <c r="P1" s="267"/>
+      <c r="Q1" s="267"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="275" t="s">
+        <v>642</v>
+      </c>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
+      <c r="Y1" s="276"/>
+      <c r="Z1" s="277"/>
+      <c r="AA1" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="285"/>
-      <c r="AC1" s="310"/>
-      <c r="AD1" s="311"/>
-      <c r="AE1" s="311"/>
-      <c r="AF1" s="312"/>
-      <c r="AG1" s="277"/>
-      <c r="AH1" s="278"/>
-      <c r="AI1" s="279"/>
+      <c r="AB1" s="259"/>
+      <c r="AC1" s="284"/>
+      <c r="AD1" s="285"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="251"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13082,53 +12976,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="286" t="s">
-        <v>641</v>
-      </c>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="287"/>
-      <c r="N2" s="288"/>
-      <c r="O2" s="295"/>
-      <c r="P2" s="296"/>
-      <c r="Q2" s="296"/>
-      <c r="R2" s="297"/>
-      <c r="S2" s="304"/>
-      <c r="T2" s="305"/>
-      <c r="U2" s="305"/>
-      <c r="V2" s="305"/>
-      <c r="W2" s="305"/>
-      <c r="X2" s="305"/>
-      <c r="Y2" s="305"/>
-      <c r="Z2" s="306"/>
-      <c r="AA2" s="283" t="s">
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="260" t="s">
+        <v>632</v>
+      </c>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="261"/>
+      <c r="M2" s="261"/>
+      <c r="N2" s="262"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="271"/>
+      <c r="S2" s="278"/>
+      <c r="T2" s="279"/>
+      <c r="U2" s="279"/>
+      <c r="V2" s="279"/>
+      <c r="W2" s="279"/>
+      <c r="X2" s="279"/>
+      <c r="Y2" s="279"/>
+      <c r="Z2" s="280"/>
+      <c r="AA2" s="257" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="285"/>
-      <c r="AC2" s="289" t="str">
+      <c r="AB2" s="259"/>
+      <c r="AC2" s="263" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="290"/>
-      <c r="AE2" s="290"/>
-      <c r="AF2" s="291"/>
-      <c r="AG2" s="277" t="str">
+      <c r="AD2" s="264"/>
+      <c r="AE2" s="264"/>
+      <c r="AF2" s="265"/>
+      <c r="AG2" s="251" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="278"/>
-      <c r="AI2" s="279"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13136,45 +13030,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="257" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="284"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="286" t="s">
-        <v>642</v>
-      </c>
-      <c r="F3" s="287"/>
-      <c r="G3" s="287"/>
-      <c r="H3" s="287"/>
-      <c r="I3" s="287"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="287"/>
-      <c r="N3" s="288"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="299"/>
-      <c r="Q3" s="299"/>
-      <c r="R3" s="300"/>
-      <c r="S3" s="307"/>
-      <c r="T3" s="308"/>
-      <c r="U3" s="308"/>
-      <c r="V3" s="308"/>
-      <c r="W3" s="308"/>
-      <c r="X3" s="308"/>
-      <c r="Y3" s="308"/>
-      <c r="Z3" s="309"/>
-      <c r="AA3" s="283"/>
-      <c r="AB3" s="285"/>
-      <c r="AC3" s="310"/>
-      <c r="AD3" s="311"/>
-      <c r="AE3" s="311"/>
-      <c r="AF3" s="312"/>
-      <c r="AG3" s="277"/>
-      <c r="AH3" s="278"/>
-      <c r="AI3" s="279"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="260" t="s">
+        <v>633</v>
+      </c>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="261"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="261"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="272"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="274"/>
+      <c r="S3" s="281"/>
+      <c r="T3" s="282"/>
+      <c r="U3" s="282"/>
+      <c r="V3" s="282"/>
+      <c r="W3" s="282"/>
+      <c r="X3" s="282"/>
+      <c r="Y3" s="282"/>
+      <c r="Z3" s="283"/>
+      <c r="AA3" s="257"/>
+      <c r="AB3" s="259"/>
+      <c r="AC3" s="284"/>
+      <c r="AD3" s="285"/>
+      <c r="AE3" s="285"/>
+      <c r="AF3" s="286"/>
+      <c r="AG3" s="251"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13211,1020 +13105,1176 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="280" t="s">
+      <c r="B7" s="254" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="281"/>
-      <c r="D7" s="280" t="s">
+      <c r="C7" s="255"/>
+      <c r="D7" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="282"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="280" t="s">
+      <c r="E7" s="256"/>
+      <c r="F7" s="255"/>
+      <c r="G7" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="282"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="280" t="s">
+      <c r="H7" s="256"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="282"/>
-      <c r="L7" s="282"/>
-      <c r="M7" s="282"/>
-      <c r="N7" s="282"/>
-      <c r="O7" s="282"/>
-      <c r="P7" s="281"/>
-      <c r="Q7" s="280" t="s">
+      <c r="K7" s="256"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="256"/>
+      <c r="O7" s="256"/>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="282"/>
-      <c r="S7" s="282"/>
-      <c r="T7" s="282"/>
-      <c r="U7" s="282"/>
-      <c r="V7" s="282"/>
-      <c r="W7" s="282"/>
-      <c r="X7" s="282"/>
-      <c r="Y7" s="282"/>
-      <c r="Z7" s="282"/>
-      <c r="AA7" s="282"/>
-      <c r="AB7" s="282"/>
-      <c r="AC7" s="282"/>
-      <c r="AD7" s="282"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="280" t="s">
+      <c r="R7" s="256"/>
+      <c r="S7" s="256"/>
+      <c r="T7" s="256"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="256"/>
+      <c r="W7" s="256"/>
+      <c r="X7" s="256"/>
+      <c r="Y7" s="256"/>
+      <c r="Z7" s="256"/>
+      <c r="AA7" s="256"/>
+      <c r="AB7" s="256"/>
+      <c r="AC7" s="256"/>
+      <c r="AD7" s="256"/>
+      <c r="AE7" s="255"/>
+      <c r="AF7" s="254" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="282"/>
-      <c r="AH7" s="282"/>
-      <c r="AI7" s="281"/>
+      <c r="AG7" s="256"/>
+      <c r="AH7" s="256"/>
+      <c r="AI7" s="255"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="267"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="269"/>
-      <c r="H8" s="270"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="271"/>
-      <c r="K8" s="272"/>
-      <c r="L8" s="272"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="272"/>
-      <c r="O8" s="272"/>
-      <c r="P8" s="273"/>
-      <c r="Q8" s="274"/>
-      <c r="R8" s="275"/>
-      <c r="S8" s="275"/>
-      <c r="T8" s="275"/>
-      <c r="U8" s="275"/>
-      <c r="V8" s="275"/>
-      <c r="W8" s="275"/>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="275"/>
-      <c r="Z8" s="275"/>
-      <c r="AA8" s="275"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="275"/>
-      <c r="AE8" s="276"/>
-      <c r="AF8" s="271"/>
-      <c r="AG8" s="272"/>
-      <c r="AH8" s="272"/>
-      <c r="AI8" s="273"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="301"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="303"/>
+      <c r="G8" s="304"/>
+      <c r="H8" s="305"/>
+      <c r="I8" s="300"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="307"/>
+      <c r="L8" s="307"/>
+      <c r="M8" s="307"/>
+      <c r="N8" s="307"/>
+      <c r="O8" s="307"/>
+      <c r="P8" s="308"/>
+      <c r="Q8" s="309"/>
+      <c r="R8" s="310"/>
+      <c r="S8" s="310"/>
+      <c r="T8" s="310"/>
+      <c r="U8" s="310"/>
+      <c r="V8" s="310"/>
+      <c r="W8" s="310"/>
+      <c r="X8" s="310"/>
+      <c r="Y8" s="310"/>
+      <c r="Z8" s="310"/>
+      <c r="AA8" s="310"/>
+      <c r="AB8" s="310"/>
+      <c r="AC8" s="310"/>
+      <c r="AD8" s="310"/>
+      <c r="AE8" s="311"/>
+      <c r="AF8" s="306"/>
+      <c r="AG8" s="307"/>
+      <c r="AH8" s="307"/>
+      <c r="AI8" s="308"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="251"/>
-      <c r="C9" s="252"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="255"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="258"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="259"/>
-      <c r="Q9" s="260"/>
-      <c r="R9" s="261"/>
-      <c r="S9" s="261"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="261"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="261"/>
-      <c r="Z9" s="261"/>
-      <c r="AA9" s="261"/>
-      <c r="AB9" s="261"/>
-      <c r="AC9" s="261"/>
-      <c r="AD9" s="261"/>
-      <c r="AE9" s="262"/>
-      <c r="AF9" s="257"/>
-      <c r="AG9" s="258"/>
-      <c r="AH9" s="258"/>
-      <c r="AI9" s="259"/>
+      <c r="B9" s="287"/>
+      <c r="C9" s="288"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="294"/>
+      <c r="N9" s="294"/>
+      <c r="O9" s="294"/>
+      <c r="P9" s="295"/>
+      <c r="Q9" s="296"/>
+      <c r="R9" s="297"/>
+      <c r="S9" s="297"/>
+      <c r="T9" s="297"/>
+      <c r="U9" s="297"/>
+      <c r="V9" s="297"/>
+      <c r="W9" s="297"/>
+      <c r="X9" s="297"/>
+      <c r="Y9" s="297"/>
+      <c r="Z9" s="297"/>
+      <c r="AA9" s="297"/>
+      <c r="AB9" s="297"/>
+      <c r="AC9" s="297"/>
+      <c r="AD9" s="297"/>
+      <c r="AE9" s="298"/>
+      <c r="AF9" s="293"/>
+      <c r="AG9" s="294"/>
+      <c r="AH9" s="294"/>
+      <c r="AI9" s="295"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="251"/>
-      <c r="C10" s="252"/>
-      <c r="D10" s="253"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="256"/>
-      <c r="I10" s="252"/>
-      <c r="J10" s="257"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="258"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="258"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="260"/>
-      <c r="R10" s="261"/>
-      <c r="S10" s="261"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="261"/>
-      <c r="V10" s="261"/>
-      <c r="W10" s="261"/>
-      <c r="X10" s="261"/>
-      <c r="Y10" s="261"/>
-      <c r="Z10" s="261"/>
-      <c r="AA10" s="261"/>
-      <c r="AB10" s="261"/>
-      <c r="AC10" s="261"/>
-      <c r="AD10" s="261"/>
-      <c r="AE10" s="262"/>
-      <c r="AF10" s="257"/>
-      <c r="AG10" s="258"/>
-      <c r="AH10" s="258"/>
-      <c r="AI10" s="259"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="288"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="291"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="293"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="294"/>
+      <c r="M10" s="294"/>
+      <c r="N10" s="294"/>
+      <c r="O10" s="294"/>
+      <c r="P10" s="295"/>
+      <c r="Q10" s="296"/>
+      <c r="R10" s="297"/>
+      <c r="S10" s="297"/>
+      <c r="T10" s="297"/>
+      <c r="U10" s="297"/>
+      <c r="V10" s="297"/>
+      <c r="W10" s="297"/>
+      <c r="X10" s="297"/>
+      <c r="Y10" s="297"/>
+      <c r="Z10" s="297"/>
+      <c r="AA10" s="297"/>
+      <c r="AB10" s="297"/>
+      <c r="AC10" s="297"/>
+      <c r="AD10" s="297"/>
+      <c r="AE10" s="298"/>
+      <c r="AF10" s="293"/>
+      <c r="AG10" s="294"/>
+      <c r="AH10" s="294"/>
+      <c r="AI10" s="295"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="251"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="256"/>
-      <c r="I11" s="252"/>
-      <c r="J11" s="257"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="258"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="258"/>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="261"/>
-      <c r="S11" s="261"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="261"/>
-      <c r="V11" s="261"/>
-      <c r="W11" s="261"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="261"/>
-      <c r="Z11" s="261"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="261"/>
-      <c r="AC11" s="261"/>
-      <c r="AD11" s="261"/>
-      <c r="AE11" s="262"/>
-      <c r="AF11" s="257"/>
-      <c r="AG11" s="258"/>
-      <c r="AH11" s="258"/>
-      <c r="AI11" s="259"/>
+      <c r="B11" s="287"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="290"/>
+      <c r="F11" s="291"/>
+      <c r="G11" s="287"/>
+      <c r="H11" s="292"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="293"/>
+      <c r="K11" s="294"/>
+      <c r="L11" s="294"/>
+      <c r="M11" s="294"/>
+      <c r="N11" s="294"/>
+      <c r="O11" s="294"/>
+      <c r="P11" s="295"/>
+      <c r="Q11" s="296"/>
+      <c r="R11" s="297"/>
+      <c r="S11" s="297"/>
+      <c r="T11" s="297"/>
+      <c r="U11" s="297"/>
+      <c r="V11" s="297"/>
+      <c r="W11" s="297"/>
+      <c r="X11" s="297"/>
+      <c r="Y11" s="297"/>
+      <c r="Z11" s="297"/>
+      <c r="AA11" s="297"/>
+      <c r="AB11" s="297"/>
+      <c r="AC11" s="297"/>
+      <c r="AD11" s="297"/>
+      <c r="AE11" s="298"/>
+      <c r="AF11" s="293"/>
+      <c r="AG11" s="294"/>
+      <c r="AH11" s="294"/>
+      <c r="AI11" s="295"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="251"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="254"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="252"/>
-      <c r="J12" s="257"/>
-      <c r="K12" s="258"/>
-      <c r="L12" s="258"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="258"/>
-      <c r="O12" s="258"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="260"/>
-      <c r="R12" s="261"/>
-      <c r="S12" s="261"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="261"/>
-      <c r="V12" s="261"/>
-      <c r="W12" s="261"/>
-      <c r="X12" s="261"/>
-      <c r="Y12" s="261"/>
-      <c r="Z12" s="261"/>
-      <c r="AA12" s="261"/>
-      <c r="AB12" s="261"/>
-      <c r="AC12" s="261"/>
-      <c r="AD12" s="261"/>
-      <c r="AE12" s="262"/>
-      <c r="AF12" s="257"/>
-      <c r="AG12" s="258"/>
-      <c r="AH12" s="258"/>
-      <c r="AI12" s="259"/>
+      <c r="B12" s="287"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="289"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="291"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="292"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="293"/>
+      <c r="K12" s="294"/>
+      <c r="L12" s="294"/>
+      <c r="M12" s="294"/>
+      <c r="N12" s="294"/>
+      <c r="O12" s="294"/>
+      <c r="P12" s="295"/>
+      <c r="Q12" s="296"/>
+      <c r="R12" s="297"/>
+      <c r="S12" s="297"/>
+      <c r="T12" s="297"/>
+      <c r="U12" s="297"/>
+      <c r="V12" s="297"/>
+      <c r="W12" s="297"/>
+      <c r="X12" s="297"/>
+      <c r="Y12" s="297"/>
+      <c r="Z12" s="297"/>
+      <c r="AA12" s="297"/>
+      <c r="AB12" s="297"/>
+      <c r="AC12" s="297"/>
+      <c r="AD12" s="297"/>
+      <c r="AE12" s="298"/>
+      <c r="AF12" s="293"/>
+      <c r="AG12" s="294"/>
+      <c r="AH12" s="294"/>
+      <c r="AI12" s="295"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="251"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="252"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="258"/>
-      <c r="L13" s="258"/>
-      <c r="M13" s="258"/>
-      <c r="N13" s="258"/>
-      <c r="O13" s="258"/>
-      <c r="P13" s="259"/>
-      <c r="Q13" s="260"/>
-      <c r="R13" s="261"/>
-      <c r="S13" s="261"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="261"/>
-      <c r="V13" s="261"/>
-      <c r="W13" s="261"/>
-      <c r="X13" s="261"/>
-      <c r="Y13" s="261"/>
-      <c r="Z13" s="261"/>
-      <c r="AA13" s="261"/>
-      <c r="AB13" s="261"/>
-      <c r="AC13" s="261"/>
-      <c r="AD13" s="261"/>
-      <c r="AE13" s="262"/>
-      <c r="AF13" s="257"/>
-      <c r="AG13" s="258"/>
-      <c r="AH13" s="258"/>
-      <c r="AI13" s="259"/>
+      <c r="B13" s="287"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="291"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="294"/>
+      <c r="N13" s="294"/>
+      <c r="O13" s="294"/>
+      <c r="P13" s="295"/>
+      <c r="Q13" s="296"/>
+      <c r="R13" s="297"/>
+      <c r="S13" s="297"/>
+      <c r="T13" s="297"/>
+      <c r="U13" s="297"/>
+      <c r="V13" s="297"/>
+      <c r="W13" s="297"/>
+      <c r="X13" s="297"/>
+      <c r="Y13" s="297"/>
+      <c r="Z13" s="297"/>
+      <c r="AA13" s="297"/>
+      <c r="AB13" s="297"/>
+      <c r="AC13" s="297"/>
+      <c r="AD13" s="297"/>
+      <c r="AE13" s="298"/>
+      <c r="AF13" s="293"/>
+      <c r="AG13" s="294"/>
+      <c r="AH13" s="294"/>
+      <c r="AI13" s="295"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="251"/>
-      <c r="C14" s="252"/>
-      <c r="D14" s="253"/>
-      <c r="E14" s="254"/>
-      <c r="F14" s="255"/>
-      <c r="G14" s="251"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="257"/>
-      <c r="K14" s="258"/>
-      <c r="L14" s="258"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="258"/>
-      <c r="O14" s="258"/>
-      <c r="P14" s="259"/>
-      <c r="Q14" s="260"/>
-      <c r="R14" s="261"/>
-      <c r="S14" s="261"/>
-      <c r="T14" s="261"/>
-      <c r="U14" s="261"/>
-      <c r="V14" s="261"/>
-      <c r="W14" s="261"/>
-      <c r="X14" s="261"/>
-      <c r="Y14" s="261"/>
-      <c r="Z14" s="261"/>
-      <c r="AA14" s="261"/>
-      <c r="AB14" s="261"/>
-      <c r="AC14" s="261"/>
-      <c r="AD14" s="261"/>
-      <c r="AE14" s="262"/>
-      <c r="AF14" s="257"/>
-      <c r="AG14" s="258"/>
-      <c r="AH14" s="258"/>
-      <c r="AI14" s="259"/>
+      <c r="B14" s="287"/>
+      <c r="C14" s="288"/>
+      <c r="D14" s="289"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="291"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="292"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="293"/>
+      <c r="K14" s="294"/>
+      <c r="L14" s="294"/>
+      <c r="M14" s="294"/>
+      <c r="N14" s="294"/>
+      <c r="O14" s="294"/>
+      <c r="P14" s="295"/>
+      <c r="Q14" s="296"/>
+      <c r="R14" s="297"/>
+      <c r="S14" s="297"/>
+      <c r="T14" s="297"/>
+      <c r="U14" s="297"/>
+      <c r="V14" s="297"/>
+      <c r="W14" s="297"/>
+      <c r="X14" s="297"/>
+      <c r="Y14" s="297"/>
+      <c r="Z14" s="297"/>
+      <c r="AA14" s="297"/>
+      <c r="AB14" s="297"/>
+      <c r="AC14" s="297"/>
+      <c r="AD14" s="297"/>
+      <c r="AE14" s="298"/>
+      <c r="AF14" s="293"/>
+      <c r="AG14" s="294"/>
+      <c r="AH14" s="294"/>
+      <c r="AI14" s="295"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="251"/>
-      <c r="C15" s="252"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="254"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="258"/>
-      <c r="L15" s="258"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="258"/>
-      <c r="O15" s="258"/>
-      <c r="P15" s="259"/>
-      <c r="Q15" s="260"/>
-      <c r="R15" s="261"/>
-      <c r="S15" s="261"/>
-      <c r="T15" s="261"/>
-      <c r="U15" s="261"/>
-      <c r="V15" s="261"/>
-      <c r="W15" s="261"/>
-      <c r="X15" s="261"/>
-      <c r="Y15" s="261"/>
-      <c r="Z15" s="261"/>
-      <c r="AA15" s="261"/>
-      <c r="AB15" s="261"/>
-      <c r="AC15" s="261"/>
-      <c r="AD15" s="261"/>
-      <c r="AE15" s="262"/>
-      <c r="AF15" s="257"/>
-      <c r="AG15" s="258"/>
-      <c r="AH15" s="258"/>
-      <c r="AI15" s="259"/>
+      <c r="B15" s="287"/>
+      <c r="C15" s="288"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="291"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="292"/>
+      <c r="I15" s="288"/>
+      <c r="J15" s="293"/>
+      <c r="K15" s="294"/>
+      <c r="L15" s="294"/>
+      <c r="M15" s="294"/>
+      <c r="N15" s="294"/>
+      <c r="O15" s="294"/>
+      <c r="P15" s="295"/>
+      <c r="Q15" s="296"/>
+      <c r="R15" s="297"/>
+      <c r="S15" s="297"/>
+      <c r="T15" s="297"/>
+      <c r="U15" s="297"/>
+      <c r="V15" s="297"/>
+      <c r="W15" s="297"/>
+      <c r="X15" s="297"/>
+      <c r="Y15" s="297"/>
+      <c r="Z15" s="297"/>
+      <c r="AA15" s="297"/>
+      <c r="AB15" s="297"/>
+      <c r="AC15" s="297"/>
+      <c r="AD15" s="297"/>
+      <c r="AE15" s="298"/>
+      <c r="AF15" s="293"/>
+      <c r="AG15" s="294"/>
+      <c r="AH15" s="294"/>
+      <c r="AI15" s="295"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="251"/>
-      <c r="C16" s="252"/>
-      <c r="D16" s="253"/>
-      <c r="E16" s="254"/>
-      <c r="F16" s="255"/>
-      <c r="G16" s="251"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="252"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="258"/>
-      <c r="L16" s="258"/>
-      <c r="M16" s="258"/>
-      <c r="N16" s="258"/>
-      <c r="O16" s="258"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="260"/>
-      <c r="R16" s="261"/>
-      <c r="S16" s="261"/>
-      <c r="T16" s="261"/>
-      <c r="U16" s="261"/>
-      <c r="V16" s="261"/>
-      <c r="W16" s="261"/>
-      <c r="X16" s="261"/>
-      <c r="Y16" s="261"/>
-      <c r="Z16" s="261"/>
-      <c r="AA16" s="261"/>
-      <c r="AB16" s="261"/>
-      <c r="AC16" s="261"/>
-      <c r="AD16" s="261"/>
-      <c r="AE16" s="262"/>
-      <c r="AF16" s="257"/>
-      <c r="AG16" s="258"/>
-      <c r="AH16" s="258"/>
-      <c r="AI16" s="259"/>
+      <c r="B16" s="287"/>
+      <c r="C16" s="288"/>
+      <c r="D16" s="289"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="291"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="292"/>
+      <c r="I16" s="288"/>
+      <c r="J16" s="293"/>
+      <c r="K16" s="294"/>
+      <c r="L16" s="294"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="294"/>
+      <c r="O16" s="294"/>
+      <c r="P16" s="295"/>
+      <c r="Q16" s="296"/>
+      <c r="R16" s="297"/>
+      <c r="S16" s="297"/>
+      <c r="T16" s="297"/>
+      <c r="U16" s="297"/>
+      <c r="V16" s="297"/>
+      <c r="W16" s="297"/>
+      <c r="X16" s="297"/>
+      <c r="Y16" s="297"/>
+      <c r="Z16" s="297"/>
+      <c r="AA16" s="297"/>
+      <c r="AB16" s="297"/>
+      <c r="AC16" s="297"/>
+      <c r="AD16" s="297"/>
+      <c r="AE16" s="298"/>
+      <c r="AF16" s="293"/>
+      <c r="AG16" s="294"/>
+      <c r="AH16" s="294"/>
+      <c r="AI16" s="295"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="251"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="253"/>
-      <c r="E17" s="254"/>
-      <c r="F17" s="255"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="252"/>
-      <c r="J17" s="257"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="258"/>
-      <c r="M17" s="258"/>
-      <c r="N17" s="258"/>
-      <c r="O17" s="258"/>
-      <c r="P17" s="259"/>
-      <c r="Q17" s="260"/>
-      <c r="R17" s="261"/>
-      <c r="S17" s="261"/>
-      <c r="T17" s="261"/>
-      <c r="U17" s="261"/>
-      <c r="V17" s="261"/>
-      <c r="W17" s="261"/>
-      <c r="X17" s="261"/>
-      <c r="Y17" s="261"/>
-      <c r="Z17" s="261"/>
-      <c r="AA17" s="261"/>
-      <c r="AB17" s="261"/>
-      <c r="AC17" s="261"/>
-      <c r="AD17" s="261"/>
-      <c r="AE17" s="262"/>
-      <c r="AF17" s="257"/>
-      <c r="AG17" s="258"/>
-      <c r="AH17" s="258"/>
-      <c r="AI17" s="259"/>
+      <c r="B17" s="287"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="289"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="291"/>
+      <c r="G17" s="287"/>
+      <c r="H17" s="292"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="293"/>
+      <c r="K17" s="294"/>
+      <c r="L17" s="294"/>
+      <c r="M17" s="294"/>
+      <c r="N17" s="294"/>
+      <c r="O17" s="294"/>
+      <c r="P17" s="295"/>
+      <c r="Q17" s="296"/>
+      <c r="R17" s="297"/>
+      <c r="S17" s="297"/>
+      <c r="T17" s="297"/>
+      <c r="U17" s="297"/>
+      <c r="V17" s="297"/>
+      <c r="W17" s="297"/>
+      <c r="X17" s="297"/>
+      <c r="Y17" s="297"/>
+      <c r="Z17" s="297"/>
+      <c r="AA17" s="297"/>
+      <c r="AB17" s="297"/>
+      <c r="AC17" s="297"/>
+      <c r="AD17" s="297"/>
+      <c r="AE17" s="298"/>
+      <c r="AF17" s="293"/>
+      <c r="AG17" s="294"/>
+      <c r="AH17" s="294"/>
+      <c r="AI17" s="295"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="251"/>
-      <c r="C18" s="252"/>
-      <c r="D18" s="253"/>
-      <c r="E18" s="254"/>
-      <c r="F18" s="255"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="252"/>
-      <c r="J18" s="257"/>
-      <c r="K18" s="258"/>
-      <c r="L18" s="258"/>
-      <c r="M18" s="258"/>
-      <c r="N18" s="258"/>
-      <c r="O18" s="258"/>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="260"/>
-      <c r="R18" s="261"/>
-      <c r="S18" s="261"/>
-      <c r="T18" s="261"/>
-      <c r="U18" s="261"/>
-      <c r="V18" s="261"/>
-      <c r="W18" s="261"/>
-      <c r="X18" s="261"/>
-      <c r="Y18" s="261"/>
-      <c r="Z18" s="261"/>
-      <c r="AA18" s="261"/>
-      <c r="AB18" s="261"/>
-      <c r="AC18" s="261"/>
-      <c r="AD18" s="261"/>
-      <c r="AE18" s="262"/>
-      <c r="AF18" s="257"/>
-      <c r="AG18" s="258"/>
-      <c r="AH18" s="258"/>
-      <c r="AI18" s="259"/>
+      <c r="B18" s="287"/>
+      <c r="C18" s="288"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="291"/>
+      <c r="G18" s="287"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="293"/>
+      <c r="K18" s="294"/>
+      <c r="L18" s="294"/>
+      <c r="M18" s="294"/>
+      <c r="N18" s="294"/>
+      <c r="O18" s="294"/>
+      <c r="P18" s="295"/>
+      <c r="Q18" s="296"/>
+      <c r="R18" s="297"/>
+      <c r="S18" s="297"/>
+      <c r="T18" s="297"/>
+      <c r="U18" s="297"/>
+      <c r="V18" s="297"/>
+      <c r="W18" s="297"/>
+      <c r="X18" s="297"/>
+      <c r="Y18" s="297"/>
+      <c r="Z18" s="297"/>
+      <c r="AA18" s="297"/>
+      <c r="AB18" s="297"/>
+      <c r="AC18" s="297"/>
+      <c r="AD18" s="297"/>
+      <c r="AE18" s="298"/>
+      <c r="AF18" s="293"/>
+      <c r="AG18" s="294"/>
+      <c r="AH18" s="294"/>
+      <c r="AI18" s="295"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="251"/>
-      <c r="C19" s="252"/>
-      <c r="D19" s="253"/>
-      <c r="E19" s="254"/>
-      <c r="F19" s="255"/>
-      <c r="G19" s="251"/>
-      <c r="H19" s="256"/>
-      <c r="I19" s="252"/>
-      <c r="J19" s="257"/>
-      <c r="K19" s="258"/>
-      <c r="L19" s="258"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="258"/>
-      <c r="O19" s="258"/>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="260"/>
-      <c r="R19" s="261"/>
-      <c r="S19" s="261"/>
-      <c r="T19" s="261"/>
-      <c r="U19" s="261"/>
-      <c r="V19" s="261"/>
-      <c r="W19" s="261"/>
-      <c r="X19" s="261"/>
-      <c r="Y19" s="261"/>
-      <c r="Z19" s="261"/>
-      <c r="AA19" s="261"/>
-      <c r="AB19" s="261"/>
-      <c r="AC19" s="261"/>
-      <c r="AD19" s="261"/>
-      <c r="AE19" s="262"/>
-      <c r="AF19" s="257"/>
-      <c r="AG19" s="258"/>
-      <c r="AH19" s="258"/>
-      <c r="AI19" s="259"/>
+      <c r="B19" s="287"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="289"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="291"/>
+      <c r="G19" s="287"/>
+      <c r="H19" s="292"/>
+      <c r="I19" s="288"/>
+      <c r="J19" s="293"/>
+      <c r="K19" s="294"/>
+      <c r="L19" s="294"/>
+      <c r="M19" s="294"/>
+      <c r="N19" s="294"/>
+      <c r="O19" s="294"/>
+      <c r="P19" s="295"/>
+      <c r="Q19" s="296"/>
+      <c r="R19" s="297"/>
+      <c r="S19" s="297"/>
+      <c r="T19" s="297"/>
+      <c r="U19" s="297"/>
+      <c r="V19" s="297"/>
+      <c r="W19" s="297"/>
+      <c r="X19" s="297"/>
+      <c r="Y19" s="297"/>
+      <c r="Z19" s="297"/>
+      <c r="AA19" s="297"/>
+      <c r="AB19" s="297"/>
+      <c r="AC19" s="297"/>
+      <c r="AD19" s="297"/>
+      <c r="AE19" s="298"/>
+      <c r="AF19" s="293"/>
+      <c r="AG19" s="294"/>
+      <c r="AH19" s="294"/>
+      <c r="AI19" s="295"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="251"/>
-      <c r="C20" s="252"/>
-      <c r="D20" s="253"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="255"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="256"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="257"/>
-      <c r="K20" s="258"/>
-      <c r="L20" s="258"/>
-      <c r="M20" s="258"/>
-      <c r="N20" s="258"/>
-      <c r="O20" s="258"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="260"/>
-      <c r="R20" s="261"/>
-      <c r="S20" s="261"/>
-      <c r="T20" s="261"/>
-      <c r="U20" s="261"/>
-      <c r="V20" s="261"/>
-      <c r="W20" s="261"/>
-      <c r="X20" s="261"/>
-      <c r="Y20" s="261"/>
-      <c r="Z20" s="261"/>
-      <c r="AA20" s="261"/>
-      <c r="AB20" s="261"/>
-      <c r="AC20" s="261"/>
-      <c r="AD20" s="261"/>
-      <c r="AE20" s="262"/>
-      <c r="AF20" s="257"/>
-      <c r="AG20" s="258"/>
-      <c r="AH20" s="258"/>
-      <c r="AI20" s="259"/>
+      <c r="B20" s="287"/>
+      <c r="C20" s="288"/>
+      <c r="D20" s="289"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="291"/>
+      <c r="G20" s="287"/>
+      <c r="H20" s="292"/>
+      <c r="I20" s="288"/>
+      <c r="J20" s="293"/>
+      <c r="K20" s="294"/>
+      <c r="L20" s="294"/>
+      <c r="M20" s="294"/>
+      <c r="N20" s="294"/>
+      <c r="O20" s="294"/>
+      <c r="P20" s="295"/>
+      <c r="Q20" s="296"/>
+      <c r="R20" s="297"/>
+      <c r="S20" s="297"/>
+      <c r="T20" s="297"/>
+      <c r="U20" s="297"/>
+      <c r="V20" s="297"/>
+      <c r="W20" s="297"/>
+      <c r="X20" s="297"/>
+      <c r="Y20" s="297"/>
+      <c r="Z20" s="297"/>
+      <c r="AA20" s="297"/>
+      <c r="AB20" s="297"/>
+      <c r="AC20" s="297"/>
+      <c r="AD20" s="297"/>
+      <c r="AE20" s="298"/>
+      <c r="AF20" s="293"/>
+      <c r="AG20" s="294"/>
+      <c r="AH20" s="294"/>
+      <c r="AI20" s="295"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="251"/>
-      <c r="C21" s="252"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="255"/>
-      <c r="G21" s="251"/>
-      <c r="H21" s="256"/>
-      <c r="I21" s="252"/>
-      <c r="J21" s="257"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="258"/>
-      <c r="M21" s="258"/>
-      <c r="N21" s="258"/>
-      <c r="O21" s="258"/>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="260"/>
-      <c r="R21" s="261"/>
-      <c r="S21" s="261"/>
-      <c r="T21" s="261"/>
-      <c r="U21" s="261"/>
-      <c r="V21" s="261"/>
-      <c r="W21" s="261"/>
-      <c r="X21" s="261"/>
-      <c r="Y21" s="261"/>
-      <c r="Z21" s="261"/>
-      <c r="AA21" s="261"/>
-      <c r="AB21" s="261"/>
-      <c r="AC21" s="261"/>
-      <c r="AD21" s="261"/>
-      <c r="AE21" s="262"/>
-      <c r="AF21" s="257"/>
-      <c r="AG21" s="258"/>
-      <c r="AH21" s="258"/>
-      <c r="AI21" s="259"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="289"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="292"/>
+      <c r="I21" s="288"/>
+      <c r="J21" s="293"/>
+      <c r="K21" s="294"/>
+      <c r="L21" s="294"/>
+      <c r="M21" s="294"/>
+      <c r="N21" s="294"/>
+      <c r="O21" s="294"/>
+      <c r="P21" s="295"/>
+      <c r="Q21" s="296"/>
+      <c r="R21" s="297"/>
+      <c r="S21" s="297"/>
+      <c r="T21" s="297"/>
+      <c r="U21" s="297"/>
+      <c r="V21" s="297"/>
+      <c r="W21" s="297"/>
+      <c r="X21" s="297"/>
+      <c r="Y21" s="297"/>
+      <c r="Z21" s="297"/>
+      <c r="AA21" s="297"/>
+      <c r="AB21" s="297"/>
+      <c r="AC21" s="297"/>
+      <c r="AD21" s="297"/>
+      <c r="AE21" s="298"/>
+      <c r="AF21" s="293"/>
+      <c r="AG21" s="294"/>
+      <c r="AH21" s="294"/>
+      <c r="AI21" s="295"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="251"/>
-      <c r="C22" s="252"/>
-      <c r="D22" s="253"/>
-      <c r="E22" s="254"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="252"/>
-      <c r="J22" s="257"/>
-      <c r="K22" s="258"/>
-      <c r="L22" s="258"/>
-      <c r="M22" s="258"/>
-      <c r="N22" s="258"/>
-      <c r="O22" s="258"/>
-      <c r="P22" s="259"/>
-      <c r="Q22" s="260"/>
-      <c r="R22" s="261"/>
-      <c r="S22" s="261"/>
-      <c r="T22" s="261"/>
-      <c r="U22" s="261"/>
-      <c r="V22" s="261"/>
-      <c r="W22" s="261"/>
-      <c r="X22" s="261"/>
-      <c r="Y22" s="261"/>
-      <c r="Z22" s="261"/>
-      <c r="AA22" s="261"/>
-      <c r="AB22" s="261"/>
-      <c r="AC22" s="261"/>
-      <c r="AD22" s="261"/>
-      <c r="AE22" s="262"/>
-      <c r="AF22" s="257"/>
-      <c r="AG22" s="258"/>
-      <c r="AH22" s="258"/>
-      <c r="AI22" s="259"/>
+      <c r="B22" s="287"/>
+      <c r="C22" s="288"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="291"/>
+      <c r="G22" s="287"/>
+      <c r="H22" s="292"/>
+      <c r="I22" s="288"/>
+      <c r="J22" s="293"/>
+      <c r="K22" s="294"/>
+      <c r="L22" s="294"/>
+      <c r="M22" s="294"/>
+      <c r="N22" s="294"/>
+      <c r="O22" s="294"/>
+      <c r="P22" s="295"/>
+      <c r="Q22" s="296"/>
+      <c r="R22" s="297"/>
+      <c r="S22" s="297"/>
+      <c r="T22" s="297"/>
+      <c r="U22" s="297"/>
+      <c r="V22" s="297"/>
+      <c r="W22" s="297"/>
+      <c r="X22" s="297"/>
+      <c r="Y22" s="297"/>
+      <c r="Z22" s="297"/>
+      <c r="AA22" s="297"/>
+      <c r="AB22" s="297"/>
+      <c r="AC22" s="297"/>
+      <c r="AD22" s="297"/>
+      <c r="AE22" s="298"/>
+      <c r="AF22" s="293"/>
+      <c r="AG22" s="294"/>
+      <c r="AH22" s="294"/>
+      <c r="AI22" s="295"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="251"/>
-      <c r="C23" s="252"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="257"/>
-      <c r="K23" s="258"/>
-      <c r="L23" s="258"/>
-      <c r="M23" s="258"/>
-      <c r="N23" s="258"/>
-      <c r="O23" s="258"/>
-      <c r="P23" s="259"/>
-      <c r="Q23" s="260"/>
-      <c r="R23" s="261"/>
-      <c r="S23" s="261"/>
-      <c r="T23" s="261"/>
-      <c r="U23" s="261"/>
-      <c r="V23" s="261"/>
-      <c r="W23" s="261"/>
-      <c r="X23" s="261"/>
-      <c r="Y23" s="261"/>
-      <c r="Z23" s="261"/>
-      <c r="AA23" s="261"/>
-      <c r="AB23" s="261"/>
-      <c r="AC23" s="261"/>
-      <c r="AD23" s="261"/>
-      <c r="AE23" s="262"/>
-      <c r="AF23" s="257"/>
-      <c r="AG23" s="258"/>
-      <c r="AH23" s="258"/>
-      <c r="AI23" s="259"/>
+      <c r="B23" s="287"/>
+      <c r="C23" s="288"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="291"/>
+      <c r="G23" s="287"/>
+      <c r="H23" s="292"/>
+      <c r="I23" s="288"/>
+      <c r="J23" s="293"/>
+      <c r="K23" s="294"/>
+      <c r="L23" s="294"/>
+      <c r="M23" s="294"/>
+      <c r="N23" s="294"/>
+      <c r="O23" s="294"/>
+      <c r="P23" s="295"/>
+      <c r="Q23" s="296"/>
+      <c r="R23" s="297"/>
+      <c r="S23" s="297"/>
+      <c r="T23" s="297"/>
+      <c r="U23" s="297"/>
+      <c r="V23" s="297"/>
+      <c r="W23" s="297"/>
+      <c r="X23" s="297"/>
+      <c r="Y23" s="297"/>
+      <c r="Z23" s="297"/>
+      <c r="AA23" s="297"/>
+      <c r="AB23" s="297"/>
+      <c r="AC23" s="297"/>
+      <c r="AD23" s="297"/>
+      <c r="AE23" s="298"/>
+      <c r="AF23" s="293"/>
+      <c r="AG23" s="294"/>
+      <c r="AH23" s="294"/>
+      <c r="AI23" s="295"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="251"/>
-      <c r="C24" s="252"/>
-      <c r="D24" s="253"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="255"/>
-      <c r="G24" s="251"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="257"/>
-      <c r="K24" s="258"/>
-      <c r="L24" s="258"/>
-      <c r="M24" s="258"/>
-      <c r="N24" s="258"/>
-      <c r="O24" s="258"/>
-      <c r="P24" s="259"/>
-      <c r="Q24" s="260"/>
-      <c r="R24" s="261"/>
-      <c r="S24" s="261"/>
-      <c r="T24" s="261"/>
-      <c r="U24" s="261"/>
-      <c r="V24" s="261"/>
-      <c r="W24" s="261"/>
-      <c r="X24" s="261"/>
-      <c r="Y24" s="261"/>
-      <c r="Z24" s="261"/>
-      <c r="AA24" s="261"/>
-      <c r="AB24" s="261"/>
-      <c r="AC24" s="261"/>
-      <c r="AD24" s="261"/>
-      <c r="AE24" s="262"/>
-      <c r="AF24" s="257"/>
-      <c r="AG24" s="258"/>
-      <c r="AH24" s="258"/>
-      <c r="AI24" s="259"/>
+      <c r="B24" s="287"/>
+      <c r="C24" s="288"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="291"/>
+      <c r="G24" s="287"/>
+      <c r="H24" s="292"/>
+      <c r="I24" s="288"/>
+      <c r="J24" s="293"/>
+      <c r="K24" s="294"/>
+      <c r="L24" s="294"/>
+      <c r="M24" s="294"/>
+      <c r="N24" s="294"/>
+      <c r="O24" s="294"/>
+      <c r="P24" s="295"/>
+      <c r="Q24" s="296"/>
+      <c r="R24" s="297"/>
+      <c r="S24" s="297"/>
+      <c r="T24" s="297"/>
+      <c r="U24" s="297"/>
+      <c r="V24" s="297"/>
+      <c r="W24" s="297"/>
+      <c r="X24" s="297"/>
+      <c r="Y24" s="297"/>
+      <c r="Z24" s="297"/>
+      <c r="AA24" s="297"/>
+      <c r="AB24" s="297"/>
+      <c r="AC24" s="297"/>
+      <c r="AD24" s="297"/>
+      <c r="AE24" s="298"/>
+      <c r="AF24" s="293"/>
+      <c r="AG24" s="294"/>
+      <c r="AH24" s="294"/>
+      <c r="AI24" s="295"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="251"/>
-      <c r="C25" s="252"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="254"/>
-      <c r="F25" s="255"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="256"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="257"/>
-      <c r="K25" s="258"/>
-      <c r="L25" s="258"/>
-      <c r="M25" s="258"/>
-      <c r="N25" s="258"/>
-      <c r="O25" s="258"/>
-      <c r="P25" s="259"/>
-      <c r="Q25" s="260"/>
-      <c r="R25" s="261"/>
-      <c r="S25" s="261"/>
-      <c r="T25" s="261"/>
-      <c r="U25" s="261"/>
-      <c r="V25" s="261"/>
-      <c r="W25" s="261"/>
-      <c r="X25" s="261"/>
-      <c r="Y25" s="261"/>
-      <c r="Z25" s="261"/>
-      <c r="AA25" s="261"/>
-      <c r="AB25" s="261"/>
-      <c r="AC25" s="261"/>
-      <c r="AD25" s="261"/>
-      <c r="AE25" s="262"/>
-      <c r="AF25" s="257"/>
-      <c r="AG25" s="258"/>
-      <c r="AH25" s="258"/>
-      <c r="AI25" s="259"/>
+      <c r="B25" s="287"/>
+      <c r="C25" s="288"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="291"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="292"/>
+      <c r="I25" s="288"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="294"/>
+      <c r="M25" s="294"/>
+      <c r="N25" s="294"/>
+      <c r="O25" s="294"/>
+      <c r="P25" s="295"/>
+      <c r="Q25" s="296"/>
+      <c r="R25" s="297"/>
+      <c r="S25" s="297"/>
+      <c r="T25" s="297"/>
+      <c r="U25" s="297"/>
+      <c r="V25" s="297"/>
+      <c r="W25" s="297"/>
+      <c r="X25" s="297"/>
+      <c r="Y25" s="297"/>
+      <c r="Z25" s="297"/>
+      <c r="AA25" s="297"/>
+      <c r="AB25" s="297"/>
+      <c r="AC25" s="297"/>
+      <c r="AD25" s="297"/>
+      <c r="AE25" s="298"/>
+      <c r="AF25" s="293"/>
+      <c r="AG25" s="294"/>
+      <c r="AH25" s="294"/>
+      <c r="AI25" s="295"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="251"/>
-      <c r="C26" s="252"/>
-      <c r="D26" s="253"/>
-      <c r="E26" s="254"/>
-      <c r="F26" s="255"/>
-      <c r="G26" s="251"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="252"/>
-      <c r="J26" s="257"/>
-      <c r="K26" s="258"/>
-      <c r="L26" s="258"/>
-      <c r="M26" s="258"/>
-      <c r="N26" s="258"/>
-      <c r="O26" s="258"/>
-      <c r="P26" s="259"/>
-      <c r="Q26" s="260"/>
-      <c r="R26" s="261"/>
-      <c r="S26" s="261"/>
-      <c r="T26" s="261"/>
-      <c r="U26" s="261"/>
-      <c r="V26" s="261"/>
-      <c r="W26" s="261"/>
-      <c r="X26" s="261"/>
-      <c r="Y26" s="261"/>
-      <c r="Z26" s="261"/>
-      <c r="AA26" s="261"/>
-      <c r="AB26" s="261"/>
-      <c r="AC26" s="261"/>
-      <c r="AD26" s="261"/>
-      <c r="AE26" s="262"/>
-      <c r="AF26" s="257"/>
-      <c r="AG26" s="258"/>
-      <c r="AH26" s="258"/>
-      <c r="AI26" s="259"/>
+      <c r="B26" s="287"/>
+      <c r="C26" s="288"/>
+      <c r="D26" s="289"/>
+      <c r="E26" s="290"/>
+      <c r="F26" s="291"/>
+      <c r="G26" s="287"/>
+      <c r="H26" s="292"/>
+      <c r="I26" s="288"/>
+      <c r="J26" s="293"/>
+      <c r="K26" s="294"/>
+      <c r="L26" s="294"/>
+      <c r="M26" s="294"/>
+      <c r="N26" s="294"/>
+      <c r="O26" s="294"/>
+      <c r="P26" s="295"/>
+      <c r="Q26" s="296"/>
+      <c r="R26" s="297"/>
+      <c r="S26" s="297"/>
+      <c r="T26" s="297"/>
+      <c r="U26" s="297"/>
+      <c r="V26" s="297"/>
+      <c r="W26" s="297"/>
+      <c r="X26" s="297"/>
+      <c r="Y26" s="297"/>
+      <c r="Z26" s="297"/>
+      <c r="AA26" s="297"/>
+      <c r="AB26" s="297"/>
+      <c r="AC26" s="297"/>
+      <c r="AD26" s="297"/>
+      <c r="AE26" s="298"/>
+      <c r="AF26" s="293"/>
+      <c r="AG26" s="294"/>
+      <c r="AH26" s="294"/>
+      <c r="AI26" s="295"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="251"/>
-      <c r="C27" s="252"/>
-      <c r="D27" s="253"/>
-      <c r="E27" s="254"/>
-      <c r="F27" s="255"/>
-      <c r="G27" s="251"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="252"/>
-      <c r="J27" s="257"/>
-      <c r="K27" s="258"/>
-      <c r="L27" s="258"/>
-      <c r="M27" s="258"/>
-      <c r="N27" s="258"/>
-      <c r="O27" s="258"/>
-      <c r="P27" s="259"/>
-      <c r="Q27" s="260"/>
-      <c r="R27" s="261"/>
-      <c r="S27" s="261"/>
-      <c r="T27" s="261"/>
-      <c r="U27" s="261"/>
-      <c r="V27" s="261"/>
-      <c r="W27" s="261"/>
-      <c r="X27" s="261"/>
-      <c r="Y27" s="261"/>
-      <c r="Z27" s="261"/>
-      <c r="AA27" s="261"/>
-      <c r="AB27" s="261"/>
-      <c r="AC27" s="261"/>
-      <c r="AD27" s="261"/>
-      <c r="AE27" s="262"/>
-      <c r="AF27" s="257"/>
-      <c r="AG27" s="258"/>
-      <c r="AH27" s="258"/>
-      <c r="AI27" s="259"/>
+      <c r="B27" s="287"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="291"/>
+      <c r="G27" s="287"/>
+      <c r="H27" s="292"/>
+      <c r="I27" s="288"/>
+      <c r="J27" s="293"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="294"/>
+      <c r="M27" s="294"/>
+      <c r="N27" s="294"/>
+      <c r="O27" s="294"/>
+      <c r="P27" s="295"/>
+      <c r="Q27" s="296"/>
+      <c r="R27" s="297"/>
+      <c r="S27" s="297"/>
+      <c r="T27" s="297"/>
+      <c r="U27" s="297"/>
+      <c r="V27" s="297"/>
+      <c r="W27" s="297"/>
+      <c r="X27" s="297"/>
+      <c r="Y27" s="297"/>
+      <c r="Z27" s="297"/>
+      <c r="AA27" s="297"/>
+      <c r="AB27" s="297"/>
+      <c r="AC27" s="297"/>
+      <c r="AD27" s="297"/>
+      <c r="AE27" s="298"/>
+      <c r="AF27" s="293"/>
+      <c r="AG27" s="294"/>
+      <c r="AH27" s="294"/>
+      <c r="AI27" s="295"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="251"/>
-      <c r="C28" s="252"/>
-      <c r="D28" s="253"/>
-      <c r="E28" s="254"/>
-      <c r="F28" s="255"/>
-      <c r="G28" s="251"/>
-      <c r="H28" s="256"/>
-      <c r="I28" s="252"/>
-      <c r="J28" s="257"/>
-      <c r="K28" s="258"/>
-      <c r="L28" s="258"/>
-      <c r="M28" s="258"/>
-      <c r="N28" s="258"/>
-      <c r="O28" s="258"/>
-      <c r="P28" s="259"/>
-      <c r="Q28" s="260"/>
-      <c r="R28" s="261"/>
-      <c r="S28" s="261"/>
-      <c r="T28" s="261"/>
-      <c r="U28" s="261"/>
-      <c r="V28" s="261"/>
-      <c r="W28" s="261"/>
-      <c r="X28" s="261"/>
-      <c r="Y28" s="261"/>
-      <c r="Z28" s="261"/>
-      <c r="AA28" s="261"/>
-      <c r="AB28" s="261"/>
-      <c r="AC28" s="261"/>
-      <c r="AD28" s="261"/>
-      <c r="AE28" s="262"/>
-      <c r="AF28" s="257"/>
-      <c r="AG28" s="258"/>
-      <c r="AH28" s="258"/>
-      <c r="AI28" s="259"/>
+      <c r="B28" s="287"/>
+      <c r="C28" s="288"/>
+      <c r="D28" s="289"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="291"/>
+      <c r="G28" s="287"/>
+      <c r="H28" s="292"/>
+      <c r="I28" s="288"/>
+      <c r="J28" s="293"/>
+      <c r="K28" s="294"/>
+      <c r="L28" s="294"/>
+      <c r="M28" s="294"/>
+      <c r="N28" s="294"/>
+      <c r="O28" s="294"/>
+      <c r="P28" s="295"/>
+      <c r="Q28" s="296"/>
+      <c r="R28" s="297"/>
+      <c r="S28" s="297"/>
+      <c r="T28" s="297"/>
+      <c r="U28" s="297"/>
+      <c r="V28" s="297"/>
+      <c r="W28" s="297"/>
+      <c r="X28" s="297"/>
+      <c r="Y28" s="297"/>
+      <c r="Z28" s="297"/>
+      <c r="AA28" s="297"/>
+      <c r="AB28" s="297"/>
+      <c r="AC28" s="297"/>
+      <c r="AD28" s="297"/>
+      <c r="AE28" s="298"/>
+      <c r="AF28" s="293"/>
+      <c r="AG28" s="294"/>
+      <c r="AH28" s="294"/>
+      <c r="AI28" s="295"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="251"/>
-      <c r="C29" s="252"/>
-      <c r="D29" s="253"/>
-      <c r="E29" s="254"/>
-      <c r="F29" s="255"/>
-      <c r="G29" s="251"/>
-      <c r="H29" s="256"/>
-      <c r="I29" s="252"/>
-      <c r="J29" s="257"/>
-      <c r="K29" s="258"/>
-      <c r="L29" s="258"/>
-      <c r="M29" s="258"/>
-      <c r="N29" s="258"/>
-      <c r="O29" s="258"/>
-      <c r="P29" s="259"/>
-      <c r="Q29" s="260"/>
-      <c r="R29" s="261"/>
-      <c r="S29" s="261"/>
-      <c r="T29" s="261"/>
-      <c r="U29" s="261"/>
-      <c r="V29" s="261"/>
-      <c r="W29" s="261"/>
-      <c r="X29" s="261"/>
-      <c r="Y29" s="261"/>
-      <c r="Z29" s="261"/>
-      <c r="AA29" s="261"/>
-      <c r="AB29" s="261"/>
-      <c r="AC29" s="261"/>
-      <c r="AD29" s="261"/>
-      <c r="AE29" s="262"/>
-      <c r="AF29" s="257"/>
-      <c r="AG29" s="258"/>
-      <c r="AH29" s="258"/>
-      <c r="AI29" s="259"/>
+      <c r="B29" s="287"/>
+      <c r="C29" s="288"/>
+      <c r="D29" s="289"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="291"/>
+      <c r="G29" s="287"/>
+      <c r="H29" s="292"/>
+      <c r="I29" s="288"/>
+      <c r="J29" s="293"/>
+      <c r="K29" s="294"/>
+      <c r="L29" s="294"/>
+      <c r="M29" s="294"/>
+      <c r="N29" s="294"/>
+      <c r="O29" s="294"/>
+      <c r="P29" s="295"/>
+      <c r="Q29" s="296"/>
+      <c r="R29" s="297"/>
+      <c r="S29" s="297"/>
+      <c r="T29" s="297"/>
+      <c r="U29" s="297"/>
+      <c r="V29" s="297"/>
+      <c r="W29" s="297"/>
+      <c r="X29" s="297"/>
+      <c r="Y29" s="297"/>
+      <c r="Z29" s="297"/>
+      <c r="AA29" s="297"/>
+      <c r="AB29" s="297"/>
+      <c r="AC29" s="297"/>
+      <c r="AD29" s="297"/>
+      <c r="AE29" s="298"/>
+      <c r="AF29" s="293"/>
+      <c r="AG29" s="294"/>
+      <c r="AH29" s="294"/>
+      <c r="AI29" s="295"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="251"/>
-      <c r="C30" s="252"/>
-      <c r="D30" s="253"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="251"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="252"/>
-      <c r="J30" s="257"/>
-      <c r="K30" s="258"/>
-      <c r="L30" s="258"/>
-      <c r="M30" s="258"/>
-      <c r="N30" s="258"/>
-      <c r="O30" s="258"/>
-      <c r="P30" s="259"/>
-      <c r="Q30" s="260"/>
-      <c r="R30" s="261"/>
-      <c r="S30" s="261"/>
-      <c r="T30" s="261"/>
-      <c r="U30" s="261"/>
-      <c r="V30" s="261"/>
-      <c r="W30" s="261"/>
-      <c r="X30" s="261"/>
-      <c r="Y30" s="261"/>
-      <c r="Z30" s="261"/>
-      <c r="AA30" s="261"/>
-      <c r="AB30" s="261"/>
-      <c r="AC30" s="261"/>
-      <c r="AD30" s="261"/>
-      <c r="AE30" s="262"/>
-      <c r="AF30" s="257"/>
-      <c r="AG30" s="258"/>
-      <c r="AH30" s="258"/>
-      <c r="AI30" s="259"/>
+      <c r="B30" s="287"/>
+      <c r="C30" s="288"/>
+      <c r="D30" s="289"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="291"/>
+      <c r="G30" s="287"/>
+      <c r="H30" s="292"/>
+      <c r="I30" s="288"/>
+      <c r="J30" s="293"/>
+      <c r="K30" s="294"/>
+      <c r="L30" s="294"/>
+      <c r="M30" s="294"/>
+      <c r="N30" s="294"/>
+      <c r="O30" s="294"/>
+      <c r="P30" s="295"/>
+      <c r="Q30" s="296"/>
+      <c r="R30" s="297"/>
+      <c r="S30" s="297"/>
+      <c r="T30" s="297"/>
+      <c r="U30" s="297"/>
+      <c r="V30" s="297"/>
+      <c r="W30" s="297"/>
+      <c r="X30" s="297"/>
+      <c r="Y30" s="297"/>
+      <c r="Z30" s="297"/>
+      <c r="AA30" s="297"/>
+      <c r="AB30" s="297"/>
+      <c r="AC30" s="297"/>
+      <c r="AD30" s="297"/>
+      <c r="AE30" s="298"/>
+      <c r="AF30" s="293"/>
+      <c r="AG30" s="294"/>
+      <c r="AH30" s="294"/>
+      <c r="AI30" s="295"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="251"/>
-      <c r="C31" s="252"/>
-      <c r="D31" s="253"/>
-      <c r="E31" s="254"/>
-      <c r="F31" s="255"/>
-      <c r="G31" s="251"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="252"/>
-      <c r="J31" s="257"/>
-      <c r="K31" s="258"/>
-      <c r="L31" s="258"/>
-      <c r="M31" s="258"/>
-      <c r="N31" s="258"/>
-      <c r="O31" s="258"/>
-      <c r="P31" s="259"/>
-      <c r="Q31" s="260"/>
-      <c r="R31" s="261"/>
-      <c r="S31" s="261"/>
-      <c r="T31" s="261"/>
-      <c r="U31" s="261"/>
-      <c r="V31" s="261"/>
-      <c r="W31" s="261"/>
-      <c r="X31" s="261"/>
-      <c r="Y31" s="261"/>
-      <c r="Z31" s="261"/>
-      <c r="AA31" s="261"/>
-      <c r="AB31" s="261"/>
-      <c r="AC31" s="261"/>
-      <c r="AD31" s="261"/>
-      <c r="AE31" s="262"/>
-      <c r="AF31" s="257"/>
-      <c r="AG31" s="258"/>
-      <c r="AH31" s="258"/>
-      <c r="AI31" s="259"/>
+      <c r="B31" s="287"/>
+      <c r="C31" s="288"/>
+      <c r="D31" s="289"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="291"/>
+      <c r="G31" s="287"/>
+      <c r="H31" s="292"/>
+      <c r="I31" s="288"/>
+      <c r="J31" s="293"/>
+      <c r="K31" s="294"/>
+      <c r="L31" s="294"/>
+      <c r="M31" s="294"/>
+      <c r="N31" s="294"/>
+      <c r="O31" s="294"/>
+      <c r="P31" s="295"/>
+      <c r="Q31" s="296"/>
+      <c r="R31" s="297"/>
+      <c r="S31" s="297"/>
+      <c r="T31" s="297"/>
+      <c r="U31" s="297"/>
+      <c r="V31" s="297"/>
+      <c r="W31" s="297"/>
+      <c r="X31" s="297"/>
+      <c r="Y31" s="297"/>
+      <c r="Z31" s="297"/>
+      <c r="AA31" s="297"/>
+      <c r="AB31" s="297"/>
+      <c r="AC31" s="297"/>
+      <c r="AD31" s="297"/>
+      <c r="AE31" s="298"/>
+      <c r="AF31" s="293"/>
+      <c r="AG31" s="294"/>
+      <c r="AH31" s="294"/>
+      <c r="AI31" s="295"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="251"/>
-      <c r="C32" s="252"/>
-      <c r="D32" s="253"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="255"/>
-      <c r="G32" s="251"/>
-      <c r="H32" s="256"/>
-      <c r="I32" s="252"/>
-      <c r="J32" s="257"/>
-      <c r="K32" s="263"/>
-      <c r="L32" s="258"/>
-      <c r="M32" s="258"/>
-      <c r="N32" s="258"/>
-      <c r="O32" s="258"/>
-      <c r="P32" s="259"/>
-      <c r="Q32" s="260"/>
-      <c r="R32" s="261"/>
-      <c r="S32" s="261"/>
-      <c r="T32" s="261"/>
-      <c r="U32" s="261"/>
-      <c r="V32" s="261"/>
-      <c r="W32" s="261"/>
-      <c r="X32" s="261"/>
-      <c r="Y32" s="261"/>
-      <c r="Z32" s="261"/>
-      <c r="AA32" s="261"/>
-      <c r="AB32" s="261"/>
-      <c r="AC32" s="261"/>
-      <c r="AD32" s="261"/>
-      <c r="AE32" s="262"/>
-      <c r="AF32" s="257"/>
-      <c r="AG32" s="258"/>
-      <c r="AH32" s="258"/>
-      <c r="AI32" s="259"/>
+      <c r="B32" s="287"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="289"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="291"/>
+      <c r="G32" s="287"/>
+      <c r="H32" s="292"/>
+      <c r="I32" s="288"/>
+      <c r="J32" s="293"/>
+      <c r="K32" s="312"/>
+      <c r="L32" s="294"/>
+      <c r="M32" s="294"/>
+      <c r="N32" s="294"/>
+      <c r="O32" s="294"/>
+      <c r="P32" s="295"/>
+      <c r="Q32" s="296"/>
+      <c r="R32" s="297"/>
+      <c r="S32" s="297"/>
+      <c r="T32" s="297"/>
+      <c r="U32" s="297"/>
+      <c r="V32" s="297"/>
+      <c r="W32" s="297"/>
+      <c r="X32" s="297"/>
+      <c r="Y32" s="297"/>
+      <c r="Z32" s="297"/>
+      <c r="AA32" s="297"/>
+      <c r="AB32" s="297"/>
+      <c r="AC32" s="297"/>
+      <c r="AD32" s="297"/>
+      <c r="AE32" s="298"/>
+      <c r="AF32" s="293"/>
+      <c r="AG32" s="294"/>
+      <c r="AH32" s="294"/>
+      <c r="AI32" s="295"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="251"/>
-      <c r="C33" s="252"/>
-      <c r="D33" s="253"/>
-      <c r="E33" s="254"/>
-      <c r="F33" s="255"/>
-      <c r="G33" s="251"/>
-      <c r="H33" s="256"/>
-      <c r="I33" s="252"/>
-      <c r="J33" s="257"/>
-      <c r="K33" s="258"/>
-      <c r="L33" s="258"/>
-      <c r="M33" s="258"/>
-      <c r="N33" s="258"/>
-      <c r="O33" s="258"/>
-      <c r="P33" s="259"/>
-      <c r="Q33" s="260"/>
-      <c r="R33" s="261"/>
-      <c r="S33" s="261"/>
-      <c r="T33" s="261"/>
-      <c r="U33" s="261"/>
-      <c r="V33" s="261"/>
-      <c r="W33" s="261"/>
-      <c r="X33" s="261"/>
-      <c r="Y33" s="261"/>
-      <c r="Z33" s="261"/>
-      <c r="AA33" s="261"/>
-      <c r="AB33" s="261"/>
-      <c r="AC33" s="261"/>
-      <c r="AD33" s="261"/>
-      <c r="AE33" s="262"/>
-      <c r="AF33" s="257"/>
-      <c r="AG33" s="258"/>
-      <c r="AH33" s="258"/>
-      <c r="AI33" s="259"/>
+      <c r="B33" s="287"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="289"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="291"/>
+      <c r="G33" s="287"/>
+      <c r="H33" s="292"/>
+      <c r="I33" s="288"/>
+      <c r="J33" s="293"/>
+      <c r="K33" s="294"/>
+      <c r="L33" s="294"/>
+      <c r="M33" s="294"/>
+      <c r="N33" s="294"/>
+      <c r="O33" s="294"/>
+      <c r="P33" s="295"/>
+      <c r="Q33" s="296"/>
+      <c r="R33" s="297"/>
+      <c r="S33" s="297"/>
+      <c r="T33" s="297"/>
+      <c r="U33" s="297"/>
+      <c r="V33" s="297"/>
+      <c r="W33" s="297"/>
+      <c r="X33" s="297"/>
+      <c r="Y33" s="297"/>
+      <c r="Z33" s="297"/>
+      <c r="AA33" s="297"/>
+      <c r="AB33" s="297"/>
+      <c r="AC33" s="297"/>
+      <c r="AD33" s="297"/>
+      <c r="AE33" s="298"/>
+      <c r="AF33" s="293"/>
+      <c r="AG33" s="294"/>
+      <c r="AH33" s="294"/>
+      <c r="AI33" s="295"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14248,162 +14298,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -14449,7 +14343,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14459,12 +14353,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -14543,7 +14437,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>4</v>
@@ -15429,10 +15323,10 @@
         <v>83</v>
       </c>
       <c r="F35" s="132" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G35" s="121" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H35" s="120"/>
       <c r="I35" s="120"/>
@@ -15475,7 +15369,7 @@
       <c r="H36" s="120"/>
       <c r="I36" s="120"/>
       <c r="J36" s="121" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K36" s="207"/>
       <c r="L36" s="95"/>
@@ -15509,7 +15403,7 @@
       <c r="H37" s="120"/>
       <c r="I37" s="120"/>
       <c r="J37" s="121" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K37" s="207"/>
       <c r="L37" s="95"/>
@@ -15543,7 +15437,7 @@
       <c r="H38" s="120"/>
       <c r="I38" s="121"/>
       <c r="J38" s="121" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K38" s="121"/>
       <c r="L38" s="95"/>
@@ -15577,7 +15471,7 @@
       <c r="H39" s="120"/>
       <c r="I39" s="121"/>
       <c r="J39" s="121" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K39" s="121"/>
       <c r="L39" s="95"/>
@@ -15615,7 +15509,7 @@
       <c r="H40" s="120"/>
       <c r="I40" s="120"/>
       <c r="J40" s="121" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K40" s="78"/>
       <c r="L40" s="95"/>
@@ -15649,7 +15543,7 @@
       <c r="H41" s="120"/>
       <c r="I41" s="120"/>
       <c r="J41" s="121" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K41" s="78"/>
       <c r="L41" s="95"/>
@@ -18139,7 +18033,7 @@
       <c r="H111" s="120"/>
       <c r="I111" s="120"/>
       <c r="J111" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K111" s="94"/>
       <c r="L111" s="94"/>
@@ -18175,7 +18069,7 @@
       <c r="H112" s="120"/>
       <c r="I112" s="120"/>
       <c r="J112" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K112" s="94"/>
       <c r="L112" s="94"/>
@@ -18209,7 +18103,7 @@
       <c r="H113" s="120"/>
       <c r="I113" s="120"/>
       <c r="J113" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K113" s="94"/>
       <c r="L113" s="94"/>
@@ -18243,7 +18137,7 @@
       <c r="H114" s="120"/>
       <c r="I114" s="120"/>
       <c r="J114" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K114" s="94"/>
       <c r="L114" s="94"/>
@@ -18279,7 +18173,7 @@
       <c r="H115" s="120"/>
       <c r="I115" s="120"/>
       <c r="J115" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K115" s="94"/>
       <c r="L115" s="94"/>
@@ -18313,7 +18207,7 @@
       <c r="H116" s="120"/>
       <c r="I116" s="120"/>
       <c r="J116" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K116" s="94"/>
       <c r="L116" s="94"/>
@@ -18347,7 +18241,7 @@
       <c r="H117" s="120"/>
       <c r="I117" s="120"/>
       <c r="J117" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K117" s="94"/>
       <c r="L117" s="94"/>
@@ -18381,7 +18275,7 @@
       <c r="H118" s="120"/>
       <c r="I118" s="120"/>
       <c r="J118" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K118" s="94"/>
       <c r="L118" s="94"/>
@@ -18412,7 +18306,7 @@
         <v>202</v>
       </c>
       <c r="G119" s="120" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="H119" s="120"/>
       <c r="I119" s="120"/>
@@ -18451,7 +18345,7 @@
       <c r="H120" s="120"/>
       <c r="I120" s="120"/>
       <c r="J120" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K120" s="94"/>
       <c r="L120" s="94"/>
@@ -18485,7 +18379,7 @@
       <c r="H121" s="120"/>
       <c r="I121" s="120"/>
       <c r="J121" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K121" s="94"/>
       <c r="L121" s="94"/>
@@ -18516,7 +18410,7 @@
         <v>206</v>
       </c>
       <c r="G122" s="120" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H122" s="120"/>
       <c r="I122" s="120"/>
@@ -18550,7 +18444,7 @@
         <v>207</v>
       </c>
       <c r="G123" s="120" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H123" s="120"/>
       <c r="I123" s="120"/>
@@ -18584,7 +18478,7 @@
         <v>208</v>
       </c>
       <c r="G124" s="120" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H124" s="120"/>
       <c r="I124" s="120"/>
@@ -18623,7 +18517,7 @@
       <c r="H125" s="120"/>
       <c r="I125" s="120"/>
       <c r="J125" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K125" s="94"/>
       <c r="L125" s="94"/>
@@ -18661,7 +18555,7 @@
       <c r="H126" s="120"/>
       <c r="I126" s="120"/>
       <c r="J126" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K126" s="94"/>
       <c r="L126" s="94"/>
@@ -18698,7 +18592,7 @@
         <v>214</v>
       </c>
       <c r="G127" s="120" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H127" s="120"/>
       <c r="I127" s="120"/>
@@ -18737,7 +18631,7 @@
       <c r="H128" s="120"/>
       <c r="I128" s="120"/>
       <c r="J128" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K128" s="94"/>
       <c r="L128" s="94"/>
@@ -18771,7 +18665,7 @@
       <c r="H129" s="120"/>
       <c r="I129" s="120"/>
       <c r="J129" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K129" s="94"/>
       <c r="L129" s="94"/>
@@ -18805,7 +18699,7 @@
       <c r="H130" s="120"/>
       <c r="I130" s="120"/>
       <c r="J130" s="94" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K130" s="94"/>
       <c r="L130" s="94"/>
@@ -18844,7 +18738,7 @@
         <v>220</v>
       </c>
       <c r="G131" s="120" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H131" s="120"/>
       <c r="I131" s="120"/>
@@ -18880,7 +18774,7 @@
         <v>222</v>
       </c>
       <c r="G132" s="120" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H132" s="120"/>
       <c r="I132" s="120"/>
@@ -18914,7 +18808,7 @@
         <v>223</v>
       </c>
       <c r="G133" s="120" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H133" s="120"/>
       <c r="I133" s="120"/>
@@ -18948,7 +18842,7 @@
         <v>224</v>
       </c>
       <c r="G134" s="120" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H134" s="120"/>
       <c r="I134" s="120"/>
@@ -18984,7 +18878,7 @@
         <v>226</v>
       </c>
       <c r="G135" s="120" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H135" s="120"/>
       <c r="I135" s="120"/>
@@ -19018,7 +18912,7 @@
         <v>227</v>
       </c>
       <c r="G136" s="120" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H136" s="120"/>
       <c r="I136" s="120"/>
@@ -19059,7 +18953,7 @@
       <c r="H137" s="120"/>
       <c r="I137" s="120"/>
       <c r="J137" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K137" s="94"/>
       <c r="L137" s="94"/>
@@ -19099,7 +18993,7 @@
       <c r="H138" s="120"/>
       <c r="I138" s="120"/>
       <c r="J138" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K138" s="94"/>
       <c r="L138" s="94"/>
@@ -19135,7 +19029,7 @@
       <c r="H139" s="120"/>
       <c r="I139" s="120"/>
       <c r="J139" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K139" s="94"/>
       <c r="L139" s="94"/>
@@ -19171,7 +19065,7 @@
       <c r="H140" s="120"/>
       <c r="I140" s="120"/>
       <c r="J140" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K140" s="94"/>
       <c r="L140" s="94"/>
@@ -19204,7 +19098,7 @@
         <v>236</v>
       </c>
       <c r="G141" s="120" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H141" s="120"/>
       <c r="I141" s="120"/>
@@ -19243,7 +19137,7 @@
       <c r="H142" s="120"/>
       <c r="I142" s="120"/>
       <c r="J142" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K142" s="94"/>
       <c r="L142" s="94"/>
@@ -19276,7 +19170,7 @@
         <v>240</v>
       </c>
       <c r="G143" s="120" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H143" s="120"/>
       <c r="I143" s="120"/>
@@ -19310,7 +19204,7 @@
         <v>241</v>
       </c>
       <c r="G144" s="120" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H144" s="120"/>
       <c r="I144" s="120"/>
@@ -19344,7 +19238,7 @@
         <v>242</v>
       </c>
       <c r="G145" s="120" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H145" s="120"/>
       <c r="I145" s="120"/>
@@ -19378,7 +19272,7 @@
         <v>243</v>
       </c>
       <c r="G146" s="120" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H146" s="120"/>
       <c r="I146" s="120"/>
@@ -19412,7 +19306,7 @@
         <v>244</v>
       </c>
       <c r="G147" s="120" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H147" s="120"/>
       <c r="I147" s="120"/>
@@ -19446,7 +19340,7 @@
         <v>245</v>
       </c>
       <c r="G148" s="120" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H148" s="120"/>
       <c r="I148" s="120"/>
@@ -19487,7 +19381,7 @@
       <c r="H149" s="120"/>
       <c r="I149" s="120"/>
       <c r="J149" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K149" s="94"/>
       <c r="L149" s="94"/>
@@ -19521,7 +19415,7 @@
       <c r="H150" s="120"/>
       <c r="I150" s="120"/>
       <c r="J150" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K150" s="94"/>
       <c r="L150" s="94"/>
@@ -19557,7 +19451,7 @@
       <c r="H151" s="120"/>
       <c r="I151" s="120"/>
       <c r="J151" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K151" s="94"/>
       <c r="L151" s="94"/>
@@ -19591,7 +19485,7 @@
       <c r="H152" s="120"/>
       <c r="I152" s="120"/>
       <c r="J152" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K152" s="94"/>
       <c r="L152" s="94"/>
@@ -19625,7 +19519,7 @@
       <c r="H153" s="120"/>
       <c r="I153" s="120"/>
       <c r="J153" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K153" s="94"/>
       <c r="L153" s="94"/>
@@ -19659,7 +19553,7 @@
       <c r="H154" s="120"/>
       <c r="I154" s="120"/>
       <c r="J154" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K154" s="94"/>
       <c r="L154" s="94"/>
@@ -19693,7 +19587,7 @@
       <c r="H155" s="120"/>
       <c r="I155" s="120"/>
       <c r="J155" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K155" s="94"/>
       <c r="L155" s="94"/>
@@ -19727,7 +19621,7 @@
       <c r="H156" s="120"/>
       <c r="I156" s="120"/>
       <c r="J156" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K156" s="94"/>
       <c r="L156" s="94"/>
@@ -19761,7 +19655,7 @@
       <c r="H157" s="120"/>
       <c r="I157" s="120"/>
       <c r="J157" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K157" s="94"/>
       <c r="L157" s="94"/>
@@ -19795,7 +19689,7 @@
       <c r="H158" s="120"/>
       <c r="I158" s="120"/>
       <c r="J158" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K158" s="94"/>
       <c r="L158" s="94"/>
@@ -19829,7 +19723,7 @@
       <c r="H159" s="120"/>
       <c r="I159" s="120"/>
       <c r="J159" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K159" s="94"/>
       <c r="L159" s="94"/>
@@ -19863,7 +19757,7 @@
       <c r="H160" s="120"/>
       <c r="I160" s="120"/>
       <c r="J160" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K160" s="94"/>
       <c r="L160" s="94"/>
@@ -19897,7 +19791,7 @@
       <c r="H161" s="120"/>
       <c r="I161" s="120"/>
       <c r="J161" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K161" s="94"/>
       <c r="L161" s="94"/>
@@ -19933,7 +19827,7 @@
       <c r="H162" s="120"/>
       <c r="I162" s="120"/>
       <c r="J162" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K162" s="94"/>
       <c r="L162" s="94"/>
@@ -19967,7 +19861,7 @@
       <c r="H163" s="120"/>
       <c r="I163" s="120"/>
       <c r="J163" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K163" s="94"/>
       <c r="L163" s="94"/>
@@ -20001,7 +19895,7 @@
       <c r="H164" s="120"/>
       <c r="I164" s="120"/>
       <c r="J164" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K164" s="94"/>
       <c r="L164" s="94"/>
@@ -20035,7 +19929,7 @@
       <c r="H165" s="120"/>
       <c r="I165" s="120"/>
       <c r="J165" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K165" s="94"/>
       <c r="L165" s="94"/>
@@ -20069,7 +19963,7 @@
       <c r="H166" s="120"/>
       <c r="I166" s="120"/>
       <c r="J166" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K166" s="94"/>
       <c r="L166" s="94"/>
@@ -20100,7 +19994,7 @@
         <v>265</v>
       </c>
       <c r="G167" s="120" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="H167" s="120"/>
       <c r="I167" s="120"/>
@@ -20134,7 +20028,7 @@
         <v>266</v>
       </c>
       <c r="G168" s="120" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H168" s="120"/>
       <c r="I168" s="120"/>
@@ -20173,7 +20067,7 @@
       <c r="H169" s="120"/>
       <c r="I169" s="120"/>
       <c r="J169" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K169" s="94"/>
       <c r="L169" s="94"/>
@@ -20207,7 +20101,7 @@
       <c r="H170" s="120"/>
       <c r="I170" s="120"/>
       <c r="J170" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K170" s="94"/>
       <c r="L170" s="94"/>
@@ -20241,7 +20135,7 @@
       <c r="H171" s="120"/>
       <c r="I171" s="120"/>
       <c r="J171" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K171" s="94"/>
       <c r="L171" s="94"/>
@@ -20275,7 +20169,7 @@
       <c r="H172" s="120"/>
       <c r="I172" s="120"/>
       <c r="J172" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K172" s="94"/>
       <c r="L172" s="94"/>
@@ -20309,7 +20203,7 @@
       <c r="H173" s="120"/>
       <c r="I173" s="120"/>
       <c r="J173" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K173" s="94"/>
       <c r="L173" s="94"/>
@@ -20343,7 +20237,7 @@
       <c r="H174" s="120"/>
       <c r="I174" s="120"/>
       <c r="J174" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K174" s="94"/>
       <c r="L174" s="94"/>
@@ -20374,7 +20268,7 @@
         <v>273</v>
       </c>
       <c r="G175" s="120" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H175" s="120"/>
       <c r="I175" s="120"/>
@@ -20408,7 +20302,7 @@
         <v>274</v>
       </c>
       <c r="G176" s="120" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H176" s="120"/>
       <c r="I176" s="120"/>
@@ -20442,7 +20336,7 @@
         <v>275</v>
       </c>
       <c r="G177" s="120" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H177" s="120"/>
       <c r="I177" s="120"/>
@@ -20481,7 +20375,7 @@
       <c r="H178" s="120"/>
       <c r="I178" s="120"/>
       <c r="J178" s="94" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K178" s="94"/>
       <c r="L178" s="94"/>
@@ -20514,7 +20408,7 @@
         <v>278</v>
       </c>
       <c r="G179" s="120" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H179" s="120"/>
       <c r="I179" s="120"/>
@@ -22310,7 +22204,7 @@
         <v>341</v>
       </c>
       <c r="G230" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H230" s="135"/>
       <c r="I230" s="135"/>
@@ -22346,7 +22240,7 @@
         <v>342</v>
       </c>
       <c r="G231" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H231" s="135"/>
       <c r="I231" s="135"/>
@@ -22380,7 +22274,7 @@
         <v>343</v>
       </c>
       <c r="G232" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H232" s="135"/>
       <c r="I232" s="135"/>
@@ -22414,7 +22308,7 @@
         <v>344</v>
       </c>
       <c r="G233" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H233" s="135"/>
       <c r="I233" s="135"/>
@@ -22448,7 +22342,7 @@
         <v>345</v>
       </c>
       <c r="G234" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H234" s="135"/>
       <c r="I234" s="135"/>
@@ -22482,7 +22376,7 @@
         <v>346</v>
       </c>
       <c r="G235" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H235" s="135"/>
       <c r="I235" s="135"/>
@@ -22518,7 +22412,7 @@
         <v>347</v>
       </c>
       <c r="G236" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H236" s="135"/>
       <c r="I236" s="135"/>
@@ -22552,7 +22446,7 @@
         <v>348</v>
       </c>
       <c r="G237" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H237" s="135"/>
       <c r="I237" s="135"/>
@@ -22586,7 +22480,7 @@
         <v>349</v>
       </c>
       <c r="G238" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H238" s="135"/>
       <c r="I238" s="135"/>
@@ -22620,7 +22514,7 @@
         <v>350</v>
       </c>
       <c r="G239" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H239" s="135"/>
       <c r="I239" s="135"/>
@@ -22654,7 +22548,7 @@
         <v>351</v>
       </c>
       <c r="G240" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H240" s="135"/>
       <c r="I240" s="135"/>
@@ -22690,7 +22584,7 @@
         <v>352</v>
       </c>
       <c r="G241" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H241" s="135"/>
       <c r="I241" s="135"/>
@@ -22730,7 +22624,7 @@
         <v>353</v>
       </c>
       <c r="G242" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H242" s="135"/>
       <c r="I242" s="135"/>
@@ -22772,7 +22666,7 @@
         <v>356</v>
       </c>
       <c r="G243" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H243" s="135"/>
       <c r="I243" s="135"/>
@@ -22806,7 +22700,7 @@
         <v>357</v>
       </c>
       <c r="G244" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H244" s="135"/>
       <c r="I244" s="135"/>
@@ -22844,7 +22738,7 @@
         <v>358</v>
       </c>
       <c r="G245" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H245" s="135"/>
       <c r="I245" s="135"/>
@@ -22878,7 +22772,7 @@
         <v>359</v>
       </c>
       <c r="G246" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H246" s="135"/>
       <c r="I246" s="135"/>
@@ -22918,7 +22812,7 @@
         <v>361</v>
       </c>
       <c r="G247" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H247" s="135"/>
       <c r="I247" s="135"/>
@@ -22954,7 +22848,7 @@
         <v>362</v>
       </c>
       <c r="G248" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H248" s="135"/>
       <c r="I248" s="135"/>
@@ -22990,7 +22884,7 @@
         <v>363</v>
       </c>
       <c r="G249" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H249" s="135"/>
       <c r="I249" s="135"/>
@@ -23026,7 +22920,7 @@
         <v>364</v>
       </c>
       <c r="G250" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H250" s="135"/>
       <c r="I250" s="135"/>
@@ -23064,7 +22958,7 @@
         <v>365</v>
       </c>
       <c r="G251" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H251" s="135"/>
       <c r="I251" s="135"/>
@@ -23098,7 +22992,7 @@
         <v>366</v>
       </c>
       <c r="G252" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H252" s="135"/>
       <c r="I252" s="135"/>
@@ -23134,7 +23028,7 @@
         <v>367</v>
       </c>
       <c r="G253" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H253" s="135"/>
       <c r="I253" s="135"/>
@@ -23168,7 +23062,7 @@
         <v>368</v>
       </c>
       <c r="G254" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H254" s="135"/>
       <c r="I254" s="135"/>
@@ -23202,7 +23096,7 @@
         <v>369</v>
       </c>
       <c r="G255" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H255" s="135"/>
       <c r="I255" s="135"/>
@@ -23236,7 +23130,7 @@
         <v>370</v>
       </c>
       <c r="G256" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H256" s="135"/>
       <c r="I256" s="135"/>
@@ -23270,7 +23164,7 @@
         <v>371</v>
       </c>
       <c r="G257" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H257" s="135"/>
       <c r="I257" s="135"/>
@@ -23304,7 +23198,7 @@
         <v>372</v>
       </c>
       <c r="G258" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H258" s="135"/>
       <c r="I258" s="135"/>
@@ -23338,7 +23232,7 @@
         <v>373</v>
       </c>
       <c r="G259" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H259" s="135"/>
       <c r="I259" s="135"/>
@@ -23372,7 +23266,7 @@
         <v>374</v>
       </c>
       <c r="G260" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H260" s="135"/>
       <c r="I260" s="135"/>
@@ -23406,7 +23300,7 @@
         <v>375</v>
       </c>
       <c r="G261" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H261" s="135"/>
       <c r="I261" s="135"/>
@@ -23440,7 +23334,7 @@
         <v>376</v>
       </c>
       <c r="G262" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H262" s="135"/>
       <c r="I262" s="135"/>
@@ -23474,7 +23368,7 @@
         <v>377</v>
       </c>
       <c r="G263" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H263" s="135"/>
       <c r="I263" s="135"/>
@@ -23510,7 +23404,7 @@
         <v>378</v>
       </c>
       <c r="G264" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H264" s="135"/>
       <c r="I264" s="135"/>
@@ -23544,7 +23438,7 @@
         <v>379</v>
       </c>
       <c r="G265" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H265" s="135"/>
       <c r="I265" s="135"/>
@@ -23578,7 +23472,7 @@
         <v>380</v>
       </c>
       <c r="G266" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H266" s="135"/>
       <c r="I266" s="135"/>
@@ -23612,7 +23506,7 @@
         <v>381</v>
       </c>
       <c r="G267" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H267" s="135"/>
       <c r="I267" s="135"/>
@@ -23646,7 +23540,7 @@
         <v>382</v>
       </c>
       <c r="G268" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H268" s="135"/>
       <c r="I268" s="135"/>
@@ -23680,7 +23574,7 @@
         <v>383</v>
       </c>
       <c r="G269" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H269" s="135"/>
       <c r="I269" s="135"/>
@@ -23716,7 +23610,7 @@
         <v>384</v>
       </c>
       <c r="G270" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H270" s="135"/>
       <c r="I270" s="135"/>
@@ -23750,7 +23644,7 @@
         <v>385</v>
       </c>
       <c r="G271" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H271" s="135"/>
       <c r="I271" s="135"/>
@@ -23784,7 +23678,7 @@
         <v>386</v>
       </c>
       <c r="G272" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H272" s="135"/>
       <c r="I272" s="135"/>
@@ -23818,7 +23712,7 @@
         <v>387</v>
       </c>
       <c r="G273" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H273" s="135"/>
       <c r="I273" s="135"/>
@@ -23852,7 +23746,7 @@
         <v>388</v>
       </c>
       <c r="G274" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H274" s="135"/>
       <c r="I274" s="135"/>
@@ -23886,7 +23780,7 @@
         <v>389</v>
       </c>
       <c r="G275" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H275" s="135"/>
       <c r="I275" s="135"/>
@@ -23920,7 +23814,7 @@
         <v>390</v>
       </c>
       <c r="G276" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H276" s="135"/>
       <c r="I276" s="135"/>
@@ -23954,7 +23848,7 @@
         <v>391</v>
       </c>
       <c r="G277" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H277" s="135"/>
       <c r="I277" s="135"/>
@@ -23990,7 +23884,7 @@
         <v>392</v>
       </c>
       <c r="G278" s="135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H278" s="135"/>
       <c r="I278" s="135"/>
@@ -24035,7 +23929,7 @@
       <c r="H279" s="120"/>
       <c r="I279" s="120"/>
       <c r="J279" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K279" s="94"/>
       <c r="L279" s="95"/>
@@ -24069,7 +23963,7 @@
       <c r="H280" s="120"/>
       <c r="I280" s="120"/>
       <c r="J280" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K280" s="94"/>
       <c r="L280" s="95"/>
@@ -24103,7 +23997,7 @@
       <c r="H281" s="120"/>
       <c r="I281" s="120"/>
       <c r="J281" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K281" s="94"/>
       <c r="L281" s="95"/>
@@ -24137,7 +24031,7 @@
       <c r="H282" s="120"/>
       <c r="I282" s="120"/>
       <c r="J282" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K282" s="94"/>
       <c r="L282" s="95"/>
@@ -24177,7 +24071,7 @@
       <c r="H283" s="120"/>
       <c r="I283" s="120"/>
       <c r="J283" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K283" s="94"/>
       <c r="L283" s="95"/>
@@ -24213,7 +24107,7 @@
       <c r="H284" s="120"/>
       <c r="I284" s="120"/>
       <c r="J284" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K284" s="94"/>
       <c r="L284" s="95"/>
@@ -24249,7 +24143,7 @@
       <c r="H285" s="120"/>
       <c r="I285" s="120"/>
       <c r="J285" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K285" s="94"/>
       <c r="L285" s="95"/>
@@ -24285,7 +24179,7 @@
       <c r="H286" s="120"/>
       <c r="I286" s="120"/>
       <c r="J286" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K286" s="94"/>
       <c r="L286" s="95"/>
@@ -24323,7 +24217,7 @@
       <c r="H287" s="120"/>
       <c r="I287" s="120"/>
       <c r="J287" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K287" s="94"/>
       <c r="L287" s="95"/>
@@ -24357,7 +24251,7 @@
       <c r="H288" s="120"/>
       <c r="I288" s="120"/>
       <c r="J288" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K288" s="94"/>
       <c r="L288" s="95"/>
@@ -24391,7 +24285,7 @@
       <c r="H289" s="120"/>
       <c r="I289" s="120"/>
       <c r="J289" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K289" s="94"/>
       <c r="L289" s="95"/>
@@ -24425,7 +24319,7 @@
       <c r="H290" s="120"/>
       <c r="I290" s="120"/>
       <c r="J290" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K290" s="94"/>
       <c r="L290" s="95"/>
@@ -24459,7 +24353,7 @@
       <c r="H291" s="120"/>
       <c r="I291" s="120"/>
       <c r="J291" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K291" s="94"/>
       <c r="L291" s="95"/>
@@ -24493,7 +24387,7 @@
       <c r="H292" s="120"/>
       <c r="I292" s="120"/>
       <c r="J292" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K292" s="94"/>
       <c r="L292" s="95"/>
@@ -24527,7 +24421,7 @@
       <c r="H293" s="120"/>
       <c r="I293" s="120"/>
       <c r="J293" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K293" s="94"/>
       <c r="L293" s="95"/>
@@ -24561,7 +24455,7 @@
       <c r="H294" s="120"/>
       <c r="I294" s="120"/>
       <c r="J294" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K294" s="94"/>
       <c r="L294" s="95"/>
@@ -24595,7 +24489,7 @@
       <c r="H295" s="120"/>
       <c r="I295" s="120"/>
       <c r="J295" s="94" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K295" s="94"/>
       <c r="L295" s="95"/>
@@ -24666,7 +24560,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="25" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -24676,12 +24570,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -24696,7 +24590,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -25930,7 +25824,7 @@
       <c r="H42" s="120"/>
       <c r="I42" s="120"/>
       <c r="J42" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K42" s="78"/>
       <c r="L42" s="94"/>
@@ -25964,7 +25858,7 @@
       <c r="H43" s="132"/>
       <c r="I43" s="120"/>
       <c r="J43" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K43" s="78"/>
       <c r="L43" s="94"/>
@@ -25998,7 +25892,7 @@
       <c r="H44" s="132"/>
       <c r="I44" s="120"/>
       <c r="J44" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K44" s="78"/>
       <c r="L44" s="94"/>
@@ -26034,7 +25928,7 @@
       <c r="H45" s="94"/>
       <c r="I45" s="94"/>
       <c r="J45" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K45" s="95"/>
       <c r="L45" s="94"/>
@@ -26068,7 +25962,7 @@
       <c r="H46" s="94"/>
       <c r="I46" s="94"/>
       <c r="J46" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K46" s="95"/>
       <c r="L46" s="94"/>
@@ -26102,7 +25996,7 @@
       <c r="H47" s="94"/>
       <c r="I47" s="94"/>
       <c r="J47" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K47" s="95"/>
       <c r="L47" s="94"/>
@@ -26138,7 +26032,7 @@
       <c r="H48" s="120"/>
       <c r="I48" s="120"/>
       <c r="J48" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K48" s="78"/>
       <c r="L48" s="94"/>
@@ -26172,7 +26066,7 @@
       <c r="H49" s="120"/>
       <c r="I49" s="120"/>
       <c r="J49" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K49" s="78"/>
       <c r="L49" s="94"/>
@@ -26208,7 +26102,7 @@
       <c r="H50" s="94"/>
       <c r="I50" s="94"/>
       <c r="J50" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K50" s="95"/>
       <c r="L50" s="94"/>
@@ -26242,7 +26136,7 @@
       <c r="H51" s="94"/>
       <c r="I51" s="94"/>
       <c r="J51" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K51" s="95"/>
       <c r="L51" s="94"/>
@@ -26276,7 +26170,7 @@
       <c r="H52" s="94"/>
       <c r="I52" s="94"/>
       <c r="J52" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K52" s="95"/>
       <c r="L52" s="94"/>
@@ -26310,7 +26204,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="94"/>
       <c r="J53" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K53" s="95"/>
       <c r="L53" s="94"/>
@@ -26344,7 +26238,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
       <c r="J54" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K54" s="95"/>
       <c r="L54" s="94"/>
@@ -26378,7 +26272,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
       <c r="J55" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K55" s="95"/>
       <c r="L55" s="94"/>
@@ -26414,7 +26308,7 @@
       <c r="H56" s="120"/>
       <c r="I56" s="120"/>
       <c r="J56" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K56" s="78"/>
       <c r="L56" s="94"/>
@@ -26450,7 +26344,7 @@
       <c r="H57" s="94"/>
       <c r="I57" s="94"/>
       <c r="J57" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K57" s="95"/>
       <c r="L57" s="94"/>
@@ -26486,7 +26380,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
       <c r="J58" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K58" s="95"/>
       <c r="L58" s="94"/>
@@ -26524,7 +26418,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
       <c r="J59" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K59" s="95"/>
       <c r="L59" s="94"/>
@@ -26558,7 +26452,7 @@
       <c r="H60" s="120"/>
       <c r="I60" s="120"/>
       <c r="J60" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K60" s="78"/>
       <c r="L60" s="94"/>
@@ -26592,7 +26486,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
       <c r="J61" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K61" s="95"/>
       <c r="L61" s="94"/>
@@ -26626,7 +26520,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
       <c r="J62" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K62" s="95"/>
       <c r="L62" s="94"/>
@@ -26660,7 +26554,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
       <c r="J63" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K63" s="95"/>
       <c r="L63" s="94"/>
@@ -26696,7 +26590,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
       <c r="J64" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K64" s="95"/>
       <c r="L64" s="94"/>
@@ -26730,7 +26624,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
       <c r="J65" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K65" s="95"/>
       <c r="L65" s="94"/>
@@ -26764,7 +26658,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
       <c r="J66" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K66" s="95"/>
       <c r="L66" s="94"/>
@@ -26798,7 +26692,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
       <c r="J67" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K67" s="95"/>
       <c r="L67" s="94"/>
@@ -26832,7 +26726,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
       <c r="J68" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K68" s="95"/>
       <c r="L68" s="94"/>
@@ -26866,7 +26760,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
       <c r="J69" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K69" s="95"/>
       <c r="L69" s="94"/>
@@ -26900,7 +26794,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
       <c r="J70" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K70" s="95"/>
       <c r="L70" s="94"/>
@@ -26934,7 +26828,7 @@
       <c r="H71" s="94"/>
       <c r="I71" s="94"/>
       <c r="J71" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K71" s="95"/>
       <c r="L71" s="94"/>
@@ -26970,7 +26864,7 @@
       <c r="H72" s="120"/>
       <c r="I72" s="120"/>
       <c r="J72" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K72" s="78"/>
       <c r="L72" s="206"/>
@@ -27006,7 +26900,7 @@
       <c r="H73" s="94"/>
       <c r="I73" s="94"/>
       <c r="J73" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K73" s="95"/>
       <c r="L73" s="94"/>
@@ -27040,7 +26934,7 @@
       <c r="H74" s="94"/>
       <c r="I74" s="94"/>
       <c r="J74" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K74" s="95"/>
       <c r="L74" s="94"/>
@@ -27074,7 +26968,7 @@
       <c r="H75" s="94"/>
       <c r="I75" s="94"/>
       <c r="J75" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K75" s="95"/>
       <c r="L75" s="94"/>
@@ -27108,7 +27002,7 @@
       <c r="H76" s="94"/>
       <c r="I76" s="94"/>
       <c r="J76" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K76" s="95"/>
       <c r="L76" s="94"/>
@@ -27139,7 +27033,7 @@
         <v>141</v>
       </c>
       <c r="G77" s="93" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="H77" s="94"/>
       <c r="I77" s="94"/>
@@ -27182,7 +27076,7 @@
       <c r="H78" s="120"/>
       <c r="I78" s="120"/>
       <c r="J78" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K78" s="78"/>
       <c r="L78" s="94"/>
@@ -27216,7 +27110,7 @@
       <c r="H79" s="120"/>
       <c r="I79" s="120"/>
       <c r="J79" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K79" s="78"/>
       <c r="L79" s="94"/>
@@ -27252,7 +27146,7 @@
       <c r="H80" s="94"/>
       <c r="I80" s="94"/>
       <c r="J80" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K80" s="95"/>
       <c r="L80" s="94"/>
@@ -27288,7 +27182,7 @@
       <c r="H81" s="94"/>
       <c r="I81" s="94"/>
       <c r="J81" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K81" s="95"/>
       <c r="L81" s="94"/>
@@ -27322,7 +27216,7 @@
       <c r="H82" s="94"/>
       <c r="I82" s="94"/>
       <c r="J82" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K82" s="95"/>
       <c r="L82" s="94"/>
@@ -27358,7 +27252,7 @@
       <c r="H83" s="94"/>
       <c r="I83" s="94"/>
       <c r="J83" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K83" s="95"/>
       <c r="L83" s="94"/>
@@ -27394,7 +27288,7 @@
       <c r="H84" s="94"/>
       <c r="I84" s="94"/>
       <c r="J84" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K84" s="95"/>
       <c r="L84" s="94"/>
@@ -27434,7 +27328,7 @@
       <c r="H85" s="94"/>
       <c r="I85" s="94"/>
       <c r="J85" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K85" s="95"/>
       <c r="L85" s="94"/>
@@ -27470,7 +27364,7 @@
       <c r="H86" s="94"/>
       <c r="I86" s="94"/>
       <c r="J86" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K86" s="95"/>
       <c r="L86" s="94"/>
@@ -27506,7 +27400,7 @@
       <c r="H87" s="94"/>
       <c r="I87" s="94"/>
       <c r="J87" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K87" s="95"/>
       <c r="L87" s="94"/>
@@ -27546,7 +27440,7 @@
       <c r="H88" s="120"/>
       <c r="I88" s="120"/>
       <c r="J88" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K88" s="94"/>
       <c r="L88" s="94"/>
@@ -27580,7 +27474,7 @@
       <c r="H89" s="94"/>
       <c r="I89" s="94"/>
       <c r="J89" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K89" s="95"/>
       <c r="L89" s="94"/>
@@ -27616,7 +27510,7 @@
       <c r="H90" s="94"/>
       <c r="I90" s="94"/>
       <c r="J90" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K90" s="95"/>
       <c r="L90" s="94"/>
@@ -27652,7 +27546,7 @@
       <c r="H91" s="94"/>
       <c r="I91" s="94"/>
       <c r="J91" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K91" s="95"/>
       <c r="L91" s="94"/>
@@ -27686,7 +27580,7 @@
       <c r="H92" s="94"/>
       <c r="I92" s="94"/>
       <c r="J92" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K92" s="95"/>
       <c r="L92" s="94"/>
@@ -27722,7 +27616,7 @@
       <c r="H93" s="94"/>
       <c r="I93" s="94"/>
       <c r="J93" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K93" s="95"/>
       <c r="L93" s="94"/>
@@ -27762,7 +27656,7 @@
       <c r="H94" s="94"/>
       <c r="I94" s="94"/>
       <c r="J94" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K94" s="95"/>
       <c r="L94" s="94"/>
@@ -27796,7 +27690,7 @@
       <c r="H95" s="94"/>
       <c r="I95" s="94"/>
       <c r="J95" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K95" s="95"/>
       <c r="L95" s="94"/>
@@ -27830,7 +27724,7 @@
       <c r="H96" s="94"/>
       <c r="I96" s="94"/>
       <c r="J96" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K96" s="95"/>
       <c r="L96" s="94"/>
@@ -27864,7 +27758,7 @@
       <c r="H97" s="94"/>
       <c r="I97" s="94"/>
       <c r="J97" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K97" s="95"/>
       <c r="L97" s="94"/>
@@ -27898,7 +27792,7 @@
       <c r="H98" s="94"/>
       <c r="I98" s="94"/>
       <c r="J98" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K98" s="95"/>
       <c r="L98" s="94"/>
@@ -27934,7 +27828,7 @@
       <c r="H99" s="94"/>
       <c r="I99" s="94"/>
       <c r="J99" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K99" s="95"/>
       <c r="L99" s="94"/>
@@ -27968,7 +27862,7 @@
       <c r="H100" s="94"/>
       <c r="I100" s="94"/>
       <c r="J100" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K100" s="95"/>
       <c r="L100" s="94"/>
@@ -28002,7 +27896,7 @@
       <c r="H101" s="94"/>
       <c r="I101" s="94"/>
       <c r="J101" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K101" s="95"/>
       <c r="L101" s="94"/>
@@ -28036,7 +27930,7 @@
       <c r="H102" s="94"/>
       <c r="I102" s="94"/>
       <c r="J102" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K102" s="95"/>
       <c r="L102" s="94"/>
@@ -28070,7 +27964,7 @@
       <c r="H103" s="94"/>
       <c r="I103" s="94"/>
       <c r="J103" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K103" s="95"/>
       <c r="L103" s="94"/>
@@ -28106,7 +28000,7 @@
       <c r="H104" s="94"/>
       <c r="I104" s="94"/>
       <c r="J104" s="78" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K104" s="95"/>
       <c r="L104" s="94"/>
@@ -28148,7 +28042,7 @@
       <c r="H105" s="94"/>
       <c r="I105" s="94"/>
       <c r="J105" s="95" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="K105" s="95"/>
       <c r="L105" s="94"/>
@@ -28188,7 +28082,7 @@
       <c r="H106" s="94"/>
       <c r="I106" s="94"/>
       <c r="J106" s="95" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="K106" s="95"/>
       <c r="L106" s="94"/>
@@ -28222,7 +28116,7 @@
       <c r="H107" s="94"/>
       <c r="I107" s="94"/>
       <c r="J107" s="95" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="K107" s="95"/>
       <c r="L107" s="94"/>
@@ -28262,7 +28156,7 @@
       <c r="H108" s="94"/>
       <c r="I108" s="94"/>
       <c r="J108" s="95" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="K108" s="95"/>
       <c r="L108" s="94"/>
@@ -28302,7 +28196,7 @@
       <c r="H109" s="94"/>
       <c r="I109" s="94"/>
       <c r="J109" s="95" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="K109" s="95"/>
       <c r="L109" s="94"/>
@@ -28336,7 +28230,7 @@
       <c r="H110" s="94"/>
       <c r="I110" s="94"/>
       <c r="J110" s="95" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="K110" s="95"/>
       <c r="L110" s="94"/>
@@ -28378,7 +28272,7 @@
       <c r="H111" s="94"/>
       <c r="I111" s="94"/>
       <c r="J111" s="95" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K111" s="95"/>
       <c r="L111" s="94"/>
@@ -28414,7 +28308,7 @@
       <c r="H112" s="94"/>
       <c r="I112" s="94"/>
       <c r="J112" s="95" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K112" s="95"/>
       <c r="L112" s="94"/>
@@ -28448,7 +28342,7 @@
       <c r="H113" s="94"/>
       <c r="I113" s="94"/>
       <c r="J113" s="95" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K113" s="95"/>
       <c r="L113" s="94"/>
@@ -28482,7 +28376,7 @@
       <c r="H114" s="94"/>
       <c r="I114" s="94"/>
       <c r="J114" s="95" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K114" s="95"/>
       <c r="L114" s="94"/>
@@ -28515,7 +28409,7 @@
         <v>198</v>
       </c>
       <c r="G115" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H115" s="94"/>
       <c r="I115" s="94"/>
@@ -28549,7 +28443,7 @@
         <v>199</v>
       </c>
       <c r="G116" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H116" s="94"/>
       <c r="I116" s="94"/>
@@ -28583,7 +28477,7 @@
         <v>200</v>
       </c>
       <c r="G117" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H117" s="94"/>
       <c r="I117" s="94"/>
@@ -28617,7 +28511,7 @@
         <v>201</v>
       </c>
       <c r="G118" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H118" s="94"/>
       <c r="I118" s="94"/>
@@ -28651,7 +28545,7 @@
         <v>202</v>
       </c>
       <c r="G119" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H119" s="94"/>
       <c r="I119" s="94"/>
@@ -28687,7 +28581,7 @@
         <v>204</v>
       </c>
       <c r="G120" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H120" s="94"/>
       <c r="I120" s="94"/>
@@ -28721,7 +28615,7 @@
         <v>205</v>
       </c>
       <c r="G121" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H121" s="94"/>
       <c r="I121" s="94"/>
@@ -28755,7 +28649,7 @@
         <v>206</v>
       </c>
       <c r="G122" s="89" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H122" s="94"/>
       <c r="I122" s="94"/>
@@ -28789,7 +28683,7 @@
         <v>207</v>
       </c>
       <c r="G123" s="89" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H123" s="94"/>
       <c r="I123" s="94"/>
@@ -28823,7 +28717,7 @@
         <v>208</v>
       </c>
       <c r="G124" s="89" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H124" s="94"/>
       <c r="I124" s="94"/>
@@ -28859,7 +28753,7 @@
         <v>210</v>
       </c>
       <c r="G125" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H125" s="94"/>
       <c r="I125" s="94"/>
@@ -28900,7 +28794,7 @@
       <c r="H126" s="94"/>
       <c r="I126" s="94"/>
       <c r="J126" s="95" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K126" s="95"/>
       <c r="L126" s="94"/>
@@ -28937,7 +28831,7 @@
         <v>214</v>
       </c>
       <c r="G127" s="89" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H127" s="94"/>
       <c r="I127" s="94"/>
@@ -28973,7 +28867,7 @@
         <v>216</v>
       </c>
       <c r="G128" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H128" s="94"/>
       <c r="I128" s="94"/>
@@ -29007,7 +28901,7 @@
         <v>217</v>
       </c>
       <c r="G129" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H129" s="94"/>
       <c r="I129" s="94"/>
@@ -29041,7 +28935,7 @@
         <v>218</v>
       </c>
       <c r="G130" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H130" s="94"/>
       <c r="I130" s="94"/>
@@ -29086,7 +28980,7 @@
       <c r="H131" s="94"/>
       <c r="I131" s="94"/>
       <c r="J131" s="95" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K131" s="95"/>
       <c r="L131" s="94"/>
@@ -29119,7 +29013,7 @@
         <v>222</v>
       </c>
       <c r="G132" s="89" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H132" s="94"/>
       <c r="I132" s="94"/>
@@ -29153,7 +29047,7 @@
         <v>223</v>
       </c>
       <c r="G133" s="89" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H133" s="94"/>
       <c r="I133" s="94"/>
@@ -29187,7 +29081,7 @@
         <v>224</v>
       </c>
       <c r="G134" s="89" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H134" s="94"/>
       <c r="I134" s="94"/>
@@ -29226,7 +29120,7 @@
       <c r="H135" s="94"/>
       <c r="I135" s="94"/>
       <c r="J135" s="95" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K135" s="95"/>
       <c r="L135" s="94"/>
@@ -29260,7 +29154,7 @@
       <c r="H136" s="94"/>
       <c r="I136" s="94"/>
       <c r="J136" s="95" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K136" s="95"/>
       <c r="L136" s="94"/>
@@ -29298,7 +29192,7 @@
       <c r="H137" s="94"/>
       <c r="I137" s="94"/>
       <c r="J137" s="95" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K137" s="95"/>
       <c r="L137" s="94"/>
@@ -29335,7 +29229,7 @@
         <v>231</v>
       </c>
       <c r="G138" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H138" s="94"/>
       <c r="I138" s="94"/>
@@ -29371,7 +29265,7 @@
         <v>233</v>
       </c>
       <c r="G139" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H139" s="94"/>
       <c r="I139" s="94"/>
@@ -29407,7 +29301,7 @@
         <v>235</v>
       </c>
       <c r="G140" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H140" s="94"/>
       <c r="I140" s="94"/>
@@ -29443,7 +29337,7 @@
         <v>236</v>
       </c>
       <c r="G141" s="89" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H141" s="94"/>
       <c r="I141" s="94"/>
@@ -29479,7 +29373,7 @@
         <v>238</v>
       </c>
       <c r="G142" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H142" s="94"/>
       <c r="I142" s="94"/>
@@ -29515,7 +29409,7 @@
         <v>240</v>
       </c>
       <c r="G143" s="89" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H143" s="94"/>
       <c r="I143" s="94"/>
@@ -29549,7 +29443,7 @@
         <v>241</v>
       </c>
       <c r="G144" s="89" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H144" s="94"/>
       <c r="I144" s="94"/>
@@ -29583,7 +29477,7 @@
         <v>242</v>
       </c>
       <c r="G145" s="89" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H145" s="94"/>
       <c r="I145" s="94"/>
@@ -29617,7 +29511,7 @@
         <v>243</v>
       </c>
       <c r="G146" s="89" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H146" s="94"/>
       <c r="I146" s="94"/>
@@ -29651,7 +29545,7 @@
         <v>244</v>
       </c>
       <c r="G147" s="89" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H147" s="94"/>
       <c r="I147" s="94"/>
@@ -29685,7 +29579,7 @@
         <v>245</v>
       </c>
       <c r="G148" s="89" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H148" s="94"/>
       <c r="I148" s="94"/>
@@ -29723,7 +29617,7 @@
         <v>247</v>
       </c>
       <c r="G149" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H149" s="94"/>
       <c r="I149" s="94"/>
@@ -29757,7 +29651,7 @@
         <v>248</v>
       </c>
       <c r="G150" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H150" s="94"/>
       <c r="I150" s="94"/>
@@ -29793,7 +29687,7 @@
         <v>249</v>
       </c>
       <c r="G151" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H151" s="94"/>
       <c r="I151" s="94"/>
@@ -29827,7 +29721,7 @@
         <v>250</v>
       </c>
       <c r="G152" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H152" s="94"/>
       <c r="I152" s="94"/>
@@ -29861,7 +29755,7 @@
         <v>545</v>
       </c>
       <c r="G153" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H153" s="94"/>
       <c r="I153" s="94"/>
@@ -29895,7 +29789,7 @@
         <v>546</v>
       </c>
       <c r="G154" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H154" s="94"/>
       <c r="I154" s="94"/>
@@ -29929,7 +29823,7 @@
         <v>253</v>
       </c>
       <c r="G155" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H155" s="94"/>
       <c r="I155" s="94"/>
@@ -29963,7 +29857,7 @@
         <v>254</v>
       </c>
       <c r="G156" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H156" s="94"/>
       <c r="I156" s="94"/>
@@ -29997,7 +29891,7 @@
         <v>255</v>
       </c>
       <c r="G157" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H157" s="94"/>
       <c r="I157" s="94"/>
@@ -30031,7 +29925,7 @@
         <v>256</v>
       </c>
       <c r="G158" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H158" s="94"/>
       <c r="I158" s="94"/>
@@ -30065,7 +29959,7 @@
         <v>257</v>
       </c>
       <c r="G159" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H159" s="94"/>
       <c r="I159" s="94"/>
@@ -30099,7 +29993,7 @@
         <v>258</v>
       </c>
       <c r="G160" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H160" s="94"/>
       <c r="I160" s="94"/>
@@ -30133,7 +30027,7 @@
         <v>259</v>
       </c>
       <c r="G161" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H161" s="94"/>
       <c r="I161" s="94"/>
@@ -30169,7 +30063,7 @@
         <v>260</v>
       </c>
       <c r="G162" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H162" s="94"/>
       <c r="I162" s="94"/>
@@ -30203,7 +30097,7 @@
         <v>261</v>
       </c>
       <c r="G163" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H163" s="94"/>
       <c r="I163" s="94"/>
@@ -30237,7 +30131,7 @@
         <v>262</v>
       </c>
       <c r="G164" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H164" s="94"/>
       <c r="I164" s="94"/>
@@ -30271,7 +30165,7 @@
         <v>263</v>
       </c>
       <c r="G165" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H165" s="94"/>
       <c r="I165" s="94"/>
@@ -30305,7 +30199,7 @@
         <v>264</v>
       </c>
       <c r="G166" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H166" s="94"/>
       <c r="I166" s="94"/>
@@ -30339,7 +30233,7 @@
         <v>265</v>
       </c>
       <c r="G167" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H167" s="94"/>
       <c r="I167" s="94"/>
@@ -30373,7 +30267,7 @@
         <v>266</v>
       </c>
       <c r="G168" s="89" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H168" s="94"/>
       <c r="I168" s="94"/>
@@ -30409,7 +30303,7 @@
         <v>267</v>
       </c>
       <c r="G169" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H169" s="94"/>
       <c r="I169" s="94"/>
@@ -30443,7 +30337,7 @@
         <v>268</v>
       </c>
       <c r="G170" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H170" s="94"/>
       <c r="I170" s="94"/>
@@ -30477,7 +30371,7 @@
         <v>269</v>
       </c>
       <c r="G171" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H171" s="94"/>
       <c r="I171" s="94"/>
@@ -30511,7 +30405,7 @@
         <v>270</v>
       </c>
       <c r="G172" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H172" s="94"/>
       <c r="I172" s="94"/>
@@ -30545,7 +30439,7 @@
         <v>271</v>
       </c>
       <c r="G173" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H173" s="94"/>
       <c r="I173" s="94"/>
@@ -30582,7 +30476,7 @@
       <c r="H174" s="94"/>
       <c r="I174" s="94"/>
       <c r="J174" s="95" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K174" s="95"/>
       <c r="L174" s="94"/>
@@ -30613,7 +30507,7 @@
         <v>273</v>
       </c>
       <c r="G175" s="89" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H175" s="94"/>
       <c r="I175" s="94"/>
@@ -30647,7 +30541,7 @@
         <v>274</v>
       </c>
       <c r="G176" s="89" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H176" s="94"/>
       <c r="I176" s="94"/>
@@ -30681,7 +30575,7 @@
         <v>275</v>
       </c>
       <c r="G177" s="89" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H177" s="94"/>
       <c r="I177" s="94"/>
@@ -30717,7 +30611,7 @@
         <v>276</v>
       </c>
       <c r="G178" s="93" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H178" s="94"/>
       <c r="I178" s="94"/>
@@ -30753,7 +30647,7 @@
         <v>278</v>
       </c>
       <c r="G179" s="89" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H179" s="94"/>
       <c r="I179" s="94"/>
@@ -32549,7 +32443,7 @@
         <v>341</v>
       </c>
       <c r="G230" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H230" s="47"/>
       <c r="I230" s="47"/>
@@ -32585,7 +32479,7 @@
         <v>342</v>
       </c>
       <c r="G231" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H231" s="47"/>
       <c r="I231" s="47"/>
@@ -32619,7 +32513,7 @@
         <v>343</v>
       </c>
       <c r="G232" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H232" s="47"/>
       <c r="I232" s="47"/>
@@ -32653,7 +32547,7 @@
         <v>344</v>
       </c>
       <c r="G233" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H233" s="47"/>
       <c r="I233" s="47"/>
@@ -32687,7 +32581,7 @@
         <v>345</v>
       </c>
       <c r="G234" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H234" s="47"/>
       <c r="I234" s="47"/>
@@ -32721,7 +32615,7 @@
         <v>346</v>
       </c>
       <c r="G235" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H235" s="47"/>
       <c r="I235" s="47"/>
@@ -32757,7 +32651,7 @@
         <v>347</v>
       </c>
       <c r="G236" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H236" s="47"/>
       <c r="I236" s="47"/>
@@ -32791,7 +32685,7 @@
         <v>348</v>
       </c>
       <c r="G237" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H237" s="47"/>
       <c r="I237" s="47"/>
@@ -32825,7 +32719,7 @@
         <v>349</v>
       </c>
       <c r="G238" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H238" s="47"/>
       <c r="I238" s="47"/>
@@ -32859,7 +32753,7 @@
         <v>350</v>
       </c>
       <c r="G239" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H239" s="47"/>
       <c r="I239" s="47"/>
@@ -32893,7 +32787,7 @@
         <v>351</v>
       </c>
       <c r="G240" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H240" s="47"/>
       <c r="I240" s="47"/>
@@ -32929,7 +32823,7 @@
         <v>352</v>
       </c>
       <c r="G241" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H241" s="47"/>
       <c r="I241" s="47"/>
@@ -32969,7 +32863,7 @@
         <v>353</v>
       </c>
       <c r="G242" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H242" s="47"/>
       <c r="I242" s="47"/>
@@ -33011,7 +32905,7 @@
         <v>356</v>
       </c>
       <c r="G243" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H243" s="47"/>
       <c r="I243" s="47"/>
@@ -33045,7 +32939,7 @@
         <v>357</v>
       </c>
       <c r="G244" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H244" s="47"/>
       <c r="I244" s="47"/>
@@ -33083,7 +32977,7 @@
         <v>358</v>
       </c>
       <c r="G245" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H245" s="47"/>
       <c r="I245" s="47"/>
@@ -33117,7 +33011,7 @@
         <v>359</v>
       </c>
       <c r="G246" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H246" s="47"/>
       <c r="I246" s="47"/>
@@ -33157,7 +33051,7 @@
         <v>361</v>
       </c>
       <c r="G247" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H247" s="47"/>
       <c r="I247" s="47"/>
@@ -33193,7 +33087,7 @@
         <v>362</v>
       </c>
       <c r="G248" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H248" s="47"/>
       <c r="I248" s="47"/>
@@ -33229,7 +33123,7 @@
         <v>363</v>
       </c>
       <c r="G249" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H249" s="47"/>
       <c r="I249" s="47"/>
@@ -33265,7 +33159,7 @@
         <v>364</v>
       </c>
       <c r="G250" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H250" s="47"/>
       <c r="I250" s="47"/>
@@ -33303,7 +33197,7 @@
         <v>365</v>
       </c>
       <c r="G251" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H251" s="47"/>
       <c r="I251" s="47"/>
@@ -33337,7 +33231,7 @@
         <v>366</v>
       </c>
       <c r="G252" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H252" s="47"/>
       <c r="I252" s="47"/>
@@ -33373,7 +33267,7 @@
         <v>367</v>
       </c>
       <c r="G253" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H253" s="47"/>
       <c r="I253" s="47"/>
@@ -33407,7 +33301,7 @@
         <v>368</v>
       </c>
       <c r="G254" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H254" s="47"/>
       <c r="I254" s="47"/>
@@ -33441,7 +33335,7 @@
         <v>555</v>
       </c>
       <c r="G255" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H255" s="47"/>
       <c r="I255" s="47"/>
@@ -33475,7 +33369,7 @@
         <v>370</v>
       </c>
       <c r="G256" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H256" s="47"/>
       <c r="I256" s="47"/>
@@ -33509,7 +33403,7 @@
         <v>371</v>
       </c>
       <c r="G257" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H257" s="47"/>
       <c r="I257" s="47"/>
@@ -33543,7 +33437,7 @@
         <v>372</v>
       </c>
       <c r="G258" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H258" s="47"/>
       <c r="I258" s="47"/>
@@ -33577,7 +33471,7 @@
         <v>373</v>
       </c>
       <c r="G259" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H259" s="47"/>
       <c r="I259" s="47"/>
@@ -33611,7 +33505,7 @@
         <v>374</v>
       </c>
       <c r="G260" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H260" s="47"/>
       <c r="I260" s="47"/>
@@ -33645,7 +33539,7 @@
         <v>375</v>
       </c>
       <c r="G261" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H261" s="47"/>
       <c r="I261" s="47"/>
@@ -33679,7 +33573,7 @@
         <v>376</v>
       </c>
       <c r="G262" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H262" s="47"/>
       <c r="I262" s="47"/>
@@ -33713,7 +33607,7 @@
         <v>377</v>
       </c>
       <c r="G263" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H263" s="47"/>
       <c r="I263" s="47"/>
@@ -33749,7 +33643,7 @@
         <v>378</v>
       </c>
       <c r="G264" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H264" s="47"/>
       <c r="I264" s="47"/>
@@ -33783,7 +33677,7 @@
         <v>379</v>
       </c>
       <c r="G265" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H265" s="47"/>
       <c r="I265" s="47"/>
@@ -33817,7 +33711,7 @@
         <v>380</v>
       </c>
       <c r="G266" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H266" s="47"/>
       <c r="I266" s="47"/>
@@ -33851,7 +33745,7 @@
         <v>381</v>
       </c>
       <c r="G267" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H267" s="47"/>
       <c r="I267" s="47"/>
@@ -33885,7 +33779,7 @@
         <v>382</v>
       </c>
       <c r="G268" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H268" s="47"/>
       <c r="I268" s="47"/>
@@ -33919,7 +33813,7 @@
         <v>383</v>
       </c>
       <c r="G269" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H269" s="47"/>
       <c r="I269" s="47"/>
@@ -33955,7 +33849,7 @@
         <v>384</v>
       </c>
       <c r="G270" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H270" s="47"/>
       <c r="I270" s="47"/>
@@ -33989,7 +33883,7 @@
         <v>385</v>
       </c>
       <c r="G271" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H271" s="47"/>
       <c r="I271" s="47"/>
@@ -34023,7 +33917,7 @@
         <v>386</v>
       </c>
       <c r="G272" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H272" s="47"/>
       <c r="I272" s="47"/>
@@ -34057,7 +33951,7 @@
         <v>387</v>
       </c>
       <c r="G273" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H273" s="47"/>
       <c r="I273" s="47"/>
@@ -34091,7 +33985,7 @@
         <v>388</v>
       </c>
       <c r="G274" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H274" s="47"/>
       <c r="I274" s="47"/>
@@ -34125,7 +34019,7 @@
         <v>389</v>
       </c>
       <c r="G275" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H275" s="47"/>
       <c r="I275" s="47"/>
@@ -34159,7 +34053,7 @@
         <v>390</v>
       </c>
       <c r="G276" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H276" s="47"/>
       <c r="I276" s="47"/>
@@ -34193,7 +34087,7 @@
         <v>391</v>
       </c>
       <c r="G277" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H277" s="47"/>
       <c r="I277" s="47"/>
@@ -34229,7 +34123,7 @@
         <v>392</v>
       </c>
       <c r="G278" s="58" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H278" s="47"/>
       <c r="I278" s="47"/>
@@ -34274,7 +34168,7 @@
       <c r="H279" s="94"/>
       <c r="I279" s="94"/>
       <c r="J279" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K279" s="95"/>
       <c r="L279" s="94"/>
@@ -34308,7 +34202,7 @@
       <c r="H280" s="94"/>
       <c r="I280" s="94"/>
       <c r="J280" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K280" s="95"/>
       <c r="L280" s="94"/>
@@ -34342,7 +34236,7 @@
       <c r="H281" s="94"/>
       <c r="I281" s="94"/>
       <c r="J281" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K281" s="95"/>
       <c r="L281" s="94"/>
@@ -34376,7 +34270,7 @@
       <c r="H282" s="94"/>
       <c r="I282" s="94"/>
       <c r="J282" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K282" s="95"/>
       <c r="L282" s="94"/>
@@ -34416,7 +34310,7 @@
       <c r="H283" s="94"/>
       <c r="I283" s="94"/>
       <c r="J283" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K283" s="95"/>
       <c r="L283" s="94"/>
@@ -34452,7 +34346,7 @@
       <c r="H284" s="94"/>
       <c r="I284" s="94"/>
       <c r="J284" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K284" s="95"/>
       <c r="L284" s="94"/>
@@ -34488,7 +34382,7 @@
       <c r="H285" s="94"/>
       <c r="I285" s="94"/>
       <c r="J285" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K285" s="95"/>
       <c r="L285" s="94"/>
@@ -34524,7 +34418,7 @@
       <c r="H286" s="94"/>
       <c r="I286" s="94"/>
       <c r="J286" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K286" s="95"/>
       <c r="L286" s="94"/>
@@ -34562,7 +34456,7 @@
       <c r="H287" s="94"/>
       <c r="I287" s="94"/>
       <c r="J287" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K287" s="95"/>
       <c r="L287" s="94"/>
@@ -34596,7 +34490,7 @@
       <c r="H288" s="94"/>
       <c r="I288" s="94"/>
       <c r="J288" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K288" s="95"/>
       <c r="L288" s="94"/>
@@ -34630,7 +34524,7 @@
       <c r="H289" s="94"/>
       <c r="I289" s="94"/>
       <c r="J289" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K289" s="95"/>
       <c r="L289" s="94"/>
@@ -34664,7 +34558,7 @@
       <c r="H290" s="94"/>
       <c r="I290" s="94"/>
       <c r="J290" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K290" s="95"/>
       <c r="L290" s="94"/>
@@ -34698,7 +34592,7 @@
       <c r="H291" s="94"/>
       <c r="I291" s="94"/>
       <c r="J291" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K291" s="95"/>
       <c r="L291" s="94"/>
@@ -34732,7 +34626,7 @@
       <c r="H292" s="94"/>
       <c r="I292" s="94"/>
       <c r="J292" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K292" s="95"/>
       <c r="L292" s="94"/>
@@ -34766,7 +34660,7 @@
       <c r="H293" s="94"/>
       <c r="I293" s="94"/>
       <c r="J293" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K293" s="95"/>
       <c r="L293" s="94"/>
@@ -34800,7 +34694,7 @@
       <c r="H294" s="94"/>
       <c r="I294" s="94"/>
       <c r="J294" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K294" s="95"/>
       <c r="L294" s="94"/>
@@ -34834,7 +34728,7 @@
       <c r="H295" s="94"/>
       <c r="I295" s="94"/>
       <c r="J295" s="200" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K295" s="95"/>
       <c r="L295" s="94"/>
@@ -34873,7 +34767,7 @@
         <v>415</v>
       </c>
       <c r="G296" s="78" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="H296" s="78"/>
       <c r="I296" s="78"/>
@@ -34907,7 +34801,7 @@
         <v>416</v>
       </c>
       <c r="G297" s="78" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="H297" s="78"/>
       <c r="I297" s="78"/>
@@ -34942,16 +34836,16 @@
       </c>
       <c r="G298" s="33"/>
       <c r="H298" s="116" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I298" s="116" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="J298" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K298" s="33" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="L298" s="113"/>
       <c r="M298" s="113"/>
@@ -34982,16 +34876,16 @@
       </c>
       <c r="G299" s="49"/>
       <c r="H299" s="123" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I299" s="123" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="J299" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K299" s="49" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="L299" s="118"/>
       <c r="M299" s="118"/>
@@ -35022,16 +34916,16 @@
       </c>
       <c r="G300" s="49"/>
       <c r="H300" s="123" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I300" s="123" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="J300" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K300" s="49" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="L300" s="118"/>
       <c r="M300" s="118"/>
@@ -35058,20 +34952,20 @@
       <c r="D301" s="198"/>
       <c r="E301" s="198"/>
       <c r="F301" s="48" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G301" s="48"/>
       <c r="H301" s="123" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I301" s="123" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="J301" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K301" s="49" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="L301" s="127"/>
       <c r="M301" s="126"/>
@@ -35102,16 +34996,16 @@
       </c>
       <c r="G302" s="49"/>
       <c r="H302" s="123" t="s">
+        <v>654</v>
+      </c>
+      <c r="I302" s="123" t="s">
+        <v>656</v>
+      </c>
+      <c r="J302" s="123" t="s">
+        <v>672</v>
+      </c>
+      <c r="K302" s="49" t="s">
         <v>663</v>
-      </c>
-      <c r="I302" s="123" t="s">
-        <v>665</v>
-      </c>
-      <c r="J302" s="123" t="s">
-        <v>681</v>
-      </c>
-      <c r="K302" s="49" t="s">
-        <v>672</v>
       </c>
       <c r="L302" s="118"/>
       <c r="M302" s="118"/>
@@ -35142,16 +35036,16 @@
       </c>
       <c r="G303" s="49"/>
       <c r="H303" s="123" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I303" s="123" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="J303" s="123" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="K303" s="49" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="L303" s="118"/>
       <c r="M303" s="118"/>
@@ -35182,16 +35076,16 @@
       </c>
       <c r="G304" s="49"/>
       <c r="H304" s="123" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I304" s="123" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="J304" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K304" s="49" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="L304" s="118"/>
       <c r="M304" s="118"/>
@@ -35222,16 +35116,16 @@
       </c>
       <c r="G305" s="49"/>
       <c r="H305" s="123" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I305" s="123" t="s">
+        <v>657</v>
+      </c>
+      <c r="J305" s="116" t="s">
+        <v>671</v>
+      </c>
+      <c r="K305" s="49" t="s">
         <v>666</v>
-      </c>
-      <c r="J305" s="116" t="s">
-        <v>680</v>
-      </c>
-      <c r="K305" s="49" t="s">
-        <v>675</v>
       </c>
       <c r="L305" s="118"/>
       <c r="M305" s="118"/>
@@ -35262,16 +35156,16 @@
       </c>
       <c r="G306" s="49"/>
       <c r="H306" s="123" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I306" s="123" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="J306" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K306" s="49" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="L306" s="118"/>
       <c r="M306" s="118"/>
@@ -35302,16 +35196,16 @@
       </c>
       <c r="G307" s="49"/>
       <c r="H307" s="123" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I307" s="123" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J307" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K307" s="49" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="L307" s="118"/>
       <c r="M307" s="118"/>
@@ -35342,16 +35236,16 @@
       </c>
       <c r="G308" s="49"/>
       <c r="H308" s="123" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I308" s="123" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J308" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K308" s="49" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="L308" s="118"/>
       <c r="M308" s="118"/>
@@ -35384,7 +35278,7 @@
       <c r="H309" s="120"/>
       <c r="I309" s="120"/>
       <c r="J309" s="120" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="K309" s="78"/>
       <c r="L309" s="94"/>
@@ -35416,16 +35310,16 @@
       </c>
       <c r="G310" s="49"/>
       <c r="H310" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I310" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J310" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K310" s="49" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="L310" s="118"/>
       <c r="M310" s="118"/>
@@ -35458,7 +35352,7 @@
       <c r="H311" s="120"/>
       <c r="I311" s="120"/>
       <c r="J311" s="78" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="K311" s="78"/>
       <c r="L311" s="94"/>
@@ -35490,16 +35384,16 @@
       </c>
       <c r="G312" s="49"/>
       <c r="H312" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I312" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J312" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K312" s="49" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="L312" s="118"/>
       <c r="M312" s="118"/>
@@ -35528,16 +35422,16 @@
       <c r="F313" s="228"/>
       <c r="G313" s="49"/>
       <c r="H313" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I313" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J313" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K313" s="49" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="L313" s="118"/>
       <c r="M313" s="118"/>
@@ -35566,16 +35460,16 @@
       <c r="F314" s="228"/>
       <c r="G314" s="49"/>
       <c r="H314" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I314" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J314" s="116" t="s">
+        <v>671</v>
+      </c>
+      <c r="K314" s="49" t="s">
         <v>680</v>
-      </c>
-      <c r="K314" s="49" t="s">
-        <v>689</v>
       </c>
       <c r="L314" s="118"/>
       <c r="M314" s="118"/>
@@ -35604,16 +35498,16 @@
       <c r="F315" s="228"/>
       <c r="G315" s="49"/>
       <c r="H315" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I315" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J315" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K315" s="49" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="L315" s="118"/>
       <c r="M315" s="118"/>
@@ -35642,16 +35536,16 @@
       <c r="F316" s="228"/>
       <c r="G316" s="49"/>
       <c r="H316" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I316" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J316" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K316" s="49" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="L316" s="118"/>
       <c r="M316" s="118"/>
@@ -35680,16 +35574,16 @@
       <c r="F317" s="229"/>
       <c r="G317" s="49"/>
       <c r="H317" s="123" t="s">
+        <v>674</v>
+      </c>
+      <c r="I317" s="123" t="s">
+        <v>675</v>
+      </c>
+      <c r="J317" s="116" t="s">
+        <v>671</v>
+      </c>
+      <c r="K317" s="49" t="s">
         <v>683</v>
-      </c>
-      <c r="I317" s="123" t="s">
-        <v>684</v>
-      </c>
-      <c r="J317" s="116" t="s">
-        <v>680</v>
-      </c>
-      <c r="K317" s="49" t="s">
-        <v>692</v>
       </c>
       <c r="L317" s="118"/>
       <c r="M317" s="118"/>
@@ -35720,16 +35614,16 @@
       </c>
       <c r="G318" s="49"/>
       <c r="H318" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I318" s="123" t="s">
+        <v>675</v>
+      </c>
+      <c r="J318" s="116" t="s">
+        <v>671</v>
+      </c>
+      <c r="K318" s="49" t="s">
         <v>684</v>
-      </c>
-      <c r="J318" s="116" t="s">
-        <v>680</v>
-      </c>
-      <c r="K318" s="49" t="s">
-        <v>693</v>
       </c>
       <c r="L318" s="118"/>
       <c r="M318" s="118"/>
@@ -35758,16 +35652,16 @@
       <c r="F319" s="228"/>
       <c r="G319" s="49"/>
       <c r="H319" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I319" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J319" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K319" s="49" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="L319" s="118"/>
       <c r="M319" s="118"/>
@@ -35796,16 +35690,16 @@
       <c r="F320" s="228"/>
       <c r="G320" s="49"/>
       <c r="H320" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I320" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J320" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K320" s="49" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="L320" s="118"/>
       <c r="M320" s="118"/>
@@ -35834,16 +35728,16 @@
       <c r="F321" s="228"/>
       <c r="G321" s="49"/>
       <c r="H321" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I321" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J321" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K321" s="49" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="L321" s="118"/>
       <c r="M321" s="118"/>
@@ -35872,16 +35766,16 @@
       <c r="F322" s="228"/>
       <c r="G322" s="49"/>
       <c r="H322" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I322" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J322" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K322" s="49" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="L322" s="118"/>
       <c r="M322" s="118"/>
@@ -35910,16 +35804,16 @@
       <c r="F323" s="229"/>
       <c r="G323" s="49"/>
       <c r="H323" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I323" s="123" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J323" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K323" s="49" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="L323" s="118"/>
       <c r="M323" s="118"/>
@@ -35952,7 +35846,7 @@
       <c r="H324" s="120"/>
       <c r="I324" s="120"/>
       <c r="J324" s="120" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="K324" s="78"/>
       <c r="L324" s="94"/>
@@ -35986,7 +35880,7 @@
       <c r="H325" s="120"/>
       <c r="I325" s="120"/>
       <c r="J325" s="78" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="K325" s="117"/>
       <c r="L325" s="94"/>
@@ -36017,7 +35911,7 @@
         <v>434</v>
       </c>
       <c r="G326" s="78" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="H326" s="120"/>
       <c r="I326" s="78"/>
@@ -36056,7 +35950,7 @@
       <c r="H327" s="120"/>
       <c r="I327" s="78"/>
       <c r="J327" s="78" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="K327" s="117"/>
       <c r="L327" s="94"/>
@@ -36090,7 +35984,7 @@
       <c r="H328" s="120"/>
       <c r="I328" s="78"/>
       <c r="J328" s="78" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="K328" s="117"/>
       <c r="L328" s="94"/>
@@ -36124,16 +36018,16 @@
       </c>
       <c r="G329" s="66"/>
       <c r="H329" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I329" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J329" s="113" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="K329" s="49" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="L329" s="116"/>
       <c r="M329" s="113"/>
@@ -36162,16 +36056,16 @@
       <c r="F330" s="230"/>
       <c r="G330" s="66"/>
       <c r="H330" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I330" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J330" s="113" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="K330" s="49" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="L330" s="116"/>
       <c r="M330" s="113"/>
@@ -36200,16 +36094,16 @@
       <c r="F331" s="230"/>
       <c r="G331" s="66"/>
       <c r="H331" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I331" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J331" s="113" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="K331" s="49" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="L331" s="116"/>
       <c r="M331" s="113"/>
@@ -36238,16 +36132,16 @@
       <c r="F332" s="230"/>
       <c r="G332" s="66"/>
       <c r="H332" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I332" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J332" s="113" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="K332" s="49" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="L332" s="116"/>
       <c r="M332" s="113"/>
@@ -36276,16 +36170,16 @@
       <c r="F333" s="230"/>
       <c r="G333" s="66"/>
       <c r="H333" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I333" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J333" s="113" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="K333" s="49" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="L333" s="116"/>
       <c r="M333" s="113"/>
@@ -36314,16 +36208,16 @@
       <c r="F334" s="230"/>
       <c r="G334" s="66"/>
       <c r="H334" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I334" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J334" s="113" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="K334" s="49" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="L334" s="116"/>
       <c r="M334" s="113"/>
@@ -36352,16 +36246,16 @@
       <c r="F335" s="230"/>
       <c r="G335" s="66"/>
       <c r="H335" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I335" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J335" s="113" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="K335" s="49" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="L335" s="116"/>
       <c r="M335" s="113"/>
@@ -36390,16 +36284,16 @@
       <c r="F336" s="231"/>
       <c r="G336" s="66"/>
       <c r="H336" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I336" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J336" s="113" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="K336" s="49" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="L336" s="116"/>
       <c r="M336" s="113"/>
@@ -36430,16 +36324,16 @@
       </c>
       <c r="G337" s="66"/>
       <c r="H337" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I337" s="123" t="s">
+        <v>693</v>
+      </c>
+      <c r="J337" s="113" t="s">
+        <v>694</v>
+      </c>
+      <c r="K337" s="49" t="s">
         <v>702</v>
-      </c>
-      <c r="J337" s="113" t="s">
-        <v>703</v>
-      </c>
-      <c r="K337" s="49" t="s">
-        <v>711</v>
       </c>
       <c r="L337" s="116"/>
       <c r="M337" s="113"/>
@@ -36468,16 +36362,16 @@
       <c r="F338" s="230"/>
       <c r="G338" s="66"/>
       <c r="H338" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I338" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J338" s="113" t="s">
+        <v>694</v>
+      </c>
+      <c r="K338" s="49" t="s">
         <v>703</v>
-      </c>
-      <c r="K338" s="49" t="s">
-        <v>712</v>
       </c>
       <c r="L338" s="116"/>
       <c r="M338" s="113"/>
@@ -36506,16 +36400,16 @@
       <c r="F339" s="230"/>
       <c r="G339" s="66"/>
       <c r="H339" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I339" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J339" s="113" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="K339" s="49" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="L339" s="116"/>
       <c r="M339" s="113"/>
@@ -36544,16 +36438,16 @@
       <c r="F340" s="231"/>
       <c r="G340" s="66"/>
       <c r="H340" s="123" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I340" s="123" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J340" s="113" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="K340" s="49" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="L340" s="116"/>
       <c r="M340" s="113"/>
@@ -36588,7 +36482,7 @@
       <c r="H341" s="120"/>
       <c r="I341" s="78"/>
       <c r="J341" s="94" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K341" s="117"/>
       <c r="L341" s="94"/>
@@ -36624,7 +36518,7 @@
       <c r="H342" s="120"/>
       <c r="I342" s="120"/>
       <c r="J342" s="120" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="K342" s="78"/>
       <c r="L342" s="94"/>
@@ -36658,7 +36552,7 @@
       <c r="H343" s="120"/>
       <c r="I343" s="120"/>
       <c r="J343" s="120" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="K343" s="78"/>
       <c r="L343" s="94"/>
@@ -36692,7 +36586,7 @@
       <c r="H344" s="94"/>
       <c r="I344" s="94"/>
       <c r="J344" s="95" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K344" s="95"/>
       <c r="L344" s="94"/>
@@ -36726,7 +36620,7 @@
       <c r="H345" s="94"/>
       <c r="I345" s="94"/>
       <c r="J345" s="95" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K345" s="95"/>
       <c r="L345" s="94"/>
@@ -36760,7 +36654,7 @@
       <c r="H346" s="94"/>
       <c r="I346" s="94"/>
       <c r="J346" s="95" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K346" s="95"/>
       <c r="L346" s="94"/>
@@ -36794,7 +36688,7 @@
       <c r="H347" s="94"/>
       <c r="I347" s="94"/>
       <c r="J347" s="95" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K347" s="95"/>
       <c r="L347" s="94"/>
@@ -36828,7 +36722,7 @@
       <c r="H348" s="94"/>
       <c r="I348" s="94"/>
       <c r="J348" s="95" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K348" s="95"/>
       <c r="L348" s="94"/>
@@ -36862,7 +36756,7 @@
       <c r="H349" s="94"/>
       <c r="I349" s="94"/>
       <c r="J349" s="95" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K349" s="95"/>
       <c r="L349" s="94"/>
@@ -36894,16 +36788,16 @@
       </c>
       <c r="G350" s="67"/>
       <c r="H350" s="113" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I350" s="113" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="J350" s="114" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="K350" s="76" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="L350" s="113"/>
       <c r="M350" s="113"/>
@@ -36936,16 +36830,16 @@
       </c>
       <c r="G351" s="67"/>
       <c r="H351" s="116" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I351" s="116" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="J351" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K351" s="33" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="L351" s="113"/>
       <c r="M351" s="113"/>
@@ -36978,16 +36872,16 @@
       </c>
       <c r="G352" s="67"/>
       <c r="H352" s="116" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="I352" s="116" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="J352" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K352" s="113" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="L352" s="113"/>
       <c r="M352" s="113"/>
@@ -37022,16 +36916,16 @@
       </c>
       <c r="G353" s="67"/>
       <c r="H353" s="116" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I353" s="116" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J353" s="116" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="K353" s="33" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="L353" s="113"/>
       <c r="M353" s="113"/>
@@ -37060,16 +36954,16 @@
       <c r="F354" s="230"/>
       <c r="G354" s="67"/>
       <c r="H354" s="116" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I354" s="116" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J354" s="116" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="K354" s="33" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="L354" s="113"/>
       <c r="M354" s="113"/>
@@ -37098,16 +36992,16 @@
       <c r="F355" s="230"/>
       <c r="G355" s="67"/>
       <c r="H355" s="116" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I355" s="116" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J355" s="116" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="K355" s="33" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="L355" s="113"/>
       <c r="M355" s="113"/>
@@ -37136,16 +37030,16 @@
       <c r="F356" s="230"/>
       <c r="G356" s="67"/>
       <c r="H356" s="116" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I356" s="116" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J356" s="116" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="K356" s="33" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="L356" s="113"/>
       <c r="M356" s="113"/>
@@ -37174,16 +37068,16 @@
       <c r="F357" s="230"/>
       <c r="G357" s="67"/>
       <c r="H357" s="116" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I357" s="116" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J357" s="116" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="K357" s="33" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="L357" s="113"/>
       <c r="M357" s="113"/>
@@ -37212,16 +37106,16 @@
       <c r="F358" s="231"/>
       <c r="G358" s="67"/>
       <c r="H358" s="116" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="I358" s="116" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="J358" s="116" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="K358" s="33" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="L358" s="113"/>
       <c r="M358" s="113"/>
@@ -37256,7 +37150,7 @@
       <c r="H359" s="120"/>
       <c r="I359" s="120"/>
       <c r="J359" s="120" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="K359" s="78"/>
       <c r="L359" s="94"/>
@@ -37290,7 +37184,7 @@
       <c r="H360" s="120"/>
       <c r="I360" s="120"/>
       <c r="J360" s="120" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="K360" s="78"/>
       <c r="L360" s="94"/>
@@ -37324,7 +37218,7 @@
       <c r="H361" s="94"/>
       <c r="I361" s="94"/>
       <c r="J361" s="120" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="K361" s="95"/>
       <c r="L361" s="94"/>
@@ -37358,7 +37252,7 @@
       <c r="H362" s="94"/>
       <c r="I362" s="94"/>
       <c r="J362" s="95" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="K362" s="95"/>
       <c r="L362" s="94"/>
@@ -37396,7 +37290,7 @@
       <c r="H363" s="94"/>
       <c r="I363" s="94"/>
       <c r="J363" s="95" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="K363" s="95"/>
       <c r="L363" s="94"/>
@@ -37430,7 +37324,7 @@
       <c r="H364" s="94"/>
       <c r="I364" s="94"/>
       <c r="J364" s="95" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="K364" s="95"/>
       <c r="L364" s="94"/>
@@ -37464,7 +37358,7 @@
       <c r="H365" s="94"/>
       <c r="I365" s="94"/>
       <c r="J365" s="95" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="K365" s="95"/>
       <c r="L365" s="94"/>
@@ -37502,7 +37396,7 @@
       <c r="H366" s="94"/>
       <c r="I366" s="94"/>
       <c r="J366" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K366" s="95"/>
       <c r="L366" s="94"/>
@@ -37536,7 +37430,7 @@
       <c r="H367" s="94"/>
       <c r="I367" s="94"/>
       <c r="J367" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K367" s="95"/>
       <c r="L367" s="94"/>
@@ -37570,7 +37464,7 @@
       <c r="H368" s="94"/>
       <c r="I368" s="94"/>
       <c r="J368" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K368" s="95"/>
       <c r="L368" s="94"/>
@@ -37604,7 +37498,7 @@
       <c r="H369" s="94"/>
       <c r="I369" s="94"/>
       <c r="J369" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K369" s="95"/>
       <c r="L369" s="94"/>
@@ -37638,7 +37532,7 @@
       <c r="H370" s="94"/>
       <c r="I370" s="94"/>
       <c r="J370" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K370" s="95"/>
       <c r="L370" s="94"/>
@@ -37669,7 +37563,7 @@
         <v>469</v>
       </c>
       <c r="G371" s="93" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="H371" s="94"/>
       <c r="I371" s="94"/>
@@ -37706,7 +37600,7 @@
       <c r="H372" s="94"/>
       <c r="I372" s="94"/>
       <c r="J372" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K372" s="95"/>
       <c r="L372" s="94"/>
@@ -37740,7 +37634,7 @@
       <c r="H373" s="94"/>
       <c r="I373" s="94"/>
       <c r="J373" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K373" s="95"/>
       <c r="L373" s="94"/>
@@ -37774,7 +37668,7 @@
       <c r="H374" s="94"/>
       <c r="I374" s="94"/>
       <c r="J374" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K374" s="95"/>
       <c r="L374" s="94"/>
@@ -37808,7 +37702,7 @@
       <c r="H375" s="94"/>
       <c r="I375" s="94"/>
       <c r="J375" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K375" s="95"/>
       <c r="L375" s="94"/>
@@ -37842,7 +37736,7 @@
       <c r="H376" s="94"/>
       <c r="I376" s="94"/>
       <c r="J376" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K376" s="95"/>
       <c r="L376" s="94"/>
@@ -37876,7 +37770,7 @@
       <c r="H377" s="94"/>
       <c r="I377" s="94"/>
       <c r="J377" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K377" s="95"/>
       <c r="L377" s="94"/>
@@ -37910,7 +37804,7 @@
       <c r="H378" s="94"/>
       <c r="I378" s="94"/>
       <c r="J378" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K378" s="95"/>
       <c r="L378" s="94"/>
@@ -37944,7 +37838,7 @@
       <c r="H379" s="94"/>
       <c r="I379" s="94"/>
       <c r="J379" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K379" s="95"/>
       <c r="L379" s="94"/>
@@ -37980,7 +37874,7 @@
       <c r="H380" s="94"/>
       <c r="I380" s="94"/>
       <c r="J380" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K380" s="95"/>
       <c r="L380" s="94"/>
@@ -38014,7 +37908,7 @@
       <c r="H381" s="94"/>
       <c r="I381" s="94"/>
       <c r="J381" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K381" s="95"/>
       <c r="L381" s="94"/>
@@ -38048,7 +37942,7 @@
       <c r="H382" s="94"/>
       <c r="I382" s="94"/>
       <c r="J382" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K382" s="95"/>
       <c r="L382" s="94"/>
@@ -38082,7 +37976,7 @@
       <c r="H383" s="94"/>
       <c r="I383" s="94"/>
       <c r="J383" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K383" s="95"/>
       <c r="L383" s="94"/>
@@ -38116,7 +38010,7 @@
       <c r="H384" s="94"/>
       <c r="I384" s="94"/>
       <c r="J384" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K384" s="95"/>
       <c r="L384" s="94"/>
@@ -38150,7 +38044,7 @@
       <c r="H385" s="94"/>
       <c r="I385" s="94"/>
       <c r="J385" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K385" s="95"/>
       <c r="L385" s="94"/>
@@ -38184,7 +38078,7 @@
       <c r="H386" s="94"/>
       <c r="I386" s="94"/>
       <c r="J386" s="200" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K386" s="95"/>
       <c r="L386" s="94"/>
@@ -38226,7 +38120,7 @@
       <c r="H387" s="81"/>
       <c r="I387" s="81"/>
       <c r="J387" s="94" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="K387" s="232"/>
       <c r="L387" s="233"/>
@@ -38260,7 +38154,7 @@
       <c r="H388" s="81"/>
       <c r="I388" s="81"/>
       <c r="J388" s="94" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="K388" s="200"/>
       <c r="L388" s="201"/>
@@ -38294,7 +38188,7 @@
       <c r="H389" s="81"/>
       <c r="I389" s="81"/>
       <c r="J389" s="94" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="K389" s="200"/>
       <c r="L389" s="201"/>
@@ -38328,7 +38222,7 @@
       <c r="H390" s="81"/>
       <c r="I390" s="81"/>
       <c r="J390" s="94" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="K390" s="200"/>
       <c r="L390" s="201"/>
@@ -38359,7 +38253,7 @@
         <v>506</v>
       </c>
       <c r="G391" s="199" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="H391" s="81"/>
       <c r="I391" s="81"/>
@@ -38400,7 +38294,7 @@
       <c r="H392" s="120"/>
       <c r="I392" s="120"/>
       <c r="J392" s="81" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="K392" s="200"/>
       <c r="L392" s="201"/>
@@ -38434,7 +38328,7 @@
       <c r="H393" s="81"/>
       <c r="I393" s="81"/>
       <c r="J393" s="120" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="K393" s="200"/>
       <c r="L393" s="201"/>
@@ -38465,7 +38359,7 @@
         <v>511</v>
       </c>
       <c r="G394" s="199" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="H394" s="81"/>
       <c r="I394" s="81"/>
@@ -38502,7 +38396,7 @@
       <c r="H395" s="120"/>
       <c r="I395" s="120"/>
       <c r="J395" s="120" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="K395" s="94"/>
       <c r="L395" s="201"/>
@@ -38536,7 +38430,7 @@
       <c r="H396" s="81"/>
       <c r="I396" s="81"/>
       <c r="J396" s="200" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="K396" s="200"/>
       <c r="L396" s="201"/>
@@ -38570,20 +38464,20 @@
         <v>493</v>
       </c>
       <c r="F397" s="90" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="G397" s="96"/>
       <c r="H397" s="116" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="I397" s="116" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="J397" s="116" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="K397" s="52" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="L397" s="128"/>
       <c r="M397" s="129"/>
@@ -38612,16 +38506,16 @@
       <c r="F398" s="91"/>
       <c r="G398" s="96"/>
       <c r="H398" s="116" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="I398" s="116" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="J398" s="116" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="K398" s="52" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="L398" s="128"/>
       <c r="M398" s="129"/>
@@ -38650,16 +38544,16 @@
       <c r="F399" s="91"/>
       <c r="G399" s="96"/>
       <c r="H399" s="116" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="I399" s="116" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="J399" s="116" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="K399" s="52" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="L399" s="128"/>
       <c r="M399" s="129"/>
@@ -38688,16 +38582,16 @@
       <c r="F400" s="91"/>
       <c r="G400" s="96"/>
       <c r="H400" s="116" t="s">
+        <v>733</v>
+      </c>
+      <c r="I400" s="116" t="s">
+        <v>735</v>
+      </c>
+      <c r="J400" s="116" t="s">
+        <v>740</v>
+      </c>
+      <c r="K400" s="52" t="s">
         <v>742</v>
-      </c>
-      <c r="I400" s="116" t="s">
-        <v>744</v>
-      </c>
-      <c r="J400" s="116" t="s">
-        <v>749</v>
-      </c>
-      <c r="K400" s="52" t="s">
-        <v>751</v>
       </c>
       <c r="L400" s="128"/>
       <c r="M400" s="129"/>
@@ -38726,16 +38620,16 @@
       <c r="F401" s="91"/>
       <c r="G401" s="96"/>
       <c r="H401" s="116" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="I401" s="116" t="s">
+        <v>735</v>
+      </c>
+      <c r="J401" s="116" t="s">
+        <v>743</v>
+      </c>
+      <c r="K401" s="52" t="s">
         <v>744</v>
-      </c>
-      <c r="J401" s="116" t="s">
-        <v>752</v>
-      </c>
-      <c r="K401" s="52" t="s">
-        <v>753</v>
       </c>
       <c r="L401" s="128"/>
       <c r="M401" s="129"/>
@@ -38764,16 +38658,16 @@
       <c r="F402" s="163"/>
       <c r="G402" s="96"/>
       <c r="H402" s="116" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="I402" s="116" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="J402" s="116" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="K402" s="52" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="L402" s="128"/>
       <c r="M402" s="129"/>
@@ -38806,7 +38700,7 @@
       <c r="H403" s="120"/>
       <c r="I403" s="120"/>
       <c r="J403" s="120" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="K403" s="121"/>
       <c r="L403" s="157"/>
@@ -38838,16 +38732,16 @@
       </c>
       <c r="G404" s="96"/>
       <c r="H404" s="116" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I404" s="116" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="J404" s="116" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="K404" s="118" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="L404" s="128"/>
       <c r="M404" s="129"/>
@@ -38876,16 +38770,16 @@
       <c r="F405" s="91"/>
       <c r="G405" s="96"/>
       <c r="H405" s="116" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I405" s="116" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="J405" s="116" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="K405" s="118" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="L405" s="128"/>
       <c r="M405" s="129"/>
@@ -38914,16 +38808,16 @@
       <c r="F406" s="91"/>
       <c r="G406" s="96"/>
       <c r="H406" s="116" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I406" s="116" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="J406" s="116" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="K406" s="118" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="L406" s="128"/>
       <c r="M406" s="129"/>
@@ -38952,16 +38846,16 @@
       <c r="F407" s="91"/>
       <c r="G407" s="96"/>
       <c r="H407" s="116" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I407" s="116" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="J407" s="116" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="K407" s="118" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="L407" s="128"/>
       <c r="M407" s="129"/>
@@ -38990,16 +38884,16 @@
       <c r="F408" s="91"/>
       <c r="G408" s="96"/>
       <c r="H408" s="116" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I408" s="116" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="J408" s="116" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="K408" s="118" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="L408" s="128"/>
       <c r="M408" s="129"/>
@@ -39028,16 +38922,16 @@
       <c r="F409" s="163"/>
       <c r="G409" s="96"/>
       <c r="H409" s="116" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I409" s="116" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="J409" s="116" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="K409" s="118" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="L409" s="128"/>
       <c r="M409" s="129"/>
@@ -39070,7 +38964,7 @@
       <c r="H410" s="81"/>
       <c r="I410" s="81"/>
       <c r="J410" s="120" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="K410" s="156"/>
       <c r="L410" s="157"/>
@@ -39101,7 +38995,7 @@
         <v>519</v>
       </c>
       <c r="G411" s="155" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="H411" s="81"/>
       <c r="I411" s="81"/>
@@ -39138,7 +39032,7 @@
       <c r="H412" s="120"/>
       <c r="I412" s="120"/>
       <c r="J412" s="120" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="K412" s="121"/>
       <c r="L412" s="157"/>
@@ -39174,16 +39068,16 @@
       </c>
       <c r="G413" s="96"/>
       <c r="H413" s="90" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="I413" s="90" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="J413" s="52" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="K413" s="249" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="L413" s="128"/>
       <c r="M413" s="129"/>
@@ -39218,16 +39112,16 @@
       </c>
       <c r="G414" s="96"/>
       <c r="H414" s="116" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="I414" s="116" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="J414" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K414" s="113" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="L414" s="128"/>
       <c r="M414" s="129"/>
@@ -39256,16 +39150,16 @@
       <c r="F415" s="91"/>
       <c r="G415" s="96"/>
       <c r="H415" s="116" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="I415" s="116" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="J415" s="116" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="K415" s="113" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="L415" s="130"/>
       <c r="M415" s="131"/>
@@ -39294,16 +39188,16 @@
       <c r="F416" s="91"/>
       <c r="G416" s="96"/>
       <c r="H416" s="116" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="I416" s="116" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="J416" s="116" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="K416" s="113" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="L416" s="130"/>
       <c r="M416" s="131"/>
@@ -39332,16 +39226,16 @@
       <c r="F417" s="91"/>
       <c r="G417" s="96"/>
       <c r="H417" s="116" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="I417" s="116" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="J417" s="116" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="K417" s="113" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="L417" s="130"/>
       <c r="M417" s="131"/>
@@ -39370,16 +39264,16 @@
       <c r="F418" s="91"/>
       <c r="G418" s="96"/>
       <c r="H418" s="116" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="I418" s="116" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="J418" s="116" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="K418" s="113" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="L418" s="130"/>
       <c r="M418" s="131"/>
@@ -39408,16 +39302,16 @@
       <c r="F419" s="91"/>
       <c r="G419" s="96"/>
       <c r="H419" s="116" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="I419" s="116" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="J419" s="116" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="K419" s="113" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="L419" s="130"/>
       <c r="M419" s="131"/>
@@ -39446,16 +39340,16 @@
       <c r="F420" s="163"/>
       <c r="G420" s="96"/>
       <c r="H420" s="116" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="I420" s="116" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="J420" s="116" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="K420" s="113" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="L420" s="130"/>
       <c r="M420" s="131"/>
@@ -39486,20 +39380,20 @@
         <v>493</v>
       </c>
       <c r="F421" s="97" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G421" s="96"/>
       <c r="H421" s="90" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="I421" s="90" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="J421" s="116" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K421" s="115" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="L421" s="130"/>
       <c r="M421" s="131"/>
@@ -39540,7 +39434,7 @@
       <c r="H422" s="94"/>
       <c r="I422" s="94"/>
       <c r="J422" s="95" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K422" s="95"/>
       <c r="L422" s="94"/>
@@ -39574,7 +39468,7 @@
       <c r="H423" s="120"/>
       <c r="I423" s="120"/>
       <c r="J423" s="95" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K423" s="94"/>
       <c r="L423" s="94"/>
@@ -39648,22 +39542,22 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="25" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="25" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="25" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>14</v>
@@ -39721,7 +39615,7 @@
         <v>568</v>
       </c>
       <c r="F10" s="99" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>9</v>
@@ -39754,7 +39648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="31" customFormat="1" ht="78.75">
+    <row r="11" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A11" s="79" t="s">
         <v>564</v>
       </c>
@@ -39762,19 +39656,15 @@
         <v>569</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D11" s="204" t="s">
         <v>570</v>
       </c>
       <c r="E11" s="239"/>
       <c r="F11" s="94"/>
-      <c r="G11" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H11" s="81" t="s">
-        <v>572</v>
-      </c>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="240"/>
       <c r="J11" s="240"/>
       <c r="K11" s="241"/>
@@ -39784,23 +39674,19 @@
       <c r="O11" s="242"/>
       <c r="P11" s="242"/>
     </row>
-    <row r="12" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="12" spans="1:16" s="31" customFormat="1">
       <c r="A12" s="80" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B12" s="244"/>
       <c r="C12" s="244"/>
       <c r="D12" s="159" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E12" s="160"/>
       <c r="F12" s="94"/>
-      <c r="G12" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H12" s="81" t="s">
-        <v>592</v>
-      </c>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
       <c r="K12" s="102"/>
@@ -39810,25 +39696,21 @@
       <c r="O12" s="83"/>
       <c r="P12" s="83"/>
     </row>
-    <row r="13" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="13" spans="1:16" s="31" customFormat="1">
       <c r="A13" s="80" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B13" s="244"/>
       <c r="C13" s="244"/>
       <c r="D13" s="159" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E13" s="160"/>
       <c r="F13" s="94" t="s">
-        <v>644</v>
-      </c>
-      <c r="G13" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H13" s="81" t="s">
-        <v>592</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
       <c r="K13" s="102"/>
@@ -39838,23 +39720,19 @@
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
     </row>
-    <row r="14" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="14" spans="1:16" s="31" customFormat="1">
       <c r="A14" s="80" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B14" s="244"/>
       <c r="C14" s="244"/>
       <c r="D14" s="159" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E14" s="160"/>
       <c r="F14" s="94"/>
-      <c r="G14" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H14" s="81" t="s">
-        <v>592</v>
-      </c>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
       <c r="K14" s="102"/>
@@ -39864,25 +39742,21 @@
       <c r="O14" s="83"/>
       <c r="P14" s="83"/>
     </row>
-    <row r="15" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="15" spans="1:16" s="31" customFormat="1">
       <c r="A15" s="80" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B15" s="244"/>
       <c r="C15" s="244"/>
       <c r="D15" s="161" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E15" s="84" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F15" s="94"/>
-      <c r="G15" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H15" s="81" t="s">
-        <v>592</v>
-      </c>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="82"/>
       <c r="J15" s="82"/>
       <c r="K15" s="102"/>
@@ -39894,23 +39768,19 @@
     </row>
     <row r="16" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A16" s="80" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B16" s="244"/>
       <c r="C16" s="244"/>
       <c r="D16" s="244"/>
       <c r="E16" s="78" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F16" s="94" t="s">
-        <v>644</v>
-      </c>
-      <c r="G16" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H16" s="81" t="s">
-        <v>592</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="82"/>
       <c r="J16" s="82"/>
       <c r="K16" s="102"/>
@@ -39920,25 +39790,21 @@
       <c r="O16" s="83"/>
       <c r="P16" s="83"/>
     </row>
-    <row r="17" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="17" spans="1:16" s="31" customFormat="1">
       <c r="A17" s="80" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B17" s="244"/>
       <c r="C17" s="244"/>
       <c r="D17" s="244"/>
       <c r="E17" s="84" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F17" s="94" t="s">
-        <v>644</v>
-      </c>
-      <c r="G17" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H17" s="81" t="s">
-        <v>592</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="82"/>
       <c r="J17" s="82"/>
       <c r="K17" s="102"/>
@@ -39948,25 +39814,21 @@
       <c r="O17" s="83"/>
       <c r="P17" s="83"/>
     </row>
-    <row r="18" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="18" spans="1:16" s="31" customFormat="1">
       <c r="A18" s="80" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B18" s="244"/>
       <c r="C18" s="244"/>
       <c r="D18" s="162"/>
       <c r="E18" s="84" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F18" s="94" t="s">
-        <v>644</v>
-      </c>
-      <c r="G18" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H18" s="81" t="s">
-        <v>592</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="82"/>
       <c r="J18" s="82"/>
       <c r="K18" s="102"/>
@@ -39978,25 +39840,21 @@
     </row>
     <row r="19" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A19" s="80" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B19" s="244"/>
       <c r="C19" s="244"/>
       <c r="D19" s="84" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E19" s="78" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F19" s="94" t="s">
-        <v>644</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H19" s="81" t="s">
-        <v>592</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="82"/>
       <c r="J19" s="82"/>
       <c r="K19" s="102"/>
@@ -40008,23 +39866,19 @@
     </row>
     <row r="20" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A20" s="80" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B20" s="244"/>
       <c r="C20" s="244"/>
       <c r="D20" s="204" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E20" s="78" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F20" s="94"/>
-      <c r="G20" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H20" s="81" t="s">
-        <v>592</v>
-      </c>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
       <c r="I20" s="82"/>
       <c r="J20" s="82"/>
       <c r="K20" s="102"/>
@@ -40034,25 +39888,21 @@
       <c r="O20" s="83"/>
       <c r="P20" s="83"/>
     </row>
-    <row r="21" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="21" spans="1:16" s="31" customFormat="1" ht="13.5">
       <c r="A21" s="80" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B21" s="244"/>
       <c r="C21" s="244"/>
       <c r="D21" s="315" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E21" s="316"/>
       <c r="F21" s="94" t="s">
-        <v>644</v>
-      </c>
-      <c r="G21" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H21" s="81" t="s">
-        <v>592</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="82"/>
       <c r="J21" s="82"/>
       <c r="K21" s="102"/>
@@ -40062,27 +39912,23 @@
       <c r="O21" s="83"/>
       <c r="P21" s="83"/>
     </row>
-    <row r="22" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="22" spans="1:16" s="31" customFormat="1">
       <c r="A22" s="80" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B22" s="244"/>
       <c r="C22" s="161" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E22" s="160"/>
       <c r="F22" s="94" t="s">
-        <v>644</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H22" s="81" t="s">
-        <v>592</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
       <c r="I22" s="82"/>
       <c r="J22" s="82"/>
       <c r="K22" s="102"/>
@@ -40092,25 +39938,21 @@
       <c r="O22" s="83"/>
       <c r="P22" s="83"/>
     </row>
-    <row r="23" spans="1:16" s="31" customFormat="1" ht="22.5">
+    <row r="23" spans="1:16" s="31" customFormat="1">
       <c r="A23" s="80" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B23" s="244"/>
       <c r="C23" s="162"/>
       <c r="D23" s="159" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E23" s="160"/>
       <c r="F23" s="94" t="s">
-        <v>644</v>
-      </c>
-      <c r="G23" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="H23" s="81" t="s">
-        <v>592</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="82"/>
       <c r="J23" s="82"/>
       <c r="K23" s="102"/>
@@ -40122,25 +39964,21 @@
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A24" s="80" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B24" s="244"/>
       <c r="C24" s="81" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D24" s="155" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="E24" s="245" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F24" s="81"/>
-      <c r="G24" s="81" t="s">
-        <v>622</v>
-      </c>
-      <c r="H24" s="81" t="s">
-        <v>621</v>
-      </c>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="246"/>
       <c r="J24" s="247"/>
       <c r="K24" s="83"/>
@@ -40150,23 +39988,19 @@
       <c r="O24" s="83"/>
       <c r="P24" s="83"/>
     </row>
-    <row r="25" spans="1:16" s="34" customFormat="1" ht="33.75">
+    <row r="25" spans="1:16" s="34" customFormat="1">
       <c r="A25" s="80" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B25" s="244"/>
       <c r="C25" s="237"/>
       <c r="D25" s="248"/>
       <c r="E25" s="245" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F25" s="81"/>
-      <c r="G25" s="81" t="s">
-        <v>619</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>620</v>
-      </c>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="246"/>
       <c r="J25" s="247"/>
       <c r="K25" s="83"/>
@@ -40178,23 +40012,19 @@
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="22.5">
       <c r="A26" s="80" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B26" s="244"/>
       <c r="C26" s="244"/>
       <c r="D26" s="155" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E26" s="245" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F26" s="81"/>
-      <c r="G26" s="81" t="s">
-        <v>622</v>
-      </c>
-      <c r="H26" s="81" t="s">
-        <v>621</v>
-      </c>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="246"/>
       <c r="J26" s="247"/>
       <c r="K26" s="83"/>
@@ -40204,23 +40034,19 @@
       <c r="O26" s="83"/>
       <c r="P26" s="83"/>
     </row>
-    <row r="27" spans="1:16" s="34" customFormat="1" ht="33.75">
+    <row r="27" spans="1:16" s="34" customFormat="1">
       <c r="A27" s="80" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B27" s="244"/>
       <c r="C27" s="162"/>
       <c r="D27" s="162"/>
       <c r="E27" s="245" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F27" s="81"/>
-      <c r="G27" s="81" t="s">
-        <v>619</v>
-      </c>
-      <c r="H27" s="81" t="s">
-        <v>620</v>
-      </c>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="246"/>
       <c r="J27" s="247"/>
       <c r="K27" s="83"/>
@@ -40230,27 +40056,23 @@
       <c r="O27" s="83"/>
       <c r="P27" s="83"/>
     </row>
-    <row r="28" spans="1:16" s="31" customFormat="1" ht="33.75">
+    <row r="28" spans="1:16" s="31" customFormat="1" ht="22.5">
       <c r="A28" s="80" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C28" s="85" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D28" s="86"/>
       <c r="E28" s="87"/>
       <c r="F28" s="94" t="s">
-        <v>631</v>
-      </c>
-      <c r="G28" s="84" t="s">
-        <v>632</v>
-      </c>
-      <c r="H28" s="78" t="s">
-        <v>633</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="G28" s="84"/>
+      <c r="H28" s="78"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
       <c r="K28" s="102"/>
@@ -40262,23 +40084,19 @@
     </row>
     <row r="29" spans="1:16" s="31" customFormat="1">
       <c r="A29" s="98" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B29" s="104"/>
       <c r="C29" s="105" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D29" s="106"/>
       <c r="E29" s="107"/>
       <c r="F29" s="94" t="s">
-        <v>634</v>
-      </c>
-      <c r="G29" s="108" t="s">
-        <v>493</v>
-      </c>
-      <c r="H29" s="108" t="s">
-        <v>493</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="109"/>
       <c r="J29" s="109"/>
       <c r="K29" s="110"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10301_TOPメニュー.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(画面)_WA10301_TOPメニュー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB212EF0-0DCE-42CF-91D1-9412A3E6AF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DE6BE9-5713-4160-B2E9-62660D9AC68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9108,20 +9108,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(a)プロジェクト管理(A103)
-(b)画面イベント詳細</t>
-    <rPh sb="9" eb="11">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>プロジェクト登録リンクをクリックする</t>
     <rPh sb="6" eb="8">
       <t>トウロク</t>
@@ -9276,13 +9262,6 @@
     <t>画面遷移図</t>
     <rPh sb="0" eb="5">
       <t>ガメンセンイズ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>プロジェクト管理(A103)</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -9401,17 +9380,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>(a)プロジェクト管理(A103)
-(b)URL一覧</t>
-    <rPh sb="9" eb="11">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ログインしている状態で以下のURLを直接指定しアクセスする。
 http://localhost:9088/</t>
     <rPh sb="11" eb="13">
@@ -9422,6 +9390,32 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>共通(A103)</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(a)共通(A103)
+(b)URL一覧</t>
+    <rPh sb="18" eb="20">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(a)共通(A103)
+(b)画面イベント詳細</t>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -11012,6 +11006,84 @@
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -11118,84 +11190,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12924,51 +12918,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="260" t="s">
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="286" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="262"/>
-      <c r="O1" s="266" t="s">
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="267"/>
-      <c r="Q1" s="267"/>
-      <c r="R1" s="268"/>
-      <c r="S1" s="275" t="s">
+      <c r="P1" s="293"/>
+      <c r="Q1" s="293"/>
+      <c r="R1" s="294"/>
+      <c r="S1" s="301" t="s">
         <v>642</v>
       </c>
-      <c r="T1" s="276"/>
-      <c r="U1" s="276"/>
-      <c r="V1" s="276"/>
-      <c r="W1" s="276"/>
-      <c r="X1" s="276"/>
-      <c r="Y1" s="276"/>
-      <c r="Z1" s="277"/>
-      <c r="AA1" s="257" t="s">
+      <c r="T1" s="302"/>
+      <c r="U1" s="302"/>
+      <c r="V1" s="302"/>
+      <c r="W1" s="302"/>
+      <c r="X1" s="302"/>
+      <c r="Y1" s="302"/>
+      <c r="Z1" s="303"/>
+      <c r="AA1" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="259"/>
-      <c r="AC1" s="284"/>
-      <c r="AD1" s="285"/>
-      <c r="AE1" s="285"/>
-      <c r="AF1" s="286"/>
-      <c r="AG1" s="251"/>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="253"/>
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="310"/>
+      <c r="AD1" s="311"/>
+      <c r="AE1" s="311"/>
+      <c r="AF1" s="312"/>
+      <c r="AG1" s="277"/>
+      <c r="AH1" s="278"/>
+      <c r="AI1" s="279"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -12976,53 +12970,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="283" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="260" t="s">
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="286" t="s">
         <v>632</v>
       </c>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="262"/>
-      <c r="O2" s="269"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="271"/>
-      <c r="S2" s="278"/>
-      <c r="T2" s="279"/>
-      <c r="U2" s="279"/>
-      <c r="V2" s="279"/>
-      <c r="W2" s="279"/>
-      <c r="X2" s="279"/>
-      <c r="Y2" s="279"/>
-      <c r="Z2" s="280"/>
-      <c r="AA2" s="257" t="s">
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="287"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="296"/>
+      <c r="Q2" s="296"/>
+      <c r="R2" s="297"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="305"/>
+      <c r="U2" s="305"/>
+      <c r="V2" s="305"/>
+      <c r="W2" s="305"/>
+      <c r="X2" s="305"/>
+      <c r="Y2" s="305"/>
+      <c r="Z2" s="306"/>
+      <c r="AA2" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="259"/>
-      <c r="AC2" s="263" t="str">
+      <c r="AB2" s="285"/>
+      <c r="AC2" s="289" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="265"/>
-      <c r="AG2" s="251" t="str">
+      <c r="AD2" s="290"/>
+      <c r="AE2" s="290"/>
+      <c r="AF2" s="291"/>
+      <c r="AG2" s="277" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="253"/>
+      <c r="AH2" s="278"/>
+      <c r="AI2" s="279"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13030,45 +13024,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="257" t="s">
+      <c r="A3" s="283" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="260" t="s">
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="286" t="s">
         <v>633</v>
       </c>
-      <c r="F3" s="261"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="262"/>
-      <c r="O3" s="272"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="274"/>
-      <c r="S3" s="281"/>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="282"/>
-      <c r="Y3" s="282"/>
-      <c r="Z3" s="283"/>
-      <c r="AA3" s="257"/>
-      <c r="AB3" s="259"/>
-      <c r="AC3" s="284"/>
-      <c r="AD3" s="285"/>
-      <c r="AE3" s="285"/>
-      <c r="AF3" s="286"/>
-      <c r="AG3" s="251"/>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="253"/>
+      <c r="F3" s="287"/>
+      <c r="G3" s="287"/>
+      <c r="H3" s="287"/>
+      <c r="I3" s="287"/>
+      <c r="J3" s="287"/>
+      <c r="K3" s="287"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="288"/>
+      <c r="O3" s="298"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="299"/>
+      <c r="R3" s="300"/>
+      <c r="S3" s="307"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="308"/>
+      <c r="W3" s="308"/>
+      <c r="X3" s="308"/>
+      <c r="Y3" s="308"/>
+      <c r="Z3" s="309"/>
+      <c r="AA3" s="283"/>
+      <c r="AB3" s="285"/>
+      <c r="AC3" s="310"/>
+      <c r="AD3" s="311"/>
+      <c r="AE3" s="311"/>
+      <c r="AF3" s="312"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="278"/>
+      <c r="AI3" s="279"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13105,1176 +13099,1020 @@
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="254" t="s">
+      <c r="B7" s="280" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="255"/>
-      <c r="D7" s="254" t="s">
+      <c r="C7" s="281"/>
+      <c r="D7" s="280" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="256"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="254" t="s">
+      <c r="E7" s="282"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="256"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="254" t="s">
+      <c r="H7" s="282"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="256"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="256"/>
-      <c r="O7" s="256"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="254" t="s">
+      <c r="K7" s="282"/>
+      <c r="L7" s="282"/>
+      <c r="M7" s="282"/>
+      <c r="N7" s="282"/>
+      <c r="O7" s="282"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="280" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="256"/>
-      <c r="S7" s="256"/>
-      <c r="T7" s="256"/>
-      <c r="U7" s="256"/>
-      <c r="V7" s="256"/>
-      <c r="W7" s="256"/>
-      <c r="X7" s="256"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="256"/>
-      <c r="AA7" s="256"/>
-      <c r="AB7" s="256"/>
-      <c r="AC7" s="256"/>
-      <c r="AD7" s="256"/>
-      <c r="AE7" s="255"/>
-      <c r="AF7" s="254" t="s">
+      <c r="R7" s="282"/>
+      <c r="S7" s="282"/>
+      <c r="T7" s="282"/>
+      <c r="U7" s="282"/>
+      <c r="V7" s="282"/>
+      <c r="W7" s="282"/>
+      <c r="X7" s="282"/>
+      <c r="Y7" s="282"/>
+      <c r="Z7" s="282"/>
+      <c r="AA7" s="282"/>
+      <c r="AB7" s="282"/>
+      <c r="AC7" s="282"/>
+      <c r="AD7" s="282"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="280" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="256"/>
-      <c r="AH7" s="256"/>
-      <c r="AI7" s="255"/>
+      <c r="AG7" s="282"/>
+      <c r="AH7" s="282"/>
+      <c r="AI7" s="281"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="299"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="301"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="304"/>
-      <c r="H8" s="305"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="306"/>
-      <c r="K8" s="307"/>
-      <c r="L8" s="307"/>
-      <c r="M8" s="307"/>
-      <c r="N8" s="307"/>
-      <c r="O8" s="307"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="309"/>
-      <c r="R8" s="310"/>
-      <c r="S8" s="310"/>
-      <c r="T8" s="310"/>
-      <c r="U8" s="310"/>
-      <c r="V8" s="310"/>
-      <c r="W8" s="310"/>
-      <c r="X8" s="310"/>
-      <c r="Y8" s="310"/>
-      <c r="Z8" s="310"/>
-      <c r="AA8" s="310"/>
-      <c r="AB8" s="310"/>
-      <c r="AC8" s="310"/>
-      <c r="AD8" s="310"/>
-      <c r="AE8" s="311"/>
-      <c r="AF8" s="306"/>
-      <c r="AG8" s="307"/>
-      <c r="AH8" s="307"/>
-      <c r="AI8" s="308"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="269"/>
+      <c r="H8" s="270"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="271"/>
+      <c r="K8" s="272"/>
+      <c r="L8" s="272"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="273"/>
+      <c r="Q8" s="274"/>
+      <c r="R8" s="275"/>
+      <c r="S8" s="275"/>
+      <c r="T8" s="275"/>
+      <c r="U8" s="275"/>
+      <c r="V8" s="275"/>
+      <c r="W8" s="275"/>
+      <c r="X8" s="275"/>
+      <c r="Y8" s="275"/>
+      <c r="Z8" s="275"/>
+      <c r="AA8" s="275"/>
+      <c r="AB8" s="275"/>
+      <c r="AC8" s="275"/>
+      <c r="AD8" s="275"/>
+      <c r="AE8" s="276"/>
+      <c r="AF8" s="271"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="272"/>
+      <c r="AI8" s="273"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="287"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="293"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="294"/>
-      <c r="M9" s="294"/>
-      <c r="N9" s="294"/>
-      <c r="O9" s="294"/>
-      <c r="P9" s="295"/>
-      <c r="Q9" s="296"/>
-      <c r="R9" s="297"/>
-      <c r="S9" s="297"/>
-      <c r="T9" s="297"/>
-      <c r="U9" s="297"/>
-      <c r="V9" s="297"/>
-      <c r="W9" s="297"/>
-      <c r="X9" s="297"/>
-      <c r="Y9" s="297"/>
-      <c r="Z9" s="297"/>
-      <c r="AA9" s="297"/>
-      <c r="AB9" s="297"/>
-      <c r="AC9" s="297"/>
-      <c r="AD9" s="297"/>
-      <c r="AE9" s="298"/>
-      <c r="AF9" s="293"/>
-      <c r="AG9" s="294"/>
-      <c r="AH9" s="294"/>
-      <c r="AI9" s="295"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="255"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="258"/>
+      <c r="L9" s="258"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="258"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="259"/>
+      <c r="Q9" s="260"/>
+      <c r="R9" s="261"/>
+      <c r="S9" s="261"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="261"/>
+      <c r="AD9" s="261"/>
+      <c r="AE9" s="262"/>
+      <c r="AF9" s="257"/>
+      <c r="AG9" s="258"/>
+      <c r="AH9" s="258"/>
+      <c r="AI9" s="259"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="287"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="291"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="293"/>
-      <c r="K10" s="294"/>
-      <c r="L10" s="294"/>
-      <c r="M10" s="294"/>
-      <c r="N10" s="294"/>
-      <c r="O10" s="294"/>
-      <c r="P10" s="295"/>
-      <c r="Q10" s="296"/>
-      <c r="R10" s="297"/>
-      <c r="S10" s="297"/>
-      <c r="T10" s="297"/>
-      <c r="U10" s="297"/>
-      <c r="V10" s="297"/>
-      <c r="W10" s="297"/>
-      <c r="X10" s="297"/>
-      <c r="Y10" s="297"/>
-      <c r="Z10" s="297"/>
-      <c r="AA10" s="297"/>
-      <c r="AB10" s="297"/>
-      <c r="AC10" s="297"/>
-      <c r="AD10" s="297"/>
-      <c r="AE10" s="298"/>
-      <c r="AF10" s="293"/>
-      <c r="AG10" s="294"/>
-      <c r="AH10" s="294"/>
-      <c r="AI10" s="295"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="257"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="258"/>
+      <c r="M10" s="258"/>
+      <c r="N10" s="258"/>
+      <c r="O10" s="258"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="260"/>
+      <c r="R10" s="261"/>
+      <c r="S10" s="261"/>
+      <c r="T10" s="261"/>
+      <c r="U10" s="261"/>
+      <c r="V10" s="261"/>
+      <c r="W10" s="261"/>
+      <c r="X10" s="261"/>
+      <c r="Y10" s="261"/>
+      <c r="Z10" s="261"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="261"/>
+      <c r="AD10" s="261"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="257"/>
+      <c r="AG10" s="258"/>
+      <c r="AH10" s="258"/>
+      <c r="AI10" s="259"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="287"/>
-      <c r="C11" s="288"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="291"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="292"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="293"/>
-      <c r="K11" s="294"/>
-      <c r="L11" s="294"/>
-      <c r="M11" s="294"/>
-      <c r="N11" s="294"/>
-      <c r="O11" s="294"/>
-      <c r="P11" s="295"/>
-      <c r="Q11" s="296"/>
-      <c r="R11" s="297"/>
-      <c r="S11" s="297"/>
-      <c r="T11" s="297"/>
-      <c r="U11" s="297"/>
-      <c r="V11" s="297"/>
-      <c r="W11" s="297"/>
-      <c r="X11" s="297"/>
-      <c r="Y11" s="297"/>
-      <c r="Z11" s="297"/>
-      <c r="AA11" s="297"/>
-      <c r="AB11" s="297"/>
-      <c r="AC11" s="297"/>
-      <c r="AD11" s="297"/>
-      <c r="AE11" s="298"/>
-      <c r="AF11" s="293"/>
-      <c r="AG11" s="294"/>
-      <c r="AH11" s="294"/>
-      <c r="AI11" s="295"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="255"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="258"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="259"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="261"/>
+      <c r="S11" s="261"/>
+      <c r="T11" s="261"/>
+      <c r="U11" s="261"/>
+      <c r="V11" s="261"/>
+      <c r="W11" s="261"/>
+      <c r="X11" s="261"/>
+      <c r="Y11" s="261"/>
+      <c r="Z11" s="261"/>
+      <c r="AA11" s="261"/>
+      <c r="AB11" s="261"/>
+      <c r="AC11" s="261"/>
+      <c r="AD11" s="261"/>
+      <c r="AE11" s="262"/>
+      <c r="AF11" s="257"/>
+      <c r="AG11" s="258"/>
+      <c r="AH11" s="258"/>
+      <c r="AI11" s="259"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="287"/>
-      <c r="C12" s="288"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="291"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="292"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="293"/>
-      <c r="K12" s="294"/>
-      <c r="L12" s="294"/>
-      <c r="M12" s="294"/>
-      <c r="N12" s="294"/>
-      <c r="O12" s="294"/>
-      <c r="P12" s="295"/>
-      <c r="Q12" s="296"/>
-      <c r="R12" s="297"/>
-      <c r="S12" s="297"/>
-      <c r="T12" s="297"/>
-      <c r="U12" s="297"/>
-      <c r="V12" s="297"/>
-      <c r="W12" s="297"/>
-      <c r="X12" s="297"/>
-      <c r="Y12" s="297"/>
-      <c r="Z12" s="297"/>
-      <c r="AA12" s="297"/>
-      <c r="AB12" s="297"/>
-      <c r="AC12" s="297"/>
-      <c r="AD12" s="297"/>
-      <c r="AE12" s="298"/>
-      <c r="AF12" s="293"/>
-      <c r="AG12" s="294"/>
-      <c r="AH12" s="294"/>
-      <c r="AI12" s="295"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="255"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="258"/>
+      <c r="L12" s="258"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="258"/>
+      <c r="O12" s="258"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="260"/>
+      <c r="R12" s="261"/>
+      <c r="S12" s="261"/>
+      <c r="T12" s="261"/>
+      <c r="U12" s="261"/>
+      <c r="V12" s="261"/>
+      <c r="W12" s="261"/>
+      <c r="X12" s="261"/>
+      <c r="Y12" s="261"/>
+      <c r="Z12" s="261"/>
+      <c r="AA12" s="261"/>
+      <c r="AB12" s="261"/>
+      <c r="AC12" s="261"/>
+      <c r="AD12" s="261"/>
+      <c r="AE12" s="262"/>
+      <c r="AF12" s="257"/>
+      <c r="AG12" s="258"/>
+      <c r="AH12" s="258"/>
+      <c r="AI12" s="259"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="287"/>
-      <c r="C13" s="288"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="292"/>
-      <c r="I13" s="288"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="294"/>
-      <c r="M13" s="294"/>
-      <c r="N13" s="294"/>
-      <c r="O13" s="294"/>
-      <c r="P13" s="295"/>
-      <c r="Q13" s="296"/>
-      <c r="R13" s="297"/>
-      <c r="S13" s="297"/>
-      <c r="T13" s="297"/>
-      <c r="U13" s="297"/>
-      <c r="V13" s="297"/>
-      <c r="W13" s="297"/>
-      <c r="X13" s="297"/>
-      <c r="Y13" s="297"/>
-      <c r="Z13" s="297"/>
-      <c r="AA13" s="297"/>
-      <c r="AB13" s="297"/>
-      <c r="AC13" s="297"/>
-      <c r="AD13" s="297"/>
-      <c r="AE13" s="298"/>
-      <c r="AF13" s="293"/>
-      <c r="AG13" s="294"/>
-      <c r="AH13" s="294"/>
-      <c r="AI13" s="295"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="258"/>
+      <c r="L13" s="258"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="258"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="259"/>
+      <c r="Q13" s="260"/>
+      <c r="R13" s="261"/>
+      <c r="S13" s="261"/>
+      <c r="T13" s="261"/>
+      <c r="U13" s="261"/>
+      <c r="V13" s="261"/>
+      <c r="W13" s="261"/>
+      <c r="X13" s="261"/>
+      <c r="Y13" s="261"/>
+      <c r="Z13" s="261"/>
+      <c r="AA13" s="261"/>
+      <c r="AB13" s="261"/>
+      <c r="AC13" s="261"/>
+      <c r="AD13" s="261"/>
+      <c r="AE13" s="262"/>
+      <c r="AF13" s="257"/>
+      <c r="AG13" s="258"/>
+      <c r="AH13" s="258"/>
+      <c r="AI13" s="259"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="287"/>
-      <c r="C14" s="288"/>
-      <c r="D14" s="289"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="291"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="292"/>
-      <c r="I14" s="288"/>
-      <c r="J14" s="293"/>
-      <c r="K14" s="294"/>
-      <c r="L14" s="294"/>
-      <c r="M14" s="294"/>
-      <c r="N14" s="294"/>
-      <c r="O14" s="294"/>
-      <c r="P14" s="295"/>
-      <c r="Q14" s="296"/>
-      <c r="R14" s="297"/>
-      <c r="S14" s="297"/>
-      <c r="T14" s="297"/>
-      <c r="U14" s="297"/>
-      <c r="V14" s="297"/>
-      <c r="W14" s="297"/>
-      <c r="X14" s="297"/>
-      <c r="Y14" s="297"/>
-      <c r="Z14" s="297"/>
-      <c r="AA14" s="297"/>
-      <c r="AB14" s="297"/>
-      <c r="AC14" s="297"/>
-      <c r="AD14" s="297"/>
-      <c r="AE14" s="298"/>
-      <c r="AF14" s="293"/>
-      <c r="AG14" s="294"/>
-      <c r="AH14" s="294"/>
-      <c r="AI14" s="295"/>
+      <c r="B14" s="251"/>
+      <c r="C14" s="252"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="255"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="258"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="258"/>
+      <c r="O14" s="258"/>
+      <c r="P14" s="259"/>
+      <c r="Q14" s="260"/>
+      <c r="R14" s="261"/>
+      <c r="S14" s="261"/>
+      <c r="T14" s="261"/>
+      <c r="U14" s="261"/>
+      <c r="V14" s="261"/>
+      <c r="W14" s="261"/>
+      <c r="X14" s="261"/>
+      <c r="Y14" s="261"/>
+      <c r="Z14" s="261"/>
+      <c r="AA14" s="261"/>
+      <c r="AB14" s="261"/>
+      <c r="AC14" s="261"/>
+      <c r="AD14" s="261"/>
+      <c r="AE14" s="262"/>
+      <c r="AF14" s="257"/>
+      <c r="AG14" s="258"/>
+      <c r="AH14" s="258"/>
+      <c r="AI14" s="259"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="287"/>
-      <c r="C15" s="288"/>
-      <c r="D15" s="289"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="291"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="292"/>
-      <c r="I15" s="288"/>
-      <c r="J15" s="293"/>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
-      <c r="M15" s="294"/>
-      <c r="N15" s="294"/>
-      <c r="O15" s="294"/>
-      <c r="P15" s="295"/>
-      <c r="Q15" s="296"/>
-      <c r="R15" s="297"/>
-      <c r="S15" s="297"/>
-      <c r="T15" s="297"/>
-      <c r="U15" s="297"/>
-      <c r="V15" s="297"/>
-      <c r="W15" s="297"/>
-      <c r="X15" s="297"/>
-      <c r="Y15" s="297"/>
-      <c r="Z15" s="297"/>
-      <c r="AA15" s="297"/>
-      <c r="AB15" s="297"/>
-      <c r="AC15" s="297"/>
-      <c r="AD15" s="297"/>
-      <c r="AE15" s="298"/>
-      <c r="AF15" s="293"/>
-      <c r="AG15" s="294"/>
-      <c r="AH15" s="294"/>
-      <c r="AI15" s="295"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="255"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="258"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="258"/>
+      <c r="O15" s="258"/>
+      <c r="P15" s="259"/>
+      <c r="Q15" s="260"/>
+      <c r="R15" s="261"/>
+      <c r="S15" s="261"/>
+      <c r="T15" s="261"/>
+      <c r="U15" s="261"/>
+      <c r="V15" s="261"/>
+      <c r="W15" s="261"/>
+      <c r="X15" s="261"/>
+      <c r="Y15" s="261"/>
+      <c r="Z15" s="261"/>
+      <c r="AA15" s="261"/>
+      <c r="AB15" s="261"/>
+      <c r="AC15" s="261"/>
+      <c r="AD15" s="261"/>
+      <c r="AE15" s="262"/>
+      <c r="AF15" s="257"/>
+      <c r="AG15" s="258"/>
+      <c r="AH15" s="258"/>
+      <c r="AI15" s="259"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="287"/>
-      <c r="C16" s="288"/>
-      <c r="D16" s="289"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="291"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="292"/>
-      <c r="I16" s="288"/>
-      <c r="J16" s="293"/>
-      <c r="K16" s="294"/>
-      <c r="L16" s="294"/>
-      <c r="M16" s="294"/>
-      <c r="N16" s="294"/>
-      <c r="O16" s="294"/>
-      <c r="P16" s="295"/>
-      <c r="Q16" s="296"/>
-      <c r="R16" s="297"/>
-      <c r="S16" s="297"/>
-      <c r="T16" s="297"/>
-      <c r="U16" s="297"/>
-      <c r="V16" s="297"/>
-      <c r="W16" s="297"/>
-      <c r="X16" s="297"/>
-      <c r="Y16" s="297"/>
-      <c r="Z16" s="297"/>
-      <c r="AA16" s="297"/>
-      <c r="AB16" s="297"/>
-      <c r="AC16" s="297"/>
-      <c r="AD16" s="297"/>
-      <c r="AE16" s="298"/>
-      <c r="AF16" s="293"/>
-      <c r="AG16" s="294"/>
-      <c r="AH16" s="294"/>
-      <c r="AI16" s="295"/>
+      <c r="B16" s="251"/>
+      <c r="C16" s="252"/>
+      <c r="D16" s="253"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="255"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="258"/>
+      <c r="L16" s="258"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="258"/>
+      <c r="O16" s="258"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="260"/>
+      <c r="R16" s="261"/>
+      <c r="S16" s="261"/>
+      <c r="T16" s="261"/>
+      <c r="U16" s="261"/>
+      <c r="V16" s="261"/>
+      <c r="W16" s="261"/>
+      <c r="X16" s="261"/>
+      <c r="Y16" s="261"/>
+      <c r="Z16" s="261"/>
+      <c r="AA16" s="261"/>
+      <c r="AB16" s="261"/>
+      <c r="AC16" s="261"/>
+      <c r="AD16" s="261"/>
+      <c r="AE16" s="262"/>
+      <c r="AF16" s="257"/>
+      <c r="AG16" s="258"/>
+      <c r="AH16" s="258"/>
+      <c r="AI16" s="259"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="287"/>
-      <c r="C17" s="288"/>
-      <c r="D17" s="289"/>
-      <c r="E17" s="290"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="292"/>
-      <c r="I17" s="288"/>
-      <c r="J17" s="293"/>
-      <c r="K17" s="294"/>
-      <c r="L17" s="294"/>
-      <c r="M17" s="294"/>
-      <c r="N17" s="294"/>
-      <c r="O17" s="294"/>
-      <c r="P17" s="295"/>
-      <c r="Q17" s="296"/>
-      <c r="R17" s="297"/>
-      <c r="S17" s="297"/>
-      <c r="T17" s="297"/>
-      <c r="U17" s="297"/>
-      <c r="V17" s="297"/>
-      <c r="W17" s="297"/>
-      <c r="X17" s="297"/>
-      <c r="Y17" s="297"/>
-      <c r="Z17" s="297"/>
-      <c r="AA17" s="297"/>
-      <c r="AB17" s="297"/>
-      <c r="AC17" s="297"/>
-      <c r="AD17" s="297"/>
-      <c r="AE17" s="298"/>
-      <c r="AF17" s="293"/>
-      <c r="AG17" s="294"/>
-      <c r="AH17" s="294"/>
-      <c r="AI17" s="295"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="255"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="257"/>
+      <c r="K17" s="258"/>
+      <c r="L17" s="258"/>
+      <c r="M17" s="258"/>
+      <c r="N17" s="258"/>
+      <c r="O17" s="258"/>
+      <c r="P17" s="259"/>
+      <c r="Q17" s="260"/>
+      <c r="R17" s="261"/>
+      <c r="S17" s="261"/>
+      <c r="T17" s="261"/>
+      <c r="U17" s="261"/>
+      <c r="V17" s="261"/>
+      <c r="W17" s="261"/>
+      <c r="X17" s="261"/>
+      <c r="Y17" s="261"/>
+      <c r="Z17" s="261"/>
+      <c r="AA17" s="261"/>
+      <c r="AB17" s="261"/>
+      <c r="AC17" s="261"/>
+      <c r="AD17" s="261"/>
+      <c r="AE17" s="262"/>
+      <c r="AF17" s="257"/>
+      <c r="AG17" s="258"/>
+      <c r="AH17" s="258"/>
+      <c r="AI17" s="259"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="287"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="290"/>
-      <c r="F18" s="291"/>
-      <c r="G18" s="287"/>
-      <c r="H18" s="292"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="293"/>
-      <c r="K18" s="294"/>
-      <c r="L18" s="294"/>
-      <c r="M18" s="294"/>
-      <c r="N18" s="294"/>
-      <c r="O18" s="294"/>
-      <c r="P18" s="295"/>
-      <c r="Q18" s="296"/>
-      <c r="R18" s="297"/>
-      <c r="S18" s="297"/>
-      <c r="T18" s="297"/>
-      <c r="U18" s="297"/>
-      <c r="V18" s="297"/>
-      <c r="W18" s="297"/>
-      <c r="X18" s="297"/>
-      <c r="Y18" s="297"/>
-      <c r="Z18" s="297"/>
-      <c r="AA18" s="297"/>
-      <c r="AB18" s="297"/>
-      <c r="AC18" s="297"/>
-      <c r="AD18" s="297"/>
-      <c r="AE18" s="298"/>
-      <c r="AF18" s="293"/>
-      <c r="AG18" s="294"/>
-      <c r="AH18" s="294"/>
-      <c r="AI18" s="295"/>
+      <c r="B18" s="251"/>
+      <c r="C18" s="252"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="255"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="252"/>
+      <c r="J18" s="257"/>
+      <c r="K18" s="258"/>
+      <c r="L18" s="258"/>
+      <c r="M18" s="258"/>
+      <c r="N18" s="258"/>
+      <c r="O18" s="258"/>
+      <c r="P18" s="259"/>
+      <c r="Q18" s="260"/>
+      <c r="R18" s="261"/>
+      <c r="S18" s="261"/>
+      <c r="T18" s="261"/>
+      <c r="U18" s="261"/>
+      <c r="V18" s="261"/>
+      <c r="W18" s="261"/>
+      <c r="X18" s="261"/>
+      <c r="Y18" s="261"/>
+      <c r="Z18" s="261"/>
+      <c r="AA18" s="261"/>
+      <c r="AB18" s="261"/>
+      <c r="AC18" s="261"/>
+      <c r="AD18" s="261"/>
+      <c r="AE18" s="262"/>
+      <c r="AF18" s="257"/>
+      <c r="AG18" s="258"/>
+      <c r="AH18" s="258"/>
+      <c r="AI18" s="259"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="287"/>
-      <c r="C19" s="288"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="291"/>
-      <c r="G19" s="287"/>
-      <c r="H19" s="292"/>
-      <c r="I19" s="288"/>
-      <c r="J19" s="293"/>
-      <c r="K19" s="294"/>
-      <c r="L19" s="294"/>
-      <c r="M19" s="294"/>
-      <c r="N19" s="294"/>
-      <c r="O19" s="294"/>
-      <c r="P19" s="295"/>
-      <c r="Q19" s="296"/>
-      <c r="R19" s="297"/>
-      <c r="S19" s="297"/>
-      <c r="T19" s="297"/>
-      <c r="U19" s="297"/>
-      <c r="V19" s="297"/>
-      <c r="W19" s="297"/>
-      <c r="X19" s="297"/>
-      <c r="Y19" s="297"/>
-      <c r="Z19" s="297"/>
-      <c r="AA19" s="297"/>
-      <c r="AB19" s="297"/>
-      <c r="AC19" s="297"/>
-      <c r="AD19" s="297"/>
-      <c r="AE19" s="298"/>
-      <c r="AF19" s="293"/>
-      <c r="AG19" s="294"/>
-      <c r="AH19" s="294"/>
-      <c r="AI19" s="295"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="252"/>
+      <c r="D19" s="253"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="257"/>
+      <c r="K19" s="258"/>
+      <c r="L19" s="258"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="258"/>
+      <c r="O19" s="258"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="260"/>
+      <c r="R19" s="261"/>
+      <c r="S19" s="261"/>
+      <c r="T19" s="261"/>
+      <c r="U19" s="261"/>
+      <c r="V19" s="261"/>
+      <c r="W19" s="261"/>
+      <c r="X19" s="261"/>
+      <c r="Y19" s="261"/>
+      <c r="Z19" s="261"/>
+      <c r="AA19" s="261"/>
+      <c r="AB19" s="261"/>
+      <c r="AC19" s="261"/>
+      <c r="AD19" s="261"/>
+      <c r="AE19" s="262"/>
+      <c r="AF19" s="257"/>
+      <c r="AG19" s="258"/>
+      <c r="AH19" s="258"/>
+      <c r="AI19" s="259"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="287"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="289"/>
-      <c r="E20" s="290"/>
-      <c r="F20" s="291"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="292"/>
-      <c r="I20" s="288"/>
-      <c r="J20" s="293"/>
-      <c r="K20" s="294"/>
-      <c r="L20" s="294"/>
-      <c r="M20" s="294"/>
-      <c r="N20" s="294"/>
-      <c r="O20" s="294"/>
-      <c r="P20" s="295"/>
-      <c r="Q20" s="296"/>
-      <c r="R20" s="297"/>
-      <c r="S20" s="297"/>
-      <c r="T20" s="297"/>
-      <c r="U20" s="297"/>
-      <c r="V20" s="297"/>
-      <c r="W20" s="297"/>
-      <c r="X20" s="297"/>
-      <c r="Y20" s="297"/>
-      <c r="Z20" s="297"/>
-      <c r="AA20" s="297"/>
-      <c r="AB20" s="297"/>
-      <c r="AC20" s="297"/>
-      <c r="AD20" s="297"/>
-      <c r="AE20" s="298"/>
-      <c r="AF20" s="293"/>
-      <c r="AG20" s="294"/>
-      <c r="AH20" s="294"/>
-      <c r="AI20" s="295"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="252"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="255"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="257"/>
+      <c r="K20" s="258"/>
+      <c r="L20" s="258"/>
+      <c r="M20" s="258"/>
+      <c r="N20" s="258"/>
+      <c r="O20" s="258"/>
+      <c r="P20" s="259"/>
+      <c r="Q20" s="260"/>
+      <c r="R20" s="261"/>
+      <c r="S20" s="261"/>
+      <c r="T20" s="261"/>
+      <c r="U20" s="261"/>
+      <c r="V20" s="261"/>
+      <c r="W20" s="261"/>
+      <c r="X20" s="261"/>
+      <c r="Y20" s="261"/>
+      <c r="Z20" s="261"/>
+      <c r="AA20" s="261"/>
+      <c r="AB20" s="261"/>
+      <c r="AC20" s="261"/>
+      <c r="AD20" s="261"/>
+      <c r="AE20" s="262"/>
+      <c r="AF20" s="257"/>
+      <c r="AG20" s="258"/>
+      <c r="AH20" s="258"/>
+      <c r="AI20" s="259"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="287"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="289"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="292"/>
-      <c r="I21" s="288"/>
-      <c r="J21" s="293"/>
-      <c r="K21" s="294"/>
-      <c r="L21" s="294"/>
-      <c r="M21" s="294"/>
-      <c r="N21" s="294"/>
-      <c r="O21" s="294"/>
-      <c r="P21" s="295"/>
-      <c r="Q21" s="296"/>
-      <c r="R21" s="297"/>
-      <c r="S21" s="297"/>
-      <c r="T21" s="297"/>
-      <c r="U21" s="297"/>
-      <c r="V21" s="297"/>
-      <c r="W21" s="297"/>
-      <c r="X21" s="297"/>
-      <c r="Y21" s="297"/>
-      <c r="Z21" s="297"/>
-      <c r="AA21" s="297"/>
-      <c r="AB21" s="297"/>
-      <c r="AC21" s="297"/>
-      <c r="AD21" s="297"/>
-      <c r="AE21" s="298"/>
-      <c r="AF21" s="293"/>
-      <c r="AG21" s="294"/>
-      <c r="AH21" s="294"/>
-      <c r="AI21" s="295"/>
+      <c r="B21" s="251"/>
+      <c r="C21" s="252"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="255"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="257"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="258"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="258"/>
+      <c r="O21" s="258"/>
+      <c r="P21" s="259"/>
+      <c r="Q21" s="260"/>
+      <c r="R21" s="261"/>
+      <c r="S21" s="261"/>
+      <c r="T21" s="261"/>
+      <c r="U21" s="261"/>
+      <c r="V21" s="261"/>
+      <c r="W21" s="261"/>
+      <c r="X21" s="261"/>
+      <c r="Y21" s="261"/>
+      <c r="Z21" s="261"/>
+      <c r="AA21" s="261"/>
+      <c r="AB21" s="261"/>
+      <c r="AC21" s="261"/>
+      <c r="AD21" s="261"/>
+      <c r="AE21" s="262"/>
+      <c r="AF21" s="257"/>
+      <c r="AG21" s="258"/>
+      <c r="AH21" s="258"/>
+      <c r="AI21" s="259"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="287"/>
-      <c r="C22" s="288"/>
-      <c r="D22" s="289"/>
-      <c r="E22" s="290"/>
-      <c r="F22" s="291"/>
-      <c r="G22" s="287"/>
-      <c r="H22" s="292"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="293"/>
-      <c r="K22" s="294"/>
-      <c r="L22" s="294"/>
-      <c r="M22" s="294"/>
-      <c r="N22" s="294"/>
-      <c r="O22" s="294"/>
-      <c r="P22" s="295"/>
-      <c r="Q22" s="296"/>
-      <c r="R22" s="297"/>
-      <c r="S22" s="297"/>
-      <c r="T22" s="297"/>
-      <c r="U22" s="297"/>
-      <c r="V22" s="297"/>
-      <c r="W22" s="297"/>
-      <c r="X22" s="297"/>
-      <c r="Y22" s="297"/>
-      <c r="Z22" s="297"/>
-      <c r="AA22" s="297"/>
-      <c r="AB22" s="297"/>
-      <c r="AC22" s="297"/>
-      <c r="AD22" s="297"/>
-      <c r="AE22" s="298"/>
-      <c r="AF22" s="293"/>
-      <c r="AG22" s="294"/>
-      <c r="AH22" s="294"/>
-      <c r="AI22" s="295"/>
+      <c r="B22" s="251"/>
+      <c r="C22" s="252"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="257"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="258"/>
+      <c r="M22" s="258"/>
+      <c r="N22" s="258"/>
+      <c r="O22" s="258"/>
+      <c r="P22" s="259"/>
+      <c r="Q22" s="260"/>
+      <c r="R22" s="261"/>
+      <c r="S22" s="261"/>
+      <c r="T22" s="261"/>
+      <c r="U22" s="261"/>
+      <c r="V22" s="261"/>
+      <c r="W22" s="261"/>
+      <c r="X22" s="261"/>
+      <c r="Y22" s="261"/>
+      <c r="Z22" s="261"/>
+      <c r="AA22" s="261"/>
+      <c r="AB22" s="261"/>
+      <c r="AC22" s="261"/>
+      <c r="AD22" s="261"/>
+      <c r="AE22" s="262"/>
+      <c r="AF22" s="257"/>
+      <c r="AG22" s="258"/>
+      <c r="AH22" s="258"/>
+      <c r="AI22" s="259"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="287"/>
-      <c r="C23" s="288"/>
-      <c r="D23" s="289"/>
-      <c r="E23" s="290"/>
-      <c r="F23" s="291"/>
-      <c r="G23" s="287"/>
-      <c r="H23" s="292"/>
-      <c r="I23" s="288"/>
-      <c r="J23" s="293"/>
-      <c r="K23" s="294"/>
-      <c r="L23" s="294"/>
-      <c r="M23" s="294"/>
-      <c r="N23" s="294"/>
-      <c r="O23" s="294"/>
-      <c r="P23" s="295"/>
-      <c r="Q23" s="296"/>
-      <c r="R23" s="297"/>
-      <c r="S23" s="297"/>
-      <c r="T23" s="297"/>
-      <c r="U23" s="297"/>
-      <c r="V23" s="297"/>
-      <c r="W23" s="297"/>
-      <c r="X23" s="297"/>
-      <c r="Y23" s="297"/>
-      <c r="Z23" s="297"/>
-      <c r="AA23" s="297"/>
-      <c r="AB23" s="297"/>
-      <c r="AC23" s="297"/>
-      <c r="AD23" s="297"/>
-      <c r="AE23" s="298"/>
-      <c r="AF23" s="293"/>
-      <c r="AG23" s="294"/>
-      <c r="AH23" s="294"/>
-      <c r="AI23" s="295"/>
+      <c r="B23" s="251"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="255"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="257"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="258"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="258"/>
+      <c r="O23" s="258"/>
+      <c r="P23" s="259"/>
+      <c r="Q23" s="260"/>
+      <c r="R23" s="261"/>
+      <c r="S23" s="261"/>
+      <c r="T23" s="261"/>
+      <c r="U23" s="261"/>
+      <c r="V23" s="261"/>
+      <c r="W23" s="261"/>
+      <c r="X23" s="261"/>
+      <c r="Y23" s="261"/>
+      <c r="Z23" s="261"/>
+      <c r="AA23" s="261"/>
+      <c r="AB23" s="261"/>
+      <c r="AC23" s="261"/>
+      <c r="AD23" s="261"/>
+      <c r="AE23" s="262"/>
+      <c r="AF23" s="257"/>
+      <c r="AG23" s="258"/>
+      <c r="AH23" s="258"/>
+      <c r="AI23" s="259"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="287"/>
-      <c r="C24" s="288"/>
-      <c r="D24" s="289"/>
-      <c r="E24" s="290"/>
-      <c r="F24" s="291"/>
-      <c r="G24" s="287"/>
-      <c r="H24" s="292"/>
-      <c r="I24" s="288"/>
-      <c r="J24" s="293"/>
-      <c r="K24" s="294"/>
-      <c r="L24" s="294"/>
-      <c r="M24" s="294"/>
-      <c r="N24" s="294"/>
-      <c r="O24" s="294"/>
-      <c r="P24" s="295"/>
-      <c r="Q24" s="296"/>
-      <c r="R24" s="297"/>
-      <c r="S24" s="297"/>
-      <c r="T24" s="297"/>
-      <c r="U24" s="297"/>
-      <c r="V24" s="297"/>
-      <c r="W24" s="297"/>
-      <c r="X24" s="297"/>
-      <c r="Y24" s="297"/>
-      <c r="Z24" s="297"/>
-      <c r="AA24" s="297"/>
-      <c r="AB24" s="297"/>
-      <c r="AC24" s="297"/>
-      <c r="AD24" s="297"/>
-      <c r="AE24" s="298"/>
-      <c r="AF24" s="293"/>
-      <c r="AG24" s="294"/>
-      <c r="AH24" s="294"/>
-      <c r="AI24" s="295"/>
+      <c r="B24" s="251"/>
+      <c r="C24" s="252"/>
+      <c r="D24" s="253"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="255"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="252"/>
+      <c r="J24" s="257"/>
+      <c r="K24" s="258"/>
+      <c r="L24" s="258"/>
+      <c r="M24" s="258"/>
+      <c r="N24" s="258"/>
+      <c r="O24" s="258"/>
+      <c r="P24" s="259"/>
+      <c r="Q24" s="260"/>
+      <c r="R24" s="261"/>
+      <c r="S24" s="261"/>
+      <c r="T24" s="261"/>
+      <c r="U24" s="261"/>
+      <c r="V24" s="261"/>
+      <c r="W24" s="261"/>
+      <c r="X24" s="261"/>
+      <c r="Y24" s="261"/>
+      <c r="Z24" s="261"/>
+      <c r="AA24" s="261"/>
+      <c r="AB24" s="261"/>
+      <c r="AC24" s="261"/>
+      <c r="AD24" s="261"/>
+      <c r="AE24" s="262"/>
+      <c r="AF24" s="257"/>
+      <c r="AG24" s="258"/>
+      <c r="AH24" s="258"/>
+      <c r="AI24" s="259"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="287"/>
-      <c r="C25" s="288"/>
-      <c r="D25" s="289"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="291"/>
-      <c r="G25" s="287"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="288"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="294"/>
-      <c r="L25" s="294"/>
-      <c r="M25" s="294"/>
-      <c r="N25" s="294"/>
-      <c r="O25" s="294"/>
-      <c r="P25" s="295"/>
-      <c r="Q25" s="296"/>
-      <c r="R25" s="297"/>
-      <c r="S25" s="297"/>
-      <c r="T25" s="297"/>
-      <c r="U25" s="297"/>
-      <c r="V25" s="297"/>
-      <c r="W25" s="297"/>
-      <c r="X25" s="297"/>
-      <c r="Y25" s="297"/>
-      <c r="Z25" s="297"/>
-      <c r="AA25" s="297"/>
-      <c r="AB25" s="297"/>
-      <c r="AC25" s="297"/>
-      <c r="AD25" s="297"/>
-      <c r="AE25" s="298"/>
-      <c r="AF25" s="293"/>
-      <c r="AG25" s="294"/>
-      <c r="AH25" s="294"/>
-      <c r="AI25" s="295"/>
+      <c r="B25" s="251"/>
+      <c r="C25" s="252"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="255"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="257"/>
+      <c r="K25" s="258"/>
+      <c r="L25" s="258"/>
+      <c r="M25" s="258"/>
+      <c r="N25" s="258"/>
+      <c r="O25" s="258"/>
+      <c r="P25" s="259"/>
+      <c r="Q25" s="260"/>
+      <c r="R25" s="261"/>
+      <c r="S25" s="261"/>
+      <c r="T25" s="261"/>
+      <c r="U25" s="261"/>
+      <c r="V25" s="261"/>
+      <c r="W25" s="261"/>
+      <c r="X25" s="261"/>
+      <c r="Y25" s="261"/>
+      <c r="Z25" s="261"/>
+      <c r="AA25" s="261"/>
+      <c r="AB25" s="261"/>
+      <c r="AC25" s="261"/>
+      <c r="AD25" s="261"/>
+      <c r="AE25" s="262"/>
+      <c r="AF25" s="257"/>
+      <c r="AG25" s="258"/>
+      <c r="AH25" s="258"/>
+      <c r="AI25" s="259"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="287"/>
-      <c r="C26" s="288"/>
-      <c r="D26" s="289"/>
-      <c r="E26" s="290"/>
-      <c r="F26" s="291"/>
-      <c r="G26" s="287"/>
-      <c r="H26" s="292"/>
-      <c r="I26" s="288"/>
-      <c r="J26" s="293"/>
-      <c r="K26" s="294"/>
-      <c r="L26" s="294"/>
-      <c r="M26" s="294"/>
-      <c r="N26" s="294"/>
-      <c r="O26" s="294"/>
-      <c r="P26" s="295"/>
-      <c r="Q26" s="296"/>
-      <c r="R26" s="297"/>
-      <c r="S26" s="297"/>
-      <c r="T26" s="297"/>
-      <c r="U26" s="297"/>
-      <c r="V26" s="297"/>
-      <c r="W26" s="297"/>
-      <c r="X26" s="297"/>
-      <c r="Y26" s="297"/>
-      <c r="Z26" s="297"/>
-      <c r="AA26" s="297"/>
-      <c r="AB26" s="297"/>
-      <c r="AC26" s="297"/>
-      <c r="AD26" s="297"/>
-      <c r="AE26" s="298"/>
-      <c r="AF26" s="293"/>
-      <c r="AG26" s="294"/>
-      <c r="AH26" s="294"/>
-      <c r="AI26" s="295"/>
+      <c r="B26" s="251"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="253"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="255"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="258"/>
+      <c r="M26" s="258"/>
+      <c r="N26" s="258"/>
+      <c r="O26" s="258"/>
+      <c r="P26" s="259"/>
+      <c r="Q26" s="260"/>
+      <c r="R26" s="261"/>
+      <c r="S26" s="261"/>
+      <c r="T26" s="261"/>
+      <c r="U26" s="261"/>
+      <c r="V26" s="261"/>
+      <c r="W26" s="261"/>
+      <c r="X26" s="261"/>
+      <c r="Y26" s="261"/>
+      <c r="Z26" s="261"/>
+      <c r="AA26" s="261"/>
+      <c r="AB26" s="261"/>
+      <c r="AC26" s="261"/>
+      <c r="AD26" s="261"/>
+      <c r="AE26" s="262"/>
+      <c r="AF26" s="257"/>
+      <c r="AG26" s="258"/>
+      <c r="AH26" s="258"/>
+      <c r="AI26" s="259"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="287"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="291"/>
-      <c r="G27" s="287"/>
-      <c r="H27" s="292"/>
-      <c r="I27" s="288"/>
-      <c r="J27" s="293"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="294"/>
-      <c r="M27" s="294"/>
-      <c r="N27" s="294"/>
-      <c r="O27" s="294"/>
-      <c r="P27" s="295"/>
-      <c r="Q27" s="296"/>
-      <c r="R27" s="297"/>
-      <c r="S27" s="297"/>
-      <c r="T27" s="297"/>
-      <c r="U27" s="297"/>
-      <c r="V27" s="297"/>
-      <c r="W27" s="297"/>
-      <c r="X27" s="297"/>
-      <c r="Y27" s="297"/>
-      <c r="Z27" s="297"/>
-      <c r="AA27" s="297"/>
-      <c r="AB27" s="297"/>
-      <c r="AC27" s="297"/>
-      <c r="AD27" s="297"/>
-      <c r="AE27" s="298"/>
-      <c r="AF27" s="293"/>
-      <c r="AG27" s="294"/>
-      <c r="AH27" s="294"/>
-      <c r="AI27" s="295"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="252"/>
+      <c r="D27" s="253"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="255"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="252"/>
+      <c r="J27" s="257"/>
+      <c r="K27" s="258"/>
+      <c r="L27" s="258"/>
+      <c r="M27" s="258"/>
+      <c r="N27" s="258"/>
+      <c r="O27" s="258"/>
+      <c r="P27" s="259"/>
+      <c r="Q27" s="260"/>
+      <c r="R27" s="261"/>
+      <c r="S27" s="261"/>
+      <c r="T27" s="261"/>
+      <c r="U27" s="261"/>
+      <c r="V27" s="261"/>
+      <c r="W27" s="261"/>
+      <c r="X27" s="261"/>
+      <c r="Y27" s="261"/>
+      <c r="Z27" s="261"/>
+      <c r="AA27" s="261"/>
+      <c r="AB27" s="261"/>
+      <c r="AC27" s="261"/>
+      <c r="AD27" s="261"/>
+      <c r="AE27" s="262"/>
+      <c r="AF27" s="257"/>
+      <c r="AG27" s="258"/>
+      <c r="AH27" s="258"/>
+      <c r="AI27" s="259"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="287"/>
-      <c r="C28" s="288"/>
-      <c r="D28" s="289"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="291"/>
-      <c r="G28" s="287"/>
-      <c r="H28" s="292"/>
-      <c r="I28" s="288"/>
-      <c r="J28" s="293"/>
-      <c r="K28" s="294"/>
-      <c r="L28" s="294"/>
-      <c r="M28" s="294"/>
-      <c r="N28" s="294"/>
-      <c r="O28" s="294"/>
-      <c r="P28" s="295"/>
-      <c r="Q28" s="296"/>
-      <c r="R28" s="297"/>
-      <c r="S28" s="297"/>
-      <c r="T28" s="297"/>
-      <c r="U28" s="297"/>
-      <c r="V28" s="297"/>
-      <c r="W28" s="297"/>
-      <c r="X28" s="297"/>
-      <c r="Y28" s="297"/>
-      <c r="Z28" s="297"/>
-      <c r="AA28" s="297"/>
-      <c r="AB28" s="297"/>
-      <c r="AC28" s="297"/>
-      <c r="AD28" s="297"/>
-      <c r="AE28" s="298"/>
-      <c r="AF28" s="293"/>
-      <c r="AG28" s="294"/>
-      <c r="AH28" s="294"/>
-      <c r="AI28" s="295"/>
+      <c r="B28" s="251"/>
+      <c r="C28" s="252"/>
+      <c r="D28" s="253"/>
+      <c r="E28" s="254"/>
+      <c r="F28" s="255"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="252"/>
+      <c r="J28" s="257"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="258"/>
+      <c r="M28" s="258"/>
+      <c r="N28" s="258"/>
+      <c r="O28" s="258"/>
+      <c r="P28" s="259"/>
+      <c r="Q28" s="260"/>
+      <c r="R28" s="261"/>
+      <c r="S28" s="261"/>
+      <c r="T28" s="261"/>
+      <c r="U28" s="261"/>
+      <c r="V28" s="261"/>
+      <c r="W28" s="261"/>
+      <c r="X28" s="261"/>
+      <c r="Y28" s="261"/>
+      <c r="Z28" s="261"/>
+      <c r="AA28" s="261"/>
+      <c r="AB28" s="261"/>
+      <c r="AC28" s="261"/>
+      <c r="AD28" s="261"/>
+      <c r="AE28" s="262"/>
+      <c r="AF28" s="257"/>
+      <c r="AG28" s="258"/>
+      <c r="AH28" s="258"/>
+      <c r="AI28" s="259"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="287"/>
-      <c r="C29" s="288"/>
-      <c r="D29" s="289"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="291"/>
-      <c r="G29" s="287"/>
-      <c r="H29" s="292"/>
-      <c r="I29" s="288"/>
-      <c r="J29" s="293"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="294"/>
-      <c r="M29" s="294"/>
-      <c r="N29" s="294"/>
-      <c r="O29" s="294"/>
-      <c r="P29" s="295"/>
-      <c r="Q29" s="296"/>
-      <c r="R29" s="297"/>
-      <c r="S29" s="297"/>
-      <c r="T29" s="297"/>
-      <c r="U29" s="297"/>
-      <c r="V29" s="297"/>
-      <c r="W29" s="297"/>
-      <c r="X29" s="297"/>
-      <c r="Y29" s="297"/>
-      <c r="Z29" s="297"/>
-      <c r="AA29" s="297"/>
-      <c r="AB29" s="297"/>
-      <c r="AC29" s="297"/>
-      <c r="AD29" s="297"/>
-      <c r="AE29" s="298"/>
-      <c r="AF29" s="293"/>
-      <c r="AG29" s="294"/>
-      <c r="AH29" s="294"/>
-      <c r="AI29" s="295"/>
+      <c r="B29" s="251"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="253"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="255"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="256"/>
+      <c r="I29" s="252"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="258"/>
+      <c r="M29" s="258"/>
+      <c r="N29" s="258"/>
+      <c r="O29" s="258"/>
+      <c r="P29" s="259"/>
+      <c r="Q29" s="260"/>
+      <c r="R29" s="261"/>
+      <c r="S29" s="261"/>
+      <c r="T29" s="261"/>
+      <c r="U29" s="261"/>
+      <c r="V29" s="261"/>
+      <c r="W29" s="261"/>
+      <c r="X29" s="261"/>
+      <c r="Y29" s="261"/>
+      <c r="Z29" s="261"/>
+      <c r="AA29" s="261"/>
+      <c r="AB29" s="261"/>
+      <c r="AC29" s="261"/>
+      <c r="AD29" s="261"/>
+      <c r="AE29" s="262"/>
+      <c r="AF29" s="257"/>
+      <c r="AG29" s="258"/>
+      <c r="AH29" s="258"/>
+      <c r="AI29" s="259"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="287"/>
-      <c r="C30" s="288"/>
-      <c r="D30" s="289"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="291"/>
-      <c r="G30" s="287"/>
-      <c r="H30" s="292"/>
-      <c r="I30" s="288"/>
-      <c r="J30" s="293"/>
-      <c r="K30" s="294"/>
-      <c r="L30" s="294"/>
-      <c r="M30" s="294"/>
-      <c r="N30" s="294"/>
-      <c r="O30" s="294"/>
-      <c r="P30" s="295"/>
-      <c r="Q30" s="296"/>
-      <c r="R30" s="297"/>
-      <c r="S30" s="297"/>
-      <c r="T30" s="297"/>
-      <c r="U30" s="297"/>
-      <c r="V30" s="297"/>
-      <c r="W30" s="297"/>
-      <c r="X30" s="297"/>
-      <c r="Y30" s="297"/>
-      <c r="Z30" s="297"/>
-      <c r="AA30" s="297"/>
-      <c r="AB30" s="297"/>
-      <c r="AC30" s="297"/>
-      <c r="AD30" s="297"/>
-      <c r="AE30" s="298"/>
-      <c r="AF30" s="293"/>
-      <c r="AG30" s="294"/>
-      <c r="AH30" s="294"/>
-      <c r="AI30" s="295"/>
+      <c r="B30" s="251"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="253"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="252"/>
+      <c r="J30" s="257"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="258"/>
+      <c r="M30" s="258"/>
+      <c r="N30" s="258"/>
+      <c r="O30" s="258"/>
+      <c r="P30" s="259"/>
+      <c r="Q30" s="260"/>
+      <c r="R30" s="261"/>
+      <c r="S30" s="261"/>
+      <c r="T30" s="261"/>
+      <c r="U30" s="261"/>
+      <c r="V30" s="261"/>
+      <c r="W30" s="261"/>
+      <c r="X30" s="261"/>
+      <c r="Y30" s="261"/>
+      <c r="Z30" s="261"/>
+      <c r="AA30" s="261"/>
+      <c r="AB30" s="261"/>
+      <c r="AC30" s="261"/>
+      <c r="AD30" s="261"/>
+      <c r="AE30" s="262"/>
+      <c r="AF30" s="257"/>
+      <c r="AG30" s="258"/>
+      <c r="AH30" s="258"/>
+      <c r="AI30" s="259"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="287"/>
-      <c r="C31" s="288"/>
-      <c r="D31" s="289"/>
-      <c r="E31" s="290"/>
-      <c r="F31" s="291"/>
-      <c r="G31" s="287"/>
-      <c r="H31" s="292"/>
-      <c r="I31" s="288"/>
-      <c r="J31" s="293"/>
-      <c r="K31" s="294"/>
-      <c r="L31" s="294"/>
-      <c r="M31" s="294"/>
-      <c r="N31" s="294"/>
-      <c r="O31" s="294"/>
-      <c r="P31" s="295"/>
-      <c r="Q31" s="296"/>
-      <c r="R31" s="297"/>
-      <c r="S31" s="297"/>
-      <c r="T31" s="297"/>
-      <c r="U31" s="297"/>
-      <c r="V31" s="297"/>
-      <c r="W31" s="297"/>
-      <c r="X31" s="297"/>
-      <c r="Y31" s="297"/>
-      <c r="Z31" s="297"/>
-      <c r="AA31" s="297"/>
-      <c r="AB31" s="297"/>
-      <c r="AC31" s="297"/>
-      <c r="AD31" s="297"/>
-      <c r="AE31" s="298"/>
-      <c r="AF31" s="293"/>
-      <c r="AG31" s="294"/>
-      <c r="AH31" s="294"/>
-      <c r="AI31" s="295"/>
+      <c r="B31" s="251"/>
+      <c r="C31" s="252"/>
+      <c r="D31" s="253"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="255"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="252"/>
+      <c r="J31" s="257"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="258"/>
+      <c r="M31" s="258"/>
+      <c r="N31" s="258"/>
+      <c r="O31" s="258"/>
+      <c r="P31" s="259"/>
+      <c r="Q31" s="260"/>
+      <c r="R31" s="261"/>
+      <c r="S31" s="261"/>
+      <c r="T31" s="261"/>
+      <c r="U31" s="261"/>
+      <c r="V31" s="261"/>
+      <c r="W31" s="261"/>
+      <c r="X31" s="261"/>
+      <c r="Y31" s="261"/>
+      <c r="Z31" s="261"/>
+      <c r="AA31" s="261"/>
+      <c r="AB31" s="261"/>
+      <c r="AC31" s="261"/>
+      <c r="AD31" s="261"/>
+      <c r="AE31" s="262"/>
+      <c r="AF31" s="257"/>
+      <c r="AG31" s="258"/>
+      <c r="AH31" s="258"/>
+      <c r="AI31" s="259"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="287"/>
-      <c r="C32" s="288"/>
-      <c r="D32" s="289"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="291"/>
-      <c r="G32" s="287"/>
-      <c r="H32" s="292"/>
-      <c r="I32" s="288"/>
-      <c r="J32" s="293"/>
-      <c r="K32" s="312"/>
-      <c r="L32" s="294"/>
-      <c r="M32" s="294"/>
-      <c r="N32" s="294"/>
-      <c r="O32" s="294"/>
-      <c r="P32" s="295"/>
-      <c r="Q32" s="296"/>
-      <c r="R32" s="297"/>
-      <c r="S32" s="297"/>
-      <c r="T32" s="297"/>
-      <c r="U32" s="297"/>
-      <c r="V32" s="297"/>
-      <c r="W32" s="297"/>
-      <c r="X32" s="297"/>
-      <c r="Y32" s="297"/>
-      <c r="Z32" s="297"/>
-      <c r="AA32" s="297"/>
-      <c r="AB32" s="297"/>
-      <c r="AC32" s="297"/>
-      <c r="AD32" s="297"/>
-      <c r="AE32" s="298"/>
-      <c r="AF32" s="293"/>
-      <c r="AG32" s="294"/>
-      <c r="AH32" s="294"/>
-      <c r="AI32" s="295"/>
+      <c r="B32" s="251"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="253"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="255"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="252"/>
+      <c r="J32" s="257"/>
+      <c r="K32" s="263"/>
+      <c r="L32" s="258"/>
+      <c r="M32" s="258"/>
+      <c r="N32" s="258"/>
+      <c r="O32" s="258"/>
+      <c r="P32" s="259"/>
+      <c r="Q32" s="260"/>
+      <c r="R32" s="261"/>
+      <c r="S32" s="261"/>
+      <c r="T32" s="261"/>
+      <c r="U32" s="261"/>
+      <c r="V32" s="261"/>
+      <c r="W32" s="261"/>
+      <c r="X32" s="261"/>
+      <c r="Y32" s="261"/>
+      <c r="Z32" s="261"/>
+      <c r="AA32" s="261"/>
+      <c r="AB32" s="261"/>
+      <c r="AC32" s="261"/>
+      <c r="AD32" s="261"/>
+      <c r="AE32" s="262"/>
+      <c r="AF32" s="257"/>
+      <c r="AG32" s="258"/>
+      <c r="AH32" s="258"/>
+      <c r="AI32" s="259"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="287"/>
-      <c r="C33" s="288"/>
-      <c r="D33" s="289"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="291"/>
-      <c r="G33" s="287"/>
-      <c r="H33" s="292"/>
-      <c r="I33" s="288"/>
-      <c r="J33" s="293"/>
-      <c r="K33" s="294"/>
-      <c r="L33" s="294"/>
-      <c r="M33" s="294"/>
-      <c r="N33" s="294"/>
-      <c r="O33" s="294"/>
-      <c r="P33" s="295"/>
-      <c r="Q33" s="296"/>
-      <c r="R33" s="297"/>
-      <c r="S33" s="297"/>
-      <c r="T33" s="297"/>
-      <c r="U33" s="297"/>
-      <c r="V33" s="297"/>
-      <c r="W33" s="297"/>
-      <c r="X33" s="297"/>
-      <c r="Y33" s="297"/>
-      <c r="Z33" s="297"/>
-      <c r="AA33" s="297"/>
-      <c r="AB33" s="297"/>
-      <c r="AC33" s="297"/>
-      <c r="AD33" s="297"/>
-      <c r="AE33" s="298"/>
-      <c r="AF33" s="293"/>
-      <c r="AG33" s="294"/>
-      <c r="AH33" s="294"/>
-      <c r="AI33" s="295"/>
+      <c r="B33" s="251"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="253"/>
+      <c r="E33" s="254"/>
+      <c r="F33" s="255"/>
+      <c r="G33" s="251"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="252"/>
+      <c r="J33" s="257"/>
+      <c r="K33" s="258"/>
+      <c r="L33" s="258"/>
+      <c r="M33" s="258"/>
+      <c r="N33" s="258"/>
+      <c r="O33" s="258"/>
+      <c r="P33" s="259"/>
+      <c r="Q33" s="260"/>
+      <c r="R33" s="261"/>
+      <c r="S33" s="261"/>
+      <c r="T33" s="261"/>
+      <c r="U33" s="261"/>
+      <c r="V33" s="261"/>
+      <c r="W33" s="261"/>
+      <c r="X33" s="261"/>
+      <c r="Y33" s="261"/>
+      <c r="Z33" s="261"/>
+      <c r="AA33" s="261"/>
+      <c r="AB33" s="261"/>
+      <c r="AC33" s="261"/>
+      <c r="AD33" s="261"/>
+      <c r="AE33" s="262"/>
+      <c r="AF33" s="257"/>
+      <c r="AG33" s="258"/>
+      <c r="AH33" s="258"/>
+      <c r="AI33" s="259"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14298,6 +14136,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -38471,10 +38465,10 @@
         <v>733</v>
       </c>
       <c r="I397" s="116" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="J397" s="116" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K397" s="52" t="s">
         <v>734</v>
@@ -38509,13 +38503,13 @@
         <v>733</v>
       </c>
       <c r="I398" s="116" t="s">
+        <v>762</v>
+      </c>
+      <c r="J398" s="116" t="s">
         <v>735</v>
       </c>
-      <c r="J398" s="116" t="s">
-        <v>736</v>
-      </c>
       <c r="K398" s="52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L398" s="128"/>
       <c r="M398" s="129"/>
@@ -38547,13 +38541,13 @@
         <v>733</v>
       </c>
       <c r="I399" s="116" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="J399" s="116" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K399" s="52" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L399" s="128"/>
       <c r="M399" s="129"/>
@@ -38585,13 +38579,13 @@
         <v>733</v>
       </c>
       <c r="I400" s="116" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="J400" s="116" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K400" s="52" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L400" s="128"/>
       <c r="M400" s="129"/>
@@ -38623,13 +38617,13 @@
         <v>733</v>
       </c>
       <c r="I401" s="116" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="J401" s="116" t="s">
+        <v>742</v>
+      </c>
+      <c r="K401" s="52" t="s">
         <v>743</v>
-      </c>
-      <c r="K401" s="52" t="s">
-        <v>744</v>
       </c>
       <c r="L401" s="128"/>
       <c r="M401" s="129"/>
@@ -38661,13 +38655,13 @@
         <v>733</v>
       </c>
       <c r="I402" s="116" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="J402" s="116" t="s">
+        <v>744</v>
+      </c>
+      <c r="K402" s="52" t="s">
         <v>745</v>
-      </c>
-      <c r="K402" s="52" t="s">
-        <v>746</v>
       </c>
       <c r="L402" s="128"/>
       <c r="M402" s="129"/>
@@ -38700,7 +38694,7 @@
       <c r="H403" s="120"/>
       <c r="I403" s="120"/>
       <c r="J403" s="120" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K403" s="121"/>
       <c r="L403" s="157"/>
@@ -38732,16 +38726,16 @@
       </c>
       <c r="G404" s="96"/>
       <c r="H404" s="116" t="s">
+        <v>748</v>
+      </c>
+      <c r="I404" s="116" t="s">
+        <v>760</v>
+      </c>
+      <c r="J404" s="116" t="s">
+        <v>736</v>
+      </c>
+      <c r="K404" s="118" t="s">
         <v>749</v>
-      </c>
-      <c r="I404" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="J404" s="116" t="s">
-        <v>737</v>
-      </c>
-      <c r="K404" s="118" t="s">
-        <v>751</v>
       </c>
       <c r="L404" s="128"/>
       <c r="M404" s="129"/>
@@ -38770,16 +38764,16 @@
       <c r="F405" s="91"/>
       <c r="G405" s="96"/>
       <c r="H405" s="116" t="s">
+        <v>748</v>
+      </c>
+      <c r="I405" s="116" t="s">
+        <v>760</v>
+      </c>
+      <c r="J405" s="116" t="s">
+        <v>735</v>
+      </c>
+      <c r="K405" s="118" t="s">
         <v>749</v>
-      </c>
-      <c r="I405" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="J405" s="116" t="s">
-        <v>736</v>
-      </c>
-      <c r="K405" s="118" t="s">
-        <v>751</v>
       </c>
       <c r="L405" s="128"/>
       <c r="M405" s="129"/>
@@ -38788,7 +38782,7 @@
       <c r="P405" s="129"/>
       <c r="Q405" s="129"/>
     </row>
-    <row r="406" spans="1:17" s="34" customFormat="1" ht="22.5">
+    <row r="406" spans="1:17" s="34" customFormat="1">
       <c r="A406" s="50" t="str" cm="1">
         <f t="array" aca="1" ref="A406" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E406),
@@ -38808,16 +38802,16 @@
       <c r="F406" s="91"/>
       <c r="G406" s="96"/>
       <c r="H406" s="116" t="s">
+        <v>748</v>
+      </c>
+      <c r="I406" s="116" t="s">
+        <v>760</v>
+      </c>
+      <c r="J406" s="116" t="s">
+        <v>738</v>
+      </c>
+      <c r="K406" s="118" t="s">
         <v>749</v>
-      </c>
-      <c r="I406" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="J406" s="116" t="s">
-        <v>739</v>
-      </c>
-      <c r="K406" s="118" t="s">
-        <v>751</v>
       </c>
       <c r="L406" s="128"/>
       <c r="M406" s="129"/>
@@ -38826,7 +38820,7 @@
       <c r="P406" s="129"/>
       <c r="Q406" s="129"/>
     </row>
-    <row r="407" spans="1:17" s="34" customFormat="1" ht="22.5">
+    <row r="407" spans="1:17" s="34" customFormat="1">
       <c r="A407" s="50" t="str" cm="1">
         <f t="array" aca="1" ref="A407" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E407),
@@ -38846,16 +38840,16 @@
       <c r="F407" s="91"/>
       <c r="G407" s="96"/>
       <c r="H407" s="116" t="s">
+        <v>748</v>
+      </c>
+      <c r="I407" s="116" t="s">
+        <v>760</v>
+      </c>
+      <c r="J407" s="116" t="s">
+        <v>739</v>
+      </c>
+      <c r="K407" s="118" t="s">
         <v>749</v>
-      </c>
-      <c r="I407" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="J407" s="116" t="s">
-        <v>740</v>
-      </c>
-      <c r="K407" s="118" t="s">
-        <v>751</v>
       </c>
       <c r="L407" s="128"/>
       <c r="M407" s="129"/>
@@ -38884,16 +38878,16 @@
       <c r="F408" s="91"/>
       <c r="G408" s="96"/>
       <c r="H408" s="116" t="s">
+        <v>748</v>
+      </c>
+      <c r="I408" s="116" t="s">
+        <v>760</v>
+      </c>
+      <c r="J408" s="116" t="s">
+        <v>742</v>
+      </c>
+      <c r="K408" s="118" t="s">
         <v>749</v>
-      </c>
-      <c r="I408" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="J408" s="116" t="s">
-        <v>743</v>
-      </c>
-      <c r="K408" s="118" t="s">
-        <v>751</v>
       </c>
       <c r="L408" s="128"/>
       <c r="M408" s="129"/>
@@ -38922,16 +38916,16 @@
       <c r="F409" s="163"/>
       <c r="G409" s="96"/>
       <c r="H409" s="116" t="s">
+        <v>748</v>
+      </c>
+      <c r="I409" s="116" t="s">
+        <v>760</v>
+      </c>
+      <c r="J409" s="116" t="s">
+        <v>744</v>
+      </c>
+      <c r="K409" s="118" t="s">
         <v>749</v>
-      </c>
-      <c r="I409" s="116" t="s">
-        <v>750</v>
-      </c>
-      <c r="J409" s="116" t="s">
-        <v>745</v>
-      </c>
-      <c r="K409" s="118" t="s">
-        <v>751</v>
       </c>
       <c r="L409" s="128"/>
       <c r="M409" s="129"/>
@@ -38964,7 +38958,7 @@
       <c r="H410" s="81"/>
       <c r="I410" s="81"/>
       <c r="J410" s="120" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K410" s="156"/>
       <c r="L410" s="157"/>
@@ -39032,7 +39026,7 @@
       <c r="H412" s="120"/>
       <c r="I412" s="120"/>
       <c r="J412" s="120" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K412" s="121"/>
       <c r="L412" s="157"/>
@@ -39068,16 +39062,16 @@
       </c>
       <c r="G413" s="96"/>
       <c r="H413" s="90" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I413" s="90" t="s">
         <v>761</v>
       </c>
       <c r="J413" s="52" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K413" s="249" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="L413" s="128"/>
       <c r="M413" s="129"/>
@@ -39112,16 +39106,16 @@
       </c>
       <c r="G414" s="96"/>
       <c r="H414" s="116" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I414" s="116" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J414" s="116" t="s">
         <v>671</v>
       </c>
       <c r="K414" s="113" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="L414" s="128"/>
       <c r="M414" s="129"/>
@@ -39150,16 +39144,16 @@
       <c r="F415" s="91"/>
       <c r="G415" s="96"/>
       <c r="H415" s="116" t="s">
+        <v>751</v>
+      </c>
+      <c r="I415" s="116" t="s">
+        <v>752</v>
+      </c>
+      <c r="J415" s="116" t="s">
+        <v>736</v>
+      </c>
+      <c r="K415" s="113" t="s">
         <v>753</v>
-      </c>
-      <c r="I415" s="116" t="s">
-        <v>754</v>
-      </c>
-      <c r="J415" s="116" t="s">
-        <v>737</v>
-      </c>
-      <c r="K415" s="113" t="s">
-        <v>755</v>
       </c>
       <c r="L415" s="130"/>
       <c r="M415" s="131"/>
@@ -39188,16 +39182,16 @@
       <c r="F416" s="91"/>
       <c r="G416" s="96"/>
       <c r="H416" s="116" t="s">
+        <v>751</v>
+      </c>
+      <c r="I416" s="116" t="s">
+        <v>752</v>
+      </c>
+      <c r="J416" s="116" t="s">
+        <v>735</v>
+      </c>
+      <c r="K416" s="113" t="s">
         <v>753</v>
-      </c>
-      <c r="I416" s="116" t="s">
-        <v>754</v>
-      </c>
-      <c r="J416" s="116" t="s">
-        <v>736</v>
-      </c>
-      <c r="K416" s="113" t="s">
-        <v>755</v>
       </c>
       <c r="L416" s="130"/>
       <c r="M416" s="131"/>
@@ -39226,16 +39220,16 @@
       <c r="F417" s="91"/>
       <c r="G417" s="96"/>
       <c r="H417" s="116" t="s">
+        <v>751</v>
+      </c>
+      <c r="I417" s="116" t="s">
+        <v>752</v>
+      </c>
+      <c r="J417" s="116" t="s">
+        <v>738</v>
+      </c>
+      <c r="K417" s="113" t="s">
         <v>753</v>
-      </c>
-      <c r="I417" s="116" t="s">
-        <v>754</v>
-      </c>
-      <c r="J417" s="116" t="s">
-        <v>739</v>
-      </c>
-      <c r="K417" s="113" t="s">
-        <v>755</v>
       </c>
       <c r="L417" s="130"/>
       <c r="M417" s="131"/>
@@ -39264,16 +39258,16 @@
       <c r="F418" s="91"/>
       <c r="G418" s="96"/>
       <c r="H418" s="116" t="s">
+        <v>751</v>
+      </c>
+      <c r="I418" s="116" t="s">
+        <v>752</v>
+      </c>
+      <c r="J418" s="116" t="s">
+        <v>739</v>
+      </c>
+      <c r="K418" s="113" t="s">
         <v>753</v>
-      </c>
-      <c r="I418" s="116" t="s">
-        <v>754</v>
-      </c>
-      <c r="J418" s="116" t="s">
-        <v>740</v>
-      </c>
-      <c r="K418" s="113" t="s">
-        <v>755</v>
       </c>
       <c r="L418" s="130"/>
       <c r="M418" s="131"/>
@@ -39302,16 +39296,16 @@
       <c r="F419" s="91"/>
       <c r="G419" s="96"/>
       <c r="H419" s="116" t="s">
+        <v>751</v>
+      </c>
+      <c r="I419" s="116" t="s">
+        <v>752</v>
+      </c>
+      <c r="J419" s="116" t="s">
+        <v>742</v>
+      </c>
+      <c r="K419" s="113" t="s">
         <v>753</v>
-      </c>
-      <c r="I419" s="116" t="s">
-        <v>754</v>
-      </c>
-      <c r="J419" s="116" t="s">
-        <v>743</v>
-      </c>
-      <c r="K419" s="113" t="s">
-        <v>755</v>
       </c>
       <c r="L419" s="130"/>
       <c r="M419" s="131"/>
@@ -39340,16 +39334,16 @@
       <c r="F420" s="163"/>
       <c r="G420" s="96"/>
       <c r="H420" s="116" t="s">
+        <v>751</v>
+      </c>
+      <c r="I420" s="116" t="s">
+        <v>752</v>
+      </c>
+      <c r="J420" s="116" t="s">
+        <v>744</v>
+      </c>
+      <c r="K420" s="113" t="s">
         <v>753</v>
-      </c>
-      <c r="I420" s="116" t="s">
-        <v>754</v>
-      </c>
-      <c r="J420" s="116" t="s">
-        <v>745</v>
-      </c>
-      <c r="K420" s="113" t="s">
-        <v>755</v>
       </c>
       <c r="L420" s="130"/>
       <c r="M420" s="131"/>
@@ -39384,16 +39378,16 @@
       </c>
       <c r="G421" s="96"/>
       <c r="H421" s="90" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I421" s="90" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J421" s="116" t="s">
         <v>671</v>
       </c>
       <c r="K421" s="115" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="L421" s="130"/>
       <c r="M421" s="131"/>
@@ -39485,7 +39479,7 @@
     <mergeCell ref="B132:B133"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11:O423" xr:uid="{39389B32-20B9-4331-93C4-619BD38DD1F1}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
